--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pea_jk\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ค่าอุปกรณ์ และขนส่ง'!$A$1:$V$101</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="79">
   <si>
     <t>การไฟฟ้าส่วนภูมิภาค</t>
   </si>
@@ -259,14 +265,17 @@
   <si>
     <t>..........................................................................................</t>
   </si>
+  <si>
+    <t>ค่าอุปกรณ์ ค่าขนส่ง ค่าติดตั้งและทดสอบ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -343,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -756,16 +765,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,11 +839,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,13 +859,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,13 +928,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -921,10 +945,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -945,7 +969,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,16 +1027,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,19 +1050,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1067,19 +1091,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1094,43 +1118,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1145,7 +1169,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1162,8 +1186,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,19 +1196,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1196,21 +1220,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1218,47 +1242,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1268,38 +1292,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,134 +1332,134 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1444,34 +1468,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1544,9 +1568,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1565,7 +1586,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,7 +1604,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1593,6 +1632,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1640,12 +1685,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1673,32 +1712,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3070,7 +3106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3105,7 +3141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3282,7 +3318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3295,35 +3331,36 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A70" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="T94" sqref="T94"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A78" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="122.7109375" style="85" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="85" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="222" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="222" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="222" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="223" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="222" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="224" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
+    <col min="3" max="3" width="122.6640625" style="85" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="222" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="222" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="222" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="223" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="222" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="224" customWidth="1"/>
     <col min="12" max="12" width="28" style="85" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="225" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="85" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="85" customWidth="1"/>
-    <col min="16" max="18" width="8.85546875" style="85"/>
-    <col min="19" max="19" width="21.85546875" style="85" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="85" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="225" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" style="85" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="85" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="85"/>
+    <col min="18" max="18" width="9.6640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="85" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" style="85" customWidth="1"/>
     <col min="21" max="21" width="11" style="85" customWidth="1"/>
-    <col min="22" max="22" width="44.42578125" style="85" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="85"/>
+    <col min="22" max="22" width="44.44140625" style="85" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="277" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3386,7 @@
       <c r="U1" s="169"/>
       <c r="V1" s="278"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
@@ -3375,7 +3412,7 @@
       <c r="U2" s="167"/>
       <c r="V2" s="279"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="86"/>
       <c r="B3" s="87"/>
       <c r="C3" s="87"/>
@@ -3401,7 +3438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="280" t="s">
         <v>65</v>
       </c>
@@ -3427,7 +3464,7 @@
       <c r="U4" s="281"/>
       <c r="V4" s="282"/>
     </row>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="283" t="s">
         <v>71</v>
       </c>
@@ -3457,7 +3494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -3485,29 +3522,29 @@
       <c r="U6" s="101"/>
       <c r="V6" s="104"/>
     </row>
-    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="318" t="s">
+      <c r="D7" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="318" t="s">
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="323" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="320"/>
-      <c r="K7" s="318" t="s">
+      <c r="J7" s="325"/>
+      <c r="K7" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="320"/>
-      <c r="M7" s="318" t="s">
+      <c r="L7" s="325"/>
+      <c r="M7" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="320"/>
+      <c r="N7" s="325"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -3517,7 +3554,7 @@
       <c r="U7" s="109"/>
       <c r="V7" s="108"/>
     </row>
-    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -3573,7 +3610,7 @@
       <c r="U8" s="79"/>
       <c r="V8" s="118"/>
     </row>
-    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
@@ -3611,7 +3648,7 @@
       <c r="U9" s="79"/>
       <c r="V9" s="118"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="289"/>
       <c r="C10" s="290"/>
@@ -3628,7 +3665,10 @@
       </c>
       <c r="K10" s="127"/>
       <c r="L10" s="128"/>
-      <c r="M10" s="129"/>
+      <c r="M10" s="129">
+        <f>+I10</f>
+        <v>0</v>
+      </c>
       <c r="N10" s="130"/>
       <c r="O10" s="131"/>
       <c r="P10" s="80"/>
@@ -3641,7 +3681,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="118"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="289"/>
       <c r="C11" s="291"/>
@@ -3660,7 +3700,10 @@
       <c r="L11" s="132">
         <v>0</v>
       </c>
-      <c r="M11" s="132"/>
+      <c r="M11" s="132">
+        <f>+I11</f>
+        <v>0</v>
+      </c>
       <c r="N11" s="133">
         <f t="shared" ref="N11:N17" si="0">+J11</f>
         <v>0</v>
@@ -3676,7 +3719,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="135"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="289"/>
       <c r="C12" s="291"/>
@@ -3695,7 +3738,10 @@
       <c r="L12" s="132">
         <v>0</v>
       </c>
-      <c r="M12" s="132"/>
+      <c r="M12" s="132">
+        <f t="shared" ref="M12:M44" si="1">+I12</f>
+        <v>0</v>
+      </c>
       <c r="N12" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3713,7 +3759,7 @@
       </c>
       <c r="V12" s="135"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="289"/>
       <c r="C13" s="291"/>
@@ -3732,7 +3778,10 @@
       <c r="L13" s="132">
         <v>0</v>
       </c>
-      <c r="M13" s="132"/>
+      <c r="M13" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N13" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3750,7 +3799,7 @@
       </c>
       <c r="V13" s="135"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="292"/>
       <c r="C14" s="293"/>
@@ -3769,7 +3818,10 @@
       <c r="L14" s="132">
         <v>0</v>
       </c>
-      <c r="M14" s="132"/>
+      <c r="M14" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N14" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3777,7 +3829,7 @@
       <c r="O14" s="136"/>
       <c r="P14" s="83"/>
       <c r="Q14" s="47"/>
-      <c r="R14" s="138" t="s">
+      <c r="R14" s="359" t="s">
         <v>66</v>
       </c>
       <c r="S14" s="138"/>
@@ -3787,7 +3839,7 @@
       </c>
       <c r="V14" s="118"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="292"/>
       <c r="C15" s="293"/>
@@ -3806,7 +3858,10 @@
       <c r="L15" s="132">
         <v>0</v>
       </c>
-      <c r="M15" s="132"/>
+      <c r="M15" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N15" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3822,7 +3877,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="139"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="292"/>
       <c r="C16" s="293"/>
@@ -3841,7 +3896,10 @@
       <c r="L16" s="132">
         <v>0</v>
       </c>
-      <c r="M16" s="132"/>
+      <c r="M16" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N16" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3855,7 +3913,7 @@
       <c r="U16" s="141"/>
       <c r="V16" s="143"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17"/>
       <c r="B17" s="294"/>
       <c r="C17" s="293"/>
@@ -3874,7 +3932,10 @@
       <c r="L17" s="132">
         <v>0</v>
       </c>
-      <c r="M17" s="132"/>
+      <c r="M17" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N17" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3888,7 +3949,7 @@
       <c r="U17" s="145"/>
       <c r="V17" s="146"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="292"/>
       <c r="C18" s="295"/>
@@ -3907,9 +3968,12 @@
       <c r="L18" s="132">
         <v>0</v>
       </c>
-      <c r="M18" s="132"/>
+      <c r="M18" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N18" s="133">
-        <f t="shared" ref="N18" si="1">+J18</f>
+        <f>+J18</f>
         <v>0</v>
       </c>
       <c r="O18" s="136"/>
@@ -3921,7 +3985,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="135"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="294"/>
       <c r="C19" s="295"/>
@@ -3940,7 +4004,10 @@
       <c r="L19" s="132">
         <v>0</v>
       </c>
-      <c r="M19" s="132"/>
+      <c r="M19" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N19" s="133">
         <f t="shared" ref="N19:N44" si="2">+J19</f>
         <v>0</v>
@@ -3954,7 +4021,7 @@
       <c r="U19" s="51"/>
       <c r="V19" s="135"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17"/>
       <c r="B20" s="294"/>
       <c r="C20" s="296"/>
@@ -3973,7 +4040,10 @@
       <c r="L20" s="132">
         <v>0</v>
       </c>
-      <c r="M20" s="132"/>
+      <c r="M20" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N20" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3987,7 +4057,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="135"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="292"/>
       <c r="C21" s="293"/>
@@ -4006,7 +4076,10 @@
       <c r="L21" s="132">
         <v>0</v>
       </c>
-      <c r="M21" s="132"/>
+      <c r="M21" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N21" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4020,7 +4093,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="135"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="292"/>
       <c r="C22" s="293"/>
@@ -4039,7 +4112,10 @@
       <c r="L22" s="132">
         <v>0</v>
       </c>
-      <c r="M22" s="132"/>
+      <c r="M22" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N22" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4053,7 +4129,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="135"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17"/>
       <c r="B23" s="294"/>
       <c r="C23" s="293"/>
@@ -4072,7 +4148,10 @@
       <c r="L23" s="132">
         <v>0</v>
       </c>
-      <c r="M23" s="132"/>
+      <c r="M23" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N23" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4086,7 +4165,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="135"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="292"/>
       <c r="C24" s="295"/>
@@ -4105,7 +4184,10 @@
       <c r="L24" s="132">
         <v>0</v>
       </c>
-      <c r="M24" s="132"/>
+      <c r="M24" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N24" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4119,7 +4201,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="135"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="292"/>
       <c r="C25" s="295"/>
@@ -4138,7 +4220,10 @@
       <c r="L25" s="132">
         <v>0</v>
       </c>
-      <c r="M25" s="132"/>
+      <c r="M25" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N25" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4152,7 +4237,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="135"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="292"/>
       <c r="C26" s="295"/>
@@ -4171,7 +4256,10 @@
       <c r="L26" s="132">
         <v>0</v>
       </c>
-      <c r="M26" s="132"/>
+      <c r="M26" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N26" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4185,7 +4273,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="135"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17"/>
       <c r="B27" s="294"/>
       <c r="C27" s="295"/>
@@ -4204,7 +4292,10 @@
       <c r="L27" s="132">
         <v>0</v>
       </c>
-      <c r="M27" s="132"/>
+      <c r="M27" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N27" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4218,7 +4309,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="135"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="292"/>
       <c r="C28" s="293"/>
@@ -4237,7 +4328,10 @@
       <c r="L28" s="132">
         <v>0</v>
       </c>
-      <c r="M28" s="132"/>
+      <c r="M28" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N28" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4251,7 +4345,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="135"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="294"/>
       <c r="C29" s="293"/>
@@ -4270,7 +4364,10 @@
       <c r="L29" s="132">
         <v>0</v>
       </c>
-      <c r="M29" s="132"/>
+      <c r="M29" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N29" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4284,7 +4381,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="135"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="292"/>
       <c r="C30" s="293"/>
@@ -4303,7 +4400,10 @@
       <c r="L30" s="132">
         <v>0</v>
       </c>
-      <c r="M30" s="132"/>
+      <c r="M30" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4317,7 +4417,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="135"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="294"/>
       <c r="C31" s="293"/>
@@ -4336,7 +4436,10 @@
       <c r="L31" s="132">
         <v>0</v>
       </c>
-      <c r="M31" s="132"/>
+      <c r="M31" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4350,7 +4453,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="135"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="292"/>
       <c r="C32" s="293"/>
@@ -4369,7 +4472,10 @@
       <c r="L32" s="132">
         <v>0</v>
       </c>
-      <c r="M32" s="132"/>
+      <c r="M32" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4383,7 +4489,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="135"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="294"/>
       <c r="C33" s="293"/>
@@ -4402,7 +4508,10 @@
       <c r="L33" s="132">
         <v>0</v>
       </c>
-      <c r="M33" s="132"/>
+      <c r="M33" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N33" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4416,7 +4525,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="135"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5"/>
       <c r="B34" s="292"/>
       <c r="C34" s="293"/>
@@ -4435,7 +4544,10 @@
       <c r="L34" s="132">
         <v>0</v>
       </c>
-      <c r="M34" s="132"/>
+      <c r="M34" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N34" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4449,7 +4561,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="151"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="292"/>
       <c r="C35" s="293"/>
@@ -4468,7 +4580,10 @@
       <c r="L35" s="132">
         <v>0</v>
       </c>
-      <c r="M35" s="132"/>
+      <c r="M35" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N35" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4482,7 +4597,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="152"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="292"/>
       <c r="C36" s="293"/>
@@ -4501,7 +4616,10 @@
       <c r="L36" s="132">
         <v>0</v>
       </c>
-      <c r="M36" s="132"/>
+      <c r="M36" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N36" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4515,7 +4633,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="118"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="292"/>
       <c r="C37" s="293"/>
@@ -4534,7 +4652,10 @@
       <c r="L37" s="132">
         <v>0</v>
       </c>
-      <c r="M37" s="132"/>
+      <c r="M37" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N37" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4548,7 +4669,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="135"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="B38" s="294"/>
       <c r="C38" s="293"/>
@@ -4567,7 +4688,10 @@
       <c r="L38" s="132">
         <v>0</v>
       </c>
-      <c r="M38" s="132"/>
+      <c r="M38" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N38" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4581,7 +4705,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="152"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="292"/>
       <c r="C39" s="293"/>
@@ -4600,7 +4724,10 @@
       <c r="L39" s="132">
         <v>0</v>
       </c>
-      <c r="M39" s="132"/>
+      <c r="M39" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N39" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4614,7 +4741,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="151"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
       <c r="B40" s="294"/>
       <c r="C40" s="293"/>
@@ -4633,7 +4760,10 @@
       <c r="L40" s="132">
         <v>0</v>
       </c>
-      <c r="M40" s="132"/>
+      <c r="M40" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N40" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4647,7 +4777,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="151"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="17"/>
       <c r="B41" s="294"/>
       <c r="C41" s="293"/>
@@ -4666,7 +4796,10 @@
       <c r="L41" s="132">
         <v>0</v>
       </c>
-      <c r="M41" s="132"/>
+      <c r="M41" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N41" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4680,7 +4813,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="152"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
       <c r="B42" s="292"/>
       <c r="C42" s="293"/>
@@ -4699,7 +4832,10 @@
       <c r="L42" s="132">
         <v>0</v>
       </c>
-      <c r="M42" s="132"/>
+      <c r="M42" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N42" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4713,7 +4849,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="135"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
       <c r="B43" s="292"/>
       <c r="C43" s="293"/>
@@ -4732,7 +4868,10 @@
       <c r="L43" s="132">
         <v>0</v>
       </c>
-      <c r="M43" s="132"/>
+      <c r="M43" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4746,7 +4885,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="135"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13"/>
       <c r="B44" s="292"/>
       <c r="C44" s="293"/>
@@ -4765,7 +4904,10 @@
       <c r="L44" s="132">
         <v>0</v>
       </c>
-      <c r="M44" s="132"/>
+      <c r="M44" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N44" s="133">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4779,7 +4921,7 @@
       <c r="U44" s="141"/>
       <c r="V44" s="143"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="153"/>
       <c r="B45" s="154"/>
       <c r="C45" s="155" t="s">
@@ -4817,7 +4959,7 @@
       <c r="U45" s="164"/>
       <c r="V45" s="165"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="166"/>
       <c r="B46" s="167"/>
       <c r="C46" s="168" t="s">
@@ -4826,10 +4968,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="169"/>
       <c r="F46" s="170"/>
-      <c r="G46" s="317" t="s">
+      <c r="G46" s="322" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="317"/>
+      <c r="H46" s="322"/>
       <c r="I46" s="171"/>
       <c r="J46" s="172"/>
       <c r="K46" s="173"/>
@@ -4845,7 +4987,7 @@
       <c r="U46" s="177"/>
       <c r="V46" s="135"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="178"/>
       <c r="B47" s="179"/>
       <c r="C47" s="180"/>
@@ -4869,7 +5011,7 @@
       <c r="U47" s="47"/>
       <c r="V47" s="187"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="179"/>
       <c r="C48" s="188" t="s">
         <v>74</v>
@@ -4895,7 +5037,7 @@
       <c r="U48" s="47"/>
       <c r="V48" s="187"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="178"/>
       <c r="B49" s="179"/>
       <c r="C49" s="190" t="s">
@@ -4923,7 +5065,7 @@
       <c r="U49" s="47"/>
       <c r="V49" s="187"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="194" t="s">
@@ -4951,62 +5093,62 @@
       <c r="U50" s="199"/>
       <c r="V50" s="200"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A51" s="321" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="322"/>
-      <c r="C51" s="322"/>
-      <c r="D51" s="322"/>
-      <c r="E51" s="322"/>
-      <c r="F51" s="322"/>
-      <c r="G51" s="322"/>
-      <c r="H51" s="322"/>
-      <c r="I51" s="322"/>
-      <c r="J51" s="322"/>
-      <c r="K51" s="322"/>
-      <c r="L51" s="322"/>
-      <c r="M51" s="322"/>
-      <c r="N51" s="322"/>
-      <c r="O51" s="322"/>
-      <c r="P51" s="322"/>
-      <c r="Q51" s="322"/>
-      <c r="R51" s="322"/>
-      <c r="S51" s="322"/>
-      <c r="T51" s="322"/>
-      <c r="U51" s="322"/>
-      <c r="V51" s="323"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A52" s="326" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="329"/>
+      <c r="C51" s="329"/>
+      <c r="D51" s="329"/>
+      <c r="E51" s="329"/>
+      <c r="F51" s="329"/>
+      <c r="G51" s="329"/>
+      <c r="H51" s="329"/>
+      <c r="I51" s="329"/>
+      <c r="J51" s="329"/>
+      <c r="K51" s="329"/>
+      <c r="L51" s="329"/>
+      <c r="M51" s="329"/>
+      <c r="N51" s="329"/>
+      <c r="O51" s="329"/>
+      <c r="P51" s="329"/>
+      <c r="Q51" s="329"/>
+      <c r="R51" s="329"/>
+      <c r="S51" s="329"/>
+      <c r="T51" s="329"/>
+      <c r="U51" s="329"/>
+      <c r="V51" s="330"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="333" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="327"/>
-      <c r="C52" s="327"/>
-      <c r="D52" s="327"/>
-      <c r="E52" s="327"/>
-      <c r="F52" s="327"/>
-      <c r="G52" s="327"/>
-      <c r="H52" s="327"/>
-      <c r="I52" s="327"/>
-      <c r="J52" s="327"/>
-      <c r="K52" s="327"/>
-      <c r="L52" s="327"/>
-      <c r="M52" s="327"/>
-      <c r="N52" s="327"/>
-      <c r="O52" s="327"/>
-      <c r="P52" s="327"/>
-      <c r="Q52" s="327"/>
-      <c r="R52" s="327"/>
-      <c r="S52" s="327"/>
-      <c r="T52" s="327"/>
-      <c r="U52" s="327"/>
-      <c r="V52" s="328"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A53" s="329"/>
-      <c r="B53" s="330"/>
-      <c r="C53" s="330"/>
+      <c r="B52" s="334"/>
+      <c r="C52" s="334"/>
+      <c r="D52" s="334"/>
+      <c r="E52" s="334"/>
+      <c r="F52" s="334"/>
+      <c r="G52" s="334"/>
+      <c r="H52" s="334"/>
+      <c r="I52" s="334"/>
+      <c r="J52" s="334"/>
+      <c r="K52" s="334"/>
+      <c r="L52" s="334"/>
+      <c r="M52" s="334"/>
+      <c r="N52" s="334"/>
+      <c r="O52" s="334"/>
+      <c r="P52" s="334"/>
+      <c r="Q52" s="334"/>
+      <c r="R52" s="334"/>
+      <c r="S52" s="334"/>
+      <c r="T52" s="334"/>
+      <c r="U52" s="334"/>
+      <c r="V52" s="335"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="336"/>
+      <c r="B53" s="337"/>
+      <c r="C53" s="337"/>
       <c r="D53" s="88"/>
       <c r="E53" s="88"/>
       <c r="F53" s="89"/>
@@ -5029,55 +5171,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A54" s="331"/>
-      <c r="B54" s="332"/>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
-      <c r="H54" s="332"/>
-      <c r="I54" s="332"/>
-      <c r="J54" s="332"/>
-      <c r="K54" s="332"/>
-      <c r="L54" s="332"/>
-      <c r="M54" s="332"/>
-      <c r="N54" s="332"/>
-      <c r="O54" s="332"/>
-      <c r="P54" s="332"/>
-      <c r="Q54" s="332"/>
-      <c r="R54" s="332"/>
-      <c r="S54" s="332"/>
-      <c r="T54" s="332"/>
-      <c r="U54" s="332"/>
-      <c r="V54" s="333"/>
-    </row>
-    <row r="55" spans="1:22" ht="68.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="334"/>
-      <c r="B55" s="335"/>
-      <c r="C55" s="335"/>
-      <c r="D55" s="335"/>
-      <c r="E55" s="335"/>
-      <c r="F55" s="335"/>
-      <c r="G55" s="335"/>
-      <c r="H55" s="335"/>
-      <c r="I55" s="335"/>
-      <c r="J55" s="335"/>
-      <c r="K55" s="335"/>
-      <c r="L55" s="335"/>
-      <c r="M55" s="335"/>
-      <c r="N55" s="335"/>
-      <c r="O55" s="335"/>
-      <c r="P55" s="335"/>
-      <c r="Q55" s="335"/>
-      <c r="R55" s="335"/>
-      <c r="S55" s="335"/>
-      <c r="T55" s="87"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="338"/>
+      <c r="B54" s="339"/>
+      <c r="C54" s="339"/>
+      <c r="D54" s="339"/>
+      <c r="E54" s="339"/>
+      <c r="F54" s="339"/>
+      <c r="G54" s="339"/>
+      <c r="H54" s="339"/>
+      <c r="I54" s="339"/>
+      <c r="J54" s="339"/>
+      <c r="K54" s="339"/>
+      <c r="L54" s="339"/>
+      <c r="M54" s="339"/>
+      <c r="N54" s="339"/>
+      <c r="O54" s="339"/>
+      <c r="P54" s="339"/>
+      <c r="Q54" s="339"/>
+      <c r="R54" s="339"/>
+      <c r="S54" s="339"/>
+      <c r="T54" s="339"/>
+      <c r="U54" s="339"/>
+      <c r="V54" s="340"/>
+    </row>
+    <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="341"/>
+      <c r="B55" s="342"/>
+      <c r="C55" s="342"/>
+      <c r="D55" s="342"/>
+      <c r="E55" s="342"/>
+      <c r="F55" s="342"/>
+      <c r="G55" s="342"/>
+      <c r="H55" s="342"/>
+      <c r="I55" s="342"/>
+      <c r="J55" s="342"/>
+      <c r="K55" s="342"/>
+      <c r="L55" s="342"/>
+      <c r="M55" s="342"/>
+      <c r="N55" s="342"/>
+      <c r="O55" s="342"/>
+      <c r="P55" s="342"/>
+      <c r="Q55" s="342"/>
+      <c r="R55" s="342"/>
+      <c r="S55" s="342"/>
+      <c r="T55" s="87" t="s">
+        <v>68</v>
+      </c>
       <c r="U55" s="87"/>
       <c r="V55" s="94"/>
     </row>
-    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -5105,29 +5249,29 @@
       <c r="U56" s="201"/>
       <c r="V56" s="104"/>
     </row>
-    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="318" t="s">
+      <c r="D57" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="319"/>
-      <c r="F57" s="319"/>
-      <c r="G57" s="319"/>
-      <c r="H57" s="320"/>
-      <c r="I57" s="318" t="s">
+      <c r="E57" s="324"/>
+      <c r="F57" s="324"/>
+      <c r="G57" s="324"/>
+      <c r="H57" s="325"/>
+      <c r="I57" s="323" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="320"/>
-      <c r="K57" s="318" t="s">
+      <c r="J57" s="325"/>
+      <c r="K57" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="320"/>
-      <c r="M57" s="318" t="s">
+      <c r="L57" s="325"/>
+      <c r="M57" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="320"/>
+      <c r="N57" s="325"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -5137,7 +5281,7 @@
       <c r="U57" s="109"/>
       <c r="V57" s="108"/>
     </row>
-    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -5193,7 +5337,7 @@
       <c r="U58" s="79"/>
       <c r="V58" s="118"/>
     </row>
-    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
@@ -5231,7 +5375,7 @@
       <c r="U59" s="79"/>
       <c r="V59" s="118"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17"/>
       <c r="B60" s="81"/>
       <c r="C60" s="297"/>
@@ -5250,7 +5394,10 @@
       <c r="L60" s="132">
         <v>0</v>
       </c>
-      <c r="M60" s="19"/>
+      <c r="M60" s="132">
+        <f t="shared" ref="M60:M94" si="3">+I60</f>
+        <v>0</v>
+      </c>
       <c r="N60" s="19">
         <f>+J60</f>
         <v>0</v>
@@ -5266,7 +5413,7 @@
       <c r="U60" s="11"/>
       <c r="V60" s="118"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="38"/>
       <c r="B61" s="40"/>
       <c r="C61" s="288"/>
@@ -5285,9 +5432,12 @@
       <c r="L61" s="132">
         <v>0</v>
       </c>
-      <c r="M61" s="19"/>
+      <c r="M61" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N61" s="19">
-        <f t="shared" ref="N61:N94" si="3">+J61</f>
+        <f t="shared" ref="N61:N94" si="4">+J61</f>
         <v>0</v>
       </c>
       <c r="O61" s="136"/>
@@ -5301,7 +5451,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="135"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="287"/>
       <c r="C62" s="288"/>
@@ -5320,9 +5470,12 @@
       <c r="L62" s="132">
         <v>0</v>
       </c>
-      <c r="M62" s="19"/>
+      <c r="M62" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N62" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O62" s="136"/>
@@ -5338,7 +5491,7 @@
       </c>
       <c r="V62" s="135"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="38"/>
       <c r="B63" s="40"/>
       <c r="C63" s="45"/>
@@ -5357,9 +5510,12 @@
       <c r="L63" s="132">
         <v>0</v>
       </c>
-      <c r="M63" s="19"/>
+      <c r="M63" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N63" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O63" s="136"/>
@@ -5367,15 +5523,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="324"/>
-      <c r="S63" s="324"/>
-      <c r="T63" s="324"/>
+      <c r="R63" s="331"/>
+      <c r="S63" s="331"/>
+      <c r="T63" s="331"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="135"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="40"/>
       <c r="C64" s="8"/>
@@ -5394,25 +5550,28 @@
       <c r="L64" s="132">
         <v>0</v>
       </c>
-      <c r="M64" s="19"/>
+      <c r="M64" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N64" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O64" s="136"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="325" t="s">
+      <c r="R64" s="332" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="325"/>
-      <c r="T64" s="325"/>
+      <c r="S64" s="332"/>
+      <c r="T64" s="332"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="118"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="38"/>
       <c r="B65" s="40"/>
       <c r="C65" s="45"/>
@@ -5431,9 +5590,12 @@
       <c r="L65" s="132">
         <v>0</v>
       </c>
-      <c r="M65" s="19"/>
+      <c r="M65" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N65" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O65" s="136"/>
@@ -5447,7 +5609,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="139"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="23"/>
       <c r="B66" s="40"/>
       <c r="C66" s="8"/>
@@ -5466,9 +5628,12 @@
       <c r="L66" s="132">
         <v>0</v>
       </c>
-      <c r="M66" s="19"/>
+      <c r="M66" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N66" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O66" s="136"/>
@@ -5480,7 +5645,7 @@
       <c r="U66" s="141"/>
       <c r="V66" s="143"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="38"/>
       <c r="B67" s="69"/>
       <c r="C67" s="8"/>
@@ -5499,9 +5664,12 @@
       <c r="L67" s="132">
         <v>0</v>
       </c>
-      <c r="M67" s="19"/>
+      <c r="M67" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N67" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O67" s="136"/>
@@ -5515,7 +5683,7 @@
       <c r="U67" s="48"/>
       <c r="V67" s="135"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17"/>
       <c r="B68" s="40"/>
       <c r="C68" s="8"/>
@@ -5534,9 +5702,12 @@
       <c r="L68" s="132">
         <v>0</v>
       </c>
-      <c r="M68" s="19"/>
+      <c r="M68" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N68" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O68" s="136"/>
@@ -5550,7 +5721,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="135"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="23"/>
       <c r="B69" s="40"/>
       <c r="C69" s="45"/>
@@ -5569,9 +5740,12 @@
       <c r="L69" s="132">
         <v>0</v>
       </c>
-      <c r="M69" s="19"/>
+      <c r="M69" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N69" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O69" s="136"/>
@@ -5587,7 +5761,7 @@
       </c>
       <c r="V69" s="135"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6"/>
       <c r="B70" s="69"/>
       <c r="C70" s="286"/>
@@ -5606,9 +5780,12 @@
       <c r="L70" s="132">
         <v>0</v>
       </c>
-      <c r="M70" s="19"/>
+      <c r="M70" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N70" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O70" s="136"/>
@@ -5622,7 +5799,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="135"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="82"/>
       <c r="C71" s="44"/>
@@ -5641,9 +5818,12 @@
       <c r="L71" s="132">
         <v>0</v>
       </c>
-      <c r="M71" s="19"/>
+      <c r="M71" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N71" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O71" s="136"/>
@@ -5657,7 +5837,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="135"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="28"/>
       <c r="B72" s="287"/>
       <c r="C72" s="298"/>
@@ -5676,9 +5856,12 @@
       <c r="L72" s="132">
         <v>0</v>
       </c>
-      <c r="M72" s="19"/>
+      <c r="M72" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N72" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O72" s="136"/>
@@ -5692,7 +5875,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="135"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="28"/>
       <c r="B73" s="302"/>
       <c r="C73" s="298"/>
@@ -5711,9 +5894,12 @@
       <c r="L73" s="132">
         <v>0</v>
       </c>
-      <c r="M73" s="19"/>
+      <c r="M73" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N73" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O73" s="136"/>
@@ -5727,7 +5913,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="135"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="38"/>
       <c r="B74" s="302"/>
       <c r="C74" s="298"/>
@@ -5746,9 +5932,12 @@
       <c r="L74" s="132">
         <v>0</v>
       </c>
-      <c r="M74" s="19"/>
+      <c r="M74" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N74" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O74" s="136"/>
@@ -5767,7 +5956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="82"/>
       <c r="C75" s="288"/>
@@ -5786,9 +5975,12 @@
       <c r="L75" s="132">
         <v>0</v>
       </c>
-      <c r="M75" s="19"/>
+      <c r="M75" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N75" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O75" s="136"/>
@@ -5807,7 +5999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="28"/>
       <c r="B76" s="287"/>
       <c r="C76" s="299"/>
@@ -5826,9 +6018,12 @@
       <c r="L76" s="132">
         <v>0</v>
       </c>
-      <c r="M76" s="19"/>
+      <c r="M76" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N76" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O76" s="136"/>
@@ -5846,7 +6041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="28"/>
       <c r="B77" s="40"/>
       <c r="C77" s="8"/>
@@ -5865,9 +6060,12 @@
       <c r="L77" s="132">
         <v>0</v>
       </c>
-      <c r="M77" s="19"/>
+      <c r="M77" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N77" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O77" s="136"/>
@@ -5886,7 +6084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="28"/>
       <c r="B78" s="40"/>
       <c r="C78" s="8"/>
@@ -5905,9 +6103,12 @@
       <c r="L78" s="132">
         <v>0</v>
       </c>
-      <c r="M78" s="19"/>
+      <c r="M78" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N78" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O78" s="136"/>
@@ -5926,7 +6127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="23"/>
       <c r="B79" s="40"/>
       <c r="C79" s="8"/>
@@ -5945,9 +6146,12 @@
       <c r="L79" s="132">
         <v>0</v>
       </c>
-      <c r="M79" s="19"/>
+      <c r="M79" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N79" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O79" s="136"/>
@@ -5966,7 +6170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="38"/>
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
@@ -5985,9 +6189,12 @@
       <c r="L80" s="132">
         <v>0</v>
       </c>
-      <c r="M80" s="19"/>
+      <c r="M80" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N80" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O80" s="136"/>
@@ -6007,7 +6214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="40"/>
       <c r="C81" s="300"/>
@@ -6026,9 +6233,12 @@
       <c r="L81" s="132">
         <v>0</v>
       </c>
-      <c r="M81" s="19"/>
+      <c r="M81" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N81" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O81" s="136"/>
@@ -6046,7 +6256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="40"/>
       <c r="C82" s="8"/>
@@ -6065,9 +6275,12 @@
       <c r="L82" s="132">
         <v>0</v>
       </c>
-      <c r="M82" s="19"/>
+      <c r="M82" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N82" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O82" s="136"/>
@@ -6085,7 +6298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="40"/>
       <c r="C83" s="8"/>
@@ -6104,9 +6317,12 @@
       <c r="L83" s="132">
         <v>0</v>
       </c>
-      <c r="M83" s="19"/>
+      <c r="M83" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N83" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O83" s="136"/>
@@ -6124,7 +6340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="40"/>
       <c r="C84" s="8"/>
@@ -6143,9 +6359,12 @@
       <c r="L84" s="132">
         <v>0</v>
       </c>
-      <c r="M84" s="19"/>
+      <c r="M84" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N84" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O84" s="136"/>
@@ -6164,7 +6383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="40"/>
       <c r="C85" s="8"/>
@@ -6183,24 +6402,27 @@
       <c r="L85" s="132">
         <v>0</v>
       </c>
-      <c r="M85" s="19"/>
+      <c r="M85" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N85" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O85" s="136"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="206" t="str">
-        <f>(BAHTTEXT(T84))</f>
-        <v>ศูนย์บาทถ้วน</v>
+        <f>"("&amp;(BAHTTEXT(T84))&amp;")"</f>
+        <v>(ศูนย์บาทถ้วน)</v>
       </c>
       <c r="S85" s="4"/>
       <c r="T85" s="147"/>
       <c r="U85" s="4"/>
       <c r="V85" s="135"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12"/>
       <c r="B86" s="40"/>
       <c r="C86" s="8"/>
@@ -6219,9 +6441,12 @@
       <c r="L86" s="132">
         <v>0</v>
       </c>
-      <c r="M86" s="19"/>
+      <c r="M86" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N86" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O86" s="136"/>
@@ -6230,10 +6455,10 @@
       <c r="R86" s="79"/>
       <c r="S86" s="79"/>
       <c r="T86" s="79"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="151"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="U86" s="320"/>
+      <c r="V86" s="319"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="B87" s="40"/>
       <c r="C87" s="8"/>
@@ -6252,21 +6477,24 @@
       <c r="L87" s="132">
         <v>0</v>
       </c>
-      <c r="M87" s="19"/>
+      <c r="M87" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N87" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O87" s="136"/>
       <c r="P87" s="46"/>
       <c r="Q87" s="4"/>
-      <c r="R87" s="354"/>
-      <c r="S87" s="354"/>
-      <c r="T87" s="354"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="151"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="R87" s="316"/>
+      <c r="S87" s="316"/>
+      <c r="T87" s="316"/>
+      <c r="U87" s="320"/>
+      <c r="V87" s="319"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="12"/>
       <c r="B88" s="40"/>
       <c r="C88" s="27"/>
@@ -6285,21 +6513,24 @@
       <c r="L88" s="132">
         <v>0</v>
       </c>
-      <c r="M88" s="19"/>
+      <c r="M88" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N88" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O88" s="136"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="47"/>
-      <c r="R88" s="354"/>
-      <c r="S88" s="354"/>
-      <c r="T88" s="354"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="151"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="R88" s="316"/>
+      <c r="S88" s="316"/>
+      <c r="T88" s="316"/>
+      <c r="U88" s="320"/>
+      <c r="V88" s="319"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="12"/>
       <c r="B89" s="287"/>
       <c r="C89" s="27"/>
@@ -6318,21 +6549,24 @@
       <c r="L89" s="132">
         <v>0</v>
       </c>
-      <c r="M89" s="19"/>
+      <c r="M89" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N89" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O89" s="136"/>
       <c r="P89" s="46"/>
       <c r="Q89" s="4"/>
-      <c r="R89" s="354"/>
-      <c r="S89" s="354"/>
-      <c r="T89" s="354"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="118"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="R89" s="316"/>
+      <c r="S89" s="316"/>
+      <c r="T89" s="316"/>
+      <c r="U89" s="320"/>
+      <c r="V89" s="319"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="12"/>
       <c r="B90" s="287"/>
       <c r="C90" s="27"/>
@@ -6351,21 +6585,24 @@
       <c r="L90" s="132">
         <v>0</v>
       </c>
-      <c r="M90" s="19"/>
+      <c r="M90" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N90" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O90" s="136"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="4"/>
-      <c r="R90" s="354"/>
-      <c r="S90" s="354"/>
-      <c r="T90" s="354"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="135"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="R90" s="316"/>
+      <c r="S90" s="316"/>
+      <c r="T90" s="316"/>
+      <c r="U90" s="320"/>
+      <c r="V90" s="319"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="12"/>
       <c r="B91" s="287"/>
       <c r="C91" s="27"/>
@@ -6384,20 +6621,23 @@
       <c r="L91" s="132">
         <v>0</v>
       </c>
-      <c r="M91" s="19"/>
+      <c r="M91" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N91" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O91" s="136"/>
       <c r="P91" s="3"/>
-      <c r="R91" s="354"/>
-      <c r="S91" s="354"/>
-      <c r="T91" s="354"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="152"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="R91" s="316"/>
+      <c r="S91" s="316"/>
+      <c r="T91" s="316"/>
+      <c r="U91" s="320"/>
+      <c r="V91" s="319"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="12"/>
       <c r="B92" s="287"/>
       <c r="C92" s="27"/>
@@ -6416,9 +6656,12 @@
       <c r="L92" s="132">
         <v>0</v>
       </c>
-      <c r="M92" s="19"/>
+      <c r="M92" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N92" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O92" s="136"/>
@@ -6426,13 +6669,13 @@
         <v>58</v>
       </c>
       <c r="Q92" s="4"/>
-      <c r="R92" s="354"/>
-      <c r="S92" s="354"/>
-      <c r="T92" s="354"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="151"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="R92" s="316"/>
+      <c r="S92" s="316"/>
+      <c r="T92" s="316"/>
+      <c r="U92" s="320"/>
+      <c r="V92" s="319"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="287"/>
       <c r="C93" s="27"/>
@@ -6451,21 +6694,24 @@
       <c r="L93" s="132">
         <v>0</v>
       </c>
-      <c r="M93" s="19"/>
+      <c r="M93" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N93" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O93" s="136"/>
       <c r="P93" s="46"/>
       <c r="Q93" s="4"/>
-      <c r="R93" s="354"/>
-      <c r="S93" s="354"/>
-      <c r="T93" s="354"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="151"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="R93" s="316"/>
+      <c r="S93" s="316"/>
+      <c r="T93" s="316"/>
+      <c r="U93" s="320"/>
+      <c r="V93" s="319"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13"/>
       <c r="B94" s="303"/>
       <c r="C94" s="301"/>
@@ -6484,26 +6730,29 @@
       <c r="L94" s="132">
         <v>0</v>
       </c>
-      <c r="M94" s="19"/>
+      <c r="M94" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="N94" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O94" s="136"/>
       <c r="P94" s="46"/>
       <c r="Q94" s="79"/>
-      <c r="R94" s="354"/>
-      <c r="S94" s="354"/>
-      <c r="T94" s="354"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="11"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="R94" s="316"/>
+      <c r="S94" s="316"/>
+      <c r="T94" s="316"/>
+      <c r="U94" s="320"/>
+      <c r="V94" s="320"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="153"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="327"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="158"/>
@@ -6535,10 +6784,10 @@
       <c r="R95" s="276"/>
       <c r="S95" s="276"/>
       <c r="T95" s="276"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="152"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="U95" s="320"/>
+      <c r="V95" s="319"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="153"/>
       <c r="B96" s="207"/>
       <c r="C96" s="208" t="s">
@@ -6568,29 +6817,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="162"/>
-      <c r="P96" s="344" t="s">
+      <c r="P96" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="345"/>
-      <c r="R96" s="345"/>
-      <c r="S96" s="345"/>
-      <c r="T96" s="345"/>
-      <c r="U96" s="345"/>
-      <c r="V96" s="346"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A97" s="326" t="s">
+      <c r="Q96" s="350"/>
+      <c r="R96" s="350"/>
+      <c r="S96" s="350"/>
+      <c r="T96" s="350"/>
+      <c r="U96" s="350"/>
+      <c r="V96" s="351"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="327"/>
-      <c r="C97" s="328"/>
+      <c r="B97" s="334"/>
+      <c r="C97" s="335"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="170"/>
-      <c r="G97" s="317" t="s">
+      <c r="G97" s="322" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="317"/>
+      <c r="H97" s="322"/>
       <c r="I97" s="171"/>
       <c r="J97" s="172"/>
       <c r="K97" s="173"/>
@@ -6611,10 +6860,10 @@
       <c r="U97" s="47"/>
       <c r="V97" s="187"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A98" s="338"/>
-      <c r="B98" s="339"/>
-      <c r="C98" s="340"/>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="343"/>
+      <c r="B98" s="344"/>
+      <c r="C98" s="345"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="182"/>
@@ -6640,21 +6889,21 @@
       <c r="V98" s="187"/>
       <c r="W98" s="187"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A99" s="338" t="s">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="339"/>
-      <c r="C99" s="340"/>
+      <c r="B99" s="344"/>
+      <c r="C99" s="345"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="347" t="s">
+      <c r="E99" s="352" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="347"/>
-      <c r="G99" s="347"/>
-      <c r="H99" s="347"/>
-      <c r="I99" s="347"/>
-      <c r="J99" s="347"/>
+      <c r="F99" s="352"/>
+      <c r="G99" s="352"/>
+      <c r="H99" s="352"/>
+      <c r="I99" s="352"/>
+      <c r="J99" s="352"/>
       <c r="K99" s="171"/>
       <c r="L99" s="184"/>
       <c r="M99" s="213"/>
@@ -6671,21 +6920,21 @@
       <c r="V99" s="187"/>
       <c r="W99" s="187"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A100" s="338" t="s">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="343" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="339"/>
-      <c r="C100" s="340"/>
+      <c r="B100" s="344"/>
+      <c r="C100" s="345"/>
       <c r="D100" s="4"/>
       <c r="E100" s="179"/>
-      <c r="F100" s="339" t="s">
+      <c r="F100" s="344" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="339"/>
-      <c r="H100" s="339"/>
-      <c r="I100" s="339"/>
-      <c r="J100" s="339"/>
+      <c r="G100" s="344"/>
+      <c r="H100" s="344"/>
+      <c r="I100" s="344"/>
+      <c r="J100" s="344"/>
       <c r="K100" s="191"/>
       <c r="L100" s="192"/>
       <c r="M100" s="216"/>
@@ -6704,21 +6953,21 @@
       <c r="V100" s="219"/>
       <c r="W100" s="151"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A101" s="341" t="s">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="342"/>
-      <c r="C101" s="343"/>
+      <c r="B101" s="347"/>
+      <c r="C101" s="348"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="342" t="s">
+      <c r="F101" s="347" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="342"/>
-      <c r="H101" s="342"/>
-      <c r="I101" s="342"/>
-      <c r="J101" s="342"/>
+      <c r="G101" s="347"/>
+      <c r="H101" s="347"/>
+      <c r="I101" s="347"/>
+      <c r="J101" s="347"/>
       <c r="K101" s="195"/>
       <c r="L101" s="196"/>
       <c r="M101" s="220"/>
@@ -6764,7 +7013,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -6779,36 +7028,36 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A70" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="P96" sqref="P96:V96"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A76" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
     <col min="3" max="3" width="116" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="264" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="264" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="222" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="264" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="264" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="222" customWidth="1"/>
     <col min="7" max="7" width="7" style="222" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="222" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="222" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="222" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="222" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" style="222" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="222" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="264" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.85546875" style="85"/>
-    <col min="19" max="19" width="20.85546875" style="85" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="85" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="85" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="222" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="222" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="222" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="222" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" style="222" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="222" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="264" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.88671875" style="85"/>
+    <col min="19" max="19" width="20.88671875" style="85" customWidth="1"/>
+    <col min="20" max="20" width="18.5546875" style="85" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="85" customWidth="1"/>
     <col min="22" max="22" width="37" style="85" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="85"/>
+    <col min="23" max="16384" width="8.88671875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="277" t="s">
         <v>0</v>
       </c>
@@ -6834,7 +7083,7 @@
       <c r="U1" s="169"/>
       <c r="V1" s="278"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
@@ -6860,10 +7109,10 @@
       <c r="U2" s="167"/>
       <c r="V2" s="279"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A3" s="329"/>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="336"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
       <c r="D3" s="226"/>
       <c r="E3" s="226"/>
       <c r="F3" s="89"/>
@@ -6886,7 +7135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="280" t="s">
         <v>65</v>
       </c>
@@ -6912,7 +7161,7 @@
       <c r="U4" s="281"/>
       <c r="V4" s="282"/>
     </row>
-    <row r="5" spans="1:22" ht="61.15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="283" t="s">
         <v>71</v>
       </c>
@@ -6942,7 +7191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -6972,29 +7221,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="318" t="s">
+      <c r="D7" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="348" t="s">
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="349"/>
-      <c r="K7" s="348" t="s">
+      <c r="J7" s="354"/>
+      <c r="K7" s="353" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="349"/>
-      <c r="M7" s="318" t="s">
+      <c r="L7" s="354"/>
+      <c r="M7" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="320"/>
+      <c r="N7" s="325"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -7004,7 +7253,7 @@
       <c r="U7" s="109"/>
       <c r="V7" s="108"/>
     </row>
-    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -7018,10 +7267,10 @@
       <c r="E8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="350" t="s">
+      <c r="F8" s="355" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="351"/>
+      <c r="G8" s="356"/>
       <c r="H8" s="114" t="s">
         <v>16</v>
       </c>
@@ -7058,16 +7307,16 @@
       <c r="U8" s="79"/>
       <c r="V8" s="118"/>
     </row>
-    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
-      <c r="F9" s="352" t="s">
+      <c r="F9" s="357" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="353"/>
+      <c r="G9" s="358"/>
       <c r="H9" s="122" t="s">
         <v>21</v>
       </c>
@@ -7094,7 +7343,7 @@
       <c r="U9" s="79"/>
       <c r="V9" s="118"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="285"/>
@@ -7111,7 +7360,10 @@
       <c r="L10" s="132">
         <v>0</v>
       </c>
-      <c r="M10" s="235"/>
+      <c r="M10" s="235">
+        <f>+I10</f>
+        <v>0</v>
+      </c>
       <c r="N10" s="132">
         <f>+J10</f>
         <v>0</v>
@@ -7127,7 +7379,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="118"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17"/>
       <c r="B11" s="20"/>
       <c r="C11" s="25"/>
@@ -7144,7 +7396,10 @@
       <c r="L11" s="132">
         <v>0</v>
       </c>
-      <c r="M11" s="52"/>
+      <c r="M11" s="52">
+        <f>+I11</f>
+        <v>0</v>
+      </c>
       <c r="N11" s="52">
         <f t="shared" ref="N11:N44" si="0">+J11</f>
         <v>0</v>
@@ -7160,7 +7415,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="135"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="15"/>
@@ -7177,7 +7432,10 @@
       <c r="L12" s="132">
         <v>0</v>
       </c>
-      <c r="M12" s="52"/>
+      <c r="M12" s="52">
+        <f t="shared" ref="M12:M44" si="1">+I12</f>
+        <v>0</v>
+      </c>
       <c r="N12" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7195,7 +7453,7 @@
       </c>
       <c r="V12" s="135"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17"/>
       <c r="B13" s="7"/>
       <c r="C13" s="15"/>
@@ -7212,7 +7470,10 @@
       <c r="L13" s="132">
         <v>0</v>
       </c>
-      <c r="M13" s="52"/>
+      <c r="M13" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N13" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7230,7 +7491,7 @@
       </c>
       <c r="V13" s="135"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17"/>
       <c r="B14" s="7"/>
       <c r="C14" s="15"/>
@@ -7247,7 +7508,10 @@
       <c r="L14" s="132">
         <v>0</v>
       </c>
-      <c r="M14" s="52"/>
+      <c r="M14" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N14" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7255,7 +7519,7 @@
       <c r="O14" s="244"/>
       <c r="P14" s="83"/>
       <c r="Q14" s="47"/>
-      <c r="R14" s="138" t="s">
+      <c r="R14" s="359" t="s">
         <v>66</v>
       </c>
       <c r="S14" s="138"/>
@@ -7265,7 +7529,7 @@
       </c>
       <c r="V14" s="118"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17"/>
       <c r="B15" s="7"/>
       <c r="C15" s="15"/>
@@ -7282,7 +7546,10 @@
       <c r="L15" s="132">
         <v>0</v>
       </c>
-      <c r="M15" s="52"/>
+      <c r="M15" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N15" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7298,7 +7565,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="139"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17"/>
       <c r="B16" s="20"/>
       <c r="C16" s="18"/>
@@ -7315,7 +7582,10 @@
       <c r="L16" s="132">
         <v>0</v>
       </c>
-      <c r="M16" s="52"/>
+      <c r="M16" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N16" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7329,7 +7599,7 @@
       <c r="U16" s="141"/>
       <c r="V16" s="143"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -7346,7 +7616,10 @@
       <c r="L17" s="132">
         <v>0</v>
       </c>
-      <c r="M17" s="52"/>
+      <c r="M17" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7360,7 +7633,7 @@
       <c r="U17" s="145"/>
       <c r="V17" s="146"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17"/>
       <c r="B18" s="7"/>
       <c r="C18" s="18"/>
@@ -7377,7 +7650,10 @@
       <c r="L18" s="132">
         <v>0</v>
       </c>
-      <c r="M18" s="52"/>
+      <c r="M18" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N18" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7391,7 +7667,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="135"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15"/>
@@ -7408,7 +7684,10 @@
       <c r="L19" s="132">
         <v>0</v>
       </c>
-      <c r="M19" s="52"/>
+      <c r="M19" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N19" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7422,7 +7701,7 @@
       <c r="U19" s="51"/>
       <c r="V19" s="135"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17"/>
       <c r="B20" s="7"/>
       <c r="C20" s="15"/>
@@ -7439,7 +7718,10 @@
       <c r="L20" s="132">
         <v>0</v>
       </c>
-      <c r="M20" s="52"/>
+      <c r="M20" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N20" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7453,7 +7735,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="135"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17"/>
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
@@ -7470,7 +7752,10 @@
       <c r="L21" s="132">
         <v>0</v>
       </c>
-      <c r="M21" s="52"/>
+      <c r="M21" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N21" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7484,7 +7769,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="135"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17"/>
       <c r="B22" s="7"/>
       <c r="C22" s="61"/>
@@ -7501,7 +7786,10 @@
       <c r="L22" s="132">
         <v>0</v>
       </c>
-      <c r="M22" s="52"/>
+      <c r="M22" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N22" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7515,7 +7803,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="135"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17"/>
       <c r="B23" s="7"/>
       <c r="C23" s="62"/>
@@ -7532,7 +7820,10 @@
       <c r="L23" s="132">
         <v>0</v>
       </c>
-      <c r="M23" s="52"/>
+      <c r="M23" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N23" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7546,7 +7837,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="135"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15"/>
@@ -7563,7 +7854,10 @@
       <c r="L24" s="132">
         <v>0</v>
       </c>
-      <c r="M24" s="52"/>
+      <c r="M24" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N24" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7577,7 +7871,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="135"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17"/>
       <c r="B25" s="7"/>
       <c r="C25" s="15"/>
@@ -7594,7 +7888,10 @@
       <c r="L25" s="132">
         <v>0</v>
       </c>
-      <c r="M25" s="52"/>
+      <c r="M25" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N25" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7608,7 +7905,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="135"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="18"/>
@@ -7625,7 +7922,10 @@
       <c r="L26" s="132">
         <v>0</v>
       </c>
-      <c r="M26" s="52"/>
+      <c r="M26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N26" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7639,7 +7939,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="135"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17"/>
       <c r="B27" s="7"/>
       <c r="C27" s="61"/>
@@ -7656,7 +7956,10 @@
       <c r="L27" s="132">
         <v>0</v>
       </c>
-      <c r="M27" s="52"/>
+      <c r="M27" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N27" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7670,7 +7973,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="135"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -7687,7 +7990,10 @@
       <c r="L28" s="132">
         <v>0</v>
       </c>
-      <c r="M28" s="52"/>
+      <c r="M28" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N28" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7701,7 +8007,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="135"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17"/>
       <c r="B29" s="7"/>
       <c r="C29" s="63"/>
@@ -7718,7 +8024,10 @@
       <c r="L29" s="132">
         <v>0</v>
       </c>
-      <c r="M29" s="52"/>
+      <c r="M29" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N29" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7732,7 +8041,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="135"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17"/>
       <c r="B30" s="7"/>
       <c r="C30" s="15"/>
@@ -7749,7 +8058,10 @@
       <c r="L30" s="132">
         <v>0</v>
       </c>
-      <c r="M30" s="52"/>
+      <c r="M30" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N30" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7763,7 +8075,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="135"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17"/>
       <c r="B31" s="20"/>
       <c r="C31" s="18"/>
@@ -7780,7 +8092,10 @@
       <c r="L31" s="132">
         <v>0</v>
       </c>
-      <c r="M31" s="52"/>
+      <c r="M31" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N31" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7794,7 +8109,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="135"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17"/>
       <c r="B32" s="7"/>
       <c r="C32" s="61"/>
@@ -7811,7 +8126,10 @@
       <c r="L32" s="132">
         <v>0</v>
       </c>
-      <c r="M32" s="52"/>
+      <c r="M32" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N32" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7825,7 +8143,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="135"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17"/>
       <c r="B33" s="7"/>
       <c r="C33" s="15"/>
@@ -7842,7 +8160,10 @@
       <c r="L33" s="132">
         <v>0</v>
       </c>
-      <c r="M33" s="52"/>
+      <c r="M33" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N33" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7856,7 +8177,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="135"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="17"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15"/>
@@ -7873,7 +8194,10 @@
       <c r="L34" s="132">
         <v>0</v>
       </c>
-      <c r="M34" s="52"/>
+      <c r="M34" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N34" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7887,7 +8211,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="151"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="64"/>
       <c r="B35" s="65"/>
       <c r="C35" s="63"/>
@@ -7904,7 +8228,10 @@
       <c r="L35" s="132">
         <v>0</v>
       </c>
-      <c r="M35" s="52"/>
+      <c r="M35" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N35" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7918,7 +8245,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="152"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="16"/>
       <c r="B36" s="68"/>
       <c r="C36" s="61"/>
@@ -7935,7 +8262,10 @@
       <c r="L36" s="132">
         <v>0</v>
       </c>
-      <c r="M36" s="52"/>
+      <c r="M36" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N36" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7949,7 +8279,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="118"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -7966,7 +8296,10 @@
       <c r="L37" s="132">
         <v>0</v>
       </c>
-      <c r="M37" s="52"/>
+      <c r="M37" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N37" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7980,7 +8313,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="118"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="17"/>
       <c r="B38" s="20"/>
       <c r="C38" s="18"/>
@@ -7997,7 +8330,10 @@
       <c r="L38" s="132">
         <v>0</v>
       </c>
-      <c r="M38" s="52"/>
+      <c r="M38" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N38" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8011,7 +8347,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="135"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="7"/>
       <c r="C39" s="49"/>
@@ -8028,7 +8364,10 @@
       <c r="L39" s="132">
         <v>0</v>
       </c>
-      <c r="M39" s="52"/>
+      <c r="M39" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N39" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8042,7 +8381,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="152"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
       <c r="B40" s="7"/>
       <c r="C40" s="18"/>
@@ -8059,7 +8398,10 @@
       <c r="L40" s="132">
         <v>0</v>
       </c>
-      <c r="M40" s="52"/>
+      <c r="M40" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N40" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8073,7 +8415,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="151"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
       <c r="B41" s="7"/>
       <c r="C41" s="18"/>
@@ -8090,7 +8432,10 @@
       <c r="L41" s="132">
         <v>0</v>
       </c>
-      <c r="M41" s="52"/>
+      <c r="M41" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N41" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8104,7 +8449,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="151"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
       <c r="B42" s="7"/>
       <c r="C42" s="18"/>
@@ -8121,7 +8466,10 @@
       <c r="L42" s="132">
         <v>0</v>
       </c>
-      <c r="M42" s="52"/>
+      <c r="M42" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N42" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8135,7 +8483,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="152"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
       <c r="B43" s="7"/>
       <c r="C43" s="18"/>
@@ -8152,7 +8500,10 @@
       <c r="L43" s="132">
         <v>0</v>
       </c>
-      <c r="M43" s="52"/>
+      <c r="M43" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8166,7 +8517,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="135"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="18"/>
@@ -8183,7 +8534,10 @@
       <c r="L44" s="132">
         <v>0</v>
       </c>
-      <c r="M44" s="52"/>
+      <c r="M44" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N44" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8197,7 +8551,7 @@
       <c r="U44" s="141"/>
       <c r="V44" s="143"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="153"/>
       <c r="B45" s="154"/>
       <c r="C45" s="155" t="s">
@@ -8235,7 +8589,7 @@
       <c r="U45" s="164"/>
       <c r="V45" s="165"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="166"/>
       <c r="B46" s="167"/>
       <c r="C46" s="168" t="s">
@@ -8244,10 +8598,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="169"/>
       <c r="F46" s="170"/>
-      <c r="G46" s="317" t="s">
+      <c r="G46" s="322" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="317"/>
+      <c r="H46" s="322"/>
       <c r="I46" s="171"/>
       <c r="J46" s="172"/>
       <c r="K46" s="173"/>
@@ -8263,7 +8617,7 @@
       <c r="U46" s="177"/>
       <c r="V46" s="135"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="178"/>
       <c r="B47" s="179"/>
       <c r="C47" s="180"/>
@@ -8287,7 +8641,7 @@
       <c r="U47" s="47"/>
       <c r="V47" s="187"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="179"/>
       <c r="C48" s="188" t="s">
         <v>74</v>
@@ -8314,7 +8668,7 @@
       <c r="U48" s="47"/>
       <c r="V48" s="187"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="178"/>
       <c r="B49" s="179"/>
       <c r="C49" s="190" t="s">
@@ -8342,7 +8696,7 @@
       <c r="U49" s="47"/>
       <c r="V49" s="187"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="248" t="s">
@@ -8370,62 +8724,62 @@
       <c r="U50" s="199"/>
       <c r="V50" s="200"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A51" s="321" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="322"/>
-      <c r="C51" s="322"/>
-      <c r="D51" s="322"/>
-      <c r="E51" s="322"/>
-      <c r="F51" s="322"/>
-      <c r="G51" s="322"/>
-      <c r="H51" s="322"/>
-      <c r="I51" s="322"/>
-      <c r="J51" s="322"/>
-      <c r="K51" s="322"/>
-      <c r="L51" s="322"/>
-      <c r="M51" s="322"/>
-      <c r="N51" s="322"/>
-      <c r="O51" s="322"/>
-      <c r="P51" s="322"/>
-      <c r="Q51" s="322"/>
-      <c r="R51" s="322"/>
-      <c r="S51" s="322"/>
-      <c r="T51" s="322"/>
-      <c r="U51" s="322"/>
-      <c r="V51" s="323"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A52" s="326" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="329"/>
+      <c r="C51" s="329"/>
+      <c r="D51" s="329"/>
+      <c r="E51" s="329"/>
+      <c r="F51" s="329"/>
+      <c r="G51" s="329"/>
+      <c r="H51" s="329"/>
+      <c r="I51" s="329"/>
+      <c r="J51" s="329"/>
+      <c r="K51" s="329"/>
+      <c r="L51" s="329"/>
+      <c r="M51" s="329"/>
+      <c r="N51" s="329"/>
+      <c r="O51" s="329"/>
+      <c r="P51" s="329"/>
+      <c r="Q51" s="329"/>
+      <c r="R51" s="329"/>
+      <c r="S51" s="329"/>
+      <c r="T51" s="329"/>
+      <c r="U51" s="329"/>
+      <c r="V51" s="330"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="333" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="327"/>
-      <c r="C52" s="327"/>
-      <c r="D52" s="327"/>
-      <c r="E52" s="327"/>
-      <c r="F52" s="327"/>
-      <c r="G52" s="327"/>
-      <c r="H52" s="327"/>
-      <c r="I52" s="327"/>
-      <c r="J52" s="327"/>
-      <c r="K52" s="327"/>
-      <c r="L52" s="327"/>
-      <c r="M52" s="327"/>
-      <c r="N52" s="327"/>
-      <c r="O52" s="327"/>
-      <c r="P52" s="327"/>
-      <c r="Q52" s="327"/>
-      <c r="R52" s="327"/>
-      <c r="S52" s="327"/>
-      <c r="T52" s="327"/>
-      <c r="U52" s="327"/>
-      <c r="V52" s="328"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A53" s="329"/>
-      <c r="B53" s="330"/>
-      <c r="C53" s="330"/>
+      <c r="B52" s="334"/>
+      <c r="C52" s="334"/>
+      <c r="D52" s="334"/>
+      <c r="E52" s="334"/>
+      <c r="F52" s="334"/>
+      <c r="G52" s="334"/>
+      <c r="H52" s="334"/>
+      <c r="I52" s="334"/>
+      <c r="J52" s="334"/>
+      <c r="K52" s="334"/>
+      <c r="L52" s="334"/>
+      <c r="M52" s="334"/>
+      <c r="N52" s="334"/>
+      <c r="O52" s="334"/>
+      <c r="P52" s="334"/>
+      <c r="Q52" s="334"/>
+      <c r="R52" s="334"/>
+      <c r="S52" s="334"/>
+      <c r="T52" s="334"/>
+      <c r="U52" s="334"/>
+      <c r="V52" s="335"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="336"/>
+      <c r="B53" s="337"/>
+      <c r="C53" s="337"/>
       <c r="D53" s="226"/>
       <c r="E53" s="226"/>
       <c r="F53" s="89"/>
@@ -8448,55 +8802,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A54" s="331"/>
-      <c r="B54" s="332"/>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
-      <c r="H54" s="332"/>
-      <c r="I54" s="332"/>
-      <c r="J54" s="332"/>
-      <c r="K54" s="332"/>
-      <c r="L54" s="332"/>
-      <c r="M54" s="332"/>
-      <c r="N54" s="332"/>
-      <c r="O54" s="332"/>
-      <c r="P54" s="332"/>
-      <c r="Q54" s="332"/>
-      <c r="R54" s="332"/>
-      <c r="S54" s="332"/>
-      <c r="T54" s="332"/>
-      <c r="U54" s="332"/>
-      <c r="V54" s="333"/>
-    </row>
-    <row r="55" spans="1:22" ht="56.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="334"/>
-      <c r="B55" s="335"/>
-      <c r="C55" s="335"/>
-      <c r="D55" s="335"/>
-      <c r="E55" s="335"/>
-      <c r="F55" s="335"/>
-      <c r="G55" s="335"/>
-      <c r="H55" s="335"/>
-      <c r="I55" s="335"/>
-      <c r="J55" s="335"/>
-      <c r="K55" s="335"/>
-      <c r="L55" s="335"/>
-      <c r="M55" s="335"/>
-      <c r="N55" s="335"/>
-      <c r="O55" s="335"/>
-      <c r="P55" s="335"/>
-      <c r="Q55" s="335"/>
-      <c r="R55" s="335"/>
-      <c r="S55" s="335"/>
-      <c r="T55" s="87"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="338"/>
+      <c r="B54" s="339"/>
+      <c r="C54" s="339"/>
+      <c r="D54" s="339"/>
+      <c r="E54" s="339"/>
+      <c r="F54" s="339"/>
+      <c r="G54" s="339"/>
+      <c r="H54" s="339"/>
+      <c r="I54" s="339"/>
+      <c r="J54" s="339"/>
+      <c r="K54" s="339"/>
+      <c r="L54" s="339"/>
+      <c r="M54" s="339"/>
+      <c r="N54" s="339"/>
+      <c r="O54" s="339"/>
+      <c r="P54" s="339"/>
+      <c r="Q54" s="339"/>
+      <c r="R54" s="339"/>
+      <c r="S54" s="339"/>
+      <c r="T54" s="339"/>
+      <c r="U54" s="339"/>
+      <c r="V54" s="340"/>
+    </row>
+    <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="341"/>
+      <c r="B55" s="342"/>
+      <c r="C55" s="342"/>
+      <c r="D55" s="342"/>
+      <c r="E55" s="342"/>
+      <c r="F55" s="342"/>
+      <c r="G55" s="342"/>
+      <c r="H55" s="342"/>
+      <c r="I55" s="342"/>
+      <c r="J55" s="342"/>
+      <c r="K55" s="342"/>
+      <c r="L55" s="342"/>
+      <c r="M55" s="342"/>
+      <c r="N55" s="342"/>
+      <c r="O55" s="342"/>
+      <c r="P55" s="342"/>
+      <c r="Q55" s="342"/>
+      <c r="R55" s="342"/>
+      <c r="S55" s="342"/>
+      <c r="T55" s="87" t="s">
+        <v>3</v>
+      </c>
       <c r="U55" s="87"/>
       <c r="V55" s="94"/>
     </row>
-    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -8524,29 +8880,29 @@
       <c r="U56" s="201"/>
       <c r="V56" s="104"/>
     </row>
-    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="318" t="s">
+      <c r="D57" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="319"/>
-      <c r="F57" s="319"/>
-      <c r="G57" s="319"/>
-      <c r="H57" s="320"/>
-      <c r="I57" s="348" t="s">
+      <c r="E57" s="324"/>
+      <c r="F57" s="324"/>
+      <c r="G57" s="324"/>
+      <c r="H57" s="325"/>
+      <c r="I57" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="349"/>
-      <c r="K57" s="348" t="s">
+      <c r="J57" s="354"/>
+      <c r="K57" s="353" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="349"/>
-      <c r="M57" s="318" t="s">
+      <c r="L57" s="354"/>
+      <c r="M57" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="320"/>
+      <c r="N57" s="325"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -8556,7 +8912,7 @@
       <c r="U57" s="109"/>
       <c r="V57" s="108"/>
     </row>
-    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -8570,10 +8926,10 @@
       <c r="E58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="350" t="s">
+      <c r="F58" s="355" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="351"/>
+      <c r="G58" s="356"/>
       <c r="H58" s="114" t="s">
         <v>16</v>
       </c>
@@ -8610,16 +8966,16 @@
       <c r="U58" s="79"/>
       <c r="V58" s="118"/>
     </row>
-    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
       <c r="D59" s="119"/>
       <c r="E59" s="119"/>
-      <c r="F59" s="352" t="s">
+      <c r="F59" s="357" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="353"/>
+      <c r="G59" s="358"/>
       <c r="H59" s="122" t="s">
         <v>21</v>
       </c>
@@ -8646,10 +9002,10 @@
       <c r="U59" s="79"/>
       <c r="V59" s="118"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17"/>
       <c r="B60" s="294"/>
-      <c r="C60" s="314"/>
+      <c r="C60" s="313"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="233"/>
@@ -8663,7 +9019,10 @@
       <c r="L60" s="132">
         <v>0</v>
       </c>
-      <c r="M60" s="235"/>
+      <c r="M60" s="52">
+        <f t="shared" ref="M60:M94" si="2">+I60</f>
+        <v>0</v>
+      </c>
       <c r="N60" s="132">
         <f>+J60</f>
         <v>0</v>
@@ -8679,9 +9038,9 @@
       <c r="U60" s="11"/>
       <c r="V60" s="118"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="38"/>
-      <c r="B61" s="307"/>
+      <c r="B61" s="306"/>
       <c r="C61" s="295"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -8696,9 +9055,12 @@
       <c r="L61" s="132">
         <v>0</v>
       </c>
-      <c r="M61" s="52"/>
+      <c r="M61" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N61" s="52">
-        <f t="shared" ref="N61:N94" si="1">+J61</f>
+        <f t="shared" ref="N61:N94" si="3">+J61</f>
         <v>0</v>
       </c>
       <c r="O61" s="244"/>
@@ -8712,7 +9074,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="135"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="17"/>
       <c r="B62" s="292"/>
       <c r="C62" s="295"/>
@@ -8729,9 +9091,12 @@
       <c r="L62" s="132">
         <v>0</v>
       </c>
-      <c r="M62" s="52"/>
+      <c r="M62" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N62" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O62" s="244"/>
@@ -8747,10 +9112,10 @@
       </c>
       <c r="V62" s="135"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="38"/>
-      <c r="B63" s="307"/>
-      <c r="C63" s="308"/>
+      <c r="B63" s="306"/>
+      <c r="C63" s="307"/>
       <c r="D63" s="42"/>
       <c r="E63" s="10"/>
       <c r="F63" s="238"/>
@@ -8764,9 +9129,12 @@
       <c r="L63" s="132">
         <v>0</v>
       </c>
-      <c r="M63" s="52"/>
+      <c r="M63" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N63" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O63" s="244"/>
@@ -8774,17 +9142,17 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="324"/>
-      <c r="S63" s="324"/>
-      <c r="T63" s="324"/>
+      <c r="R63" s="331"/>
+      <c r="S63" s="331"/>
+      <c r="T63" s="331"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="135"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="17"/>
-      <c r="B64" s="307"/>
+      <c r="B64" s="306"/>
       <c r="C64" s="293"/>
       <c r="D64" s="42"/>
       <c r="E64" s="10"/>
@@ -8799,29 +9167,32 @@
       <c r="L64" s="132">
         <v>0</v>
       </c>
-      <c r="M64" s="52"/>
+      <c r="M64" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N64" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O64" s="244"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="325" t="str">
+      <c r="R64" s="332" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="325"/>
-      <c r="T64" s="325"/>
+      <c r="S64" s="332"/>
+      <c r="T64" s="332"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="118"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="38"/>
-      <c r="B65" s="307"/>
-      <c r="C65" s="308"/>
+      <c r="B65" s="306"/>
+      <c r="C65" s="307"/>
       <c r="D65" s="42"/>
       <c r="E65" s="10"/>
       <c r="F65" s="238"/>
@@ -8835,9 +9206,12 @@
       <c r="L65" s="132">
         <v>0</v>
       </c>
-      <c r="M65" s="52"/>
+      <c r="M65" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N65" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O65" s="244"/>
@@ -8851,9 +9225,9 @@
       <c r="U65" s="4"/>
       <c r="V65" s="139"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="70"/>
-      <c r="B66" s="307"/>
+      <c r="B66" s="306"/>
       <c r="C66" s="293"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -8868,9 +9242,12 @@
       <c r="L66" s="132">
         <v>0</v>
       </c>
-      <c r="M66" s="52"/>
+      <c r="M66" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N66" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O66" s="244"/>
@@ -8882,9 +9259,9 @@
       <c r="U66" s="141"/>
       <c r="V66" s="143"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="38"/>
-      <c r="B67" s="307"/>
+      <c r="B67" s="306"/>
       <c r="C67" s="293"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -8899,9 +9276,12 @@
       <c r="L67" s="132">
         <v>0</v>
       </c>
-      <c r="M67" s="52"/>
+      <c r="M67" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N67" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O67" s="244"/>
@@ -8915,9 +9295,9 @@
       <c r="U67" s="48"/>
       <c r="V67" s="135"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17"/>
-      <c r="B68" s="307"/>
+      <c r="B68" s="306"/>
       <c r="C68" s="293"/>
       <c r="D68" s="26"/>
       <c r="E68" s="9"/>
@@ -8932,9 +9312,12 @@
       <c r="L68" s="132">
         <v>0</v>
       </c>
-      <c r="M68" s="52"/>
+      <c r="M68" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N68" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O68" s="244"/>
@@ -8948,10 +9331,10 @@
       <c r="U68" s="4"/>
       <c r="V68" s="135"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="70"/>
-      <c r="B69" s="307"/>
-      <c r="C69" s="308"/>
+      <c r="B69" s="306"/>
+      <c r="C69" s="307"/>
       <c r="D69" s="42"/>
       <c r="E69" s="10"/>
       <c r="F69" s="238"/>
@@ -8965,9 +9348,12 @@
       <c r="L69" s="132">
         <v>0</v>
       </c>
-      <c r="M69" s="52"/>
+      <c r="M69" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N69" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O69" s="244"/>
@@ -8983,9 +9369,9 @@
       </c>
       <c r="V69" s="135"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="16"/>
-      <c r="B70" s="307"/>
+      <c r="B70" s="306"/>
       <c r="C70" s="293"/>
       <c r="D70" s="42"/>
       <c r="E70" s="10"/>
@@ -9000,9 +9386,12 @@
       <c r="L70" s="132">
         <v>0</v>
       </c>
-      <c r="M70" s="52"/>
+      <c r="M70" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N70" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O70" s="244"/>
@@ -9016,10 +9405,10 @@
       <c r="U70" s="4"/>
       <c r="V70" s="135"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="17"/>
       <c r="B71" s="294"/>
-      <c r="C71" s="308"/>
+      <c r="C71" s="307"/>
       <c r="D71" s="42"/>
       <c r="E71" s="10"/>
       <c r="F71" s="238"/>
@@ -9033,9 +9422,12 @@
       <c r="L71" s="132">
         <v>0</v>
       </c>
-      <c r="M71" s="52"/>
+      <c r="M71" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N71" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O71" s="244"/>
@@ -9049,10 +9441,10 @@
       <c r="U71" s="4"/>
       <c r="V71" s="135"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="71"/>
       <c r="B72" s="292"/>
-      <c r="C72" s="309"/>
+      <c r="C72" s="308"/>
       <c r="D72" s="72"/>
       <c r="E72" s="72"/>
       <c r="F72" s="238"/>
@@ -9066,9 +9458,12 @@
       <c r="L72" s="132">
         <v>0</v>
       </c>
-      <c r="M72" s="52"/>
+      <c r="M72" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N72" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O72" s="244"/>
@@ -9082,10 +9477,10 @@
       <c r="U72" s="4"/>
       <c r="V72" s="135"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="71"/>
-      <c r="B73" s="315"/>
-      <c r="C73" s="309"/>
+      <c r="B73" s="314"/>
+      <c r="C73" s="308"/>
       <c r="D73" s="42"/>
       <c r="E73" s="10"/>
       <c r="F73" s="238"/>
@@ -9099,9 +9494,12 @@
       <c r="L73" s="132">
         <v>0</v>
       </c>
-      <c r="M73" s="52"/>
+      <c r="M73" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N73" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O73" s="244"/>
@@ -9115,10 +9513,10 @@
       <c r="U73" s="4"/>
       <c r="V73" s="135"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="38"/>
-      <c r="B74" s="315"/>
-      <c r="C74" s="309"/>
+      <c r="B74" s="314"/>
+      <c r="C74" s="308"/>
       <c r="D74" s="42"/>
       <c r="E74" s="10"/>
       <c r="F74" s="238"/>
@@ -9132,9 +9530,12 @@
       <c r="L74" s="132">
         <v>0</v>
       </c>
-      <c r="M74" s="52"/>
+      <c r="M74" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N74" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O74" s="244"/>
@@ -9153,7 +9554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="17"/>
       <c r="B75" s="294"/>
       <c r="C75" s="295"/>
@@ -9170,9 +9571,12 @@
       <c r="L75" s="132">
         <v>0</v>
       </c>
-      <c r="M75" s="52"/>
+      <c r="M75" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N75" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O75" s="244"/>
@@ -9191,7 +9595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="71"/>
       <c r="B76" s="292"/>
       <c r="C76" s="295"/>
@@ -9208,9 +9612,12 @@
       <c r="L76" s="132">
         <v>0</v>
       </c>
-      <c r="M76" s="52"/>
+      <c r="M76" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N76" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O76" s="244"/>
@@ -9228,9 +9635,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="71"/>
-      <c r="B77" s="307"/>
+      <c r="B77" s="306"/>
       <c r="C77" s="293"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -9245,9 +9652,12 @@
       <c r="L77" s="132">
         <v>0</v>
       </c>
-      <c r="M77" s="52"/>
+      <c r="M77" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N77" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O77" s="244"/>
@@ -9266,9 +9676,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="71"/>
-      <c r="B78" s="307"/>
+      <c r="B78" s="306"/>
       <c r="C78" s="293"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -9283,9 +9693,12 @@
       <c r="L78" s="132">
         <v>0</v>
       </c>
-      <c r="M78" s="52"/>
+      <c r="M78" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N78" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O78" s="244"/>
@@ -9304,9 +9717,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="70"/>
-      <c r="B79" s="307"/>
+      <c r="B79" s="306"/>
       <c r="C79" s="293"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -9321,9 +9734,12 @@
       <c r="L79" s="132">
         <v>0</v>
       </c>
-      <c r="M79" s="52"/>
+      <c r="M79" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N79" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O79" s="244"/>
@@ -9342,10 +9758,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="38"/>
-      <c r="B80" s="307"/>
-      <c r="C80" s="311"/>
+      <c r="B80" s="306"/>
+      <c r="C80" s="310"/>
       <c r="D80" s="35"/>
       <c r="E80" s="26"/>
       <c r="F80" s="238"/>
@@ -9359,9 +9775,12 @@
       <c r="L80" s="132">
         <v>0</v>
       </c>
-      <c r="M80" s="52"/>
+      <c r="M80" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N80" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O80" s="244"/>
@@ -9381,10 +9800,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="17"/>
-      <c r="B81" s="307"/>
-      <c r="C81" s="308"/>
+      <c r="B81" s="306"/>
+      <c r="C81" s="307"/>
       <c r="D81" s="33"/>
       <c r="E81" s="26"/>
       <c r="F81" s="238"/>
@@ -9398,9 +9817,12 @@
       <c r="L81" s="132">
         <v>0</v>
       </c>
-      <c r="M81" s="52"/>
+      <c r="M81" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N81" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O81" s="244"/>
@@ -9418,10 +9840,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="12"/>
-      <c r="B82" s="316"/>
-      <c r="C82" s="308"/>
+      <c r="B82" s="315"/>
+      <c r="C82" s="307"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="238"/>
@@ -9435,9 +9857,12 @@
       <c r="L82" s="132">
         <v>0</v>
       </c>
-      <c r="M82" s="52"/>
+      <c r="M82" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N82" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O82" s="244"/>
@@ -9455,10 +9880,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="12"/>
-      <c r="B83" s="316"/>
-      <c r="C83" s="308"/>
+      <c r="B83" s="315"/>
+      <c r="C83" s="307"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="238"/>
@@ -9472,9 +9897,12 @@
       <c r="L83" s="132">
         <v>0</v>
       </c>
-      <c r="M83" s="52"/>
+      <c r="M83" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N83" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O83" s="244"/>
@@ -9492,10 +9920,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="12"/>
-      <c r="B84" s="316"/>
-      <c r="C84" s="308"/>
+      <c r="B84" s="315"/>
+      <c r="C84" s="307"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="238"/>
@@ -9509,9 +9937,12 @@
       <c r="L84" s="132">
         <v>0</v>
       </c>
-      <c r="M84" s="52"/>
+      <c r="M84" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N84" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O84" s="244"/>
@@ -9530,10 +9961,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="12"/>
-      <c r="B85" s="307"/>
-      <c r="C85" s="308"/>
+      <c r="B85" s="306"/>
+      <c r="C85" s="307"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="238"/>
@@ -9547,27 +9978,30 @@
       <c r="L85" s="132">
         <v>0</v>
       </c>
-      <c r="M85" s="52"/>
+      <c r="M85" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N85" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O85" s="244"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="206" t="str">
-        <f>(BAHTTEXT(T84))</f>
-        <v>ศูนย์บาทถ้วน</v>
+        <f>"("&amp;(BAHTTEXT(T84))&amp;")"</f>
+        <v>(ศูนย์บาทถ้วน)</v>
       </c>
       <c r="S85" s="4"/>
       <c r="T85" s="147"/>
       <c r="U85" s="4"/>
       <c r="V85" s="135"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12"/>
-      <c r="B86" s="316"/>
-      <c r="C86" s="308"/>
+      <c r="B86" s="315"/>
+      <c r="C86" s="307"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="238"/>
@@ -9581,24 +10015,27 @@
       <c r="L86" s="132">
         <v>0</v>
       </c>
-      <c r="M86" s="52"/>
+      <c r="M86" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N86" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O86" s="244"/>
       <c r="P86" s="3"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="151"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q86" s="318"/>
+      <c r="R86" s="318"/>
+      <c r="S86" s="318"/>
+      <c r="T86" s="318"/>
+      <c r="U86" s="320"/>
+      <c r="V86" s="319"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="12"/>
-      <c r="B87" s="316"/>
-      <c r="C87" s="308"/>
+      <c r="B87" s="315"/>
+      <c r="C87" s="307"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="238"/>
@@ -9612,24 +10049,27 @@
       <c r="L87" s="132">
         <v>0</v>
       </c>
-      <c r="M87" s="52"/>
+      <c r="M87" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N87" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O87" s="244"/>
       <c r="P87" s="46"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="304"/>
-      <c r="S87" s="304"/>
-      <c r="T87" s="304"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="151"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q87" s="318"/>
+      <c r="R87" s="318"/>
+      <c r="S87" s="318"/>
+      <c r="T87" s="318"/>
+      <c r="U87" s="320"/>
+      <c r="V87" s="319"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="12"/>
-      <c r="B88" s="316"/>
-      <c r="C88" s="308"/>
+      <c r="B88" s="315"/>
+      <c r="C88" s="307"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="238"/>
@@ -9643,24 +10083,27 @@
       <c r="L88" s="132">
         <v>0</v>
       </c>
-      <c r="M88" s="52"/>
+      <c r="M88" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N88" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O88" s="244"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="47"/>
-      <c r="R88" s="47"/>
-      <c r="S88" s="47"/>
-      <c r="T88" s="47"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="152"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q88" s="318"/>
+      <c r="R88" s="318"/>
+      <c r="S88" s="318"/>
+      <c r="T88" s="318"/>
+      <c r="U88" s="320"/>
+      <c r="V88" s="319"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="12"/>
-      <c r="B89" s="316"/>
-      <c r="C89" s="308"/>
+      <c r="B89" s="315"/>
+      <c r="C89" s="307"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="238"/>
@@ -9674,24 +10117,27 @@
       <c r="L89" s="132">
         <v>0</v>
       </c>
-      <c r="M89" s="52"/>
+      <c r="M89" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N89" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O89" s="244"/>
       <c r="P89" s="46"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="118"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q89" s="318"/>
+      <c r="R89" s="318"/>
+      <c r="S89" s="318"/>
+      <c r="T89" s="318"/>
+      <c r="U89" s="320"/>
+      <c r="V89" s="319"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="12"/>
-      <c r="B90" s="316"/>
-      <c r="C90" s="308"/>
+      <c r="B90" s="315"/>
+      <c r="C90" s="307"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="238"/>
@@ -9705,24 +10151,27 @@
       <c r="L90" s="132">
         <v>0</v>
       </c>
-      <c r="M90" s="52"/>
+      <c r="M90" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N90" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O90" s="244"/>
       <c r="P90" s="3"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="135"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q90" s="318"/>
+      <c r="R90" s="318"/>
+      <c r="S90" s="318"/>
+      <c r="T90" s="318"/>
+      <c r="U90" s="320"/>
+      <c r="V90" s="319"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="12"/>
-      <c r="B91" s="316"/>
-      <c r="C91" s="308"/>
+      <c r="B91" s="315"/>
+      <c r="C91" s="307"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="238"/>
@@ -9736,24 +10185,27 @@
       <c r="L91" s="132">
         <v>0</v>
       </c>
-      <c r="M91" s="52"/>
+      <c r="M91" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N91" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O91" s="244"/>
       <c r="P91" s="3"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="47"/>
-      <c r="S91" s="47"/>
-      <c r="T91" s="47"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="152"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q91" s="318"/>
+      <c r="R91" s="318"/>
+      <c r="S91" s="318"/>
+      <c r="T91" s="318"/>
+      <c r="U91" s="320"/>
+      <c r="V91" s="319"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="12"/>
-      <c r="B92" s="316"/>
-      <c r="C92" s="313"/>
+      <c r="B92" s="315"/>
+      <c r="C92" s="312"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="238"/>
@@ -9767,25 +10219,28 @@
       <c r="L92" s="132">
         <v>0</v>
       </c>
-      <c r="M92" s="52"/>
+      <c r="M92" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N92" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O92" s="244"/>
       <c r="P92" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="151"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q92" s="318"/>
+      <c r="R92" s="318"/>
+      <c r="S92" s="318"/>
+      <c r="T92" s="318"/>
+      <c r="U92" s="320"/>
+      <c r="V92" s="319"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="12"/>
-      <c r="B93" s="307"/>
+      <c r="B93" s="306"/>
       <c r="C93" s="295"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -9800,23 +10255,26 @@
       <c r="L93" s="132">
         <v>0</v>
       </c>
-      <c r="M93" s="52"/>
+      <c r="M93" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N93" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O93" s="244"/>
       <c r="P93" s="46"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="151"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q93" s="318"/>
+      <c r="R93" s="318"/>
+      <c r="S93" s="318"/>
+      <c r="T93" s="318"/>
+      <c r="U93" s="320"/>
+      <c r="V93" s="319"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13"/>
-      <c r="B94" s="316"/>
+      <c r="B94" s="315"/>
       <c r="C94" s="295"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -9831,26 +10289,29 @@
       <c r="L94" s="132">
         <v>0</v>
       </c>
-      <c r="M94" s="52"/>
+      <c r="M94" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N94" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O94" s="244"/>
       <c r="P94" s="46"/>
-      <c r="Q94" s="304"/>
-      <c r="R94" s="47"/>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="152"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q94" s="318"/>
+      <c r="R94" s="318"/>
+      <c r="S94" s="318"/>
+      <c r="T94" s="318"/>
+      <c r="U94" s="320"/>
+      <c r="V94" s="319"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="153"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="327"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="158"/>
@@ -9878,14 +10339,14 @@
       <c r="P95" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="Q95" s="79"/>
-      <c r="R95" s="79"/>
-      <c r="S95" s="79"/>
-      <c r="T95" s="79"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="152"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="Q95" s="318"/>
+      <c r="R95" s="318"/>
+      <c r="S95" s="318"/>
+      <c r="T95" s="318"/>
+      <c r="U95" s="320"/>
+      <c r="V95" s="319"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="153"/>
       <c r="B96" s="207"/>
       <c r="C96" s="208" t="s">
@@ -9915,29 +10376,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="162"/>
-      <c r="P96" s="344" t="s">
+      <c r="P96" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="345"/>
-      <c r="R96" s="345"/>
-      <c r="S96" s="345"/>
-      <c r="T96" s="345"/>
-      <c r="U96" s="345"/>
-      <c r="V96" s="346"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A97" s="326" t="s">
+      <c r="Q96" s="350"/>
+      <c r="R96" s="350"/>
+      <c r="S96" s="350"/>
+      <c r="T96" s="350"/>
+      <c r="U96" s="350"/>
+      <c r="V96" s="351"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="327"/>
-      <c r="C97" s="328"/>
+      <c r="B97" s="334"/>
+      <c r="C97" s="335"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="170"/>
-      <c r="G97" s="317" t="s">
+      <c r="G97" s="322" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="317"/>
+      <c r="H97" s="322"/>
       <c r="I97" s="182"/>
       <c r="J97" s="172"/>
       <c r="K97" s="172"/>
@@ -9958,10 +10419,10 @@
       <c r="U97" s="47"/>
       <c r="V97" s="187"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A98" s="338"/>
-      <c r="B98" s="339"/>
-      <c r="C98" s="340"/>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="343"/>
+      <c r="B98" s="344"/>
+      <c r="C98" s="345"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="182"/>
@@ -9986,21 +10447,21 @@
       <c r="U98" s="47"/>
       <c r="V98" s="187"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A99" s="338" t="s">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="339"/>
-      <c r="C99" s="340"/>
+      <c r="B99" s="344"/>
+      <c r="C99" s="345"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="347" t="s">
+      <c r="E99" s="352" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="347"/>
-      <c r="G99" s="347"/>
-      <c r="H99" s="347"/>
-      <c r="I99" s="347"/>
-      <c r="J99" s="347"/>
+      <c r="F99" s="352"/>
+      <c r="G99" s="352"/>
+      <c r="H99" s="352"/>
+      <c r="I99" s="352"/>
+      <c r="J99" s="352"/>
       <c r="K99" s="183"/>
       <c r="L99" s="252"/>
       <c r="M99" s="253"/>
@@ -10016,23 +10477,20 @@
       <c r="U99" s="47"/>
       <c r="V99" s="187"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A100" s="338">
-        <f>+A49</f>
-        <v>0</v>
-      </c>
-      <c r="B100" s="339"/>
-      <c r="C100" s="340"/>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="343"/>
+      <c r="B100" s="344"/>
+      <c r="C100" s="345"/>
       <c r="D100" s="4"/>
       <c r="E100" s="179"/>
-      <c r="F100" s="339" t="str">
+      <c r="F100" s="344" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="339"/>
-      <c r="H100" s="339"/>
-      <c r="I100" s="339"/>
-      <c r="J100" s="339"/>
+      <c r="G100" s="344"/>
+      <c r="H100" s="344"/>
+      <c r="I100" s="344"/>
+      <c r="J100" s="344"/>
       <c r="K100" s="256"/>
       <c r="L100" s="257"/>
       <c r="M100" s="258"/>
@@ -10050,21 +10508,21 @@
       <c r="U100" s="218"/>
       <c r="V100" s="219"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A101" s="341" t="s">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="342"/>
-      <c r="C101" s="343"/>
+      <c r="B101" s="347"/>
+      <c r="C101" s="348"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="342" t="s">
+      <c r="F101" s="347" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="342"/>
-      <c r="H101" s="342"/>
-      <c r="I101" s="342"/>
-      <c r="J101" s="342"/>
+      <c r="G101" s="347"/>
+      <c r="H101" s="347"/>
+      <c r="I101" s="347"/>
+      <c r="J101" s="347"/>
       <c r="K101" s="260"/>
       <c r="L101" s="261"/>
       <c r="M101" s="262"/>
@@ -10078,7 +10536,7 @@
       <c r="U101" s="199"/>
       <c r="V101" s="200"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P102" s="145"/>
       <c r="Q102" s="145"/>
       <c r="R102" s="145"/>
@@ -10087,7 +10545,7 @@
       <c r="U102" s="265"/>
       <c r="V102" s="265"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="218"/>
@@ -10109,17 +10567,17 @@
     <mergeCell ref="F100:J100"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="F101:J101"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="R64:T64"/>
     <mergeCell ref="A54:V54"/>
     <mergeCell ref="A55:S55"/>
     <mergeCell ref="D57:H57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="R64:T64"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
     <mergeCell ref="G46:H46"/>
@@ -10132,7 +10590,7 @@
     <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -10144,37 +10602,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="X97" sqref="X97"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D77" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="T93" sqref="T93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="106.85546875" style="85" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="264" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="264" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" style="264" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="222" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
+    <col min="3" max="3" width="106.88671875" style="85" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="264" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="264" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" style="264" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="222" customWidth="1"/>
     <col min="9" max="9" width="7" style="222" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="222" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="222" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="222" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="222" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="222" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="222" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="264" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="85" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.85546875" style="85"/>
-    <col min="21" max="21" width="20.85546875" style="85" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="85" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="85" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="222" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="222" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="222" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="222" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" style="222" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" style="222" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="264" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" style="85"/>
+    <col min="20" max="20" width="18.33203125" style="85" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" style="85" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" style="85" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="85" customWidth="1"/>
     <col min="24" max="24" width="37" style="85" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="85"/>
+    <col min="25" max="16384" width="8.88671875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="277" t="s">
         <v>0</v>
       </c>
@@ -10202,7 +10661,7 @@
       <c r="W1" s="169"/>
       <c r="X1" s="278"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
@@ -10230,10 +10689,10 @@
       <c r="W2" s="167"/>
       <c r="X2" s="279"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A3" s="329"/>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="336"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
       <c r="D3" s="226"/>
       <c r="E3" s="226"/>
       <c r="F3" s="226"/>
@@ -10258,7 +10717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="280" t="s">
         <v>65</v>
       </c>
@@ -10286,7 +10745,7 @@
       <c r="W4" s="281"/>
       <c r="X4" s="282"/>
     </row>
-    <row r="5" spans="1:24" ht="58.15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:24" ht="58.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="283" t="s">
         <v>71</v>
       </c>
@@ -10309,16 +10768,16 @@
       <c r="R5" s="284"/>
       <c r="S5" s="284"/>
       <c r="T5" s="284"/>
-      <c r="U5" s="284"/>
-      <c r="V5" s="94" t="s">
-        <v>3</v>
-      </c>
+      <c r="U5" s="317" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="94"/>
       <c r="W5" s="87"/>
       <c r="X5" s="94" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -10350,31 +10809,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="318" t="s">
+      <c r="D7" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="319"/>
-      <c r="J7" s="320"/>
-      <c r="K7" s="348" t="s">
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="325"/>
+      <c r="K7" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="349"/>
-      <c r="M7" s="348" t="s">
+      <c r="L7" s="354"/>
+      <c r="M7" s="353" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="349"/>
-      <c r="O7" s="318" t="s">
+      <c r="N7" s="354"/>
+      <c r="O7" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="320"/>
+      <c r="P7" s="325"/>
       <c r="Q7" s="109"/>
       <c r="R7" s="107"/>
       <c r="S7" s="109"/>
@@ -10384,7 +10843,7 @@
       <c r="W7" s="109"/>
       <c r="X7" s="108"/>
     </row>
-    <row r="8" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -10404,10 +10863,10 @@
       <c r="G8" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="350" t="s">
+      <c r="H8" s="355" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="351"/>
+      <c r="I8" s="356"/>
       <c r="J8" s="114" t="s">
         <v>16</v>
       </c>
@@ -10444,7 +10903,7 @@
       <c r="W8" s="79"/>
       <c r="X8" s="118"/>
     </row>
-    <row r="9" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
@@ -10456,10 +10915,10 @@
       <c r="G9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="352" t="s">
+      <c r="H9" s="357" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="353"/>
+      <c r="I9" s="358"/>
       <c r="J9" s="122" t="s">
         <v>21</v>
       </c>
@@ -10486,7 +10945,7 @@
       <c r="W9" s="79"/>
       <c r="X9" s="118"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="43"/>
@@ -10505,7 +10964,10 @@
       <c r="N10" s="132">
         <v>0</v>
       </c>
-      <c r="O10" s="235"/>
+      <c r="O10" s="52">
+        <f t="shared" ref="O10:O44" si="0">+I10</f>
+        <v>0</v>
+      </c>
       <c r="P10" s="132">
         <f>+L10</f>
         <v>0</v>
@@ -10521,7 +10983,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="118"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17"/>
       <c r="B11" s="20"/>
       <c r="C11" s="25"/>
@@ -10540,9 +11002,12 @@
       <c r="N11" s="132">
         <v>0</v>
       </c>
-      <c r="O11" s="52"/>
+      <c r="O11" s="52">
+        <f>+I11</f>
+        <v>0</v>
+      </c>
       <c r="P11" s="52">
-        <f t="shared" ref="P11:P44" si="0">+L11</f>
+        <f t="shared" ref="P11:P44" si="1">+L11</f>
         <v>0</v>
       </c>
       <c r="Q11" s="242"/>
@@ -10556,7 +11021,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="135"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="15"/>
@@ -10575,9 +11040,12 @@
       <c r="N12" s="132">
         <v>0</v>
       </c>
-      <c r="O12" s="52"/>
+      <c r="O12" s="52">
+        <f t="shared" ref="O12:O44" si="2">+I12</f>
+        <v>0</v>
+      </c>
       <c r="P12" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q12" s="244"/>
@@ -10593,7 +11061,7 @@
       </c>
       <c r="X12" s="135"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17"/>
       <c r="B13" s="7"/>
       <c r="C13" s="15"/>
@@ -10612,9 +11080,12 @@
       <c r="N13" s="132">
         <v>0</v>
       </c>
-      <c r="O13" s="52"/>
+      <c r="O13" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13" s="244"/>
@@ -10630,7 +11101,7 @@
       </c>
       <c r="X13" s="135"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17"/>
       <c r="B14" s="7"/>
       <c r="C14" s="15"/>
@@ -10649,15 +11120,18 @@
       <c r="N14" s="132">
         <v>0</v>
       </c>
-      <c r="O14" s="52"/>
+      <c r="O14" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P14" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="244"/>
       <c r="R14" s="83"/>
       <c r="S14" s="47"/>
-      <c r="T14" s="138" t="s">
+      <c r="T14" s="359" t="s">
         <v>66</v>
       </c>
       <c r="U14" s="138"/>
@@ -10667,7 +11141,7 @@
       </c>
       <c r="X14" s="118"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17"/>
       <c r="B15" s="7"/>
       <c r="C15" s="15"/>
@@ -10686,9 +11160,12 @@
       <c r="N15" s="132">
         <v>0</v>
       </c>
-      <c r="O15" s="52"/>
+      <c r="O15" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="244"/>
@@ -10702,7 +11179,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="139"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17"/>
       <c r="B16" s="20"/>
       <c r="C16" s="18"/>
@@ -10721,9 +11198,12 @@
       <c r="N16" s="132">
         <v>0</v>
       </c>
-      <c r="O16" s="52"/>
+      <c r="O16" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P16" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q16" s="244"/>
@@ -10735,7 +11215,7 @@
       <c r="W16" s="141"/>
       <c r="X16" s="143"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -10754,9 +11234,12 @@
       <c r="N17" s="132">
         <v>0</v>
       </c>
-      <c r="O17" s="52"/>
+      <c r="O17" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q17" s="244"/>
@@ -10768,7 +11251,7 @@
       <c r="W17" s="145"/>
       <c r="X17" s="146"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17"/>
       <c r="B18" s="7"/>
       <c r="C18" s="18"/>
@@ -10787,9 +11270,12 @@
       <c r="N18" s="132">
         <v>0</v>
       </c>
-      <c r="O18" s="52"/>
+      <c r="O18" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P18" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="244"/>
@@ -10801,7 +11287,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="135"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15"/>
@@ -10820,9 +11306,12 @@
       <c r="N19" s="132">
         <v>0</v>
       </c>
-      <c r="O19" s="52"/>
+      <c r="O19" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P19" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="244"/>
@@ -10834,7 +11323,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="135"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17"/>
       <c r="B20" s="7"/>
       <c r="C20" s="15"/>
@@ -10853,9 +11342,12 @@
       <c r="N20" s="132">
         <v>0</v>
       </c>
-      <c r="O20" s="52"/>
+      <c r="O20" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P20" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="244"/>
@@ -10867,7 +11359,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="135"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17"/>
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
@@ -10886,9 +11378,12 @@
       <c r="N21" s="132">
         <v>0</v>
       </c>
-      <c r="O21" s="52"/>
+      <c r="O21" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="244"/>
@@ -10900,7 +11395,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="135"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17"/>
       <c r="B22" s="7"/>
       <c r="C22" s="61"/>
@@ -10919,9 +11414,12 @@
       <c r="N22" s="132">
         <v>0</v>
       </c>
-      <c r="O22" s="52"/>
+      <c r="O22" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P22" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="244"/>
@@ -10933,7 +11431,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="135"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17"/>
       <c r="B23" s="7"/>
       <c r="C23" s="62"/>
@@ -10952,9 +11450,12 @@
       <c r="N23" s="132">
         <v>0</v>
       </c>
-      <c r="O23" s="52"/>
+      <c r="O23" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P23" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="244"/>
@@ -10966,7 +11467,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="135"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15"/>
@@ -10985,9 +11486,12 @@
       <c r="N24" s="132">
         <v>0</v>
       </c>
-      <c r="O24" s="52"/>
+      <c r="O24" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P24" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24" s="244"/>
@@ -10999,7 +11503,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="135"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17"/>
       <c r="B25" s="7"/>
       <c r="C25" s="15"/>
@@ -11018,9 +11522,12 @@
       <c r="N25" s="132">
         <v>0</v>
       </c>
-      <c r="O25" s="52"/>
+      <c r="O25" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P25" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="244"/>
@@ -11032,7 +11539,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="135"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="18"/>
@@ -11051,9 +11558,12 @@
       <c r="N26" s="132">
         <v>0</v>
       </c>
-      <c r="O26" s="52"/>
+      <c r="O26" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P26" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26" s="244"/>
@@ -11065,7 +11575,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="135"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17"/>
       <c r="B27" s="7"/>
       <c r="C27" s="61"/>
@@ -11084,9 +11594,12 @@
       <c r="N27" s="132">
         <v>0</v>
       </c>
-      <c r="O27" s="52"/>
+      <c r="O27" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P27" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="244"/>
@@ -11098,7 +11611,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="135"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -11117,9 +11630,12 @@
       <c r="N28" s="132">
         <v>0</v>
       </c>
-      <c r="O28" s="52"/>
+      <c r="O28" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P28" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="244"/>
@@ -11131,7 +11647,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="135"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17"/>
       <c r="B29" s="7"/>
       <c r="C29" s="63"/>
@@ -11150,9 +11666,12 @@
       <c r="N29" s="132">
         <v>0</v>
       </c>
-      <c r="O29" s="52"/>
+      <c r="O29" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P29" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q29" s="244"/>
@@ -11164,7 +11683,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="135"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17"/>
       <c r="B30" s="7"/>
       <c r="C30" s="15"/>
@@ -11183,9 +11702,12 @@
       <c r="N30" s="132">
         <v>0</v>
       </c>
-      <c r="O30" s="52"/>
+      <c r="O30" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P30" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q30" s="244"/>
@@ -11197,7 +11719,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="135"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17"/>
       <c r="B31" s="20"/>
       <c r="C31" s="18"/>
@@ -11216,9 +11738,12 @@
       <c r="N31" s="132">
         <v>0</v>
       </c>
-      <c r="O31" s="52"/>
+      <c r="O31" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P31" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q31" s="244"/>
@@ -11230,7 +11755,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="135"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17"/>
       <c r="B32" s="7"/>
       <c r="C32" s="61"/>
@@ -11249,9 +11774,12 @@
       <c r="N32" s="132">
         <v>0</v>
       </c>
-      <c r="O32" s="52"/>
+      <c r="O32" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P32" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q32" s="244"/>
@@ -11263,7 +11791,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="135"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17"/>
       <c r="B33" s="7"/>
       <c r="C33" s="15"/>
@@ -11282,9 +11810,12 @@
       <c r="N33" s="132">
         <v>0</v>
       </c>
-      <c r="O33" s="52"/>
+      <c r="O33" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P33" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q33" s="244"/>
@@ -11296,7 +11827,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="135"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="17"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15"/>
@@ -11315,9 +11846,12 @@
       <c r="N34" s="132">
         <v>0</v>
       </c>
-      <c r="O34" s="52"/>
+      <c r="O34" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P34" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q34" s="244"/>
@@ -11329,7 +11863,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="151"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="64"/>
       <c r="B35" s="65"/>
       <c r="C35" s="66"/>
@@ -11348,9 +11882,12 @@
       <c r="N35" s="132">
         <v>0</v>
       </c>
-      <c r="O35" s="52"/>
+      <c r="O35" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P35" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q35" s="244"/>
@@ -11362,7 +11899,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="152"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="16"/>
       <c r="B36" s="68"/>
       <c r="C36" s="61"/>
@@ -11381,9 +11918,12 @@
       <c r="N36" s="132">
         <v>0</v>
       </c>
-      <c r="O36" s="52"/>
+      <c r="O36" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P36" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q36" s="244"/>
@@ -11395,7 +11935,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="118"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -11414,9 +11954,12 @@
       <c r="N37" s="132">
         <v>0</v>
       </c>
-      <c r="O37" s="52"/>
+      <c r="O37" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P37" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q37" s="244"/>
@@ -11428,7 +11971,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="118"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="17"/>
       <c r="B38" s="20"/>
       <c r="C38" s="18"/>
@@ -11447,9 +11990,12 @@
       <c r="N38" s="132">
         <v>0</v>
       </c>
-      <c r="O38" s="52"/>
+      <c r="O38" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P38" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q38" s="244"/>
@@ -11461,7 +12007,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="135"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
       <c r="B39" s="7"/>
       <c r="C39" s="49"/>
@@ -11480,9 +12026,12 @@
       <c r="N39" s="132">
         <v>0</v>
       </c>
-      <c r="O39" s="52"/>
+      <c r="O39" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P39" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q39" s="244"/>
@@ -11494,7 +12043,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="152"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
       <c r="B40" s="7"/>
       <c r="C40" s="18"/>
@@ -11513,9 +12062,12 @@
       <c r="N40" s="132">
         <v>0</v>
       </c>
-      <c r="O40" s="52"/>
+      <c r="O40" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P40" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q40" s="244"/>
@@ -11527,7 +12079,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="151"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
       <c r="B41" s="7"/>
       <c r="C41" s="18"/>
@@ -11546,9 +12098,12 @@
       <c r="N41" s="132">
         <v>0</v>
       </c>
-      <c r="O41" s="52"/>
+      <c r="O41" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P41" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q41" s="244"/>
@@ -11560,7 +12115,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="151"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
       <c r="B42" s="7"/>
       <c r="C42" s="18"/>
@@ -11579,9 +12134,12 @@
       <c r="N42" s="132">
         <v>0</v>
       </c>
-      <c r="O42" s="52"/>
+      <c r="O42" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P42" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q42" s="244"/>
@@ -11593,7 +12151,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="152"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
       <c r="B43" s="7"/>
       <c r="C43" s="18"/>
@@ -11612,9 +12170,12 @@
       <c r="N43" s="132">
         <v>0</v>
       </c>
-      <c r="O43" s="52"/>
+      <c r="O43" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P43" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q43" s="244"/>
@@ -11626,7 +12187,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="135"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="18"/>
@@ -11645,9 +12206,12 @@
       <c r="N44" s="132">
         <v>0</v>
       </c>
-      <c r="O44" s="52"/>
+      <c r="O44" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P44" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q44" s="136"/>
@@ -11659,7 +12223,7 @@
       <c r="W44" s="141"/>
       <c r="X44" s="143"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="153"/>
       <c r="B45" s="154"/>
       <c r="C45" s="155" t="s">
@@ -11699,7 +12263,7 @@
       <c r="W45" s="164"/>
       <c r="X45" s="165"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="166"/>
       <c r="B46" s="167"/>
       <c r="C46" s="168" t="s">
@@ -11728,7 +12292,7 @@
       <c r="W46" s="177"/>
       <c r="X46" s="135"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="178"/>
       <c r="B47" s="179"/>
       <c r="C47" s="180"/>
@@ -11754,7 +12318,7 @@
       <c r="W47" s="47"/>
       <c r="X47" s="187"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="179"/>
       <c r="C48" s="190" t="s">
         <v>74</v>
@@ -11781,7 +12345,7 @@
       <c r="W48" s="47"/>
       <c r="X48" s="187"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="178"/>
       <c r="B49" s="179"/>
       <c r="C49" s="190" t="s">
@@ -11811,7 +12375,7 @@
       <c r="W49" s="47"/>
       <c r="X49" s="187"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="248" t="s">
@@ -11841,66 +12405,66 @@
       <c r="W50" s="276"/>
       <c r="X50" s="200"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A51" s="321" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="322"/>
-      <c r="C51" s="322"/>
-      <c r="D51" s="322"/>
-      <c r="E51" s="322"/>
-      <c r="F51" s="322"/>
-      <c r="G51" s="322"/>
-      <c r="H51" s="322"/>
-      <c r="I51" s="322"/>
-      <c r="J51" s="322"/>
-      <c r="K51" s="322"/>
-      <c r="L51" s="322"/>
-      <c r="M51" s="322"/>
-      <c r="N51" s="322"/>
-      <c r="O51" s="322"/>
-      <c r="P51" s="322"/>
-      <c r="Q51" s="322"/>
-      <c r="R51" s="322"/>
-      <c r="S51" s="322"/>
-      <c r="T51" s="322"/>
-      <c r="U51" s="322"/>
-      <c r="V51" s="322"/>
-      <c r="W51" s="322"/>
-      <c r="X51" s="323"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A52" s="326" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="329"/>
+      <c r="C51" s="329"/>
+      <c r="D51" s="329"/>
+      <c r="E51" s="329"/>
+      <c r="F51" s="329"/>
+      <c r="G51" s="329"/>
+      <c r="H51" s="329"/>
+      <c r="I51" s="329"/>
+      <c r="J51" s="329"/>
+      <c r="K51" s="329"/>
+      <c r="L51" s="329"/>
+      <c r="M51" s="329"/>
+      <c r="N51" s="329"/>
+      <c r="O51" s="329"/>
+      <c r="P51" s="329"/>
+      <c r="Q51" s="329"/>
+      <c r="R51" s="329"/>
+      <c r="S51" s="329"/>
+      <c r="T51" s="329"/>
+      <c r="U51" s="329"/>
+      <c r="V51" s="329"/>
+      <c r="W51" s="329"/>
+      <c r="X51" s="330"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="333" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="327"/>
-      <c r="C52" s="327"/>
-      <c r="D52" s="327"/>
-      <c r="E52" s="327"/>
-      <c r="F52" s="327"/>
-      <c r="G52" s="327"/>
-      <c r="H52" s="327"/>
-      <c r="I52" s="327"/>
-      <c r="J52" s="327"/>
-      <c r="K52" s="327"/>
-      <c r="L52" s="327"/>
-      <c r="M52" s="327"/>
-      <c r="N52" s="327"/>
-      <c r="O52" s="327"/>
-      <c r="P52" s="327"/>
-      <c r="Q52" s="327"/>
-      <c r="R52" s="327"/>
-      <c r="S52" s="327"/>
-      <c r="T52" s="327"/>
-      <c r="U52" s="327"/>
-      <c r="V52" s="327"/>
-      <c r="W52" s="327"/>
-      <c r="X52" s="328"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A53" s="329"/>
-      <c r="B53" s="330"/>
-      <c r="C53" s="330"/>
+      <c r="B52" s="334"/>
+      <c r="C52" s="334"/>
+      <c r="D52" s="334"/>
+      <c r="E52" s="334"/>
+      <c r="F52" s="334"/>
+      <c r="G52" s="334"/>
+      <c r="H52" s="334"/>
+      <c r="I52" s="334"/>
+      <c r="J52" s="334"/>
+      <c r="K52" s="334"/>
+      <c r="L52" s="334"/>
+      <c r="M52" s="334"/>
+      <c r="N52" s="334"/>
+      <c r="O52" s="334"/>
+      <c r="P52" s="334"/>
+      <c r="Q52" s="334"/>
+      <c r="R52" s="334"/>
+      <c r="S52" s="334"/>
+      <c r="T52" s="334"/>
+      <c r="U52" s="334"/>
+      <c r="V52" s="334"/>
+      <c r="W52" s="334"/>
+      <c r="X52" s="335"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="336"/>
+      <c r="B53" s="337"/>
+      <c r="C53" s="337"/>
       <c r="D53" s="226"/>
       <c r="E53" s="226"/>
       <c r="F53" s="226"/>
@@ -11925,59 +12489,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A54" s="331"/>
-      <c r="B54" s="332"/>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
-      <c r="H54" s="332"/>
-      <c r="I54" s="332"/>
-      <c r="J54" s="332"/>
-      <c r="K54" s="332"/>
-      <c r="L54" s="332"/>
-      <c r="M54" s="332"/>
-      <c r="N54" s="332"/>
-      <c r="O54" s="332"/>
-      <c r="P54" s="332"/>
-      <c r="Q54" s="332"/>
-      <c r="R54" s="332"/>
-      <c r="S54" s="332"/>
-      <c r="T54" s="332"/>
-      <c r="U54" s="332"/>
-      <c r="V54" s="332"/>
-      <c r="W54" s="332"/>
-      <c r="X54" s="333"/>
-    </row>
-    <row r="55" spans="1:24" ht="59.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="334"/>
-      <c r="B55" s="335"/>
-      <c r="C55" s="335"/>
-      <c r="D55" s="335"/>
-      <c r="E55" s="335"/>
-      <c r="F55" s="335"/>
-      <c r="G55" s="335"/>
-      <c r="H55" s="335"/>
-      <c r="I55" s="335"/>
-      <c r="J55" s="335"/>
-      <c r="K55" s="335"/>
-      <c r="L55" s="335"/>
-      <c r="M55" s="335"/>
-      <c r="N55" s="335"/>
-      <c r="O55" s="335"/>
-      <c r="P55" s="335"/>
-      <c r="Q55" s="335"/>
-      <c r="R55" s="335"/>
-      <c r="S55" s="335"/>
-      <c r="T55" s="335"/>
-      <c r="U55" s="335"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="338"/>
+      <c r="B54" s="339"/>
+      <c r="C54" s="339"/>
+      <c r="D54" s="339"/>
+      <c r="E54" s="339"/>
+      <c r="F54" s="339"/>
+      <c r="G54" s="339"/>
+      <c r="H54" s="339"/>
+      <c r="I54" s="339"/>
+      <c r="J54" s="339"/>
+      <c r="K54" s="339"/>
+      <c r="L54" s="339"/>
+      <c r="M54" s="339"/>
+      <c r="N54" s="339"/>
+      <c r="O54" s="339"/>
+      <c r="P54" s="339"/>
+      <c r="Q54" s="339"/>
+      <c r="R54" s="339"/>
+      <c r="S54" s="339"/>
+      <c r="T54" s="339"/>
+      <c r="U54" s="339"/>
+      <c r="V54" s="339"/>
+      <c r="W54" s="339"/>
+      <c r="X54" s="340"/>
+    </row>
+    <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="341"/>
+      <c r="B55" s="342"/>
+      <c r="C55" s="342"/>
+      <c r="D55" s="342"/>
+      <c r="E55" s="342"/>
+      <c r="F55" s="342"/>
+      <c r="G55" s="342"/>
+      <c r="H55" s="342"/>
+      <c r="I55" s="342"/>
+      <c r="J55" s="342"/>
+      <c r="K55" s="342"/>
+      <c r="L55" s="342"/>
+      <c r="M55" s="342"/>
+      <c r="N55" s="342"/>
+      <c r="O55" s="342"/>
+      <c r="P55" s="342"/>
+      <c r="Q55" s="342"/>
+      <c r="R55" s="342"/>
+      <c r="S55" s="342"/>
+      <c r="T55" s="342"/>
+      <c r="U55" s="317" t="s">
+        <v>78</v>
+      </c>
       <c r="V55" s="87"/>
       <c r="W55" s="87"/>
       <c r="X55" s="94"/>
     </row>
-    <row r="56" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -12007,31 +12573,31 @@
       <c r="W56" s="201"/>
       <c r="X56" s="104"/>
     </row>
-    <row r="57" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="318" t="s">
+      <c r="D57" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="319"/>
-      <c r="F57" s="319"/>
-      <c r="G57" s="319"/>
-      <c r="H57" s="319"/>
-      <c r="I57" s="319"/>
-      <c r="J57" s="320"/>
-      <c r="K57" s="348" t="s">
+      <c r="E57" s="324"/>
+      <c r="F57" s="324"/>
+      <c r="G57" s="324"/>
+      <c r="H57" s="324"/>
+      <c r="I57" s="324"/>
+      <c r="J57" s="325"/>
+      <c r="K57" s="353" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="349"/>
-      <c r="M57" s="348" t="s">
+      <c r="L57" s="354"/>
+      <c r="M57" s="353" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="349"/>
-      <c r="O57" s="318" t="s">
+      <c r="N57" s="354"/>
+      <c r="O57" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="320"/>
+      <c r="P57" s="325"/>
       <c r="Q57" s="109"/>
       <c r="R57" s="107"/>
       <c r="S57" s="109"/>
@@ -12041,7 +12607,7 @@
       <c r="W57" s="109"/>
       <c r="X57" s="108"/>
     </row>
-    <row r="58" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -12061,10 +12627,10 @@
       <c r="G58" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="350" t="s">
+      <c r="H58" s="355" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="351"/>
+      <c r="I58" s="356"/>
       <c r="J58" s="114" t="s">
         <v>16</v>
       </c>
@@ -12101,7 +12667,7 @@
       <c r="W58" s="79"/>
       <c r="X58" s="118"/>
     </row>
-    <row r="59" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
@@ -12113,10 +12679,10 @@
       <c r="G59" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="352" t="s">
+      <c r="H59" s="357" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="353"/>
+      <c r="I59" s="358"/>
       <c r="J59" s="122" t="s">
         <v>21</v>
       </c>
@@ -12143,10 +12709,10 @@
       <c r="W59" s="79"/>
       <c r="X59" s="118"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17"/>
       <c r="B60" s="294"/>
-      <c r="C60" s="314"/>
+      <c r="C60" s="313"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="84"/>
@@ -12162,7 +12728,10 @@
       <c r="N60" s="132">
         <v>0</v>
       </c>
-      <c r="O60" s="235"/>
+      <c r="O60" s="52">
+        <f t="shared" ref="O60:O94" si="3">+I60</f>
+        <v>0</v>
+      </c>
       <c r="P60" s="132">
         <f>+L60</f>
         <v>0</v>
@@ -12178,9 +12747,9 @@
       <c r="W60" s="11"/>
       <c r="X60" s="118"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="38"/>
-      <c r="B61" s="305"/>
+      <c r="B61" s="304"/>
       <c r="C61" s="295"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -12197,9 +12766,12 @@
       <c r="N61" s="132">
         <v>0</v>
       </c>
-      <c r="O61" s="52"/>
+      <c r="O61" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P61" s="52">
-        <f t="shared" ref="P61:P94" si="1">+L61</f>
+        <f t="shared" ref="P61:P94" si="4">+L61</f>
         <v>0</v>
       </c>
       <c r="Q61" s="244"/>
@@ -12213,9 +12785,9 @@
       <c r="W61" s="4"/>
       <c r="X61" s="135"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="17"/>
-      <c r="B62" s="306"/>
+      <c r="B62" s="305"/>
       <c r="C62" s="295"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -12232,9 +12804,12 @@
       <c r="N62" s="132">
         <v>0</v>
       </c>
-      <c r="O62" s="52"/>
+      <c r="O62" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P62" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q62" s="244"/>
@@ -12250,10 +12825,10 @@
       </c>
       <c r="X62" s="135"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="38"/>
-      <c r="B63" s="307"/>
-      <c r="C63" s="308"/>
+      <c r="B63" s="306"/>
+      <c r="C63" s="307"/>
       <c r="D63" s="42"/>
       <c r="E63" s="10"/>
       <c r="F63" s="41"/>
@@ -12269,9 +12844,12 @@
       <c r="N63" s="132">
         <v>0</v>
       </c>
-      <c r="O63" s="52"/>
+      <c r="O63" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P63" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q63" s="244"/>
@@ -12279,17 +12857,17 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="324"/>
-      <c r="U63" s="324"/>
-      <c r="V63" s="324"/>
+      <c r="T63" s="331"/>
+      <c r="U63" s="331"/>
+      <c r="V63" s="331"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="X63" s="135"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="17"/>
-      <c r="B64" s="305"/>
+      <c r="B64" s="304"/>
       <c r="C64" s="293"/>
       <c r="D64" s="42"/>
       <c r="E64" s="10"/>
@@ -12306,29 +12884,32 @@
       <c r="N64" s="132">
         <v>0</v>
       </c>
-      <c r="O64" s="52"/>
+      <c r="O64" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P64" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q64" s="244"/>
       <c r="R64" s="83"/>
       <c r="S64" s="47"/>
-      <c r="T64" s="325" t="str">
+      <c r="T64" s="332" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="325"/>
-      <c r="V64" s="325"/>
+      <c r="U64" s="332"/>
+      <c r="V64" s="332"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="X64" s="118"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="38"/>
-      <c r="B65" s="307"/>
-      <c r="C65" s="308"/>
+      <c r="B65" s="306"/>
+      <c r="C65" s="307"/>
       <c r="D65" s="42"/>
       <c r="E65" s="10"/>
       <c r="F65" s="41"/>
@@ -12344,9 +12925,12 @@
       <c r="N65" s="132">
         <v>0</v>
       </c>
-      <c r="O65" s="52"/>
+      <c r="O65" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P65" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q65" s="244"/>
@@ -12360,9 +12944,9 @@
       <c r="W65" s="4"/>
       <c r="X65" s="139"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="70"/>
-      <c r="B66" s="305"/>
+      <c r="B66" s="304"/>
       <c r="C66" s="293"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -12379,9 +12963,12 @@
       <c r="N66" s="132">
         <v>0</v>
       </c>
-      <c r="O66" s="52"/>
+      <c r="O66" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P66" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q66" s="244"/>
@@ -12393,9 +12980,9 @@
       <c r="W66" s="141"/>
       <c r="X66" s="143"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="38"/>
-      <c r="B67" s="305"/>
+      <c r="B67" s="304"/>
       <c r="C67" s="293"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -12412,9 +12999,12 @@
       <c r="N67" s="132">
         <v>0</v>
       </c>
-      <c r="O67" s="52"/>
+      <c r="O67" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P67" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q67" s="244"/>
@@ -12428,9 +13018,9 @@
       <c r="W67" s="48"/>
       <c r="X67" s="135"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17"/>
-      <c r="B68" s="305"/>
+      <c r="B68" s="304"/>
       <c r="C68" s="293"/>
       <c r="D68" s="26"/>
       <c r="E68" s="9"/>
@@ -12447,9 +13037,12 @@
       <c r="N68" s="132">
         <v>0</v>
       </c>
-      <c r="O68" s="52"/>
+      <c r="O68" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P68" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q68" s="244"/>
@@ -12463,10 +13056,10 @@
       <c r="W68" s="4"/>
       <c r="X68" s="135"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="70"/>
-      <c r="B69" s="305"/>
-      <c r="C69" s="308"/>
+      <c r="B69" s="304"/>
+      <c r="C69" s="307"/>
       <c r="D69" s="42"/>
       <c r="E69" s="10"/>
       <c r="F69" s="41"/>
@@ -12482,9 +13075,12 @@
       <c r="N69" s="132">
         <v>0</v>
       </c>
-      <c r="O69" s="52"/>
+      <c r="O69" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P69" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q69" s="244"/>
@@ -12500,9 +13096,9 @@
       </c>
       <c r="X69" s="135"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="16"/>
-      <c r="B70" s="305"/>
+      <c r="B70" s="304"/>
       <c r="C70" s="293"/>
       <c r="D70" s="42"/>
       <c r="E70" s="10"/>
@@ -12519,9 +13115,12 @@
       <c r="N70" s="132">
         <v>0</v>
       </c>
-      <c r="O70" s="52"/>
+      <c r="O70" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P70" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q70" s="244"/>
@@ -12535,10 +13134,10 @@
       <c r="W70" s="4"/>
       <c r="X70" s="135"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="17"/>
       <c r="B71" s="294"/>
-      <c r="C71" s="308"/>
+      <c r="C71" s="307"/>
       <c r="D71" s="42"/>
       <c r="E71" s="10"/>
       <c r="F71" s="41"/>
@@ -12554,9 +13153,12 @@
       <c r="N71" s="132">
         <v>0</v>
       </c>
-      <c r="O71" s="52"/>
+      <c r="O71" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P71" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q71" s="244"/>
@@ -12570,10 +13172,10 @@
       <c r="W71" s="4"/>
       <c r="X71" s="135"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="71"/>
-      <c r="B72" s="306"/>
-      <c r="C72" s="309"/>
+      <c r="B72" s="305"/>
+      <c r="C72" s="308"/>
       <c r="D72" s="72"/>
       <c r="E72" s="72"/>
       <c r="F72" s="76"/>
@@ -12589,9 +13191,12 @@
       <c r="N72" s="132">
         <v>0</v>
       </c>
-      <c r="O72" s="52"/>
+      <c r="O72" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P72" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q72" s="244"/>
@@ -12605,10 +13210,10 @@
       <c r="W72" s="4"/>
       <c r="X72" s="135"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="71"/>
-      <c r="B73" s="310"/>
-      <c r="C73" s="309"/>
+      <c r="B73" s="309"/>
+      <c r="C73" s="308"/>
       <c r="D73" s="42"/>
       <c r="E73" s="10"/>
       <c r="F73" s="41"/>
@@ -12624,9 +13229,12 @@
       <c r="N73" s="132">
         <v>0</v>
       </c>
-      <c r="O73" s="52"/>
+      <c r="O73" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P73" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q73" s="244"/>
@@ -12640,10 +13248,10 @@
       <c r="W73" s="4"/>
       <c r="X73" s="135"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="38"/>
-      <c r="B74" s="310"/>
-      <c r="C74" s="309"/>
+      <c r="B74" s="309"/>
+      <c r="C74" s="308"/>
       <c r="D74" s="42"/>
       <c r="E74" s="10"/>
       <c r="F74" s="41"/>
@@ -12659,9 +13267,12 @@
       <c r="N74" s="132">
         <v>0</v>
       </c>
-      <c r="O74" s="52"/>
+      <c r="O74" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P74" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q74" s="244"/>
@@ -12680,7 +13291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="17"/>
       <c r="B75" s="294"/>
       <c r="C75" s="295"/>
@@ -12699,9 +13310,12 @@
       <c r="N75" s="132">
         <v>0</v>
       </c>
-      <c r="O75" s="52"/>
+      <c r="O75" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P75" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q75" s="244"/>
@@ -12720,9 +13334,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="71"/>
-      <c r="B76" s="306"/>
+      <c r="B76" s="305"/>
       <c r="C76" s="295"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -12739,9 +13353,12 @@
       <c r="N76" s="132">
         <v>0</v>
       </c>
-      <c r="O76" s="52"/>
+      <c r="O76" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P76" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q76" s="244"/>
@@ -12759,9 +13376,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="71"/>
-      <c r="B77" s="305"/>
+      <c r="B77" s="304"/>
       <c r="C77" s="293"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -12778,9 +13395,12 @@
       <c r="N77" s="132">
         <v>0</v>
       </c>
-      <c r="O77" s="52"/>
+      <c r="O77" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P77" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q77" s="244"/>
@@ -12799,9 +13419,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="71"/>
-      <c r="B78" s="305"/>
+      <c r="B78" s="304"/>
       <c r="C78" s="293"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -12818,9 +13438,12 @@
       <c r="N78" s="132">
         <v>0</v>
       </c>
-      <c r="O78" s="52"/>
+      <c r="O78" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P78" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q78" s="244"/>
@@ -12839,9 +13462,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="70"/>
-      <c r="B79" s="305"/>
+      <c r="B79" s="304"/>
       <c r="C79" s="293"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -12858,9 +13481,12 @@
       <c r="N79" s="132">
         <v>0</v>
       </c>
-      <c r="O79" s="52"/>
+      <c r="O79" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P79" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q79" s="244"/>
@@ -12879,10 +13505,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="38"/>
-      <c r="B80" s="307"/>
-      <c r="C80" s="311"/>
+      <c r="B80" s="306"/>
+      <c r="C80" s="310"/>
       <c r="D80" s="35"/>
       <c r="E80" s="26"/>
       <c r="F80" s="9"/>
@@ -12898,9 +13524,12 @@
       <c r="N80" s="132">
         <v>0</v>
       </c>
-      <c r="O80" s="52"/>
+      <c r="O80" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P80" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q80" s="244"/>
@@ -12920,10 +13549,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="17"/>
-      <c r="B81" s="305"/>
-      <c r="C81" s="308"/>
+      <c r="B81" s="304"/>
+      <c r="C81" s="307"/>
       <c r="D81" s="33"/>
       <c r="E81" s="26"/>
       <c r="F81" s="9"/>
@@ -12939,9 +13568,12 @@
       <c r="N81" s="132">
         <v>0</v>
       </c>
-      <c r="O81" s="52"/>
+      <c r="O81" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P81" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q81" s="244"/>
@@ -12959,10 +13591,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="12"/>
-      <c r="B82" s="312"/>
-      <c r="C82" s="308"/>
+      <c r="B82" s="311"/>
+      <c r="C82" s="307"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="41"/>
@@ -12978,9 +13610,12 @@
       <c r="N82" s="132">
         <v>0</v>
       </c>
-      <c r="O82" s="52"/>
+      <c r="O82" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P82" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q82" s="244"/>
@@ -12998,10 +13633,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="12"/>
-      <c r="B83" s="312"/>
-      <c r="C83" s="308"/>
+      <c r="B83" s="311"/>
+      <c r="C83" s="307"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="41"/>
@@ -13017,9 +13652,12 @@
       <c r="N83" s="132">
         <v>0</v>
       </c>
-      <c r="O83" s="52"/>
+      <c r="O83" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P83" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q83" s="244"/>
@@ -13037,10 +13675,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="12"/>
-      <c r="B84" s="312"/>
-      <c r="C84" s="308"/>
+      <c r="B84" s="311"/>
+      <c r="C84" s="307"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="41"/>
@@ -13056,9 +13694,12 @@
       <c r="N84" s="132">
         <v>0</v>
       </c>
-      <c r="O84" s="52"/>
+      <c r="O84" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P84" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q84" s="244"/>
@@ -13077,10 +13718,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="12"/>
-      <c r="B85" s="305"/>
-      <c r="C85" s="308"/>
+      <c r="B85" s="304"/>
+      <c r="C85" s="307"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="78"/>
@@ -13096,27 +13737,30 @@
       <c r="N85" s="132">
         <v>0</v>
       </c>
-      <c r="O85" s="52"/>
+      <c r="O85" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P85" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q85" s="244"/>
       <c r="R85" s="3"/>
       <c r="S85" s="4"/>
       <c r="T85" s="206" t="str">
-        <f>(BAHTTEXT(V84))</f>
-        <v>ศูนย์บาทถ้วน</v>
+        <f>"("&amp;(BAHTTEXT(T97))&amp;")"</f>
+        <v>(ศูนย์บาทถ้วน)</v>
       </c>
       <c r="U85" s="4"/>
       <c r="V85" s="147"/>
       <c r="W85" s="4"/>
       <c r="X85" s="135"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12"/>
-      <c r="B86" s="312"/>
-      <c r="C86" s="308"/>
+      <c r="B86" s="311"/>
+      <c r="C86" s="307"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="41"/>
@@ -13132,24 +13776,27 @@
       <c r="N86" s="132">
         <v>0</v>
       </c>
-      <c r="O86" s="52"/>
+      <c r="O86" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P86" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q86" s="244"/>
       <c r="R86" s="3"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="151"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S86" s="318"/>
+      <c r="T86" s="318"/>
+      <c r="U86" s="318"/>
+      <c r="V86" s="318"/>
+      <c r="W86" s="320"/>
+      <c r="X86" s="319"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="12"/>
-      <c r="B87" s="312"/>
-      <c r="C87" s="308"/>
+      <c r="B87" s="311"/>
+      <c r="C87" s="307"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="41"/>
@@ -13165,24 +13812,27 @@
       <c r="N87" s="132">
         <v>0</v>
       </c>
-      <c r="O87" s="52"/>
+      <c r="O87" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P87" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q87" s="355"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="244"/>
       <c r="R87" s="11"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="304"/>
-      <c r="U87" s="304"/>
-      <c r="V87" s="304"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="151"/>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S87" s="318"/>
+      <c r="T87" s="318"/>
+      <c r="U87" s="318"/>
+      <c r="V87" s="318"/>
+      <c r="W87" s="320"/>
+      <c r="X87" s="319"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="12"/>
-      <c r="B88" s="312"/>
-      <c r="C88" s="308"/>
+      <c r="B88" s="311"/>
+      <c r="C88" s="307"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="41"/>
@@ -13198,24 +13848,27 @@
       <c r="N88" s="132">
         <v>0</v>
       </c>
-      <c r="O88" s="52"/>
+      <c r="O88" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P88" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="355"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="244"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="47"/>
-      <c r="T88" s="47"/>
-      <c r="U88" s="47"/>
-      <c r="V88" s="47"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="152"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S88" s="318"/>
+      <c r="T88" s="318"/>
+      <c r="U88" s="318"/>
+      <c r="V88" s="318"/>
+      <c r="W88" s="320"/>
+      <c r="X88" s="319"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="12"/>
-      <c r="B89" s="312"/>
-      <c r="C89" s="308"/>
+      <c r="B89" s="311"/>
+      <c r="C89" s="307"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="41"/>
@@ -13231,24 +13884,27 @@
       <c r="N89" s="132">
         <v>0</v>
       </c>
-      <c r="O89" s="52"/>
+      <c r="O89" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P89" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="355"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="244"/>
       <c r="R89" s="11"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="118"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S89" s="318"/>
+      <c r="T89" s="318"/>
+      <c r="U89" s="318"/>
+      <c r="V89" s="318"/>
+      <c r="W89" s="320"/>
+      <c r="X89" s="319"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="12"/>
-      <c r="B90" s="312"/>
-      <c r="C90" s="308"/>
+      <c r="B90" s="311"/>
+      <c r="C90" s="307"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="41"/>
@@ -13264,24 +13920,27 @@
       <c r="N90" s="132">
         <v>0</v>
       </c>
-      <c r="O90" s="52"/>
+      <c r="O90" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P90" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="355"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="244"/>
       <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="135"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S90" s="318"/>
+      <c r="T90" s="318"/>
+      <c r="U90" s="318"/>
+      <c r="V90" s="318"/>
+      <c r="W90" s="320"/>
+      <c r="X90" s="319"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="12"/>
-      <c r="B91" s="312"/>
-      <c r="C91" s="308"/>
+      <c r="B91" s="311"/>
+      <c r="C91" s="307"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="41"/>
@@ -13297,24 +13956,27 @@
       <c r="N91" s="132">
         <v>0</v>
       </c>
-      <c r="O91" s="52"/>
+      <c r="O91" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P91" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q91" s="355"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="244"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="47"/>
-      <c r="U91" s="47"/>
-      <c r="V91" s="47"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="152"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S91" s="318"/>
+      <c r="T91" s="318"/>
+      <c r="U91" s="318"/>
+      <c r="V91" s="318"/>
+      <c r="W91" s="320"/>
+      <c r="X91" s="319"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="12"/>
-      <c r="B92" s="312"/>
-      <c r="C92" s="313"/>
+      <c r="B92" s="311"/>
+      <c r="C92" s="312"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="41"/>
@@ -13330,23 +13992,26 @@
       <c r="N92" s="132">
         <v>0</v>
       </c>
-      <c r="O92" s="52"/>
+      <c r="O92" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P92" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q92" s="355"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="244"/>
       <c r="R92" s="11"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="151"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S92" s="318"/>
+      <c r="T92" s="318"/>
+      <c r="U92" s="318"/>
+      <c r="V92" s="318"/>
+      <c r="W92" s="320"/>
+      <c r="X92" s="319"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="12"/>
-      <c r="B93" s="305"/>
+      <c r="B93" s="304"/>
       <c r="C93" s="295"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -13363,23 +14028,26 @@
       <c r="N93" s="132">
         <v>0</v>
       </c>
-      <c r="O93" s="52"/>
+      <c r="O93" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P93" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="355"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="244"/>
       <c r="R93" s="11"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="151"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S93" s="318"/>
+      <c r="T93" s="318"/>
+      <c r="U93" s="318"/>
+      <c r="V93" s="318"/>
+      <c r="W93" s="320"/>
+      <c r="X93" s="319"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13"/>
-      <c r="B94" s="312"/>
+      <c r="B94" s="311"/>
       <c r="C94" s="295"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -13396,26 +14064,29 @@
       <c r="N94" s="132">
         <v>0</v>
       </c>
-      <c r="O94" s="52"/>
+      <c r="O94" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P94" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q94" s="355"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="321"/>
       <c r="R94" s="11"/>
-      <c r="S94" s="304"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="47"/>
-      <c r="W94" s="4"/>
-      <c r="X94" s="152"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S94" s="318"/>
+      <c r="T94" s="318"/>
+      <c r="U94" s="318"/>
+      <c r="V94" s="318"/>
+      <c r="W94" s="320"/>
+      <c r="X94" s="319"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="153"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="327"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="157"/>
@@ -13445,14 +14116,14 @@
       <c r="R95" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="S95" s="79"/>
-      <c r="T95" s="79"/>
-      <c r="U95" s="79"/>
-      <c r="V95" s="79"/>
-      <c r="W95" s="4"/>
-      <c r="X95" s="152"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="S95" s="318"/>
+      <c r="T95" s="318"/>
+      <c r="U95" s="318"/>
+      <c r="V95" s="318"/>
+      <c r="W95" s="320"/>
+      <c r="X95" s="319"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="153"/>
       <c r="B96" s="207"/>
       <c r="C96" s="208" t="s">
@@ -13484,22 +14155,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="162"/>
-      <c r="R96" s="344" t="s">
+      <c r="R96" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="345"/>
-      <c r="T96" s="345"/>
-      <c r="U96" s="345"/>
-      <c r="V96" s="345"/>
-      <c r="W96" s="345"/>
-      <c r="X96" s="346"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A97" s="326" t="s">
+      <c r="S96" s="350"/>
+      <c r="T96" s="350"/>
+      <c r="U96" s="350"/>
+      <c r="V96" s="350"/>
+      <c r="W96" s="350"/>
+      <c r="X96" s="351"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="327"/>
-      <c r="C97" s="328"/>
+      <c r="B97" s="334"/>
+      <c r="C97" s="335"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="169"/>
@@ -13528,10 +14199,10 @@
       <c r="W97" s="47"/>
       <c r="X97" s="187"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A98" s="338"/>
-      <c r="B98" s="339"/>
-      <c r="C98" s="340"/>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="343"/>
+      <c r="B98" s="344"/>
+      <c r="C98" s="345"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="181"/>
@@ -13558,23 +14229,23 @@
       <c r="W98" s="47"/>
       <c r="X98" s="187"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A99" s="338" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="339"/>
-      <c r="C99" s="340"/>
+      <c r="B99" s="344"/>
+      <c r="C99" s="345"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="347" t="s">
+      <c r="E99" s="352" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="347"/>
-      <c r="G99" s="347"/>
-      <c r="H99" s="347"/>
-      <c r="I99" s="347"/>
-      <c r="J99" s="347"/>
-      <c r="K99" s="347"/>
-      <c r="L99" s="347"/>
+      <c r="F99" s="352"/>
+      <c r="G99" s="352"/>
+      <c r="H99" s="352"/>
+      <c r="I99" s="352"/>
+      <c r="J99" s="352"/>
+      <c r="K99" s="352"/>
+      <c r="L99" s="352"/>
       <c r="M99" s="183"/>
       <c r="N99" s="252"/>
       <c r="O99" s="253"/>
@@ -13590,25 +14261,25 @@
       <c r="W99" s="47"/>
       <c r="X99" s="187"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A100" s="338">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="343">
         <f>+A49</f>
         <v>0</v>
       </c>
-      <c r="B100" s="339"/>
-      <c r="C100" s="340"/>
+      <c r="B100" s="344"/>
+      <c r="C100" s="345"/>
       <c r="D100" s="4"/>
       <c r="E100" s="179"/>
-      <c r="F100" s="339" t="str">
+      <c r="F100" s="344" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="339"/>
-      <c r="H100" s="339"/>
-      <c r="I100" s="339"/>
-      <c r="J100" s="339"/>
-      <c r="K100" s="339"/>
-      <c r="L100" s="339"/>
+      <c r="G100" s="344"/>
+      <c r="H100" s="344"/>
+      <c r="I100" s="344"/>
+      <c r="J100" s="344"/>
+      <c r="K100" s="344"/>
+      <c r="L100" s="344"/>
       <c r="M100" s="256"/>
       <c r="N100" s="257"/>
       <c r="O100" s="258"/>
@@ -13626,23 +14297,23 @@
       <c r="W100" s="218"/>
       <c r="X100" s="219"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A101" s="341" t="s">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="342"/>
-      <c r="C101" s="343"/>
+      <c r="B101" s="347"/>
+      <c r="C101" s="348"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="342" t="s">
+      <c r="F101" s="347" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="342"/>
-      <c r="H101" s="342"/>
-      <c r="I101" s="342"/>
-      <c r="J101" s="342"/>
-      <c r="K101" s="342"/>
-      <c r="L101" s="342"/>
+      <c r="G101" s="347"/>
+      <c r="H101" s="347"/>
+      <c r="I101" s="347"/>
+      <c r="J101" s="347"/>
+      <c r="K101" s="347"/>
+      <c r="L101" s="347"/>
       <c r="M101" s="260"/>
       <c r="N101" s="261"/>
       <c r="O101" s="262"/>
@@ -13656,7 +14327,7 @@
       <c r="W101" s="199"/>
       <c r="X101" s="200"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R102" s="145"/>
       <c r="S102" s="145"/>
       <c r="T102" s="145"/>
@@ -13665,7 +14336,7 @@
       <c r="W102" s="265"/>
       <c r="X102" s="265"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="218"/>
@@ -13687,11 +14358,11 @@
     <mergeCell ref="A51:X51"/>
     <mergeCell ref="A52:X52"/>
     <mergeCell ref="A54:X54"/>
-    <mergeCell ref="A55:U55"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>

--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ค่าอุปกรณ์ และขนส่ง'!$A$1:$V$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -789,7 +788,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1511,9 +1510,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1622,16 +1618,49 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1653,15 +1682,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1685,40 +1705,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,8 +1726,17 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3331,8 +3333,8 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A78" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="R85" sqref="R85"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B72" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -3526,25 +3528,25 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="323" t="s">
+      <c r="D7" s="350" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
-      <c r="H7" s="325"/>
-      <c r="I7" s="323" t="s">
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
+      <c r="G7" s="351"/>
+      <c r="H7" s="352"/>
+      <c r="I7" s="350" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="325"/>
-      <c r="K7" s="323" t="s">
+      <c r="J7" s="352"/>
+      <c r="K7" s="350" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="325"/>
-      <c r="M7" s="323" t="s">
+      <c r="L7" s="352"/>
+      <c r="M7" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="325"/>
+      <c r="N7" s="352"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -3650,8 +3652,8 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
-      <c r="B10" s="289"/>
-      <c r="C10" s="290"/>
+      <c r="B10" s="288"/>
+      <c r="C10" s="289"/>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="126"/>
@@ -3683,8 +3685,8 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="289"/>
-      <c r="C11" s="291"/>
+      <c r="B11" s="288"/>
+      <c r="C11" s="290"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="52"/>
@@ -3721,8 +3723,8 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="289"/>
-      <c r="C12" s="291"/>
+      <c r="B12" s="288"/>
+      <c r="C12" s="290"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="52"/>
@@ -3761,8 +3763,8 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="289"/>
-      <c r="C13" s="291"/>
+      <c r="B13" s="288"/>
+      <c r="C13" s="290"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="52"/>
@@ -3801,8 +3803,8 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="292"/>
-      <c r="C14" s="293"/>
+      <c r="B14" s="291"/>
+      <c r="C14" s="292"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="52"/>
@@ -3829,7 +3831,7 @@
       <c r="O14" s="136"/>
       <c r="P14" s="83"/>
       <c r="Q14" s="47"/>
-      <c r="R14" s="359" t="s">
+      <c r="R14" s="321" t="s">
         <v>66</v>
       </c>
       <c r="S14" s="138"/>
@@ -3841,8 +3843,8 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="292"/>
-      <c r="C15" s="293"/>
+      <c r="B15" s="291"/>
+      <c r="C15" s="292"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="52"/>
@@ -3879,8 +3881,8 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
-      <c r="B16" s="292"/>
-      <c r="C16" s="293"/>
+      <c r="B16" s="291"/>
+      <c r="C16" s="292"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="52"/>
@@ -3915,8 +3917,8 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17"/>
-      <c r="B17" s="294"/>
-      <c r="C17" s="293"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="292"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="52"/>
@@ -3951,8 +3953,8 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="295"/>
+      <c r="B18" s="291"/>
+      <c r="C18" s="294"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="52"/>
@@ -3987,8 +3989,8 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="294"/>
-      <c r="C19" s="295"/>
+      <c r="B19" s="293"/>
+      <c r="C19" s="294"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="52"/>
@@ -4023,8 +4025,8 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17"/>
-      <c r="B20" s="294"/>
-      <c r="C20" s="296"/>
+      <c r="B20" s="293"/>
+      <c r="C20" s="295"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="52"/>
@@ -4059,8 +4061,8 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="292"/>
-      <c r="C21" s="293"/>
+      <c r="B21" s="291"/>
+      <c r="C21" s="292"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="52"/>
@@ -4095,8 +4097,8 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="292"/>
-      <c r="C22" s="293"/>
+      <c r="B22" s="291"/>
+      <c r="C22" s="292"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="52"/>
@@ -4131,8 +4133,8 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17"/>
-      <c r="B23" s="294"/>
-      <c r="C23" s="293"/>
+      <c r="B23" s="293"/>
+      <c r="C23" s="292"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="52"/>
@@ -4167,8 +4169,8 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="292"/>
-      <c r="C24" s="295"/>
+      <c r="B24" s="291"/>
+      <c r="C24" s="294"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="52"/>
@@ -4203,8 +4205,8 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="292"/>
-      <c r="C25" s="295"/>
+      <c r="B25" s="291"/>
+      <c r="C25" s="294"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="52"/>
@@ -4239,8 +4241,8 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="292"/>
-      <c r="C26" s="295"/>
+      <c r="B26" s="291"/>
+      <c r="C26" s="294"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="52"/>
@@ -4275,8 +4277,8 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17"/>
-      <c r="B27" s="294"/>
-      <c r="C27" s="295"/>
+      <c r="B27" s="293"/>
+      <c r="C27" s="294"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="52"/>
@@ -4311,8 +4313,8 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="292"/>
-      <c r="C28" s="293"/>
+      <c r="B28" s="291"/>
+      <c r="C28" s="292"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="52"/>
@@ -4347,8 +4349,8 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
-      <c r="B29" s="294"/>
-      <c r="C29" s="293"/>
+      <c r="B29" s="293"/>
+      <c r="C29" s="292"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="52"/>
@@ -4383,8 +4385,8 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="293"/>
+      <c r="B30" s="291"/>
+      <c r="C30" s="292"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="52"/>
@@ -4419,8 +4421,8 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="294"/>
-      <c r="C31" s="293"/>
+      <c r="B31" s="293"/>
+      <c r="C31" s="292"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="52"/>
@@ -4455,8 +4457,8 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="292"/>
-      <c r="C32" s="293"/>
+      <c r="B32" s="291"/>
+      <c r="C32" s="292"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="52"/>
@@ -4491,8 +4493,8 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="294"/>
-      <c r="C33" s="293"/>
+      <c r="B33" s="293"/>
+      <c r="C33" s="292"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="52"/>
@@ -4527,8 +4529,8 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5"/>
-      <c r="B34" s="292"/>
-      <c r="C34" s="293"/>
+      <c r="B34" s="291"/>
+      <c r="C34" s="292"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="52"/>
@@ -4563,8 +4565,8 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
-      <c r="B35" s="292"/>
-      <c r="C35" s="293"/>
+      <c r="B35" s="291"/>
+      <c r="C35" s="292"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="52"/>
@@ -4599,8 +4601,8 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
-      <c r="B36" s="292"/>
-      <c r="C36" s="293"/>
+      <c r="B36" s="291"/>
+      <c r="C36" s="292"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="52"/>
@@ -4635,8 +4637,8 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
-      <c r="B37" s="292"/>
-      <c r="C37" s="293"/>
+      <c r="B37" s="291"/>
+      <c r="C37" s="292"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="52"/>
@@ -4671,8 +4673,8 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
-      <c r="B38" s="294"/>
-      <c r="C38" s="293"/>
+      <c r="B38" s="293"/>
+      <c r="C38" s="292"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="52"/>
@@ -4707,8 +4709,8 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
-      <c r="B39" s="292"/>
-      <c r="C39" s="293"/>
+      <c r="B39" s="291"/>
+      <c r="C39" s="292"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="52"/>
@@ -4743,8 +4745,8 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
-      <c r="B40" s="294"/>
-      <c r="C40" s="293"/>
+      <c r="B40" s="293"/>
+      <c r="C40" s="292"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="52"/>
@@ -4779,8 +4781,8 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="17"/>
-      <c r="B41" s="294"/>
-      <c r="C41" s="293"/>
+      <c r="B41" s="293"/>
+      <c r="C41" s="292"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="52"/>
@@ -4815,8 +4817,8 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
-      <c r="B42" s="292"/>
-      <c r="C42" s="293"/>
+      <c r="B42" s="291"/>
+      <c r="C42" s="292"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="52"/>
@@ -4851,8 +4853,8 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
-      <c r="B43" s="292"/>
-      <c r="C43" s="293"/>
+      <c r="B43" s="291"/>
+      <c r="C43" s="292"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="52"/>
@@ -4887,8 +4889,8 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13"/>
-      <c r="B44" s="292"/>
-      <c r="C44" s="293"/>
+      <c r="B44" s="291"/>
+      <c r="C44" s="292"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="52"/>
@@ -4968,10 +4970,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="169"/>
       <c r="F46" s="170"/>
-      <c r="G46" s="322" t="s">
+      <c r="G46" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="322"/>
+      <c r="H46" s="334"/>
       <c r="I46" s="171"/>
       <c r="J46" s="172"/>
       <c r="K46" s="173"/>
@@ -5094,61 +5096,61 @@
       <c r="V50" s="200"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="329"/>
-      <c r="C51" s="329"/>
-      <c r="D51" s="329"/>
-      <c r="E51" s="329"/>
-      <c r="F51" s="329"/>
-      <c r="G51" s="329"/>
-      <c r="H51" s="329"/>
-      <c r="I51" s="329"/>
-      <c r="J51" s="329"/>
-      <c r="K51" s="329"/>
-      <c r="L51" s="329"/>
-      <c r="M51" s="329"/>
-      <c r="N51" s="329"/>
-      <c r="O51" s="329"/>
-      <c r="P51" s="329"/>
-      <c r="Q51" s="329"/>
-      <c r="R51" s="329"/>
-      <c r="S51" s="329"/>
-      <c r="T51" s="329"/>
-      <c r="U51" s="329"/>
-      <c r="V51" s="330"/>
+      <c r="A51" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="339"/>
+      <c r="C51" s="339"/>
+      <c r="D51" s="339"/>
+      <c r="E51" s="339"/>
+      <c r="F51" s="339"/>
+      <c r="G51" s="339"/>
+      <c r="H51" s="339"/>
+      <c r="I51" s="339"/>
+      <c r="J51" s="339"/>
+      <c r="K51" s="339"/>
+      <c r="L51" s="339"/>
+      <c r="M51" s="339"/>
+      <c r="N51" s="339"/>
+      <c r="O51" s="339"/>
+      <c r="P51" s="339"/>
+      <c r="Q51" s="339"/>
+      <c r="R51" s="339"/>
+      <c r="S51" s="339"/>
+      <c r="T51" s="339"/>
+      <c r="U51" s="339"/>
+      <c r="V51" s="340"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="333" t="s">
+      <c r="A52" s="331" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="334"/>
-      <c r="C52" s="334"/>
-      <c r="D52" s="334"/>
-      <c r="E52" s="334"/>
-      <c r="F52" s="334"/>
-      <c r="G52" s="334"/>
-      <c r="H52" s="334"/>
-      <c r="I52" s="334"/>
-      <c r="J52" s="334"/>
-      <c r="K52" s="334"/>
-      <c r="L52" s="334"/>
-      <c r="M52" s="334"/>
-      <c r="N52" s="334"/>
-      <c r="O52" s="334"/>
-      <c r="P52" s="334"/>
-      <c r="Q52" s="334"/>
-      <c r="R52" s="334"/>
-      <c r="S52" s="334"/>
-      <c r="T52" s="334"/>
-      <c r="U52" s="334"/>
-      <c r="V52" s="335"/>
+      <c r="B52" s="332"/>
+      <c r="C52" s="332"/>
+      <c r="D52" s="332"/>
+      <c r="E52" s="332"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
+      <c r="H52" s="332"/>
+      <c r="I52" s="332"/>
+      <c r="J52" s="332"/>
+      <c r="K52" s="332"/>
+      <c r="L52" s="332"/>
+      <c r="M52" s="332"/>
+      <c r="N52" s="332"/>
+      <c r="O52" s="332"/>
+      <c r="P52" s="332"/>
+      <c r="Q52" s="332"/>
+      <c r="R52" s="332"/>
+      <c r="S52" s="332"/>
+      <c r="T52" s="332"/>
+      <c r="U52" s="332"/>
+      <c r="V52" s="333"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="336"/>
-      <c r="B53" s="337"/>
-      <c r="C53" s="337"/>
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="88"/>
       <c r="E53" s="88"/>
       <c r="F53" s="89"/>
@@ -5172,49 +5174,49 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="338"/>
-      <c r="B54" s="339"/>
-      <c r="C54" s="339"/>
-      <c r="D54" s="339"/>
-      <c r="E54" s="339"/>
-      <c r="F54" s="339"/>
-      <c r="G54" s="339"/>
-      <c r="H54" s="339"/>
-      <c r="I54" s="339"/>
-      <c r="J54" s="339"/>
-      <c r="K54" s="339"/>
-      <c r="L54" s="339"/>
-      <c r="M54" s="339"/>
-      <c r="N54" s="339"/>
-      <c r="O54" s="339"/>
-      <c r="P54" s="339"/>
-      <c r="Q54" s="339"/>
-      <c r="R54" s="339"/>
-      <c r="S54" s="339"/>
-      <c r="T54" s="339"/>
-      <c r="U54" s="339"/>
-      <c r="V54" s="340"/>
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="347"/>
     </row>
     <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="341"/>
-      <c r="B55" s="342"/>
-      <c r="C55" s="342"/>
-      <c r="D55" s="342"/>
-      <c r="E55" s="342"/>
-      <c r="F55" s="342"/>
-      <c r="G55" s="342"/>
-      <c r="H55" s="342"/>
-      <c r="I55" s="342"/>
-      <c r="J55" s="342"/>
-      <c r="K55" s="342"/>
-      <c r="L55" s="342"/>
-      <c r="M55" s="342"/>
-      <c r="N55" s="342"/>
-      <c r="O55" s="342"/>
-      <c r="P55" s="342"/>
-      <c r="Q55" s="342"/>
-      <c r="R55" s="342"/>
-      <c r="S55" s="342"/>
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
       <c r="T55" s="87" t="s">
         <v>68</v>
       </c>
@@ -5253,25 +5255,25 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="350" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="324"/>
-      <c r="F57" s="324"/>
-      <c r="G57" s="324"/>
-      <c r="H57" s="325"/>
-      <c r="I57" s="323" t="s">
+      <c r="E57" s="351"/>
+      <c r="F57" s="351"/>
+      <c r="G57" s="351"/>
+      <c r="H57" s="352"/>
+      <c r="I57" s="350" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="325"/>
-      <c r="K57" s="323" t="s">
+      <c r="J57" s="352"/>
+      <c r="K57" s="350" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="325"/>
-      <c r="M57" s="323" t="s">
+      <c r="L57" s="352"/>
+      <c r="M57" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="325"/>
+      <c r="N57" s="352"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -5378,7 +5380,7 @@
     <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17"/>
       <c r="B60" s="81"/>
-      <c r="C60" s="297"/>
+      <c r="C60" s="296"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
       <c r="F60" s="21"/>
@@ -5416,7 +5418,7 @@
     <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="38"/>
       <c r="B61" s="40"/>
-      <c r="C61" s="288"/>
+      <c r="C61" s="287"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="52"/>
@@ -5453,8 +5455,8 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
-      <c r="B62" s="287"/>
-      <c r="C62" s="288"/>
+      <c r="B62" s="286"/>
+      <c r="C62" s="287"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="52"/>
@@ -5523,9 +5525,9 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="331"/>
-      <c r="S63" s="331"/>
-      <c r="T63" s="331"/>
+      <c r="R63" s="341"/>
+      <c r="S63" s="341"/>
+      <c r="T63" s="341"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
@@ -5561,11 +5563,11 @@
       <c r="O64" s="136"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="332" t="s">
+      <c r="R64" s="342" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="332"/>
-      <c r="T64" s="332"/>
+      <c r="S64" s="342"/>
+      <c r="T64" s="342"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
@@ -5764,7 +5766,7 @@
     <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6"/>
       <c r="B70" s="69"/>
-      <c r="C70" s="286"/>
+      <c r="C70" s="285"/>
       <c r="D70" s="42"/>
       <c r="E70" s="10"/>
       <c r="F70" s="52"/>
@@ -5839,8 +5841,8 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="28"/>
-      <c r="B72" s="287"/>
-      <c r="C72" s="298"/>
+      <c r="B72" s="286"/>
+      <c r="C72" s="297"/>
       <c r="D72" s="36"/>
       <c r="E72" s="36"/>
       <c r="F72" s="21"/>
@@ -5877,8 +5879,8 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="28"/>
-      <c r="B73" s="302"/>
-      <c r="C73" s="298"/>
+      <c r="B73" s="301"/>
+      <c r="C73" s="297"/>
       <c r="D73" s="39"/>
       <c r="E73" s="24"/>
       <c r="F73" s="21"/>
@@ -5915,8 +5917,8 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="38"/>
-      <c r="B74" s="302"/>
-      <c r="C74" s="298"/>
+      <c r="B74" s="301"/>
+      <c r="C74" s="297"/>
       <c r="D74" s="39"/>
       <c r="E74" s="24"/>
       <c r="F74" s="21"/>
@@ -5959,7 +5961,7 @@
     <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="82"/>
-      <c r="C75" s="288"/>
+      <c r="C75" s="287"/>
       <c r="D75" s="39"/>
       <c r="E75" s="24"/>
       <c r="F75" s="21"/>
@@ -6001,8 +6003,8 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="28"/>
-      <c r="B76" s="287"/>
-      <c r="C76" s="299"/>
+      <c r="B76" s="286"/>
+      <c r="C76" s="298"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="21"/>
@@ -6217,7 +6219,7 @@
     <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="40"/>
-      <c r="C81" s="300"/>
+      <c r="C81" s="299"/>
       <c r="D81" s="34"/>
       <c r="E81" s="30"/>
       <c r="F81" s="21"/>
@@ -6455,8 +6457,8 @@
       <c r="R86" s="79"/>
       <c r="S86" s="79"/>
       <c r="T86" s="79"/>
-      <c r="U86" s="320"/>
-      <c r="V86" s="319"/>
+      <c r="U86" s="319"/>
+      <c r="V86" s="318"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
@@ -6488,11 +6490,11 @@
       <c r="O87" s="136"/>
       <c r="P87" s="46"/>
       <c r="Q87" s="4"/>
-      <c r="R87" s="316"/>
-      <c r="S87" s="316"/>
-      <c r="T87" s="316"/>
-      <c r="U87" s="320"/>
-      <c r="V87" s="319"/>
+      <c r="R87" s="315"/>
+      <c r="S87" s="315"/>
+      <c r="T87" s="315"/>
+      <c r="U87" s="319"/>
+      <c r="V87" s="318"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="12"/>
@@ -6524,15 +6526,15 @@
       <c r="O88" s="136"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="47"/>
-      <c r="R88" s="316"/>
-      <c r="S88" s="316"/>
-      <c r="T88" s="316"/>
-      <c r="U88" s="320"/>
-      <c r="V88" s="319"/>
+      <c r="R88" s="315"/>
+      <c r="S88" s="315"/>
+      <c r="T88" s="315"/>
+      <c r="U88" s="319"/>
+      <c r="V88" s="318"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="12"/>
-      <c r="B89" s="287"/>
+      <c r="B89" s="286"/>
       <c r="C89" s="27"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -6560,15 +6562,15 @@
       <c r="O89" s="136"/>
       <c r="P89" s="46"/>
       <c r="Q89" s="4"/>
-      <c r="R89" s="316"/>
-      <c r="S89" s="316"/>
-      <c r="T89" s="316"/>
-      <c r="U89" s="320"/>
-      <c r="V89" s="319"/>
+      <c r="R89" s="315"/>
+      <c r="S89" s="315"/>
+      <c r="T89" s="315"/>
+      <c r="U89" s="319"/>
+      <c r="V89" s="318"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="12"/>
-      <c r="B90" s="287"/>
+      <c r="B90" s="286"/>
       <c r="C90" s="27"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -6596,15 +6598,15 @@
       <c r="O90" s="136"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="4"/>
-      <c r="R90" s="316"/>
-      <c r="S90" s="316"/>
-      <c r="T90" s="316"/>
-      <c r="U90" s="320"/>
-      <c r="V90" s="319"/>
+      <c r="R90" s="315"/>
+      <c r="S90" s="315"/>
+      <c r="T90" s="315"/>
+      <c r="U90" s="319"/>
+      <c r="V90" s="318"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="12"/>
-      <c r="B91" s="287"/>
+      <c r="B91" s="286"/>
       <c r="C91" s="27"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -6631,15 +6633,15 @@
       </c>
       <c r="O91" s="136"/>
       <c r="P91" s="3"/>
-      <c r="R91" s="316"/>
-      <c r="S91" s="316"/>
-      <c r="T91" s="316"/>
-      <c r="U91" s="320"/>
-      <c r="V91" s="319"/>
+      <c r="R91" s="315"/>
+      <c r="S91" s="315"/>
+      <c r="T91" s="315"/>
+      <c r="U91" s="319"/>
+      <c r="V91" s="318"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="12"/>
-      <c r="B92" s="287"/>
+      <c r="B92" s="286"/>
       <c r="C92" s="27"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -6669,15 +6671,15 @@
         <v>58</v>
       </c>
       <c r="Q92" s="4"/>
-      <c r="R92" s="316"/>
-      <c r="S92" s="316"/>
-      <c r="T92" s="316"/>
-      <c r="U92" s="320"/>
-      <c r="V92" s="319"/>
+      <c r="R92" s="315"/>
+      <c r="S92" s="315"/>
+      <c r="T92" s="315"/>
+      <c r="U92" s="319"/>
+      <c r="V92" s="318"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
-      <c r="B93" s="287"/>
+      <c r="B93" s="286"/>
       <c r="C93" s="27"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -6705,16 +6707,16 @@
       <c r="O93" s="136"/>
       <c r="P93" s="46"/>
       <c r="Q93" s="4"/>
-      <c r="R93" s="316"/>
-      <c r="S93" s="316"/>
-      <c r="T93" s="316"/>
-      <c r="U93" s="320"/>
-      <c r="V93" s="319"/>
+      <c r="R93" s="315"/>
+      <c r="S93" s="315"/>
+      <c r="T93" s="315"/>
+      <c r="U93" s="319"/>
+      <c r="V93" s="318"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13"/>
-      <c r="B94" s="303"/>
-      <c r="C94" s="301"/>
+      <c r="B94" s="302"/>
+      <c r="C94" s="300"/>
       <c r="D94" s="55"/>
       <c r="E94" s="9"/>
       <c r="F94" s="52"/>
@@ -6741,18 +6743,18 @@
       <c r="O94" s="136"/>
       <c r="P94" s="46"/>
       <c r="Q94" s="79"/>
-      <c r="R94" s="316"/>
-      <c r="S94" s="316"/>
-      <c r="T94" s="316"/>
-      <c r="U94" s="320"/>
-      <c r="V94" s="320"/>
+      <c r="R94" s="315"/>
+      <c r="S94" s="315"/>
+      <c r="T94" s="315"/>
+      <c r="U94" s="319"/>
+      <c r="V94" s="319"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="153"/>
-      <c r="B95" s="326" t="s">
+      <c r="B95" s="336" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="327"/>
+      <c r="C95" s="337"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="158"/>
@@ -6784,8 +6786,8 @@
       <c r="R95" s="276"/>
       <c r="S95" s="276"/>
       <c r="T95" s="276"/>
-      <c r="U95" s="320"/>
-      <c r="V95" s="319"/>
+      <c r="U95" s="319"/>
+      <c r="V95" s="318"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="153"/>
@@ -6817,29 +6819,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="162"/>
-      <c r="P96" s="349" t="s">
+      <c r="P96" s="328" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="350"/>
-      <c r="R96" s="350"/>
-      <c r="S96" s="350"/>
-      <c r="T96" s="350"/>
-      <c r="U96" s="350"/>
-      <c r="V96" s="351"/>
+      <c r="Q96" s="329"/>
+      <c r="R96" s="329"/>
+      <c r="S96" s="329"/>
+      <c r="T96" s="329"/>
+      <c r="U96" s="329"/>
+      <c r="V96" s="330"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="333" t="s">
+      <c r="A97" s="331" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="334"/>
-      <c r="C97" s="335"/>
+      <c r="B97" s="332"/>
+      <c r="C97" s="333"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="170"/>
-      <c r="G97" s="322" t="s">
+      <c r="G97" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="322"/>
+      <c r="H97" s="334"/>
       <c r="I97" s="171"/>
       <c r="J97" s="172"/>
       <c r="K97" s="173"/>
@@ -6861,9 +6863,9 @@
       <c r="V97" s="187"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="343"/>
-      <c r="B98" s="344"/>
-      <c r="C98" s="345"/>
+      <c r="A98" s="322"/>
+      <c r="B98" s="323"/>
+      <c r="C98" s="324"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="182"/>
@@ -6890,20 +6892,20 @@
       <c r="W98" s="187"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="343" t="s">
+      <c r="A99" s="322" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="344"/>
-      <c r="C99" s="345"/>
+      <c r="B99" s="323"/>
+      <c r="C99" s="324"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="352" t="s">
+      <c r="E99" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="352"/>
-      <c r="G99" s="352"/>
-      <c r="H99" s="352"/>
-      <c r="I99" s="352"/>
-      <c r="J99" s="352"/>
+      <c r="F99" s="335"/>
+      <c r="G99" s="335"/>
+      <c r="H99" s="335"/>
+      <c r="I99" s="335"/>
+      <c r="J99" s="335"/>
       <c r="K99" s="171"/>
       <c r="L99" s="184"/>
       <c r="M99" s="213"/>
@@ -6921,20 +6923,20 @@
       <c r="W99" s="187"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="343" t="s">
+      <c r="A100" s="178"/>
+      <c r="B100" s="179"/>
+      <c r="C100" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="344"/>
-      <c r="C100" s="345"/>
       <c r="D100" s="4"/>
       <c r="E100" s="179"/>
-      <c r="F100" s="344" t="s">
+      <c r="F100" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="344"/>
-      <c r="H100" s="344"/>
-      <c r="I100" s="344"/>
-      <c r="J100" s="344"/>
+      <c r="G100" s="323"/>
+      <c r="H100" s="323"/>
+      <c r="I100" s="323"/>
+      <c r="J100" s="323"/>
       <c r="K100" s="191"/>
       <c r="L100" s="192"/>
       <c r="M100" s="216"/>
@@ -6954,20 +6956,20 @@
       <c r="W100" s="151"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="346" t="s">
+      <c r="A101" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="347"/>
-      <c r="C101" s="348"/>
+      <c r="B101" s="326"/>
+      <c r="C101" s="327"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="347" t="s">
+      <c r="F101" s="326" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="347"/>
-      <c r="H101" s="347"/>
-      <c r="I101" s="347"/>
-      <c r="J101" s="347"/>
+      <c r="G101" s="326"/>
+      <c r="H101" s="326"/>
+      <c r="I101" s="326"/>
+      <c r="J101" s="326"/>
       <c r="K101" s="195"/>
       <c r="L101" s="196"/>
       <c r="M101" s="220"/>
@@ -6982,17 +6984,12 @@
       <c r="V101" s="200"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+  <mergeCells count="26">
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -7005,11 +7002,15 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
@@ -7028,8 +7029,8 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A76" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="R86" sqref="R86"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -7110,9 +7111,9 @@
       <c r="V2" s="279"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="336"/>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
+      <c r="A3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
       <c r="D3" s="226"/>
       <c r="E3" s="226"/>
       <c r="F3" s="89"/>
@@ -7225,25 +7226,25 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="323" t="s">
+      <c r="D7" s="350" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
-      <c r="H7" s="325"/>
-      <c r="I7" s="353" t="s">
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
+      <c r="G7" s="351"/>
+      <c r="H7" s="352"/>
+      <c r="I7" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="354"/>
-      <c r="K7" s="353" t="s">
+      <c r="J7" s="358"/>
+      <c r="K7" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="323" t="s">
+      <c r="L7" s="358"/>
+      <c r="M7" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="325"/>
+      <c r="N7" s="352"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -7267,10 +7268,10 @@
       <c r="E8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="355" t="s">
+      <c r="F8" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="356"/>
+      <c r="G8" s="354"/>
       <c r="H8" s="114" t="s">
         <v>16</v>
       </c>
@@ -7313,10 +7314,10 @@
       <c r="C9" s="121"/>
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
-      <c r="F9" s="357" t="s">
+      <c r="F9" s="355" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="358"/>
+      <c r="G9" s="356"/>
       <c r="H9" s="122" t="s">
         <v>21</v>
       </c>
@@ -7345,8 +7346,8 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="285"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="312"/>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
       <c r="F10" s="233"/>
@@ -7381,8 +7382,8 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="293"/>
+      <c r="C11" s="292"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="238"/>
@@ -7417,8 +7418,8 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="291"/>
+      <c r="C12" s="292"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="238"/>
@@ -7455,8 +7456,8 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="291"/>
+      <c r="C13" s="292"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="238"/>
@@ -7493,8 +7494,8 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="291"/>
+      <c r="C14" s="292"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="238"/>
@@ -7519,7 +7520,7 @@
       <c r="O14" s="244"/>
       <c r="P14" s="83"/>
       <c r="Q14" s="47"/>
-      <c r="R14" s="359" t="s">
+      <c r="R14" s="321" t="s">
         <v>66</v>
       </c>
       <c r="S14" s="138"/>
@@ -7531,8 +7532,8 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="291"/>
+      <c r="C15" s="292"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="238"/>
@@ -7567,8 +7568,8 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="293"/>
+      <c r="C16" s="294"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="238"/>
@@ -7601,8 +7602,8 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="291"/>
+      <c r="C17" s="294"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="238"/>
@@ -7635,8 +7636,8 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="291"/>
+      <c r="C18" s="294"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="238"/>
@@ -7669,8 +7670,8 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="291"/>
+      <c r="C19" s="292"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="238"/>
@@ -7703,8 +7704,8 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="291"/>
+      <c r="C20" s="292"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="238"/>
@@ -7737,8 +7738,8 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="294"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="238"/>
@@ -7771,8 +7772,8 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="291"/>
+      <c r="C22" s="359"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="238"/>
@@ -7805,8 +7806,8 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="291"/>
+      <c r="C23" s="295"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="238"/>
@@ -7839,8 +7840,8 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="291"/>
+      <c r="C24" s="292"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="238"/>
@@ -7873,8 +7874,8 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="291"/>
+      <c r="C25" s="292"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="238"/>
@@ -7907,8 +7908,8 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="17"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="293"/>
+      <c r="C26" s="294"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="238"/>
@@ -7941,8 +7942,8 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="61"/>
+      <c r="B27" s="291"/>
+      <c r="C27" s="359"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="238"/>
@@ -7975,8 +7976,8 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="291"/>
+      <c r="C28" s="292"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="238"/>
@@ -8009,8 +8010,8 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="291"/>
+      <c r="C29" s="295"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="238"/>
@@ -8043,8 +8044,8 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="291"/>
+      <c r="C30" s="292"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="238"/>
@@ -8077,8 +8078,8 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="293"/>
+      <c r="C31" s="294"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="238"/>
@@ -8111,8 +8112,8 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="61"/>
+      <c r="B32" s="291"/>
+      <c r="C32" s="359"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="238"/>
@@ -8145,8 +8146,8 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="291"/>
+      <c r="C33" s="292"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="238"/>
@@ -8179,8 +8180,8 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="17"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="291"/>
+      <c r="C34" s="292"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="238"/>
@@ -8213,8 +8214,8 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="291"/>
+      <c r="C35" s="295"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="238"/>
@@ -8247,8 +8248,8 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="16"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="61"/>
+      <c r="B36" s="293"/>
+      <c r="C36" s="359"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="238"/>
@@ -8281,8 +8282,8 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="291"/>
+      <c r="C37" s="292"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="238"/>
@@ -8315,8 +8316,8 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="17"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="293"/>
+      <c r="C38" s="294"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="238"/>
@@ -8349,8 +8350,8 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="291"/>
+      <c r="C39" s="294"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="238"/>
@@ -8383,8 +8384,8 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="291"/>
+      <c r="C40" s="294"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="238"/>
@@ -8417,8 +8418,8 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="294"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="238"/>
@@ -8451,8 +8452,8 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="291"/>
+      <c r="C42" s="294"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="238"/>
@@ -8485,8 +8486,8 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="291"/>
+      <c r="C43" s="294"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="238"/>
@@ -8519,8 +8520,8 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="314"/>
+      <c r="C44" s="294"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="245"/>
@@ -8598,10 +8599,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="169"/>
       <c r="F46" s="170"/>
-      <c r="G46" s="322" t="s">
+      <c r="G46" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="322"/>
+      <c r="H46" s="334"/>
       <c r="I46" s="171"/>
       <c r="J46" s="172"/>
       <c r="K46" s="173"/>
@@ -8725,61 +8726,61 @@
       <c r="V50" s="200"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="329"/>
-      <c r="C51" s="329"/>
-      <c r="D51" s="329"/>
-      <c r="E51" s="329"/>
-      <c r="F51" s="329"/>
-      <c r="G51" s="329"/>
-      <c r="H51" s="329"/>
-      <c r="I51" s="329"/>
-      <c r="J51" s="329"/>
-      <c r="K51" s="329"/>
-      <c r="L51" s="329"/>
-      <c r="M51" s="329"/>
-      <c r="N51" s="329"/>
-      <c r="O51" s="329"/>
-      <c r="P51" s="329"/>
-      <c r="Q51" s="329"/>
-      <c r="R51" s="329"/>
-      <c r="S51" s="329"/>
-      <c r="T51" s="329"/>
-      <c r="U51" s="329"/>
-      <c r="V51" s="330"/>
+      <c r="A51" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="339"/>
+      <c r="C51" s="339"/>
+      <c r="D51" s="339"/>
+      <c r="E51" s="339"/>
+      <c r="F51" s="339"/>
+      <c r="G51" s="339"/>
+      <c r="H51" s="339"/>
+      <c r="I51" s="339"/>
+      <c r="J51" s="339"/>
+      <c r="K51" s="339"/>
+      <c r="L51" s="339"/>
+      <c r="M51" s="339"/>
+      <c r="N51" s="339"/>
+      <c r="O51" s="339"/>
+      <c r="P51" s="339"/>
+      <c r="Q51" s="339"/>
+      <c r="R51" s="339"/>
+      <c r="S51" s="339"/>
+      <c r="T51" s="339"/>
+      <c r="U51" s="339"/>
+      <c r="V51" s="340"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="333" t="s">
+      <c r="A52" s="331" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="334"/>
-      <c r="C52" s="334"/>
-      <c r="D52" s="334"/>
-      <c r="E52" s="334"/>
-      <c r="F52" s="334"/>
-      <c r="G52" s="334"/>
-      <c r="H52" s="334"/>
-      <c r="I52" s="334"/>
-      <c r="J52" s="334"/>
-      <c r="K52" s="334"/>
-      <c r="L52" s="334"/>
-      <c r="M52" s="334"/>
-      <c r="N52" s="334"/>
-      <c r="O52" s="334"/>
-      <c r="P52" s="334"/>
-      <c r="Q52" s="334"/>
-      <c r="R52" s="334"/>
-      <c r="S52" s="334"/>
-      <c r="T52" s="334"/>
-      <c r="U52" s="334"/>
-      <c r="V52" s="335"/>
+      <c r="B52" s="332"/>
+      <c r="C52" s="332"/>
+      <c r="D52" s="332"/>
+      <c r="E52" s="332"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
+      <c r="H52" s="332"/>
+      <c r="I52" s="332"/>
+      <c r="J52" s="332"/>
+      <c r="K52" s="332"/>
+      <c r="L52" s="332"/>
+      <c r="M52" s="332"/>
+      <c r="N52" s="332"/>
+      <c r="O52" s="332"/>
+      <c r="P52" s="332"/>
+      <c r="Q52" s="332"/>
+      <c r="R52" s="332"/>
+      <c r="S52" s="332"/>
+      <c r="T52" s="332"/>
+      <c r="U52" s="332"/>
+      <c r="V52" s="333"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="336"/>
-      <c r="B53" s="337"/>
-      <c r="C53" s="337"/>
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="226"/>
       <c r="E53" s="226"/>
       <c r="F53" s="89"/>
@@ -8803,49 +8804,49 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="338"/>
-      <c r="B54" s="339"/>
-      <c r="C54" s="339"/>
-      <c r="D54" s="339"/>
-      <c r="E54" s="339"/>
-      <c r="F54" s="339"/>
-      <c r="G54" s="339"/>
-      <c r="H54" s="339"/>
-      <c r="I54" s="339"/>
-      <c r="J54" s="339"/>
-      <c r="K54" s="339"/>
-      <c r="L54" s="339"/>
-      <c r="M54" s="339"/>
-      <c r="N54" s="339"/>
-      <c r="O54" s="339"/>
-      <c r="P54" s="339"/>
-      <c r="Q54" s="339"/>
-      <c r="R54" s="339"/>
-      <c r="S54" s="339"/>
-      <c r="T54" s="339"/>
-      <c r="U54" s="339"/>
-      <c r="V54" s="340"/>
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="347"/>
     </row>
     <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="341"/>
-      <c r="B55" s="342"/>
-      <c r="C55" s="342"/>
-      <c r="D55" s="342"/>
-      <c r="E55" s="342"/>
-      <c r="F55" s="342"/>
-      <c r="G55" s="342"/>
-      <c r="H55" s="342"/>
-      <c r="I55" s="342"/>
-      <c r="J55" s="342"/>
-      <c r="K55" s="342"/>
-      <c r="L55" s="342"/>
-      <c r="M55" s="342"/>
-      <c r="N55" s="342"/>
-      <c r="O55" s="342"/>
-      <c r="P55" s="342"/>
-      <c r="Q55" s="342"/>
-      <c r="R55" s="342"/>
-      <c r="S55" s="342"/>
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
       <c r="T55" s="87" t="s">
         <v>3</v>
       </c>
@@ -8884,25 +8885,25 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="350" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="324"/>
-      <c r="F57" s="324"/>
-      <c r="G57" s="324"/>
-      <c r="H57" s="325"/>
-      <c r="I57" s="353" t="s">
+      <c r="E57" s="351"/>
+      <c r="F57" s="351"/>
+      <c r="G57" s="351"/>
+      <c r="H57" s="352"/>
+      <c r="I57" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="354"/>
-      <c r="K57" s="353" t="s">
+      <c r="J57" s="358"/>
+      <c r="K57" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="354"/>
-      <c r="M57" s="323" t="s">
+      <c r="L57" s="358"/>
+      <c r="M57" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="325"/>
+      <c r="N57" s="352"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -8926,10 +8927,10 @@
       <c r="E58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="355" t="s">
+      <c r="F58" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="356"/>
+      <c r="G58" s="354"/>
       <c r="H58" s="114" t="s">
         <v>16</v>
       </c>
@@ -8972,10 +8973,10 @@
       <c r="C59" s="121"/>
       <c r="D59" s="119"/>
       <c r="E59" s="119"/>
-      <c r="F59" s="357" t="s">
+      <c r="F59" s="355" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="358"/>
+      <c r="G59" s="356"/>
       <c r="H59" s="122" t="s">
         <v>21</v>
       </c>
@@ -9004,8 +9005,8 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17"/>
-      <c r="B60" s="294"/>
-      <c r="C60" s="313"/>
+      <c r="B60" s="293"/>
+      <c r="C60" s="312"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="233"/>
@@ -9040,8 +9041,8 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="38"/>
-      <c r="B61" s="306"/>
-      <c r="C61" s="295"/>
+      <c r="B61" s="305"/>
+      <c r="C61" s="294"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="238"/>
@@ -9076,8 +9077,8 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="17"/>
-      <c r="B62" s="292"/>
-      <c r="C62" s="295"/>
+      <c r="B62" s="291"/>
+      <c r="C62" s="294"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="238"/>
@@ -9114,8 +9115,8 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="38"/>
-      <c r="B63" s="306"/>
-      <c r="C63" s="307"/>
+      <c r="B63" s="305"/>
+      <c r="C63" s="306"/>
       <c r="D63" s="42"/>
       <c r="E63" s="10"/>
       <c r="F63" s="238"/>
@@ -9142,9 +9143,9 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="331"/>
-      <c r="S63" s="331"/>
-      <c r="T63" s="331"/>
+      <c r="R63" s="341"/>
+      <c r="S63" s="341"/>
+      <c r="T63" s="341"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
@@ -9152,8 +9153,8 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="17"/>
-      <c r="B64" s="306"/>
-      <c r="C64" s="293"/>
+      <c r="B64" s="305"/>
+      <c r="C64" s="292"/>
       <c r="D64" s="42"/>
       <c r="E64" s="10"/>
       <c r="F64" s="238"/>
@@ -9178,12 +9179,12 @@
       <c r="O64" s="244"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="332" t="str">
+      <c r="R64" s="342" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="332"/>
-      <c r="T64" s="332"/>
+      <c r="S64" s="342"/>
+      <c r="T64" s="342"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
@@ -9191,8 +9192,8 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="38"/>
-      <c r="B65" s="306"/>
-      <c r="C65" s="307"/>
+      <c r="B65" s="305"/>
+      <c r="C65" s="306"/>
       <c r="D65" s="42"/>
       <c r="E65" s="10"/>
       <c r="F65" s="238"/>
@@ -9227,8 +9228,8 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="70"/>
-      <c r="B66" s="306"/>
-      <c r="C66" s="293"/>
+      <c r="B66" s="305"/>
+      <c r="C66" s="292"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="238"/>
@@ -9261,8 +9262,8 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="38"/>
-      <c r="B67" s="306"/>
-      <c r="C67" s="293"/>
+      <c r="B67" s="305"/>
+      <c r="C67" s="292"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="238"/>
@@ -9297,8 +9298,8 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17"/>
-      <c r="B68" s="306"/>
-      <c r="C68" s="293"/>
+      <c r="B68" s="305"/>
+      <c r="C68" s="292"/>
       <c r="D68" s="26"/>
       <c r="E68" s="9"/>
       <c r="F68" s="238"/>
@@ -9333,8 +9334,8 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="70"/>
-      <c r="B69" s="306"/>
-      <c r="C69" s="307"/>
+      <c r="B69" s="305"/>
+      <c r="C69" s="306"/>
       <c r="D69" s="42"/>
       <c r="E69" s="10"/>
       <c r="F69" s="238"/>
@@ -9371,8 +9372,8 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="16"/>
-      <c r="B70" s="306"/>
-      <c r="C70" s="293"/>
+      <c r="B70" s="305"/>
+      <c r="C70" s="292"/>
       <c r="D70" s="42"/>
       <c r="E70" s="10"/>
       <c r="F70" s="238"/>
@@ -9407,8 +9408,8 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="17"/>
-      <c r="B71" s="294"/>
-      <c r="C71" s="307"/>
+      <c r="B71" s="293"/>
+      <c r="C71" s="306"/>
       <c r="D71" s="42"/>
       <c r="E71" s="10"/>
       <c r="F71" s="238"/>
@@ -9443,8 +9444,8 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="71"/>
-      <c r="B72" s="292"/>
-      <c r="C72" s="308"/>
+      <c r="B72" s="291"/>
+      <c r="C72" s="307"/>
       <c r="D72" s="72"/>
       <c r="E72" s="72"/>
       <c r="F72" s="238"/>
@@ -9479,8 +9480,8 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="71"/>
-      <c r="B73" s="314"/>
-      <c r="C73" s="308"/>
+      <c r="B73" s="313"/>
+      <c r="C73" s="307"/>
       <c r="D73" s="42"/>
       <c r="E73" s="10"/>
       <c r="F73" s="238"/>
@@ -9515,8 +9516,8 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="38"/>
-      <c r="B74" s="314"/>
-      <c r="C74" s="308"/>
+      <c r="B74" s="313"/>
+      <c r="C74" s="307"/>
       <c r="D74" s="42"/>
       <c r="E74" s="10"/>
       <c r="F74" s="238"/>
@@ -9556,8 +9557,8 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="17"/>
-      <c r="B75" s="294"/>
-      <c r="C75" s="295"/>
+      <c r="B75" s="293"/>
+      <c r="C75" s="294"/>
       <c r="D75" s="42"/>
       <c r="E75" s="10"/>
       <c r="F75" s="238"/>
@@ -9597,8 +9598,8 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="71"/>
-      <c r="B76" s="292"/>
-      <c r="C76" s="295"/>
+      <c r="B76" s="291"/>
+      <c r="C76" s="294"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="238"/>
@@ -9637,8 +9638,8 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="71"/>
-      <c r="B77" s="306"/>
-      <c r="C77" s="293"/>
+      <c r="B77" s="305"/>
+      <c r="C77" s="292"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="238"/>
@@ -9678,8 +9679,8 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="71"/>
-      <c r="B78" s="306"/>
-      <c r="C78" s="293"/>
+      <c r="B78" s="305"/>
+      <c r="C78" s="292"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="238"/>
@@ -9719,8 +9720,8 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="70"/>
-      <c r="B79" s="306"/>
-      <c r="C79" s="293"/>
+      <c r="B79" s="305"/>
+      <c r="C79" s="292"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="238"/>
@@ -9760,8 +9761,8 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="38"/>
-      <c r="B80" s="306"/>
-      <c r="C80" s="310"/>
+      <c r="B80" s="305"/>
+      <c r="C80" s="309"/>
       <c r="D80" s="35"/>
       <c r="E80" s="26"/>
       <c r="F80" s="238"/>
@@ -9802,8 +9803,8 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="17"/>
-      <c r="B81" s="306"/>
-      <c r="C81" s="307"/>
+      <c r="B81" s="305"/>
+      <c r="C81" s="306"/>
       <c r="D81" s="33"/>
       <c r="E81" s="26"/>
       <c r="F81" s="238"/>
@@ -9842,8 +9843,8 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="12"/>
-      <c r="B82" s="315"/>
-      <c r="C82" s="307"/>
+      <c r="B82" s="314"/>
+      <c r="C82" s="306"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="238"/>
@@ -9882,8 +9883,8 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="12"/>
-      <c r="B83" s="315"/>
-      <c r="C83" s="307"/>
+      <c r="B83" s="314"/>
+      <c r="C83" s="306"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="238"/>
@@ -9922,8 +9923,8 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="12"/>
-      <c r="B84" s="315"/>
-      <c r="C84" s="307"/>
+      <c r="B84" s="314"/>
+      <c r="C84" s="306"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="238"/>
@@ -9963,8 +9964,8 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="12"/>
-      <c r="B85" s="306"/>
-      <c r="C85" s="307"/>
+      <c r="B85" s="305"/>
+      <c r="C85" s="306"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="238"/>
@@ -10000,8 +10001,8 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12"/>
-      <c r="B86" s="315"/>
-      <c r="C86" s="307"/>
+      <c r="B86" s="314"/>
+      <c r="C86" s="306"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="238"/>
@@ -10025,17 +10026,17 @@
       </c>
       <c r="O86" s="244"/>
       <c r="P86" s="3"/>
-      <c r="Q86" s="318"/>
-      <c r="R86" s="318"/>
-      <c r="S86" s="318"/>
-      <c r="T86" s="318"/>
-      <c r="U86" s="320"/>
-      <c r="V86" s="319"/>
+      <c r="Q86" s="317"/>
+      <c r="R86" s="317"/>
+      <c r="S86" s="317"/>
+      <c r="T86" s="317"/>
+      <c r="U86" s="319"/>
+      <c r="V86" s="318"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="12"/>
-      <c r="B87" s="315"/>
-      <c r="C87" s="307"/>
+      <c r="B87" s="314"/>
+      <c r="C87" s="306"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="238"/>
@@ -10059,17 +10060,17 @@
       </c>
       <c r="O87" s="244"/>
       <c r="P87" s="46"/>
-      <c r="Q87" s="318"/>
-      <c r="R87" s="318"/>
-      <c r="S87" s="318"/>
-      <c r="T87" s="318"/>
-      <c r="U87" s="320"/>
-      <c r="V87" s="319"/>
+      <c r="Q87" s="317"/>
+      <c r="R87" s="317"/>
+      <c r="S87" s="317"/>
+      <c r="T87" s="317"/>
+      <c r="U87" s="319"/>
+      <c r="V87" s="318"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="12"/>
-      <c r="B88" s="315"/>
-      <c r="C88" s="307"/>
+      <c r="B88" s="314"/>
+      <c r="C88" s="306"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="238"/>
@@ -10093,17 +10094,17 @@
       </c>
       <c r="O88" s="244"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="318"/>
-      <c r="R88" s="318"/>
-      <c r="S88" s="318"/>
-      <c r="T88" s="318"/>
-      <c r="U88" s="320"/>
-      <c r="V88" s="319"/>
+      <c r="Q88" s="317"/>
+      <c r="R88" s="317"/>
+      <c r="S88" s="317"/>
+      <c r="T88" s="317"/>
+      <c r="U88" s="319"/>
+      <c r="V88" s="318"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="12"/>
-      <c r="B89" s="315"/>
-      <c r="C89" s="307"/>
+      <c r="B89" s="314"/>
+      <c r="C89" s="306"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="238"/>
@@ -10127,17 +10128,17 @@
       </c>
       <c r="O89" s="244"/>
       <c r="P89" s="46"/>
-      <c r="Q89" s="318"/>
-      <c r="R89" s="318"/>
-      <c r="S89" s="318"/>
-      <c r="T89" s="318"/>
-      <c r="U89" s="320"/>
-      <c r="V89" s="319"/>
+      <c r="Q89" s="317"/>
+      <c r="R89" s="317"/>
+      <c r="S89" s="317"/>
+      <c r="T89" s="317"/>
+      <c r="U89" s="319"/>
+      <c r="V89" s="318"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="12"/>
-      <c r="B90" s="315"/>
-      <c r="C90" s="307"/>
+      <c r="B90" s="314"/>
+      <c r="C90" s="306"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="238"/>
@@ -10161,17 +10162,17 @@
       </c>
       <c r="O90" s="244"/>
       <c r="P90" s="3"/>
-      <c r="Q90" s="318"/>
-      <c r="R90" s="318"/>
-      <c r="S90" s="318"/>
-      <c r="T90" s="318"/>
-      <c r="U90" s="320"/>
-      <c r="V90" s="319"/>
+      <c r="Q90" s="317"/>
+      <c r="R90" s="317"/>
+      <c r="S90" s="317"/>
+      <c r="T90" s="317"/>
+      <c r="U90" s="319"/>
+      <c r="V90" s="318"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="12"/>
-      <c r="B91" s="315"/>
-      <c r="C91" s="307"/>
+      <c r="B91" s="314"/>
+      <c r="C91" s="306"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="238"/>
@@ -10195,17 +10196,17 @@
       </c>
       <c r="O91" s="244"/>
       <c r="P91" s="3"/>
-      <c r="Q91" s="318"/>
-      <c r="R91" s="318"/>
-      <c r="S91" s="318"/>
-      <c r="T91" s="318"/>
-      <c r="U91" s="320"/>
-      <c r="V91" s="319"/>
+      <c r="Q91" s="317"/>
+      <c r="R91" s="317"/>
+      <c r="S91" s="317"/>
+      <c r="T91" s="317"/>
+      <c r="U91" s="319"/>
+      <c r="V91" s="318"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="12"/>
-      <c r="B92" s="315"/>
-      <c r="C92" s="312"/>
+      <c r="B92" s="314"/>
+      <c r="C92" s="311"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="238"/>
@@ -10231,17 +10232,17 @@
       <c r="P92" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="Q92" s="318"/>
-      <c r="R92" s="318"/>
-      <c r="S92" s="318"/>
-      <c r="T92" s="318"/>
-      <c r="U92" s="320"/>
-      <c r="V92" s="319"/>
+      <c r="Q92" s="317"/>
+      <c r="R92" s="317"/>
+      <c r="S92" s="317"/>
+      <c r="T92" s="317"/>
+      <c r="U92" s="319"/>
+      <c r="V92" s="318"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="12"/>
-      <c r="B93" s="306"/>
-      <c r="C93" s="295"/>
+      <c r="B93" s="305"/>
+      <c r="C93" s="294"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="238"/>
@@ -10265,17 +10266,17 @@
       </c>
       <c r="O93" s="244"/>
       <c r="P93" s="46"/>
-      <c r="Q93" s="318"/>
-      <c r="R93" s="318"/>
-      <c r="S93" s="318"/>
-      <c r="T93" s="318"/>
-      <c r="U93" s="320"/>
-      <c r="V93" s="319"/>
+      <c r="Q93" s="317"/>
+      <c r="R93" s="317"/>
+      <c r="S93" s="317"/>
+      <c r="T93" s="317"/>
+      <c r="U93" s="319"/>
+      <c r="V93" s="318"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13"/>
-      <c r="B94" s="315"/>
-      <c r="C94" s="295"/>
+      <c r="B94" s="314"/>
+      <c r="C94" s="294"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="249"/>
@@ -10299,19 +10300,19 @@
       </c>
       <c r="O94" s="244"/>
       <c r="P94" s="46"/>
-      <c r="Q94" s="318"/>
-      <c r="R94" s="318"/>
-      <c r="S94" s="318"/>
-      <c r="T94" s="318"/>
-      <c r="U94" s="320"/>
-      <c r="V94" s="319"/>
+      <c r="Q94" s="317"/>
+      <c r="R94" s="317"/>
+      <c r="S94" s="317"/>
+      <c r="T94" s="317"/>
+      <c r="U94" s="319"/>
+      <c r="V94" s="318"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="153"/>
-      <c r="B95" s="326" t="s">
+      <c r="B95" s="336" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="327"/>
+      <c r="C95" s="337"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="158"/>
@@ -10339,12 +10340,12 @@
       <c r="P95" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="Q95" s="318"/>
-      <c r="R95" s="318"/>
-      <c r="S95" s="318"/>
-      <c r="T95" s="318"/>
-      <c r="U95" s="320"/>
-      <c r="V95" s="319"/>
+      <c r="Q95" s="317"/>
+      <c r="R95" s="317"/>
+      <c r="S95" s="317"/>
+      <c r="T95" s="317"/>
+      <c r="U95" s="319"/>
+      <c r="V95" s="318"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="153"/>
@@ -10376,29 +10377,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="162"/>
-      <c r="P96" s="349" t="s">
+      <c r="P96" s="328" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="350"/>
-      <c r="R96" s="350"/>
-      <c r="S96" s="350"/>
-      <c r="T96" s="350"/>
-      <c r="U96" s="350"/>
-      <c r="V96" s="351"/>
+      <c r="Q96" s="329"/>
+      <c r="R96" s="329"/>
+      <c r="S96" s="329"/>
+      <c r="T96" s="329"/>
+      <c r="U96" s="329"/>
+      <c r="V96" s="330"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="333" t="s">
+      <c r="A97" s="331" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="334"/>
-      <c r="C97" s="335"/>
+      <c r="B97" s="332"/>
+      <c r="C97" s="333"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="170"/>
-      <c r="G97" s="322" t="s">
+      <c r="G97" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="322"/>
+      <c r="H97" s="334"/>
       <c r="I97" s="182"/>
       <c r="J97" s="172"/>
       <c r="K97" s="172"/>
@@ -10420,9 +10421,9 @@
       <c r="V97" s="187"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="343"/>
-      <c r="B98" s="344"/>
-      <c r="C98" s="345"/>
+      <c r="A98" s="322"/>
+      <c r="B98" s="323"/>
+      <c r="C98" s="324"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="182"/>
@@ -10448,20 +10449,20 @@
       <c r="V98" s="187"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="343" t="s">
+      <c r="A99" s="322" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="344"/>
-      <c r="C99" s="345"/>
+      <c r="B99" s="323"/>
+      <c r="C99" s="324"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="352" t="s">
+      <c r="E99" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="352"/>
-      <c r="G99" s="352"/>
-      <c r="H99" s="352"/>
-      <c r="I99" s="352"/>
-      <c r="J99" s="352"/>
+      <c r="F99" s="335"/>
+      <c r="G99" s="335"/>
+      <c r="H99" s="335"/>
+      <c r="I99" s="335"/>
+      <c r="J99" s="335"/>
       <c r="K99" s="183"/>
       <c r="L99" s="252"/>
       <c r="M99" s="253"/>
@@ -10478,19 +10479,19 @@
       <c r="V99" s="187"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="343"/>
-      <c r="B100" s="344"/>
-      <c r="C100" s="345"/>
+      <c r="A100" s="322"/>
+      <c r="B100" s="323"/>
+      <c r="C100" s="324"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="179"/>
-      <c r="F100" s="344" t="str">
+      <c r="E100" s="323" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="344"/>
-      <c r="H100" s="344"/>
-      <c r="I100" s="344"/>
-      <c r="J100" s="344"/>
+      <c r="F100" s="323"/>
+      <c r="G100" s="323"/>
+      <c r="H100" s="323"/>
+      <c r="I100" s="323"/>
+      <c r="J100" s="323"/>
       <c r="K100" s="256"/>
       <c r="L100" s="257"/>
       <c r="M100" s="258"/>
@@ -10509,20 +10510,20 @@
       <c r="V100" s="219"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="346" t="s">
+      <c r="A101" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="347"/>
-      <c r="C101" s="348"/>
+      <c r="B101" s="326"/>
+      <c r="C101" s="327"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="347" t="s">
+      <c r="F101" s="326" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="347"/>
-      <c r="H101" s="347"/>
-      <c r="I101" s="347"/>
-      <c r="J101" s="347"/>
+      <c r="G101" s="326"/>
+      <c r="H101" s="326"/>
+      <c r="I101" s="326"/>
+      <c r="J101" s="326"/>
       <c r="K101" s="260"/>
       <c r="L101" s="261"/>
       <c r="M101" s="262"/>
@@ -10556,28 +10557,7 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="R63:T63"/>
     <mergeCell ref="R64:T64"/>
-    <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A55:S55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
     <mergeCell ref="G46:H46"/>
@@ -10588,6 +10568,27 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -10602,7 +10603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D77" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D11" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
       <selection activeCell="T93" sqref="T93"/>
     </sheetView>
   </sheetViews>
@@ -10690,9 +10691,9 @@
       <c r="X2" s="279"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="336"/>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
+      <c r="A3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
       <c r="D3" s="226"/>
       <c r="E3" s="226"/>
       <c r="F3" s="226"/>
@@ -10768,7 +10769,7 @@
       <c r="R5" s="284"/>
       <c r="S5" s="284"/>
       <c r="T5" s="284"/>
-      <c r="U5" s="317" t="s">
+      <c r="U5" s="316" t="s">
         <v>78</v>
       </c>
       <c r="V5" s="94"/>
@@ -10813,27 +10814,27 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="323" t="s">
+      <c r="D7" s="350" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="324"/>
-      <c r="H7" s="324"/>
-      <c r="I7" s="324"/>
-      <c r="J7" s="325"/>
-      <c r="K7" s="353" t="s">
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
+      <c r="G7" s="351"/>
+      <c r="H7" s="351"/>
+      <c r="I7" s="351"/>
+      <c r="J7" s="352"/>
+      <c r="K7" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="353" t="s">
+      <c r="L7" s="358"/>
+      <c r="M7" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="354"/>
-      <c r="O7" s="323" t="s">
+      <c r="N7" s="358"/>
+      <c r="O7" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="325"/>
+      <c r="P7" s="352"/>
       <c r="Q7" s="109"/>
       <c r="R7" s="107"/>
       <c r="S7" s="109"/>
@@ -10863,10 +10864,10 @@
       <c r="G8" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="355" t="s">
+      <c r="H8" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="356"/>
+      <c r="I8" s="354"/>
       <c r="J8" s="114" t="s">
         <v>16</v>
       </c>
@@ -10915,10 +10916,10 @@
       <c r="G9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="357" t="s">
+      <c r="H9" s="355" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="358"/>
+      <c r="I9" s="356"/>
       <c r="J9" s="122" t="s">
         <v>21</v>
       </c>
@@ -10965,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="52">
-        <f t="shared" ref="O10:O44" si="0">+I10</f>
+        <f t="shared" ref="O10" si="0">+I10</f>
         <v>0</v>
       </c>
       <c r="P10" s="132">
@@ -11131,7 +11132,7 @@
       <c r="Q14" s="244"/>
       <c r="R14" s="83"/>
       <c r="S14" s="47"/>
-      <c r="T14" s="359" t="s">
+      <c r="T14" s="321" t="s">
         <v>66</v>
       </c>
       <c r="U14" s="138"/>
@@ -12406,65 +12407,65 @@
       <c r="X50" s="200"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="329"/>
-      <c r="C51" s="329"/>
-      <c r="D51" s="329"/>
-      <c r="E51" s="329"/>
-      <c r="F51" s="329"/>
-      <c r="G51" s="329"/>
-      <c r="H51" s="329"/>
-      <c r="I51" s="329"/>
-      <c r="J51" s="329"/>
-      <c r="K51" s="329"/>
-      <c r="L51" s="329"/>
-      <c r="M51" s="329"/>
-      <c r="N51" s="329"/>
-      <c r="O51" s="329"/>
-      <c r="P51" s="329"/>
-      <c r="Q51" s="329"/>
-      <c r="R51" s="329"/>
-      <c r="S51" s="329"/>
-      <c r="T51" s="329"/>
-      <c r="U51" s="329"/>
-      <c r="V51" s="329"/>
-      <c r="W51" s="329"/>
-      <c r="X51" s="330"/>
+      <c r="A51" s="338" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="339"/>
+      <c r="C51" s="339"/>
+      <c r="D51" s="339"/>
+      <c r="E51" s="339"/>
+      <c r="F51" s="339"/>
+      <c r="G51" s="339"/>
+      <c r="H51" s="339"/>
+      <c r="I51" s="339"/>
+      <c r="J51" s="339"/>
+      <c r="K51" s="339"/>
+      <c r="L51" s="339"/>
+      <c r="M51" s="339"/>
+      <c r="N51" s="339"/>
+      <c r="O51" s="339"/>
+      <c r="P51" s="339"/>
+      <c r="Q51" s="339"/>
+      <c r="R51" s="339"/>
+      <c r="S51" s="339"/>
+      <c r="T51" s="339"/>
+      <c r="U51" s="339"/>
+      <c r="V51" s="339"/>
+      <c r="W51" s="339"/>
+      <c r="X51" s="340"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="333" t="s">
+      <c r="A52" s="331" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="334"/>
-      <c r="C52" s="334"/>
-      <c r="D52" s="334"/>
-      <c r="E52" s="334"/>
-      <c r="F52" s="334"/>
-      <c r="G52" s="334"/>
-      <c r="H52" s="334"/>
-      <c r="I52" s="334"/>
-      <c r="J52" s="334"/>
-      <c r="K52" s="334"/>
-      <c r="L52" s="334"/>
-      <c r="M52" s="334"/>
-      <c r="N52" s="334"/>
-      <c r="O52" s="334"/>
-      <c r="P52" s="334"/>
-      <c r="Q52" s="334"/>
-      <c r="R52" s="334"/>
-      <c r="S52" s="334"/>
-      <c r="T52" s="334"/>
-      <c r="U52" s="334"/>
-      <c r="V52" s="334"/>
-      <c r="W52" s="334"/>
-      <c r="X52" s="335"/>
+      <c r="B52" s="332"/>
+      <c r="C52" s="332"/>
+      <c r="D52" s="332"/>
+      <c r="E52" s="332"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
+      <c r="H52" s="332"/>
+      <c r="I52" s="332"/>
+      <c r="J52" s="332"/>
+      <c r="K52" s="332"/>
+      <c r="L52" s="332"/>
+      <c r="M52" s="332"/>
+      <c r="N52" s="332"/>
+      <c r="O52" s="332"/>
+      <c r="P52" s="332"/>
+      <c r="Q52" s="332"/>
+      <c r="R52" s="332"/>
+      <c r="S52" s="332"/>
+      <c r="T52" s="332"/>
+      <c r="U52" s="332"/>
+      <c r="V52" s="332"/>
+      <c r="W52" s="332"/>
+      <c r="X52" s="333"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="336"/>
-      <c r="B53" s="337"/>
-      <c r="C53" s="337"/>
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="226"/>
       <c r="E53" s="226"/>
       <c r="F53" s="226"/>
@@ -12490,53 +12491,53 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="338"/>
-      <c r="B54" s="339"/>
-      <c r="C54" s="339"/>
-      <c r="D54" s="339"/>
-      <c r="E54" s="339"/>
-      <c r="F54" s="339"/>
-      <c r="G54" s="339"/>
-      <c r="H54" s="339"/>
-      <c r="I54" s="339"/>
-      <c r="J54" s="339"/>
-      <c r="K54" s="339"/>
-      <c r="L54" s="339"/>
-      <c r="M54" s="339"/>
-      <c r="N54" s="339"/>
-      <c r="O54" s="339"/>
-      <c r="P54" s="339"/>
-      <c r="Q54" s="339"/>
-      <c r="R54" s="339"/>
-      <c r="S54" s="339"/>
-      <c r="T54" s="339"/>
-      <c r="U54" s="339"/>
-      <c r="V54" s="339"/>
-      <c r="W54" s="339"/>
-      <c r="X54" s="340"/>
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="346"/>
+      <c r="W54" s="346"/>
+      <c r="X54" s="347"/>
     </row>
     <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="341"/>
-      <c r="B55" s="342"/>
-      <c r="C55" s="342"/>
-      <c r="D55" s="342"/>
-      <c r="E55" s="342"/>
-      <c r="F55" s="342"/>
-      <c r="G55" s="342"/>
-      <c r="H55" s="342"/>
-      <c r="I55" s="342"/>
-      <c r="J55" s="342"/>
-      <c r="K55" s="342"/>
-      <c r="L55" s="342"/>
-      <c r="M55" s="342"/>
-      <c r="N55" s="342"/>
-      <c r="O55" s="342"/>
-      <c r="P55" s="342"/>
-      <c r="Q55" s="342"/>
-      <c r="R55" s="342"/>
-      <c r="S55" s="342"/>
-      <c r="T55" s="342"/>
-      <c r="U55" s="317" t="s">
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
+      <c r="T55" s="349"/>
+      <c r="U55" s="316" t="s">
         <v>78</v>
       </c>
       <c r="V55" s="87"/>
@@ -12577,27 +12578,27 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="323" t="s">
+      <c r="D57" s="350" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="324"/>
-      <c r="F57" s="324"/>
-      <c r="G57" s="324"/>
-      <c r="H57" s="324"/>
-      <c r="I57" s="324"/>
-      <c r="J57" s="325"/>
-      <c r="K57" s="353" t="s">
+      <c r="E57" s="351"/>
+      <c r="F57" s="351"/>
+      <c r="G57" s="351"/>
+      <c r="H57" s="351"/>
+      <c r="I57" s="351"/>
+      <c r="J57" s="352"/>
+      <c r="K57" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="354"/>
-      <c r="M57" s="353" t="s">
+      <c r="L57" s="358"/>
+      <c r="M57" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="354"/>
-      <c r="O57" s="323" t="s">
+      <c r="N57" s="358"/>
+      <c r="O57" s="350" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="325"/>
+      <c r="P57" s="352"/>
       <c r="Q57" s="109"/>
       <c r="R57" s="107"/>
       <c r="S57" s="109"/>
@@ -12627,10 +12628,10 @@
       <c r="G58" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="355" t="s">
+      <c r="H58" s="353" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="356"/>
+      <c r="I58" s="354"/>
       <c r="J58" s="114" t="s">
         <v>16</v>
       </c>
@@ -12679,10 +12680,10 @@
       <c r="G59" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="357" t="s">
+      <c r="H59" s="355" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="358"/>
+      <c r="I59" s="356"/>
       <c r="J59" s="122" t="s">
         <v>21</v>
       </c>
@@ -12711,8 +12712,8 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17"/>
-      <c r="B60" s="294"/>
-      <c r="C60" s="313"/>
+      <c r="B60" s="293"/>
+      <c r="C60" s="312"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="84"/>
@@ -12749,8 +12750,8 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="38"/>
-      <c r="B61" s="304"/>
-      <c r="C61" s="295"/>
+      <c r="B61" s="303"/>
+      <c r="C61" s="294"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="22"/>
@@ -12787,8 +12788,8 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="17"/>
-      <c r="B62" s="305"/>
-      <c r="C62" s="295"/>
+      <c r="B62" s="304"/>
+      <c r="C62" s="294"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="41"/>
@@ -12827,8 +12828,8 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="38"/>
-      <c r="B63" s="306"/>
-      <c r="C63" s="307"/>
+      <c r="B63" s="305"/>
+      <c r="C63" s="306"/>
       <c r="D63" s="42"/>
       <c r="E63" s="10"/>
       <c r="F63" s="41"/>
@@ -12857,9 +12858,9 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="331"/>
-      <c r="U63" s="331"/>
-      <c r="V63" s="331"/>
+      <c r="T63" s="341"/>
+      <c r="U63" s="341"/>
+      <c r="V63" s="341"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
@@ -12867,8 +12868,8 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="17"/>
-      <c r="B64" s="304"/>
-      <c r="C64" s="293"/>
+      <c r="B64" s="303"/>
+      <c r="C64" s="292"/>
       <c r="D64" s="42"/>
       <c r="E64" s="10"/>
       <c r="F64" s="41"/>
@@ -12895,12 +12896,12 @@
       <c r="Q64" s="244"/>
       <c r="R64" s="83"/>
       <c r="S64" s="47"/>
-      <c r="T64" s="332" t="str">
+      <c r="T64" s="342" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="332"/>
-      <c r="V64" s="332"/>
+      <c r="U64" s="342"/>
+      <c r="V64" s="342"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
@@ -12908,8 +12909,8 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="38"/>
-      <c r="B65" s="306"/>
-      <c r="C65" s="307"/>
+      <c r="B65" s="305"/>
+      <c r="C65" s="306"/>
       <c r="D65" s="42"/>
       <c r="E65" s="10"/>
       <c r="F65" s="41"/>
@@ -12946,8 +12947,8 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="70"/>
-      <c r="B66" s="304"/>
-      <c r="C66" s="293"/>
+      <c r="B66" s="303"/>
+      <c r="C66" s="292"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="22"/>
@@ -12982,8 +12983,8 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="38"/>
-      <c r="B67" s="304"/>
-      <c r="C67" s="293"/>
+      <c r="B67" s="303"/>
+      <c r="C67" s="292"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="22"/>
@@ -13020,8 +13021,8 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17"/>
-      <c r="B68" s="304"/>
-      <c r="C68" s="293"/>
+      <c r="B68" s="303"/>
+      <c r="C68" s="292"/>
       <c r="D68" s="26"/>
       <c r="E68" s="9"/>
       <c r="F68" s="22"/>
@@ -13058,8 +13059,8 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="70"/>
-      <c r="B69" s="304"/>
-      <c r="C69" s="307"/>
+      <c r="B69" s="303"/>
+      <c r="C69" s="306"/>
       <c r="D69" s="42"/>
       <c r="E69" s="10"/>
       <c r="F69" s="41"/>
@@ -13098,8 +13099,8 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="16"/>
-      <c r="B70" s="304"/>
-      <c r="C70" s="293"/>
+      <c r="B70" s="303"/>
+      <c r="C70" s="292"/>
       <c r="D70" s="42"/>
       <c r="E70" s="10"/>
       <c r="F70" s="41"/>
@@ -13136,8 +13137,8 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="17"/>
-      <c r="B71" s="294"/>
-      <c r="C71" s="307"/>
+      <c r="B71" s="293"/>
+      <c r="C71" s="306"/>
       <c r="D71" s="42"/>
       <c r="E71" s="10"/>
       <c r="F71" s="41"/>
@@ -13174,8 +13175,8 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="71"/>
-      <c r="B72" s="305"/>
-      <c r="C72" s="308"/>
+      <c r="B72" s="304"/>
+      <c r="C72" s="307"/>
       <c r="D72" s="72"/>
       <c r="E72" s="72"/>
       <c r="F72" s="76"/>
@@ -13212,8 +13213,8 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="71"/>
-      <c r="B73" s="309"/>
-      <c r="C73" s="308"/>
+      <c r="B73" s="308"/>
+      <c r="C73" s="307"/>
       <c r="D73" s="42"/>
       <c r="E73" s="10"/>
       <c r="F73" s="41"/>
@@ -13250,8 +13251,8 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="38"/>
-      <c r="B74" s="309"/>
-      <c r="C74" s="308"/>
+      <c r="B74" s="308"/>
+      <c r="C74" s="307"/>
       <c r="D74" s="42"/>
       <c r="E74" s="10"/>
       <c r="F74" s="41"/>
@@ -13293,8 +13294,8 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="17"/>
-      <c r="B75" s="294"/>
-      <c r="C75" s="295"/>
+      <c r="B75" s="293"/>
+      <c r="C75" s="294"/>
       <c r="D75" s="42"/>
       <c r="E75" s="10"/>
       <c r="F75" s="41"/>
@@ -13336,8 +13337,8 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="71"/>
-      <c r="B76" s="305"/>
-      <c r="C76" s="295"/>
+      <c r="B76" s="304"/>
+      <c r="C76" s="294"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="22"/>
@@ -13378,8 +13379,8 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="71"/>
-      <c r="B77" s="304"/>
-      <c r="C77" s="293"/>
+      <c r="B77" s="303"/>
+      <c r="C77" s="292"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="22"/>
@@ -13421,8 +13422,8 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="71"/>
-      <c r="B78" s="304"/>
-      <c r="C78" s="293"/>
+      <c r="B78" s="303"/>
+      <c r="C78" s="292"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="22"/>
@@ -13464,8 +13465,8 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="70"/>
-      <c r="B79" s="304"/>
-      <c r="C79" s="293"/>
+      <c r="B79" s="303"/>
+      <c r="C79" s="292"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="22"/>
@@ -13507,8 +13508,8 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="38"/>
-      <c r="B80" s="306"/>
-      <c r="C80" s="310"/>
+      <c r="B80" s="305"/>
+      <c r="C80" s="309"/>
       <c r="D80" s="35"/>
       <c r="E80" s="26"/>
       <c r="F80" s="9"/>
@@ -13551,8 +13552,8 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="17"/>
-      <c r="B81" s="304"/>
-      <c r="C81" s="307"/>
+      <c r="B81" s="303"/>
+      <c r="C81" s="306"/>
       <c r="D81" s="33"/>
       <c r="E81" s="26"/>
       <c r="F81" s="9"/>
@@ -13593,8 +13594,8 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="12"/>
-      <c r="B82" s="311"/>
-      <c r="C82" s="307"/>
+      <c r="B82" s="310"/>
+      <c r="C82" s="306"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="41"/>
@@ -13635,8 +13636,8 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="12"/>
-      <c r="B83" s="311"/>
-      <c r="C83" s="307"/>
+      <c r="B83" s="310"/>
+      <c r="C83" s="306"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="41"/>
@@ -13677,8 +13678,8 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="12"/>
-      <c r="B84" s="311"/>
-      <c r="C84" s="307"/>
+      <c r="B84" s="310"/>
+      <c r="C84" s="306"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="41"/>
@@ -13720,8 +13721,8 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="12"/>
-      <c r="B85" s="304"/>
-      <c r="C85" s="307"/>
+      <c r="B85" s="303"/>
+      <c r="C85" s="306"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="78"/>
@@ -13759,8 +13760,8 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12"/>
-      <c r="B86" s="311"/>
-      <c r="C86" s="307"/>
+      <c r="B86" s="310"/>
+      <c r="C86" s="306"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="41"/>
@@ -13786,17 +13787,17 @@
       </c>
       <c r="Q86" s="244"/>
       <c r="R86" s="3"/>
-      <c r="S86" s="318"/>
-      <c r="T86" s="318"/>
-      <c r="U86" s="318"/>
-      <c r="V86" s="318"/>
-      <c r="W86" s="320"/>
-      <c r="X86" s="319"/>
+      <c r="S86" s="317"/>
+      <c r="T86" s="317"/>
+      <c r="U86" s="317"/>
+      <c r="V86" s="317"/>
+      <c r="W86" s="319"/>
+      <c r="X86" s="318"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="12"/>
-      <c r="B87" s="311"/>
-      <c r="C87" s="307"/>
+      <c r="B87" s="310"/>
+      <c r="C87" s="306"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="41"/>
@@ -13822,17 +13823,17 @@
       </c>
       <c r="Q87" s="244"/>
       <c r="R87" s="11"/>
-      <c r="S87" s="318"/>
-      <c r="T87" s="318"/>
-      <c r="U87" s="318"/>
-      <c r="V87" s="318"/>
-      <c r="W87" s="320"/>
-      <c r="X87" s="319"/>
+      <c r="S87" s="317"/>
+      <c r="T87" s="317"/>
+      <c r="U87" s="317"/>
+      <c r="V87" s="317"/>
+      <c r="W87" s="319"/>
+      <c r="X87" s="318"/>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="12"/>
-      <c r="B88" s="311"/>
-      <c r="C88" s="307"/>
+      <c r="B88" s="310"/>
+      <c r="C88" s="306"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="41"/>
@@ -13858,17 +13859,17 @@
       </c>
       <c r="Q88" s="244"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="318"/>
-      <c r="T88" s="318"/>
-      <c r="U88" s="318"/>
-      <c r="V88" s="318"/>
-      <c r="W88" s="320"/>
-      <c r="X88" s="319"/>
+      <c r="S88" s="317"/>
+      <c r="T88" s="317"/>
+      <c r="U88" s="317"/>
+      <c r="V88" s="317"/>
+      <c r="W88" s="319"/>
+      <c r="X88" s="318"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="12"/>
-      <c r="B89" s="311"/>
-      <c r="C89" s="307"/>
+      <c r="B89" s="310"/>
+      <c r="C89" s="306"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="41"/>
@@ -13894,17 +13895,17 @@
       </c>
       <c r="Q89" s="244"/>
       <c r="R89" s="11"/>
-      <c r="S89" s="318"/>
-      <c r="T89" s="318"/>
-      <c r="U89" s="318"/>
-      <c r="V89" s="318"/>
-      <c r="W89" s="320"/>
-      <c r="X89" s="319"/>
+      <c r="S89" s="317"/>
+      <c r="T89" s="317"/>
+      <c r="U89" s="317"/>
+      <c r="V89" s="317"/>
+      <c r="W89" s="319"/>
+      <c r="X89" s="318"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="12"/>
-      <c r="B90" s="311"/>
-      <c r="C90" s="307"/>
+      <c r="B90" s="310"/>
+      <c r="C90" s="306"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="41"/>
@@ -13930,17 +13931,17 @@
       </c>
       <c r="Q90" s="244"/>
       <c r="R90" s="4"/>
-      <c r="S90" s="318"/>
-      <c r="T90" s="318"/>
-      <c r="U90" s="318"/>
-      <c r="V90" s="318"/>
-      <c r="W90" s="320"/>
-      <c r="X90" s="319"/>
+      <c r="S90" s="317"/>
+      <c r="T90" s="317"/>
+      <c r="U90" s="317"/>
+      <c r="V90" s="317"/>
+      <c r="W90" s="319"/>
+      <c r="X90" s="318"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="12"/>
-      <c r="B91" s="311"/>
-      <c r="C91" s="307"/>
+      <c r="B91" s="310"/>
+      <c r="C91" s="306"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="41"/>
@@ -13966,17 +13967,17 @@
       </c>
       <c r="Q91" s="244"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="318"/>
-      <c r="T91" s="318"/>
-      <c r="U91" s="318"/>
-      <c r="V91" s="318"/>
-      <c r="W91" s="320"/>
-      <c r="X91" s="319"/>
+      <c r="S91" s="317"/>
+      <c r="T91" s="317"/>
+      <c r="U91" s="317"/>
+      <c r="V91" s="317"/>
+      <c r="W91" s="319"/>
+      <c r="X91" s="318"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="12"/>
-      <c r="B92" s="311"/>
-      <c r="C92" s="312"/>
+      <c r="B92" s="310"/>
+      <c r="C92" s="311"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="41"/>
@@ -14002,17 +14003,17 @@
       </c>
       <c r="Q92" s="244"/>
       <c r="R92" s="11"/>
-      <c r="S92" s="318"/>
-      <c r="T92" s="318"/>
-      <c r="U92" s="318"/>
-      <c r="V92" s="318"/>
-      <c r="W92" s="320"/>
-      <c r="X92" s="319"/>
+      <c r="S92" s="317"/>
+      <c r="T92" s="317"/>
+      <c r="U92" s="317"/>
+      <c r="V92" s="317"/>
+      <c r="W92" s="319"/>
+      <c r="X92" s="318"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="12"/>
-      <c r="B93" s="304"/>
-      <c r="C93" s="295"/>
+      <c r="B93" s="303"/>
+      <c r="C93" s="294"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="78"/>
@@ -14038,17 +14039,17 @@
       </c>
       <c r="Q93" s="244"/>
       <c r="R93" s="11"/>
-      <c r="S93" s="318"/>
-      <c r="T93" s="318"/>
-      <c r="U93" s="318"/>
-      <c r="V93" s="318"/>
-      <c r="W93" s="320"/>
-      <c r="X93" s="319"/>
+      <c r="S93" s="317"/>
+      <c r="T93" s="317"/>
+      <c r="U93" s="317"/>
+      <c r="V93" s="317"/>
+      <c r="W93" s="319"/>
+      <c r="X93" s="318"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="13"/>
-      <c r="B94" s="311"/>
-      <c r="C94" s="295"/>
+      <c r="B94" s="310"/>
+      <c r="C94" s="294"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="74"/>
@@ -14072,21 +14073,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="321"/>
+      <c r="Q94" s="320"/>
       <c r="R94" s="11"/>
-      <c r="S94" s="318"/>
-      <c r="T94" s="318"/>
-      <c r="U94" s="318"/>
-      <c r="V94" s="318"/>
-      <c r="W94" s="320"/>
-      <c r="X94" s="319"/>
+      <c r="S94" s="317"/>
+      <c r="T94" s="317"/>
+      <c r="U94" s="317"/>
+      <c r="V94" s="317"/>
+      <c r="W94" s="319"/>
+      <c r="X94" s="318"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="153"/>
-      <c r="B95" s="326" t="s">
+      <c r="B95" s="336" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="327"/>
+      <c r="C95" s="337"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="157"/>
@@ -14116,12 +14117,12 @@
       <c r="R95" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="S95" s="318"/>
-      <c r="T95" s="318"/>
-      <c r="U95" s="318"/>
-      <c r="V95" s="318"/>
-      <c r="W95" s="320"/>
-      <c r="X95" s="319"/>
+      <c r="S95" s="317"/>
+      <c r="T95" s="317"/>
+      <c r="U95" s="317"/>
+      <c r="V95" s="317"/>
+      <c r="W95" s="319"/>
+      <c r="X95" s="318"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="153"/>
@@ -14155,22 +14156,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="162"/>
-      <c r="R96" s="349" t="s">
+      <c r="R96" s="328" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="350"/>
-      <c r="T96" s="350"/>
-      <c r="U96" s="350"/>
-      <c r="V96" s="350"/>
-      <c r="W96" s="350"/>
-      <c r="X96" s="351"/>
+      <c r="S96" s="329"/>
+      <c r="T96" s="329"/>
+      <c r="U96" s="329"/>
+      <c r="V96" s="329"/>
+      <c r="W96" s="329"/>
+      <c r="X96" s="330"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="333" t="s">
+      <c r="A97" s="331" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="334"/>
-      <c r="C97" s="335"/>
+      <c r="B97" s="332"/>
+      <c r="C97" s="333"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="169"/>
@@ -14200,9 +14201,9 @@
       <c r="X97" s="187"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="343"/>
-      <c r="B98" s="344"/>
-      <c r="C98" s="345"/>
+      <c r="A98" s="322"/>
+      <c r="B98" s="323"/>
+      <c r="C98" s="324"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="181"/>
@@ -14230,22 +14231,22 @@
       <c r="X98" s="187"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="343" t="s">
+      <c r="A99" s="322" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="344"/>
-      <c r="C99" s="345"/>
+      <c r="B99" s="323"/>
+      <c r="C99" s="324"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="352" t="s">
+      <c r="E99" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="352"/>
-      <c r="G99" s="352"/>
-      <c r="H99" s="352"/>
-      <c r="I99" s="352"/>
-      <c r="J99" s="352"/>
-      <c r="K99" s="352"/>
-      <c r="L99" s="352"/>
+      <c r="F99" s="335"/>
+      <c r="G99" s="335"/>
+      <c r="H99" s="335"/>
+      <c r="I99" s="335"/>
+      <c r="J99" s="335"/>
+      <c r="K99" s="335"/>
+      <c r="L99" s="335"/>
       <c r="M99" s="183"/>
       <c r="N99" s="252"/>
       <c r="O99" s="253"/>
@@ -14262,24 +14263,24 @@
       <c r="X99" s="187"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="343">
+      <c r="A100" s="322">
         <f>+A49</f>
         <v>0</v>
       </c>
-      <c r="B100" s="344"/>
-      <c r="C100" s="345"/>
+      <c r="B100" s="323"/>
+      <c r="C100" s="324"/>
       <c r="D100" s="4"/>
       <c r="E100" s="179"/>
-      <c r="F100" s="344" t="str">
+      <c r="F100" s="323" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="344"/>
-      <c r="H100" s="344"/>
-      <c r="I100" s="344"/>
-      <c r="J100" s="344"/>
-      <c r="K100" s="344"/>
-      <c r="L100" s="344"/>
+      <c r="G100" s="323"/>
+      <c r="H100" s="323"/>
+      <c r="I100" s="323"/>
+      <c r="J100" s="323"/>
+      <c r="K100" s="323"/>
+      <c r="L100" s="323"/>
       <c r="M100" s="256"/>
       <c r="N100" s="257"/>
       <c r="O100" s="258"/>
@@ -14298,22 +14299,22 @@
       <c r="X100" s="219"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="346" t="s">
+      <c r="A101" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="347"/>
-      <c r="C101" s="348"/>
+      <c r="B101" s="326"/>
+      <c r="C101" s="327"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="347" t="s">
+      <c r="F101" s="326" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="347"/>
-      <c r="H101" s="347"/>
-      <c r="I101" s="347"/>
-      <c r="J101" s="347"/>
-      <c r="K101" s="347"/>
-      <c r="L101" s="347"/>
+      <c r="G101" s="326"/>
+      <c r="H101" s="326"/>
+      <c r="I101" s="326"/>
+      <c r="J101" s="326"/>
+      <c r="K101" s="326"/>
+      <c r="L101" s="326"/>
       <c r="M101" s="260"/>
       <c r="N101" s="261"/>
       <c r="O101" s="262"/>
@@ -14347,22 +14348,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -14371,12 +14362,22 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pea_jk\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ค่าอุปกรณ์ และขนส่ง'!$A$1:$V$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -271,10 +266,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -782,11 +777,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -838,11 +833,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,13 +853,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,13 +922,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -944,10 +939,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -968,7 +963,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,16 +1021,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,19 +1044,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1090,19 +1085,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,43 +1112,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1168,7 +1163,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,8 +1180,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,19 +1190,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1219,21 +1214,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1241,47 +1236,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1291,38 +1286,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,134 +1326,134 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1467,34 +1462,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1582,7 +1577,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,37 +1610,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1655,33 +1662,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,38 +1685,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3108,7 +3103,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3143,7 +3138,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3320,7 +3315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3333,36 +3328,36 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B72" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B28" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="11" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
-    <col min="3" max="3" width="122.6640625" style="85" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" style="85" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="222" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="222" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="222" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="223" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="222" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="224" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
+    <col min="3" max="3" width="122.7109375" style="85" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="222" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="222" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="222" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="223" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="222" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="224" customWidth="1"/>
     <col min="12" max="12" width="28" style="85" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="225" customWidth="1"/>
-    <col min="14" max="14" width="21.44140625" style="85" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="85" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="85"/>
-    <col min="18" max="18" width="9.6640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="85" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="85" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="225" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="85" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="85" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="85"/>
+    <col min="18" max="18" width="9.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="85" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="85" customWidth="1"/>
     <col min="21" max="21" width="11" style="85" customWidth="1"/>
-    <col min="22" max="22" width="44.44140625" style="85" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="85"/>
+    <col min="22" max="22" width="44.42578125" style="85" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A1" s="277" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3383,7 @@
       <c r="U1" s="169"/>
       <c r="V1" s="278"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
@@ -3414,7 +3409,7 @@
       <c r="U2" s="167"/>
       <c r="V2" s="279"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A3" s="86"/>
       <c r="B3" s="87"/>
       <c r="C3" s="87"/>
@@ -3440,7 +3435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A4" s="280" t="s">
         <v>65</v>
       </c>
@@ -3466,7 +3461,7 @@
       <c r="U4" s="281"/>
       <c r="V4" s="282"/>
     </row>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="283" t="s">
         <v>71</v>
       </c>
@@ -3496,7 +3491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -3524,29 +3519,29 @@
       <c r="U6" s="101"/>
       <c r="V6" s="104"/>
     </row>
-    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="351"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="350" t="s">
+      <c r="E7" s="326"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="327"/>
+      <c r="I7" s="325" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="352"/>
-      <c r="K7" s="350" t="s">
+      <c r="J7" s="327"/>
+      <c r="K7" s="325" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="352"/>
-      <c r="M7" s="350" t="s">
+      <c r="L7" s="327"/>
+      <c r="M7" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="352"/>
+      <c r="N7" s="327"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -3556,7 +3551,7 @@
       <c r="U7" s="109"/>
       <c r="V7" s="108"/>
     </row>
-    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -3612,7 +3607,7 @@
       <c r="U8" s="79"/>
       <c r="V8" s="118"/>
     </row>
-    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
@@ -3650,7 +3645,7 @@
       <c r="U9" s="79"/>
       <c r="V9" s="118"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="288"/>
       <c r="C10" s="289"/>
@@ -3683,7 +3678,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="118"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="288"/>
       <c r="C11" s="290"/>
@@ -3721,7 +3716,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="135"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="288"/>
       <c r="C12" s="290"/>
@@ -3761,7 +3756,7 @@
       </c>
       <c r="V12" s="135"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="288"/>
       <c r="C13" s="290"/>
@@ -3801,7 +3796,7 @@
       </c>
       <c r="V13" s="135"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="291"/>
       <c r="C14" s="292"/>
@@ -3841,7 +3836,7 @@
       </c>
       <c r="V14" s="118"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="291"/>
       <c r="C15" s="292"/>
@@ -3879,7 +3874,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="139"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A16" s="1"/>
       <c r="B16" s="291"/>
       <c r="C16" s="292"/>
@@ -3915,7 +3910,7 @@
       <c r="U16" s="141"/>
       <c r="V16" s="143"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A17" s="17"/>
       <c r="B17" s="293"/>
       <c r="C17" s="292"/>
@@ -3951,7 +3946,7 @@
       <c r="U17" s="145"/>
       <c r="V17" s="146"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A18" s="1"/>
       <c r="B18" s="291"/>
       <c r="C18" s="294"/>
@@ -3987,7 +3982,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="135"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A19" s="1"/>
       <c r="B19" s="293"/>
       <c r="C19" s="294"/>
@@ -4023,7 +4018,7 @@
       <c r="U19" s="51"/>
       <c r="V19" s="135"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A20" s="17"/>
       <c r="B20" s="293"/>
       <c r="C20" s="295"/>
@@ -4059,7 +4054,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="135"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A21" s="1"/>
       <c r="B21" s="291"/>
       <c r="C21" s="292"/>
@@ -4095,7 +4090,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="135"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A22" s="1"/>
       <c r="B22" s="291"/>
       <c r="C22" s="292"/>
@@ -4131,7 +4126,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="135"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A23" s="17"/>
       <c r="B23" s="293"/>
       <c r="C23" s="292"/>
@@ -4167,7 +4162,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="135"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A24" s="1"/>
       <c r="B24" s="291"/>
       <c r="C24" s="294"/>
@@ -4203,7 +4198,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="135"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A25" s="1"/>
       <c r="B25" s="291"/>
       <c r="C25" s="294"/>
@@ -4239,7 +4234,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="135"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A26" s="1"/>
       <c r="B26" s="291"/>
       <c r="C26" s="294"/>
@@ -4275,7 +4270,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="135"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A27" s="17"/>
       <c r="B27" s="293"/>
       <c r="C27" s="294"/>
@@ -4311,7 +4306,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="135"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A28" s="1"/>
       <c r="B28" s="291"/>
       <c r="C28" s="292"/>
@@ -4347,7 +4342,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="135"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A29" s="1"/>
       <c r="B29" s="293"/>
       <c r="C29" s="292"/>
@@ -4383,7 +4378,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="135"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A30" s="1"/>
       <c r="B30" s="291"/>
       <c r="C30" s="292"/>
@@ -4419,7 +4414,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="135"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A31" s="1"/>
       <c r="B31" s="293"/>
       <c r="C31" s="292"/>
@@ -4455,7 +4450,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="135"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A32" s="1"/>
       <c r="B32" s="291"/>
       <c r="C32" s="292"/>
@@ -4491,7 +4486,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="135"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A33" s="1"/>
       <c r="B33" s="293"/>
       <c r="C33" s="292"/>
@@ -4527,7 +4522,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="135"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A34" s="5"/>
       <c r="B34" s="291"/>
       <c r="C34" s="292"/>
@@ -4563,7 +4558,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="151"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A35" s="6"/>
       <c r="B35" s="291"/>
       <c r="C35" s="292"/>
@@ -4599,7 +4594,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="152"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A36" s="6"/>
       <c r="B36" s="291"/>
       <c r="C36" s="292"/>
@@ -4635,7 +4630,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="118"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A37" s="1"/>
       <c r="B37" s="291"/>
       <c r="C37" s="292"/>
@@ -4671,7 +4666,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="135"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A38" s="12"/>
       <c r="B38" s="293"/>
       <c r="C38" s="292"/>
@@ -4707,7 +4702,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="152"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A39" s="12"/>
       <c r="B39" s="291"/>
       <c r="C39" s="292"/>
@@ -4743,7 +4738,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="151"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A40" s="12"/>
       <c r="B40" s="293"/>
       <c r="C40" s="292"/>
@@ -4779,7 +4774,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="151"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A41" s="17"/>
       <c r="B41" s="293"/>
       <c r="C41" s="292"/>
@@ -4815,7 +4810,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="152"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A42" s="12"/>
       <c r="B42" s="291"/>
       <c r="C42" s="292"/>
@@ -4851,7 +4846,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="135"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A43" s="12"/>
       <c r="B43" s="291"/>
       <c r="C43" s="292"/>
@@ -4887,7 +4882,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="135"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A44" s="13"/>
       <c r="B44" s="291"/>
       <c r="C44" s="292"/>
@@ -4923,7 +4918,7 @@
       <c r="U44" s="141"/>
       <c r="V44" s="143"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A45" s="153"/>
       <c r="B45" s="154"/>
       <c r="C45" s="155" t="s">
@@ -4934,7 +4929,7 @@
       <c r="F45" s="158"/>
       <c r="G45" s="158"/>
       <c r="H45" s="159">
-        <f>SUM(H18:H44)</f>
+        <f>SUM(H10:H44)</f>
         <v>0</v>
       </c>
       <c r="I45" s="160"/>
@@ -4961,7 +4956,7 @@
       <c r="U45" s="164"/>
       <c r="V45" s="165"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A46" s="166"/>
       <c r="B46" s="167"/>
       <c r="C46" s="168" t="s">
@@ -4970,10 +4965,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="169"/>
       <c r="F46" s="170"/>
-      <c r="G46" s="334" t="s">
+      <c r="G46" s="324" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="334"/>
+      <c r="H46" s="324"/>
       <c r="I46" s="171"/>
       <c r="J46" s="172"/>
       <c r="K46" s="173"/>
@@ -4989,7 +4984,7 @@
       <c r="U46" s="177"/>
       <c r="V46" s="135"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A47" s="178"/>
       <c r="B47" s="179"/>
       <c r="C47" s="180"/>
@@ -5013,7 +5008,7 @@
       <c r="U47" s="47"/>
       <c r="V47" s="187"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
       <c r="B48" s="179"/>
       <c r="C48" s="188" t="s">
         <v>74</v>
@@ -5039,7 +5034,7 @@
       <c r="U48" s="47"/>
       <c r="V48" s="187"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A49" s="178"/>
       <c r="B49" s="179"/>
       <c r="C49" s="190" t="s">
@@ -5067,7 +5062,7 @@
       <c r="U49" s="47"/>
       <c r="V49" s="187"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="194" t="s">
@@ -5095,62 +5090,62 @@
       <c r="U50" s="199"/>
       <c r="V50" s="200"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="339"/>
-      <c r="C51" s="339"/>
-      <c r="D51" s="339"/>
-      <c r="E51" s="339"/>
-      <c r="F51" s="339"/>
-      <c r="G51" s="339"/>
-      <c r="H51" s="339"/>
-      <c r="I51" s="339"/>
-      <c r="J51" s="339"/>
-      <c r="K51" s="339"/>
-      <c r="L51" s="339"/>
-      <c r="M51" s="339"/>
-      <c r="N51" s="339"/>
-      <c r="O51" s="339"/>
-      <c r="P51" s="339"/>
-      <c r="Q51" s="339"/>
-      <c r="R51" s="339"/>
-      <c r="S51" s="339"/>
-      <c r="T51" s="339"/>
-      <c r="U51" s="339"/>
-      <c r="V51" s="340"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="331" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A51" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="331"/>
+      <c r="C51" s="331"/>
+      <c r="D51" s="331"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="331"/>
+      <c r="G51" s="331"/>
+      <c r="H51" s="331"/>
+      <c r="I51" s="331"/>
+      <c r="J51" s="331"/>
+      <c r="K51" s="331"/>
+      <c r="L51" s="331"/>
+      <c r="M51" s="331"/>
+      <c r="N51" s="331"/>
+      <c r="O51" s="331"/>
+      <c r="P51" s="331"/>
+      <c r="Q51" s="331"/>
+      <c r="R51" s="331"/>
+      <c r="S51" s="331"/>
+      <c r="T51" s="331"/>
+      <c r="U51" s="331"/>
+      <c r="V51" s="332"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A52" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="332"/>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
-      <c r="J52" s="332"/>
-      <c r="K52" s="332"/>
-      <c r="L52" s="332"/>
-      <c r="M52" s="332"/>
-      <c r="N52" s="332"/>
-      <c r="O52" s="332"/>
-      <c r="P52" s="332"/>
-      <c r="Q52" s="332"/>
-      <c r="R52" s="332"/>
-      <c r="S52" s="332"/>
-      <c r="T52" s="332"/>
-      <c r="U52" s="332"/>
-      <c r="V52" s="333"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="B52" s="336"/>
+      <c r="C52" s="336"/>
+      <c r="D52" s="336"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="336"/>
+      <c r="G52" s="336"/>
+      <c r="H52" s="336"/>
+      <c r="I52" s="336"/>
+      <c r="J52" s="336"/>
+      <c r="K52" s="336"/>
+      <c r="L52" s="336"/>
+      <c r="M52" s="336"/>
+      <c r="N52" s="336"/>
+      <c r="O52" s="336"/>
+      <c r="P52" s="336"/>
+      <c r="Q52" s="336"/>
+      <c r="R52" s="336"/>
+      <c r="S52" s="336"/>
+      <c r="T52" s="336"/>
+      <c r="U52" s="336"/>
+      <c r="V52" s="337"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A53" s="338"/>
+      <c r="B53" s="339"/>
+      <c r="C53" s="339"/>
       <c r="D53" s="88"/>
       <c r="E53" s="88"/>
       <c r="F53" s="89"/>
@@ -5173,57 +5168,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="347"/>
-    </row>
-    <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A54" s="340"/>
+      <c r="B54" s="341"/>
+      <c r="C54" s="341"/>
+      <c r="D54" s="341"/>
+      <c r="E54" s="341"/>
+      <c r="F54" s="341"/>
+      <c r="G54" s="341"/>
+      <c r="H54" s="341"/>
+      <c r="I54" s="341"/>
+      <c r="J54" s="341"/>
+      <c r="K54" s="341"/>
+      <c r="L54" s="341"/>
+      <c r="M54" s="341"/>
+      <c r="N54" s="341"/>
+      <c r="O54" s="341"/>
+      <c r="P54" s="341"/>
+      <c r="Q54" s="341"/>
+      <c r="R54" s="341"/>
+      <c r="S54" s="341"/>
+      <c r="T54" s="341"/>
+      <c r="U54" s="341"/>
+      <c r="V54" s="342"/>
+    </row>
+    <row r="55" spans="1:22" ht="68.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="343"/>
+      <c r="B55" s="344"/>
+      <c r="C55" s="344"/>
+      <c r="D55" s="344"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="344"/>
+      <c r="G55" s="344"/>
+      <c r="H55" s="344"/>
+      <c r="I55" s="344"/>
+      <c r="J55" s="344"/>
+      <c r="K55" s="344"/>
+      <c r="L55" s="344"/>
+      <c r="M55" s="344"/>
+      <c r="N55" s="344"/>
+      <c r="O55" s="344"/>
+      <c r="P55" s="344"/>
+      <c r="Q55" s="344"/>
+      <c r="R55" s="344"/>
+      <c r="S55" s="344"/>
       <c r="T55" s="87" t="s">
         <v>68</v>
       </c>
       <c r="U55" s="87"/>
       <c r="V55" s="94"/>
     </row>
-    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -5251,29 +5246,29 @@
       <c r="U56" s="201"/>
       <c r="V56" s="104"/>
     </row>
-    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="351"/>
-      <c r="F57" s="351"/>
-      <c r="G57" s="351"/>
-      <c r="H57" s="352"/>
-      <c r="I57" s="350" t="s">
+      <c r="E57" s="326"/>
+      <c r="F57" s="326"/>
+      <c r="G57" s="326"/>
+      <c r="H57" s="327"/>
+      <c r="I57" s="325" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="352"/>
-      <c r="K57" s="350" t="s">
+      <c r="J57" s="327"/>
+      <c r="K57" s="325" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="352"/>
-      <c r="M57" s="350" t="s">
+      <c r="L57" s="327"/>
+      <c r="M57" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="352"/>
+      <c r="N57" s="327"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -5283,7 +5278,7 @@
       <c r="U57" s="109"/>
       <c r="V57" s="108"/>
     </row>
-    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -5339,7 +5334,7 @@
       <c r="U58" s="79"/>
       <c r="V58" s="118"/>
     </row>
-    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
@@ -5377,7 +5372,7 @@
       <c r="U59" s="79"/>
       <c r="V59" s="118"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A60" s="17"/>
       <c r="B60" s="81"/>
       <c r="C60" s="296"/>
@@ -5415,7 +5410,7 @@
       <c r="U60" s="11"/>
       <c r="V60" s="118"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A61" s="38"/>
       <c r="B61" s="40"/>
       <c r="C61" s="287"/>
@@ -5453,7 +5448,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="135"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A62" s="1"/>
       <c r="B62" s="286"/>
       <c r="C62" s="287"/>
@@ -5493,7 +5488,7 @@
       </c>
       <c r="V62" s="135"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A63" s="38"/>
       <c r="B63" s="40"/>
       <c r="C63" s="45"/>
@@ -5525,15 +5520,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="341"/>
-      <c r="S63" s="341"/>
-      <c r="T63" s="341"/>
+      <c r="R63" s="333"/>
+      <c r="S63" s="333"/>
+      <c r="T63" s="333"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="135"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A64" s="1"/>
       <c r="B64" s="40"/>
       <c r="C64" s="8"/>
@@ -5563,17 +5558,17 @@
       <c r="O64" s="136"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="342" t="s">
+      <c r="R64" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="342"/>
-      <c r="T64" s="342"/>
+      <c r="S64" s="334"/>
+      <c r="T64" s="334"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="118"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A65" s="38"/>
       <c r="B65" s="40"/>
       <c r="C65" s="45"/>
@@ -5611,7 +5606,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="139"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A66" s="23"/>
       <c r="B66" s="40"/>
       <c r="C66" s="8"/>
@@ -5647,7 +5642,7 @@
       <c r="U66" s="141"/>
       <c r="V66" s="143"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A67" s="38"/>
       <c r="B67" s="69"/>
       <c r="C67" s="8"/>
@@ -5685,7 +5680,7 @@
       <c r="U67" s="48"/>
       <c r="V67" s="135"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A68" s="17"/>
       <c r="B68" s="40"/>
       <c r="C68" s="8"/>
@@ -5723,7 +5718,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="135"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A69" s="23"/>
       <c r="B69" s="40"/>
       <c r="C69" s="45"/>
@@ -5763,7 +5758,7 @@
       </c>
       <c r="V69" s="135"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A70" s="6"/>
       <c r="B70" s="69"/>
       <c r="C70" s="285"/>
@@ -5801,7 +5796,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="135"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A71" s="1"/>
       <c r="B71" s="82"/>
       <c r="C71" s="44"/>
@@ -5839,7 +5834,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="135"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A72" s="28"/>
       <c r="B72" s="286"/>
       <c r="C72" s="297"/>
@@ -5877,7 +5872,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="135"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A73" s="28"/>
       <c r="B73" s="301"/>
       <c r="C73" s="297"/>
@@ -5915,7 +5910,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="135"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A74" s="38"/>
       <c r="B74" s="301"/>
       <c r="C74" s="297"/>
@@ -5958,7 +5953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A75" s="1"/>
       <c r="B75" s="82"/>
       <c r="C75" s="287"/>
@@ -6001,7 +5996,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A76" s="28"/>
       <c r="B76" s="286"/>
       <c r="C76" s="298"/>
@@ -6043,7 +6038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A77" s="28"/>
       <c r="B77" s="40"/>
       <c r="C77" s="8"/>
@@ -6086,7 +6081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A78" s="28"/>
       <c r="B78" s="40"/>
       <c r="C78" s="8"/>
@@ -6129,7 +6124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A79" s="23"/>
       <c r="B79" s="40"/>
       <c r="C79" s="8"/>
@@ -6172,7 +6167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A80" s="38"/>
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
@@ -6216,7 +6211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A81" s="1"/>
       <c r="B81" s="40"/>
       <c r="C81" s="299"/>
@@ -6258,7 +6253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A82" s="1"/>
       <c r="B82" s="40"/>
       <c r="C82" s="8"/>
@@ -6300,7 +6295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A83" s="1"/>
       <c r="B83" s="40"/>
       <c r="C83" s="8"/>
@@ -6342,7 +6337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A84" s="2"/>
       <c r="B84" s="40"/>
       <c r="C84" s="8"/>
@@ -6385,7 +6380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A85" s="1"/>
       <c r="B85" s="40"/>
       <c r="C85" s="8"/>
@@ -6424,7 +6419,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="135"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A86" s="12"/>
       <c r="B86" s="40"/>
       <c r="C86" s="8"/>
@@ -6460,7 +6455,7 @@
       <c r="U86" s="319"/>
       <c r="V86" s="318"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A87" s="1"/>
       <c r="B87" s="40"/>
       <c r="C87" s="8"/>
@@ -6496,7 +6491,7 @@
       <c r="U87" s="319"/>
       <c r="V87" s="318"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A88" s="12"/>
       <c r="B88" s="40"/>
       <c r="C88" s="27"/>
@@ -6532,7 +6527,7 @@
       <c r="U88" s="319"/>
       <c r="V88" s="318"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A89" s="12"/>
       <c r="B89" s="286"/>
       <c r="C89" s="27"/>
@@ -6568,7 +6563,7 @@
       <c r="U89" s="319"/>
       <c r="V89" s="318"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A90" s="12"/>
       <c r="B90" s="286"/>
       <c r="C90" s="27"/>
@@ -6604,7 +6599,7 @@
       <c r="U90" s="319"/>
       <c r="V90" s="318"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A91" s="12"/>
       <c r="B91" s="286"/>
       <c r="C91" s="27"/>
@@ -6639,7 +6634,7 @@
       <c r="U91" s="319"/>
       <c r="V91" s="318"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A92" s="12"/>
       <c r="B92" s="286"/>
       <c r="C92" s="27"/>
@@ -6677,7 +6672,7 @@
       <c r="U92" s="319"/>
       <c r="V92" s="318"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A93" s="1"/>
       <c r="B93" s="286"/>
       <c r="C93" s="27"/>
@@ -6713,7 +6708,7 @@
       <c r="U93" s="319"/>
       <c r="V93" s="318"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A94" s="13"/>
       <c r="B94" s="302"/>
       <c r="C94" s="300"/>
@@ -6749,12 +6744,12 @@
       <c r="U94" s="319"/>
       <c r="V94" s="319"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A95" s="153"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="328" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="329"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="158"/>
@@ -6789,7 +6784,7 @@
       <c r="U95" s="319"/>
       <c r="V95" s="318"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A96" s="153"/>
       <c r="B96" s="207"/>
       <c r="C96" s="208" t="s">
@@ -6819,29 +6814,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="162"/>
-      <c r="P96" s="328" t="s">
+      <c r="P96" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="329"/>
-      <c r="R96" s="329"/>
-      <c r="S96" s="329"/>
-      <c r="T96" s="329"/>
-      <c r="U96" s="329"/>
-      <c r="V96" s="330"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="331" t="s">
+      <c r="Q96" s="350"/>
+      <c r="R96" s="350"/>
+      <c r="S96" s="350"/>
+      <c r="T96" s="350"/>
+      <c r="U96" s="350"/>
+      <c r="V96" s="351"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A97" s="335" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="332"/>
-      <c r="C97" s="333"/>
+      <c r="B97" s="336"/>
+      <c r="C97" s="337"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="170"/>
-      <c r="G97" s="334" t="s">
+      <c r="G97" s="324" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="334"/>
+      <c r="H97" s="324"/>
       <c r="I97" s="171"/>
       <c r="J97" s="172"/>
       <c r="K97" s="173"/>
@@ -6862,10 +6857,10 @@
       <c r="U97" s="47"/>
       <c r="V97" s="187"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="322"/>
-      <c r="B98" s="323"/>
-      <c r="C98" s="324"/>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A98" s="352"/>
+      <c r="B98" s="345"/>
+      <c r="C98" s="353"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="182"/>
@@ -6891,21 +6886,21 @@
       <c r="V98" s="187"/>
       <c r="W98" s="187"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="322" t="s">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A99" s="352" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="323"/>
-      <c r="C99" s="324"/>
+      <c r="B99" s="345"/>
+      <c r="C99" s="353"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="335" t="s">
+      <c r="E99" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="335"/>
-      <c r="G99" s="335"/>
-      <c r="H99" s="335"/>
-      <c r="I99" s="335"/>
-      <c r="J99" s="335"/>
+      <c r="F99" s="354"/>
+      <c r="G99" s="354"/>
+      <c r="H99" s="354"/>
+      <c r="I99" s="354"/>
+      <c r="J99" s="354"/>
       <c r="K99" s="171"/>
       <c r="L99" s="184"/>
       <c r="M99" s="213"/>
@@ -6922,7 +6917,7 @@
       <c r="V99" s="187"/>
       <c r="W99" s="187"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A100" s="178"/>
       <c r="B100" s="179"/>
       <c r="C100" s="190" t="s">
@@ -6930,13 +6925,13 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="179"/>
-      <c r="F100" s="323" t="s">
+      <c r="F100" s="345" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="323"/>
-      <c r="H100" s="323"/>
-      <c r="I100" s="323"/>
-      <c r="J100" s="323"/>
+      <c r="G100" s="345"/>
+      <c r="H100" s="345"/>
+      <c r="I100" s="345"/>
+      <c r="J100" s="345"/>
       <c r="K100" s="191"/>
       <c r="L100" s="192"/>
       <c r="M100" s="216"/>
@@ -6955,21 +6950,21 @@
       <c r="V100" s="219"/>
       <c r="W100" s="151"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="325" t="s">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A101" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="326"/>
-      <c r="C101" s="327"/>
+      <c r="B101" s="347"/>
+      <c r="C101" s="348"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="326" t="s">
+      <c r="F101" s="347" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="326"/>
-      <c r="H101" s="326"/>
-      <c r="I101" s="326"/>
-      <c r="J101" s="326"/>
+      <c r="G101" s="347"/>
+      <c r="H101" s="347"/>
+      <c r="I101" s="347"/>
+      <c r="J101" s="347"/>
       <c r="K101" s="195"/>
       <c r="L101" s="196"/>
       <c r="M101" s="220"/>
@@ -6985,11 +6980,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -7002,19 +7001,15 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -7029,36 +7024,36 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A86" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
     <col min="3" max="3" width="116" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="264" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="264" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="222" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="264" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="264" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="222" customWidth="1"/>
     <col min="7" max="7" width="7" style="222" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="222" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="222" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="222" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="222" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" style="222" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="222" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="264" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.88671875" style="85"/>
-    <col min="19" max="19" width="20.88671875" style="85" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" style="85" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="85" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="222" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="222" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="222" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="222" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" style="222" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="222" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="264" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.85546875" style="85"/>
+    <col min="19" max="19" width="20.85546875" style="85" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="85" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="85" customWidth="1"/>
     <col min="22" max="22" width="37" style="85" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="85"/>
+    <col min="23" max="16384" width="8.85546875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A1" s="277" t="s">
         <v>0</v>
       </c>
@@ -7084,7 +7079,7 @@
       <c r="U1" s="169"/>
       <c r="V1" s="278"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
@@ -7110,10 +7105,10 @@
       <c r="U2" s="167"/>
       <c r="V2" s="279"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A3" s="338"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
       <c r="D3" s="226"/>
       <c r="E3" s="226"/>
       <c r="F3" s="89"/>
@@ -7136,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A4" s="280" t="s">
         <v>65</v>
       </c>
@@ -7162,7 +7157,7 @@
       <c r="U4" s="281"/>
       <c r="V4" s="282"/>
     </row>
-    <row r="5" spans="1:22" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" ht="61.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="283" t="s">
         <v>71</v>
       </c>
@@ -7192,7 +7187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -7222,29 +7217,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="351"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="357" t="s">
+      <c r="E7" s="326"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="327"/>
+      <c r="I7" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="358"/>
-      <c r="K7" s="357" t="s">
+      <c r="J7" s="356"/>
+      <c r="K7" s="355" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="358"/>
-      <c r="M7" s="350" t="s">
+      <c r="L7" s="356"/>
+      <c r="M7" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="352"/>
+      <c r="N7" s="327"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -7254,7 +7249,7 @@
       <c r="U7" s="109"/>
       <c r="V7" s="108"/>
     </row>
-    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -7268,10 +7263,10 @@
       <c r="E8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="353" t="s">
+      <c r="F8" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="354"/>
+      <c r="G8" s="358"/>
       <c r="H8" s="114" t="s">
         <v>16</v>
       </c>
@@ -7308,16 +7303,16 @@
       <c r="U8" s="79"/>
       <c r="V8" s="118"/>
     </row>
-    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
-      <c r="F9" s="355" t="s">
+      <c r="F9" s="359" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="356"/>
+      <c r="G9" s="360"/>
       <c r="H9" s="122" t="s">
         <v>21</v>
       </c>
@@ -7344,9 +7339,9 @@
       <c r="U9" s="79"/>
       <c r="V9" s="118"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A10" s="56"/>
-      <c r="B10" s="360"/>
+      <c r="B10" s="323"/>
       <c r="C10" s="312"/>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
@@ -7380,7 +7375,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="118"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A11" s="17"/>
       <c r="B11" s="293"/>
       <c r="C11" s="292"/>
@@ -7416,7 +7411,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="135"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A12" s="17"/>
       <c r="B12" s="291"/>
       <c r="C12" s="292"/>
@@ -7454,7 +7449,7 @@
       </c>
       <c r="V12" s="135"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A13" s="17"/>
       <c r="B13" s="291"/>
       <c r="C13" s="292"/>
@@ -7492,7 +7487,7 @@
       </c>
       <c r="V13" s="135"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A14" s="17"/>
       <c r="B14" s="291"/>
       <c r="C14" s="292"/>
@@ -7530,7 +7525,7 @@
       </c>
       <c r="V14" s="118"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A15" s="17"/>
       <c r="B15" s="291"/>
       <c r="C15" s="292"/>
@@ -7566,7 +7561,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="139"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A16" s="17"/>
       <c r="B16" s="293"/>
       <c r="C16" s="294"/>
@@ -7600,7 +7595,7 @@
       <c r="U16" s="141"/>
       <c r="V16" s="143"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A17" s="17"/>
       <c r="B17" s="291"/>
       <c r="C17" s="294"/>
@@ -7634,7 +7629,7 @@
       <c r="U17" s="145"/>
       <c r="V17" s="146"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A18" s="17"/>
       <c r="B18" s="291"/>
       <c r="C18" s="294"/>
@@ -7668,7 +7663,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="135"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A19" s="17"/>
       <c r="B19" s="291"/>
       <c r="C19" s="292"/>
@@ -7702,7 +7697,7 @@
       <c r="U19" s="51"/>
       <c r="V19" s="135"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A20" s="17"/>
       <c r="B20" s="291"/>
       <c r="C20" s="292"/>
@@ -7736,7 +7731,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="135"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A21" s="17"/>
       <c r="B21" s="293"/>
       <c r="C21" s="294"/>
@@ -7770,10 +7765,10 @@
       <c r="U21" s="4"/>
       <c r="V21" s="135"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A22" s="17"/>
       <c r="B22" s="291"/>
-      <c r="C22" s="359"/>
+      <c r="C22" s="322"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="238"/>
@@ -7804,7 +7799,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="135"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A23" s="17"/>
       <c r="B23" s="291"/>
       <c r="C23" s="295"/>
@@ -7838,7 +7833,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="135"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A24" s="17"/>
       <c r="B24" s="291"/>
       <c r="C24" s="292"/>
@@ -7872,7 +7867,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="135"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A25" s="17"/>
       <c r="B25" s="291"/>
       <c r="C25" s="292"/>
@@ -7906,7 +7901,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="135"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A26" s="17"/>
       <c r="B26" s="293"/>
       <c r="C26" s="294"/>
@@ -7940,10 +7935,10 @@
       <c r="U26" s="4"/>
       <c r="V26" s="135"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A27" s="17"/>
       <c r="B27" s="291"/>
-      <c r="C27" s="359"/>
+      <c r="C27" s="322"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="238"/>
@@ -7974,7 +7969,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="135"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A28" s="17"/>
       <c r="B28" s="291"/>
       <c r="C28" s="292"/>
@@ -8008,7 +8003,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="135"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A29" s="17"/>
       <c r="B29" s="291"/>
       <c r="C29" s="295"/>
@@ -8042,7 +8037,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="135"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A30" s="17"/>
       <c r="B30" s="291"/>
       <c r="C30" s="292"/>
@@ -8076,7 +8071,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="135"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A31" s="17"/>
       <c r="B31" s="293"/>
       <c r="C31" s="294"/>
@@ -8110,10 +8105,10 @@
       <c r="U31" s="4"/>
       <c r="V31" s="135"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A32" s="17"/>
       <c r="B32" s="291"/>
-      <c r="C32" s="359"/>
+      <c r="C32" s="322"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="238"/>
@@ -8144,7 +8139,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="135"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A33" s="17"/>
       <c r="B33" s="291"/>
       <c r="C33" s="292"/>
@@ -8178,7 +8173,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="135"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A34" s="17"/>
       <c r="B34" s="291"/>
       <c r="C34" s="292"/>
@@ -8212,7 +8207,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="151"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A35" s="64"/>
       <c r="B35" s="291"/>
       <c r="C35" s="295"/>
@@ -8246,10 +8241,10 @@
       <c r="U35" s="4"/>
       <c r="V35" s="152"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A36" s="16"/>
       <c r="B36" s="293"/>
-      <c r="C36" s="359"/>
+      <c r="C36" s="322"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="238"/>
@@ -8280,7 +8275,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="118"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A37" s="16"/>
       <c r="B37" s="291"/>
       <c r="C37" s="292"/>
@@ -8314,7 +8309,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="118"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A38" s="17"/>
       <c r="B38" s="293"/>
       <c r="C38" s="294"/>
@@ -8348,7 +8343,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="135"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A39" s="12"/>
       <c r="B39" s="291"/>
       <c r="C39" s="294"/>
@@ -8382,7 +8377,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="152"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A40" s="12"/>
       <c r="B40" s="291"/>
       <c r="C40" s="294"/>
@@ -8416,7 +8411,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="151"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A41" s="12"/>
       <c r="B41" s="291"/>
       <c r="C41" s="294"/>
@@ -8450,7 +8445,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="151"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A42" s="12"/>
       <c r="B42" s="291"/>
       <c r="C42" s="294"/>
@@ -8484,7 +8479,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="152"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A43" s="12"/>
       <c r="B43" s="291"/>
       <c r="C43" s="294"/>
@@ -8518,7 +8513,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="135"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A44" s="13"/>
       <c r="B44" s="314"/>
       <c r="C44" s="294"/>
@@ -8552,7 +8547,7 @@
       <c r="U44" s="141"/>
       <c r="V44" s="143"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A45" s="153"/>
       <c r="B45" s="154"/>
       <c r="C45" s="155" t="s">
@@ -8590,7 +8585,7 @@
       <c r="U45" s="164"/>
       <c r="V45" s="165"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A46" s="166"/>
       <c r="B46" s="167"/>
       <c r="C46" s="168" t="s">
@@ -8599,10 +8594,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="169"/>
       <c r="F46" s="170"/>
-      <c r="G46" s="334" t="s">
+      <c r="G46" s="324" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="334"/>
+      <c r="H46" s="324"/>
       <c r="I46" s="171"/>
       <c r="J46" s="172"/>
       <c r="K46" s="173"/>
@@ -8618,7 +8613,7 @@
       <c r="U46" s="177"/>
       <c r="V46" s="135"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A47" s="178"/>
       <c r="B47" s="179"/>
       <c r="C47" s="180"/>
@@ -8642,7 +8637,7 @@
       <c r="U47" s="47"/>
       <c r="V47" s="187"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
       <c r="B48" s="179"/>
       <c r="C48" s="188" t="s">
         <v>74</v>
@@ -8669,7 +8664,7 @@
       <c r="U48" s="47"/>
       <c r="V48" s="187"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A49" s="178"/>
       <c r="B49" s="179"/>
       <c r="C49" s="190" t="s">
@@ -8697,7 +8692,7 @@
       <c r="U49" s="47"/>
       <c r="V49" s="187"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="248" t="s">
@@ -8725,62 +8720,62 @@
       <c r="U50" s="199"/>
       <c r="V50" s="200"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="339"/>
-      <c r="C51" s="339"/>
-      <c r="D51" s="339"/>
-      <c r="E51" s="339"/>
-      <c r="F51" s="339"/>
-      <c r="G51" s="339"/>
-      <c r="H51" s="339"/>
-      <c r="I51" s="339"/>
-      <c r="J51" s="339"/>
-      <c r="K51" s="339"/>
-      <c r="L51" s="339"/>
-      <c r="M51" s="339"/>
-      <c r="N51" s="339"/>
-      <c r="O51" s="339"/>
-      <c r="P51" s="339"/>
-      <c r="Q51" s="339"/>
-      <c r="R51" s="339"/>
-      <c r="S51" s="339"/>
-      <c r="T51" s="339"/>
-      <c r="U51" s="339"/>
-      <c r="V51" s="340"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="331" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A51" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="331"/>
+      <c r="C51" s="331"/>
+      <c r="D51" s="331"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="331"/>
+      <c r="G51" s="331"/>
+      <c r="H51" s="331"/>
+      <c r="I51" s="331"/>
+      <c r="J51" s="331"/>
+      <c r="K51" s="331"/>
+      <c r="L51" s="331"/>
+      <c r="M51" s="331"/>
+      <c r="N51" s="331"/>
+      <c r="O51" s="331"/>
+      <c r="P51" s="331"/>
+      <c r="Q51" s="331"/>
+      <c r="R51" s="331"/>
+      <c r="S51" s="331"/>
+      <c r="T51" s="331"/>
+      <c r="U51" s="331"/>
+      <c r="V51" s="332"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A52" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="332"/>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
-      <c r="J52" s="332"/>
-      <c r="K52" s="332"/>
-      <c r="L52" s="332"/>
-      <c r="M52" s="332"/>
-      <c r="N52" s="332"/>
-      <c r="O52" s="332"/>
-      <c r="P52" s="332"/>
-      <c r="Q52" s="332"/>
-      <c r="R52" s="332"/>
-      <c r="S52" s="332"/>
-      <c r="T52" s="332"/>
-      <c r="U52" s="332"/>
-      <c r="V52" s="333"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="B52" s="336"/>
+      <c r="C52" s="336"/>
+      <c r="D52" s="336"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="336"/>
+      <c r="G52" s="336"/>
+      <c r="H52" s="336"/>
+      <c r="I52" s="336"/>
+      <c r="J52" s="336"/>
+      <c r="K52" s="336"/>
+      <c r="L52" s="336"/>
+      <c r="M52" s="336"/>
+      <c r="N52" s="336"/>
+      <c r="O52" s="336"/>
+      <c r="P52" s="336"/>
+      <c r="Q52" s="336"/>
+      <c r="R52" s="336"/>
+      <c r="S52" s="336"/>
+      <c r="T52" s="336"/>
+      <c r="U52" s="336"/>
+      <c r="V52" s="337"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A53" s="338"/>
+      <c r="B53" s="339"/>
+      <c r="C53" s="339"/>
       <c r="D53" s="226"/>
       <c r="E53" s="226"/>
       <c r="F53" s="89"/>
@@ -8803,57 +8798,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="347"/>
-    </row>
-    <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A54" s="340"/>
+      <c r="B54" s="341"/>
+      <c r="C54" s="341"/>
+      <c r="D54" s="341"/>
+      <c r="E54" s="341"/>
+      <c r="F54" s="341"/>
+      <c r="G54" s="341"/>
+      <c r="H54" s="341"/>
+      <c r="I54" s="341"/>
+      <c r="J54" s="341"/>
+      <c r="K54" s="341"/>
+      <c r="L54" s="341"/>
+      <c r="M54" s="341"/>
+      <c r="N54" s="341"/>
+      <c r="O54" s="341"/>
+      <c r="P54" s="341"/>
+      <c r="Q54" s="341"/>
+      <c r="R54" s="341"/>
+      <c r="S54" s="341"/>
+      <c r="T54" s="341"/>
+      <c r="U54" s="341"/>
+      <c r="V54" s="342"/>
+    </row>
+    <row r="55" spans="1:22" ht="56.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="343"/>
+      <c r="B55" s="344"/>
+      <c r="C55" s="344"/>
+      <c r="D55" s="344"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="344"/>
+      <c r="G55" s="344"/>
+      <c r="H55" s="344"/>
+      <c r="I55" s="344"/>
+      <c r="J55" s="344"/>
+      <c r="K55" s="344"/>
+      <c r="L55" s="344"/>
+      <c r="M55" s="344"/>
+      <c r="N55" s="344"/>
+      <c r="O55" s="344"/>
+      <c r="P55" s="344"/>
+      <c r="Q55" s="344"/>
+      <c r="R55" s="344"/>
+      <c r="S55" s="344"/>
       <c r="T55" s="87" t="s">
         <v>3</v>
       </c>
       <c r="U55" s="87"/>
       <c r="V55" s="94"/>
     </row>
-    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -8881,29 +8876,29 @@
       <c r="U56" s="201"/>
       <c r="V56" s="104"/>
     </row>
-    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="351"/>
-      <c r="F57" s="351"/>
-      <c r="G57" s="351"/>
-      <c r="H57" s="352"/>
-      <c r="I57" s="357" t="s">
+      <c r="E57" s="326"/>
+      <c r="F57" s="326"/>
+      <c r="G57" s="326"/>
+      <c r="H57" s="327"/>
+      <c r="I57" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="358"/>
-      <c r="K57" s="357" t="s">
+      <c r="J57" s="356"/>
+      <c r="K57" s="355" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="358"/>
-      <c r="M57" s="350" t="s">
+      <c r="L57" s="356"/>
+      <c r="M57" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="352"/>
+      <c r="N57" s="327"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -8913,7 +8908,7 @@
       <c r="U57" s="109"/>
       <c r="V57" s="108"/>
     </row>
-    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -8927,10 +8922,10 @@
       <c r="E58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="353" t="s">
+      <c r="F58" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="354"/>
+      <c r="G58" s="358"/>
       <c r="H58" s="114" t="s">
         <v>16</v>
       </c>
@@ -8967,16 +8962,16 @@
       <c r="U58" s="79"/>
       <c r="V58" s="118"/>
     </row>
-    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
       <c r="D59" s="119"/>
       <c r="E59" s="119"/>
-      <c r="F59" s="355" t="s">
+      <c r="F59" s="359" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="356"/>
+      <c r="G59" s="360"/>
       <c r="H59" s="122" t="s">
         <v>21</v>
       </c>
@@ -9003,7 +8998,7 @@
       <c r="U59" s="79"/>
       <c r="V59" s="118"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A60" s="17"/>
       <c r="B60" s="293"/>
       <c r="C60" s="312"/>
@@ -9039,7 +9034,7 @@
       <c r="U60" s="11"/>
       <c r="V60" s="118"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A61" s="38"/>
       <c r="B61" s="305"/>
       <c r="C61" s="294"/>
@@ -9075,7 +9070,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="135"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A62" s="17"/>
       <c r="B62" s="291"/>
       <c r="C62" s="294"/>
@@ -9113,7 +9108,7 @@
       </c>
       <c r="V62" s="135"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A63" s="38"/>
       <c r="B63" s="305"/>
       <c r="C63" s="306"/>
@@ -9143,15 +9138,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="341"/>
-      <c r="S63" s="341"/>
-      <c r="T63" s="341"/>
+      <c r="R63" s="333"/>
+      <c r="S63" s="333"/>
+      <c r="T63" s="333"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="135"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A64" s="17"/>
       <c r="B64" s="305"/>
       <c r="C64" s="292"/>
@@ -9179,18 +9174,18 @@
       <c r="O64" s="244"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="342" t="str">
+      <c r="R64" s="334" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="342"/>
-      <c r="T64" s="342"/>
+      <c r="S64" s="334"/>
+      <c r="T64" s="334"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="118"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A65" s="38"/>
       <c r="B65" s="305"/>
       <c r="C65" s="306"/>
@@ -9226,7 +9221,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="139"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A66" s="70"/>
       <c r="B66" s="305"/>
       <c r="C66" s="292"/>
@@ -9260,7 +9255,7 @@
       <c r="U66" s="141"/>
       <c r="V66" s="143"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A67" s="38"/>
       <c r="B67" s="305"/>
       <c r="C67" s="292"/>
@@ -9296,7 +9291,7 @@
       <c r="U67" s="48"/>
       <c r="V67" s="135"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A68" s="17"/>
       <c r="B68" s="305"/>
       <c r="C68" s="292"/>
@@ -9332,7 +9327,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="135"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A69" s="70"/>
       <c r="B69" s="305"/>
       <c r="C69" s="306"/>
@@ -9370,7 +9365,7 @@
       </c>
       <c r="V69" s="135"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A70" s="16"/>
       <c r="B70" s="305"/>
       <c r="C70" s="292"/>
@@ -9406,7 +9401,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="135"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A71" s="17"/>
       <c r="B71" s="293"/>
       <c r="C71" s="306"/>
@@ -9442,7 +9437,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="135"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A72" s="71"/>
       <c r="B72" s="291"/>
       <c r="C72" s="307"/>
@@ -9478,7 +9473,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="135"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A73" s="71"/>
       <c r="B73" s="313"/>
       <c r="C73" s="307"/>
@@ -9514,7 +9509,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="135"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A74" s="38"/>
       <c r="B74" s="313"/>
       <c r="C74" s="307"/>
@@ -9555,7 +9550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A75" s="17"/>
       <c r="B75" s="293"/>
       <c r="C75" s="294"/>
@@ -9596,7 +9591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A76" s="71"/>
       <c r="B76" s="291"/>
       <c r="C76" s="294"/>
@@ -9636,7 +9631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A77" s="71"/>
       <c r="B77" s="305"/>
       <c r="C77" s="292"/>
@@ -9677,7 +9672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A78" s="71"/>
       <c r="B78" s="305"/>
       <c r="C78" s="292"/>
@@ -9718,7 +9713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A79" s="70"/>
       <c r="B79" s="305"/>
       <c r="C79" s="292"/>
@@ -9759,7 +9754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A80" s="38"/>
       <c r="B80" s="305"/>
       <c r="C80" s="309"/>
@@ -9801,7 +9796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A81" s="17"/>
       <c r="B81" s="305"/>
       <c r="C81" s="306"/>
@@ -9841,7 +9836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A82" s="12"/>
       <c r="B82" s="314"/>
       <c r="C82" s="306"/>
@@ -9881,7 +9876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A83" s="12"/>
       <c r="B83" s="314"/>
       <c r="C83" s="306"/>
@@ -9921,7 +9916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A84" s="12"/>
       <c r="B84" s="314"/>
       <c r="C84" s="306"/>
@@ -9962,7 +9957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A85" s="12"/>
       <c r="B85" s="305"/>
       <c r="C85" s="306"/>
@@ -9999,7 +9994,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="135"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A86" s="12"/>
       <c r="B86" s="314"/>
       <c r="C86" s="306"/>
@@ -10033,7 +10028,7 @@
       <c r="U86" s="319"/>
       <c r="V86" s="318"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A87" s="12"/>
       <c r="B87" s="314"/>
       <c r="C87" s="306"/>
@@ -10067,7 +10062,7 @@
       <c r="U87" s="319"/>
       <c r="V87" s="318"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A88" s="12"/>
       <c r="B88" s="314"/>
       <c r="C88" s="306"/>
@@ -10101,7 +10096,7 @@
       <c r="U88" s="319"/>
       <c r="V88" s="318"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A89" s="12"/>
       <c r="B89" s="314"/>
       <c r="C89" s="306"/>
@@ -10135,7 +10130,7 @@
       <c r="U89" s="319"/>
       <c r="V89" s="318"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A90" s="12"/>
       <c r="B90" s="314"/>
       <c r="C90" s="306"/>
@@ -10169,7 +10164,7 @@
       <c r="U90" s="319"/>
       <c r="V90" s="318"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A91" s="12"/>
       <c r="B91" s="314"/>
       <c r="C91" s="306"/>
@@ -10203,7 +10198,7 @@
       <c r="U91" s="319"/>
       <c r="V91" s="318"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A92" s="12"/>
       <c r="B92" s="314"/>
       <c r="C92" s="311"/>
@@ -10239,7 +10234,7 @@
       <c r="U92" s="319"/>
       <c r="V92" s="318"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A93" s="12"/>
       <c r="B93" s="305"/>
       <c r="C93" s="294"/>
@@ -10273,7 +10268,7 @@
       <c r="U93" s="319"/>
       <c r="V93" s="318"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A94" s="13"/>
       <c r="B94" s="314"/>
       <c r="C94" s="294"/>
@@ -10307,12 +10302,12 @@
       <c r="U94" s="319"/>
       <c r="V94" s="318"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A95" s="153"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="328" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="329"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="158"/>
@@ -10347,7 +10342,7 @@
       <c r="U95" s="319"/>
       <c r="V95" s="318"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A96" s="153"/>
       <c r="B96" s="207"/>
       <c r="C96" s="208" t="s">
@@ -10377,29 +10372,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="162"/>
-      <c r="P96" s="328" t="s">
+      <c r="P96" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="329"/>
-      <c r="R96" s="329"/>
-      <c r="S96" s="329"/>
-      <c r="T96" s="329"/>
-      <c r="U96" s="329"/>
-      <c r="V96" s="330"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="331" t="s">
+      <c r="Q96" s="350"/>
+      <c r="R96" s="350"/>
+      <c r="S96" s="350"/>
+      <c r="T96" s="350"/>
+      <c r="U96" s="350"/>
+      <c r="V96" s="351"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A97" s="335" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="332"/>
-      <c r="C97" s="333"/>
+      <c r="B97" s="336"/>
+      <c r="C97" s="337"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="170"/>
-      <c r="G97" s="334" t="s">
+      <c r="G97" s="324" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="334"/>
+      <c r="H97" s="324"/>
       <c r="I97" s="182"/>
       <c r="J97" s="172"/>
       <c r="K97" s="172"/>
@@ -10420,10 +10415,10 @@
       <c r="U97" s="47"/>
       <c r="V97" s="187"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="322"/>
-      <c r="B98" s="323"/>
-      <c r="C98" s="324"/>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A98" s="352"/>
+      <c r="B98" s="345"/>
+      <c r="C98" s="353"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="182"/>
@@ -10448,21 +10443,21 @@
       <c r="U98" s="47"/>
       <c r="V98" s="187"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="322" t="s">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A99" s="352" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="323"/>
-      <c r="C99" s="324"/>
+      <c r="B99" s="345"/>
+      <c r="C99" s="353"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="335" t="s">
+      <c r="E99" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="335"/>
-      <c r="G99" s="335"/>
-      <c r="H99" s="335"/>
-      <c r="I99" s="335"/>
-      <c r="J99" s="335"/>
+      <c r="F99" s="354"/>
+      <c r="G99" s="354"/>
+      <c r="H99" s="354"/>
+      <c r="I99" s="354"/>
+      <c r="J99" s="354"/>
       <c r="K99" s="183"/>
       <c r="L99" s="252"/>
       <c r="M99" s="253"/>
@@ -10478,20 +10473,20 @@
       <c r="U99" s="47"/>
       <c r="V99" s="187"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="322"/>
-      <c r="B100" s="323"/>
-      <c r="C100" s="324"/>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A100" s="352"/>
+      <c r="B100" s="345"/>
+      <c r="C100" s="353"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="323" t="str">
+      <c r="E100" s="345" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="F100" s="323"/>
-      <c r="G100" s="323"/>
-      <c r="H100" s="323"/>
-      <c r="I100" s="323"/>
-      <c r="J100" s="323"/>
+      <c r="F100" s="345"/>
+      <c r="G100" s="345"/>
+      <c r="H100" s="345"/>
+      <c r="I100" s="345"/>
+      <c r="J100" s="345"/>
       <c r="K100" s="256"/>
       <c r="L100" s="257"/>
       <c r="M100" s="258"/>
@@ -10509,21 +10504,21 @@
       <c r="U100" s="218"/>
       <c r="V100" s="219"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="325" t="s">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A101" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="326"/>
-      <c r="C101" s="327"/>
+      <c r="B101" s="347"/>
+      <c r="C101" s="348"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="326" t="s">
+      <c r="F101" s="347" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="326"/>
-      <c r="H101" s="326"/>
-      <c r="I101" s="326"/>
-      <c r="J101" s="326"/>
+      <c r="G101" s="347"/>
+      <c r="H101" s="347"/>
+      <c r="I101" s="347"/>
+      <c r="J101" s="347"/>
       <c r="K101" s="260"/>
       <c r="L101" s="261"/>
       <c r="M101" s="262"/>
@@ -10537,7 +10532,7 @@
       <c r="U101" s="199"/>
       <c r="V101" s="200"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.75">
       <c r="P102" s="145"/>
       <c r="Q102" s="145"/>
       <c r="R102" s="145"/>
@@ -10546,7 +10541,7 @@
       <c r="U102" s="265"/>
       <c r="V102" s="265"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.75">
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="218"/>
@@ -10557,6 +10552,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
     <mergeCell ref="R64:T64"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
@@ -10573,25 +10584,9 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="R63:T63"/>
     <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A55:S55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -10603,38 +10598,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D11" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="T93" sqref="T93"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
-    <col min="3" max="3" width="106.88671875" style="85" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="264" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="264" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" style="264" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="222" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
+    <col min="3" max="3" width="106.85546875" style="85" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="264" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="264" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" style="264" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="222" customWidth="1"/>
     <col min="9" max="9" width="7" style="222" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="222" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="222" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="222" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="222" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" style="222" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" style="222" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="264" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="85"/>
-    <col min="20" max="20" width="18.33203125" style="85" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" style="85" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" style="85" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="85" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="222" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="222" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="222" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="222" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="222" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="222" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="264" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.85546875" style="85"/>
+    <col min="20" max="20" width="18.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" style="85" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="85" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="85" customWidth="1"/>
     <col min="24" max="24" width="37" style="85" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="85"/>
+    <col min="25" max="16384" width="8.85546875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A1" s="277" t="s">
         <v>0</v>
       </c>
@@ -10662,7 +10657,7 @@
       <c r="W1" s="169"/>
       <c r="X1" s="278"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A2" s="166" t="s">
         <v>1</v>
       </c>
@@ -10690,10 +10685,10 @@
       <c r="W2" s="167"/>
       <c r="X2" s="279"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A3" s="338"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
       <c r="D3" s="226"/>
       <c r="E3" s="226"/>
       <c r="F3" s="226"/>
@@ -10718,7 +10713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A4" s="280" t="s">
         <v>65</v>
       </c>
@@ -10746,7 +10741,7 @@
       <c r="W4" s="281"/>
       <c r="X4" s="282"/>
     </row>
-    <row r="5" spans="1:24" ht="58.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" ht="58.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="283" t="s">
         <v>71</v>
       </c>
@@ -10778,7 +10773,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -10810,31 +10805,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="351"/>
-      <c r="H7" s="351"/>
-      <c r="I7" s="351"/>
-      <c r="J7" s="352"/>
-      <c r="K7" s="357" t="s">
+      <c r="E7" s="326"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="327"/>
+      <c r="K7" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="358"/>
-      <c r="M7" s="357" t="s">
+      <c r="L7" s="356"/>
+      <c r="M7" s="355" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="358"/>
-      <c r="O7" s="350" t="s">
+      <c r="N7" s="356"/>
+      <c r="O7" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="352"/>
+      <c r="P7" s="327"/>
       <c r="Q7" s="109"/>
       <c r="R7" s="107"/>
       <c r="S7" s="109"/>
@@ -10844,7 +10839,7 @@
       <c r="W7" s="109"/>
       <c r="X7" s="108"/>
     </row>
-    <row r="8" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -10864,10 +10859,10 @@
       <c r="G8" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="353" t="s">
+      <c r="H8" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="354"/>
+      <c r="I8" s="358"/>
       <c r="J8" s="114" t="s">
         <v>16</v>
       </c>
@@ -10904,7 +10899,7 @@
       <c r="W8" s="79"/>
       <c r="X8" s="118"/>
     </row>
-    <row r="9" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
@@ -10916,10 +10911,10 @@
       <c r="G9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="355" t="s">
+      <c r="H9" s="359" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="356"/>
+      <c r="I9" s="360"/>
       <c r="J9" s="122" t="s">
         <v>21</v>
       </c>
@@ -10946,7 +10941,7 @@
       <c r="W9" s="79"/>
       <c r="X9" s="118"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="43"/>
@@ -10984,7 +10979,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="118"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A11" s="17"/>
       <c r="B11" s="20"/>
       <c r="C11" s="25"/>
@@ -11022,7 +11017,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="135"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="15"/>
@@ -11062,7 +11057,7 @@
       </c>
       <c r="X12" s="135"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A13" s="17"/>
       <c r="B13" s="7"/>
       <c r="C13" s="15"/>
@@ -11102,7 +11097,7 @@
       </c>
       <c r="X13" s="135"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A14" s="17"/>
       <c r="B14" s="7"/>
       <c r="C14" s="15"/>
@@ -11142,7 +11137,7 @@
       </c>
       <c r="X14" s="118"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A15" s="17"/>
       <c r="B15" s="7"/>
       <c r="C15" s="15"/>
@@ -11180,7 +11175,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="139"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A16" s="17"/>
       <c r="B16" s="20"/>
       <c r="C16" s="18"/>
@@ -11216,7 +11211,7 @@
       <c r="W16" s="141"/>
       <c r="X16" s="143"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A17" s="17"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -11252,7 +11247,7 @@
       <c r="W17" s="145"/>
       <c r="X17" s="146"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A18" s="17"/>
       <c r="B18" s="7"/>
       <c r="C18" s="18"/>
@@ -11288,7 +11283,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="135"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A19" s="17"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15"/>
@@ -11324,7 +11319,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="135"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A20" s="17"/>
       <c r="B20" s="7"/>
       <c r="C20" s="15"/>
@@ -11360,7 +11355,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="135"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A21" s="17"/>
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
@@ -11396,7 +11391,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="135"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A22" s="17"/>
       <c r="B22" s="7"/>
       <c r="C22" s="61"/>
@@ -11432,7 +11427,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="135"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A23" s="17"/>
       <c r="B23" s="7"/>
       <c r="C23" s="62"/>
@@ -11468,7 +11463,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="135"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A24" s="17"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15"/>
@@ -11504,7 +11499,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="135"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A25" s="17"/>
       <c r="B25" s="7"/>
       <c r="C25" s="15"/>
@@ -11540,7 +11535,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="135"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="18"/>
@@ -11576,7 +11571,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="135"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A27" s="17"/>
       <c r="B27" s="7"/>
       <c r="C27" s="61"/>
@@ -11612,7 +11607,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="135"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A28" s="17"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -11648,7 +11643,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="135"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A29" s="17"/>
       <c r="B29" s="7"/>
       <c r="C29" s="63"/>
@@ -11684,7 +11679,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="135"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A30" s="17"/>
       <c r="B30" s="7"/>
       <c r="C30" s="15"/>
@@ -11720,7 +11715,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="135"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A31" s="17"/>
       <c r="B31" s="20"/>
       <c r="C31" s="18"/>
@@ -11756,7 +11751,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="135"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A32" s="17"/>
       <c r="B32" s="7"/>
       <c r="C32" s="61"/>
@@ -11792,7 +11787,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="135"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A33" s="17"/>
       <c r="B33" s="7"/>
       <c r="C33" s="15"/>
@@ -11828,7 +11823,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="135"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A34" s="17"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15"/>
@@ -11864,7 +11859,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="151"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A35" s="64"/>
       <c r="B35" s="65"/>
       <c r="C35" s="66"/>
@@ -11900,7 +11895,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="152"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A36" s="16"/>
       <c r="B36" s="68"/>
       <c r="C36" s="61"/>
@@ -11936,7 +11931,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="118"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A37" s="16"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -11972,7 +11967,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="118"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A38" s="17"/>
       <c r="B38" s="20"/>
       <c r="C38" s="18"/>
@@ -12008,7 +12003,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="135"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A39" s="12"/>
       <c r="B39" s="7"/>
       <c r="C39" s="49"/>
@@ -12044,7 +12039,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="152"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A40" s="12"/>
       <c r="B40" s="7"/>
       <c r="C40" s="18"/>
@@ -12080,7 +12075,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="151"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A41" s="12"/>
       <c r="B41" s="7"/>
       <c r="C41" s="18"/>
@@ -12116,7 +12111,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="151"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A42" s="12"/>
       <c r="B42" s="7"/>
       <c r="C42" s="18"/>
@@ -12152,7 +12147,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="152"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A43" s="12"/>
       <c r="B43" s="7"/>
       <c r="C43" s="18"/>
@@ -12188,7 +12183,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="135"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="18"/>
@@ -12224,7 +12219,7 @@
       <c r="W44" s="141"/>
       <c r="X44" s="143"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A45" s="153"/>
       <c r="B45" s="154"/>
       <c r="C45" s="155" t="s">
@@ -12264,7 +12259,7 @@
       <c r="W45" s="164"/>
       <c r="X45" s="165"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A46" s="166"/>
       <c r="B46" s="167"/>
       <c r="C46" s="168" t="s">
@@ -12293,7 +12288,7 @@
       <c r="W46" s="177"/>
       <c r="X46" s="135"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A47" s="178"/>
       <c r="B47" s="179"/>
       <c r="C47" s="180"/>
@@ -12319,7 +12314,7 @@
       <c r="W47" s="47"/>
       <c r="X47" s="187"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.75">
       <c r="B48" s="179"/>
       <c r="C48" s="190" t="s">
         <v>74</v>
@@ -12346,7 +12341,7 @@
       <c r="W48" s="47"/>
       <c r="X48" s="187"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A49" s="178"/>
       <c r="B49" s="179"/>
       <c r="C49" s="190" t="s">
@@ -12376,7 +12371,7 @@
       <c r="W49" s="47"/>
       <c r="X49" s="187"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="248" t="s">
@@ -12406,66 +12401,66 @@
       <c r="W50" s="276"/>
       <c r="X50" s="200"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="339"/>
-      <c r="C51" s="339"/>
-      <c r="D51" s="339"/>
-      <c r="E51" s="339"/>
-      <c r="F51" s="339"/>
-      <c r="G51" s="339"/>
-      <c r="H51" s="339"/>
-      <c r="I51" s="339"/>
-      <c r="J51" s="339"/>
-      <c r="K51" s="339"/>
-      <c r="L51" s="339"/>
-      <c r="M51" s="339"/>
-      <c r="N51" s="339"/>
-      <c r="O51" s="339"/>
-      <c r="P51" s="339"/>
-      <c r="Q51" s="339"/>
-      <c r="R51" s="339"/>
-      <c r="S51" s="339"/>
-      <c r="T51" s="339"/>
-      <c r="U51" s="339"/>
-      <c r="V51" s="339"/>
-      <c r="W51" s="339"/>
-      <c r="X51" s="340"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="331" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A51" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="331"/>
+      <c r="C51" s="331"/>
+      <c r="D51" s="331"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="331"/>
+      <c r="G51" s="331"/>
+      <c r="H51" s="331"/>
+      <c r="I51" s="331"/>
+      <c r="J51" s="331"/>
+      <c r="K51" s="331"/>
+      <c r="L51" s="331"/>
+      <c r="M51" s="331"/>
+      <c r="N51" s="331"/>
+      <c r="O51" s="331"/>
+      <c r="P51" s="331"/>
+      <c r="Q51" s="331"/>
+      <c r="R51" s="331"/>
+      <c r="S51" s="331"/>
+      <c r="T51" s="331"/>
+      <c r="U51" s="331"/>
+      <c r="V51" s="331"/>
+      <c r="W51" s="331"/>
+      <c r="X51" s="332"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A52" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="332"/>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
-      <c r="J52" s="332"/>
-      <c r="K52" s="332"/>
-      <c r="L52" s="332"/>
-      <c r="M52" s="332"/>
-      <c r="N52" s="332"/>
-      <c r="O52" s="332"/>
-      <c r="P52" s="332"/>
-      <c r="Q52" s="332"/>
-      <c r="R52" s="332"/>
-      <c r="S52" s="332"/>
-      <c r="T52" s="332"/>
-      <c r="U52" s="332"/>
-      <c r="V52" s="332"/>
-      <c r="W52" s="332"/>
-      <c r="X52" s="333"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="B52" s="336"/>
+      <c r="C52" s="336"/>
+      <c r="D52" s="336"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="336"/>
+      <c r="G52" s="336"/>
+      <c r="H52" s="336"/>
+      <c r="I52" s="336"/>
+      <c r="J52" s="336"/>
+      <c r="K52" s="336"/>
+      <c r="L52" s="336"/>
+      <c r="M52" s="336"/>
+      <c r="N52" s="336"/>
+      <c r="O52" s="336"/>
+      <c r="P52" s="336"/>
+      <c r="Q52" s="336"/>
+      <c r="R52" s="336"/>
+      <c r="S52" s="336"/>
+      <c r="T52" s="336"/>
+      <c r="U52" s="336"/>
+      <c r="V52" s="336"/>
+      <c r="W52" s="336"/>
+      <c r="X52" s="337"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A53" s="338"/>
+      <c r="B53" s="339"/>
+      <c r="C53" s="339"/>
       <c r="D53" s="226"/>
       <c r="E53" s="226"/>
       <c r="F53" s="226"/>
@@ -12490,53 +12485,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="346"/>
-      <c r="W54" s="346"/>
-      <c r="X54" s="347"/>
-    </row>
-    <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
-      <c r="T55" s="349"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A54" s="340"/>
+      <c r="B54" s="341"/>
+      <c r="C54" s="341"/>
+      <c r="D54" s="341"/>
+      <c r="E54" s="341"/>
+      <c r="F54" s="341"/>
+      <c r="G54" s="341"/>
+      <c r="H54" s="341"/>
+      <c r="I54" s="341"/>
+      <c r="J54" s="341"/>
+      <c r="K54" s="341"/>
+      <c r="L54" s="341"/>
+      <c r="M54" s="341"/>
+      <c r="N54" s="341"/>
+      <c r="O54" s="341"/>
+      <c r="P54" s="341"/>
+      <c r="Q54" s="341"/>
+      <c r="R54" s="341"/>
+      <c r="S54" s="341"/>
+      <c r="T54" s="341"/>
+      <c r="U54" s="341"/>
+      <c r="V54" s="341"/>
+      <c r="W54" s="341"/>
+      <c r="X54" s="342"/>
+    </row>
+    <row r="55" spans="1:24" ht="59.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="343"/>
+      <c r="B55" s="344"/>
+      <c r="C55" s="344"/>
+      <c r="D55" s="344"/>
+      <c r="E55" s="344"/>
+      <c r="F55" s="344"/>
+      <c r="G55" s="344"/>
+      <c r="H55" s="344"/>
+      <c r="I55" s="344"/>
+      <c r="J55" s="344"/>
+      <c r="K55" s="344"/>
+      <c r="L55" s="344"/>
+      <c r="M55" s="344"/>
+      <c r="N55" s="344"/>
+      <c r="O55" s="344"/>
+      <c r="P55" s="344"/>
+      <c r="Q55" s="344"/>
+      <c r="R55" s="344"/>
+      <c r="S55" s="344"/>
+      <c r="T55" s="344"/>
       <c r="U55" s="316" t="s">
         <v>78</v>
       </c>
@@ -12544,7 +12539,7 @@
       <c r="W55" s="87"/>
       <c r="X55" s="94"/>
     </row>
-    <row r="56" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -12574,31 +12569,31 @@
       <c r="W56" s="201"/>
       <c r="X56" s="104"/>
     </row>
-    <row r="57" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="351"/>
-      <c r="F57" s="351"/>
-      <c r="G57" s="351"/>
-      <c r="H57" s="351"/>
-      <c r="I57" s="351"/>
-      <c r="J57" s="352"/>
-      <c r="K57" s="357" t="s">
+      <c r="E57" s="326"/>
+      <c r="F57" s="326"/>
+      <c r="G57" s="326"/>
+      <c r="H57" s="326"/>
+      <c r="I57" s="326"/>
+      <c r="J57" s="327"/>
+      <c r="K57" s="355" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="358"/>
-      <c r="M57" s="357" t="s">
+      <c r="L57" s="356"/>
+      <c r="M57" s="355" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="358"/>
-      <c r="O57" s="350" t="s">
+      <c r="N57" s="356"/>
+      <c r="O57" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="352"/>
+      <c r="P57" s="327"/>
       <c r="Q57" s="109"/>
       <c r="R57" s="107"/>
       <c r="S57" s="109"/>
@@ -12608,7 +12603,7 @@
       <c r="W57" s="109"/>
       <c r="X57" s="108"/>
     </row>
-    <row r="58" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -12628,10 +12623,10 @@
       <c r="G58" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="353" t="s">
+      <c r="H58" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="354"/>
+      <c r="I58" s="358"/>
       <c r="J58" s="114" t="s">
         <v>16</v>
       </c>
@@ -12668,7 +12663,7 @@
       <c r="W58" s="79"/>
       <c r="X58" s="118"/>
     </row>
-    <row r="59" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
@@ -12680,10 +12675,10 @@
       <c r="G59" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="355" t="s">
+      <c r="H59" s="359" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="356"/>
+      <c r="I59" s="360"/>
       <c r="J59" s="122" t="s">
         <v>21</v>
       </c>
@@ -12710,7 +12705,7 @@
       <c r="W59" s="79"/>
       <c r="X59" s="118"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A60" s="17"/>
       <c r="B60" s="293"/>
       <c r="C60" s="312"/>
@@ -12748,7 +12743,7 @@
       <c r="W60" s="11"/>
       <c r="X60" s="118"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A61" s="38"/>
       <c r="B61" s="303"/>
       <c r="C61" s="294"/>
@@ -12786,7 +12781,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="135"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A62" s="17"/>
       <c r="B62" s="304"/>
       <c r="C62" s="294"/>
@@ -12826,7 +12821,7 @@
       </c>
       <c r="X62" s="135"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A63" s="38"/>
       <c r="B63" s="305"/>
       <c r="C63" s="306"/>
@@ -12858,15 +12853,15 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="341"/>
-      <c r="U63" s="341"/>
-      <c r="V63" s="341"/>
+      <c r="T63" s="333"/>
+      <c r="U63" s="333"/>
+      <c r="V63" s="333"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="X63" s="135"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A64" s="17"/>
       <c r="B64" s="303"/>
       <c r="C64" s="292"/>
@@ -12896,18 +12891,18 @@
       <c r="Q64" s="244"/>
       <c r="R64" s="83"/>
       <c r="S64" s="47"/>
-      <c r="T64" s="342" t="str">
+      <c r="T64" s="334" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="342"/>
-      <c r="V64" s="342"/>
+      <c r="U64" s="334"/>
+      <c r="V64" s="334"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="X64" s="118"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A65" s="38"/>
       <c r="B65" s="305"/>
       <c r="C65" s="306"/>
@@ -12945,7 +12940,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="139"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A66" s="70"/>
       <c r="B66" s="303"/>
       <c r="C66" s="292"/>
@@ -12981,7 +12976,7 @@
       <c r="W66" s="141"/>
       <c r="X66" s="143"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A67" s="38"/>
       <c r="B67" s="303"/>
       <c r="C67" s="292"/>
@@ -13019,7 +13014,7 @@
       <c r="W67" s="48"/>
       <c r="X67" s="135"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A68" s="17"/>
       <c r="B68" s="303"/>
       <c r="C68" s="292"/>
@@ -13057,7 +13052,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="135"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A69" s="70"/>
       <c r="B69" s="303"/>
       <c r="C69" s="306"/>
@@ -13097,7 +13092,7 @@
       </c>
       <c r="X69" s="135"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A70" s="16"/>
       <c r="B70" s="303"/>
       <c r="C70" s="292"/>
@@ -13135,7 +13130,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="135"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A71" s="17"/>
       <c r="B71" s="293"/>
       <c r="C71" s="306"/>
@@ -13173,7 +13168,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="135"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A72" s="71"/>
       <c r="B72" s="304"/>
       <c r="C72" s="307"/>
@@ -13211,7 +13206,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="135"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A73" s="71"/>
       <c r="B73" s="308"/>
       <c r="C73" s="307"/>
@@ -13249,7 +13244,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="135"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A74" s="38"/>
       <c r="B74" s="308"/>
       <c r="C74" s="307"/>
@@ -13292,7 +13287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A75" s="17"/>
       <c r="B75" s="293"/>
       <c r="C75" s="294"/>
@@ -13335,7 +13330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A76" s="71"/>
       <c r="B76" s="304"/>
       <c r="C76" s="294"/>
@@ -13377,7 +13372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A77" s="71"/>
       <c r="B77" s="303"/>
       <c r="C77" s="292"/>
@@ -13420,7 +13415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A78" s="71"/>
       <c r="B78" s="303"/>
       <c r="C78" s="292"/>
@@ -13463,7 +13458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A79" s="70"/>
       <c r="B79" s="303"/>
       <c r="C79" s="292"/>
@@ -13506,7 +13501,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A80" s="38"/>
       <c r="B80" s="305"/>
       <c r="C80" s="309"/>
@@ -13550,7 +13545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A81" s="17"/>
       <c r="B81" s="303"/>
       <c r="C81" s="306"/>
@@ -13592,7 +13587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A82" s="12"/>
       <c r="B82" s="310"/>
       <c r="C82" s="306"/>
@@ -13634,7 +13629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A83" s="12"/>
       <c r="B83" s="310"/>
       <c r="C83" s="306"/>
@@ -13676,7 +13671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A84" s="12"/>
       <c r="B84" s="310"/>
       <c r="C84" s="306"/>
@@ -13719,7 +13714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A85" s="12"/>
       <c r="B85" s="303"/>
       <c r="C85" s="306"/>
@@ -13758,7 +13753,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="135"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A86" s="12"/>
       <c r="B86" s="310"/>
       <c r="C86" s="306"/>
@@ -13794,7 +13789,7 @@
       <c r="W86" s="319"/>
       <c r="X86" s="318"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A87" s="12"/>
       <c r="B87" s="310"/>
       <c r="C87" s="306"/>
@@ -13830,7 +13825,7 @@
       <c r="W87" s="319"/>
       <c r="X87" s="318"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A88" s="12"/>
       <c r="B88" s="310"/>
       <c r="C88" s="306"/>
@@ -13866,7 +13861,7 @@
       <c r="W88" s="319"/>
       <c r="X88" s="318"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A89" s="12"/>
       <c r="B89" s="310"/>
       <c r="C89" s="306"/>
@@ -13902,7 +13897,7 @@
       <c r="W89" s="319"/>
       <c r="X89" s="318"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A90" s="12"/>
       <c r="B90" s="310"/>
       <c r="C90" s="306"/>
@@ -13938,7 +13933,7 @@
       <c r="W90" s="319"/>
       <c r="X90" s="318"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A91" s="12"/>
       <c r="B91" s="310"/>
       <c r="C91" s="306"/>
@@ -13974,7 +13969,7 @@
       <c r="W91" s="319"/>
       <c r="X91" s="318"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A92" s="12"/>
       <c r="B92" s="310"/>
       <c r="C92" s="311"/>
@@ -14010,7 +14005,7 @@
       <c r="W92" s="319"/>
       <c r="X92" s="318"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A93" s="12"/>
       <c r="B93" s="303"/>
       <c r="C93" s="294"/>
@@ -14046,7 +14041,7 @@
       <c r="W93" s="319"/>
       <c r="X93" s="318"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A94" s="13"/>
       <c r="B94" s="310"/>
       <c r="C94" s="294"/>
@@ -14082,12 +14077,12 @@
       <c r="W94" s="319"/>
       <c r="X94" s="318"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A95" s="153"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="328" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="329"/>
       <c r="D95" s="156"/>
       <c r="E95" s="157"/>
       <c r="F95" s="157"/>
@@ -14124,7 +14119,7 @@
       <c r="W95" s="319"/>
       <c r="X95" s="318"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A96" s="153"/>
       <c r="B96" s="207"/>
       <c r="C96" s="208" t="s">
@@ -14156,22 +14151,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="162"/>
-      <c r="R96" s="328" t="s">
+      <c r="R96" s="349" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="329"/>
-      <c r="T96" s="329"/>
-      <c r="U96" s="329"/>
-      <c r="V96" s="329"/>
-      <c r="W96" s="329"/>
-      <c r="X96" s="330"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="331" t="s">
+      <c r="S96" s="350"/>
+      <c r="T96" s="350"/>
+      <c r="U96" s="350"/>
+      <c r="V96" s="350"/>
+      <c r="W96" s="350"/>
+      <c r="X96" s="351"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A97" s="335" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="332"/>
-      <c r="C97" s="333"/>
+      <c r="B97" s="336"/>
+      <c r="C97" s="337"/>
       <c r="D97" s="4"/>
       <c r="E97" s="169"/>
       <c r="F97" s="169"/>
@@ -14200,10 +14195,10 @@
       <c r="W97" s="47"/>
       <c r="X97" s="187"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="322"/>
-      <c r="B98" s="323"/>
-      <c r="C98" s="324"/>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A98" s="352"/>
+      <c r="B98" s="345"/>
+      <c r="C98" s="353"/>
       <c r="D98" s="181"/>
       <c r="E98" s="181"/>
       <c r="F98" s="181"/>
@@ -14230,23 +14225,23 @@
       <c r="W98" s="47"/>
       <c r="X98" s="187"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="322" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A99" s="352" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="323"/>
-      <c r="C99" s="324"/>
+      <c r="B99" s="345"/>
+      <c r="C99" s="353"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="335" t="s">
+      <c r="E99" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="335"/>
-      <c r="G99" s="335"/>
-      <c r="H99" s="335"/>
-      <c r="I99" s="335"/>
-      <c r="J99" s="335"/>
-      <c r="K99" s="335"/>
-      <c r="L99" s="335"/>
+      <c r="F99" s="354"/>
+      <c r="G99" s="354"/>
+      <c r="H99" s="354"/>
+      <c r="I99" s="354"/>
+      <c r="J99" s="354"/>
+      <c r="K99" s="354"/>
+      <c r="L99" s="354"/>
       <c r="M99" s="183"/>
       <c r="N99" s="252"/>
       <c r="O99" s="253"/>
@@ -14262,25 +14257,25 @@
       <c r="W99" s="47"/>
       <c r="X99" s="187"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="322">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A100" s="352">
         <f>+A49</f>
         <v>0</v>
       </c>
-      <c r="B100" s="323"/>
-      <c r="C100" s="324"/>
+      <c r="B100" s="345"/>
+      <c r="C100" s="353"/>
       <c r="D100" s="4"/>
       <c r="E100" s="179"/>
-      <c r="F100" s="323" t="str">
+      <c r="F100" s="345" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="323"/>
-      <c r="H100" s="323"/>
-      <c r="I100" s="323"/>
-      <c r="J100" s="323"/>
-      <c r="K100" s="323"/>
-      <c r="L100" s="323"/>
+      <c r="G100" s="345"/>
+      <c r="H100" s="345"/>
+      <c r="I100" s="345"/>
+      <c r="J100" s="345"/>
+      <c r="K100" s="345"/>
+      <c r="L100" s="345"/>
       <c r="M100" s="256"/>
       <c r="N100" s="257"/>
       <c r="O100" s="258"/>
@@ -14298,23 +14293,23 @@
       <c r="W100" s="218"/>
       <c r="X100" s="219"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="325" t="s">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A101" s="346" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="326"/>
-      <c r="C101" s="327"/>
+      <c r="B101" s="347"/>
+      <c r="C101" s="348"/>
       <c r="D101" s="141"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="326" t="s">
+      <c r="F101" s="347" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="326"/>
-      <c r="H101" s="326"/>
-      <c r="I101" s="326"/>
-      <c r="J101" s="326"/>
-      <c r="K101" s="326"/>
-      <c r="L101" s="326"/>
+      <c r="G101" s="347"/>
+      <c r="H101" s="347"/>
+      <c r="I101" s="347"/>
+      <c r="J101" s="347"/>
+      <c r="K101" s="347"/>
+      <c r="L101" s="347"/>
       <c r="M101" s="260"/>
       <c r="N101" s="261"/>
       <c r="O101" s="262"/>
@@ -14328,7 +14323,7 @@
       <c r="W101" s="199"/>
       <c r="X101" s="200"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.75">
       <c r="R102" s="145"/>
       <c r="S102" s="145"/>
       <c r="T102" s="145"/>
@@ -14337,7 +14332,7 @@
       <c r="W102" s="265"/>
       <c r="X102" s="265"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.75">
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="218"/>
@@ -14348,12 +14343,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -14362,22 +14367,12 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -788,7 +788,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1623,25 +1623,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1651,39 +1670,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1707,13 +1693,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1734,13 +1741,18 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3111,7 +3123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3146,7 +3158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3336,7 +3348,7 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -3531,25 +3543,25 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="326" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="351"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="350" t="s">
+      <c r="E7" s="327"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="327"/>
+      <c r="H7" s="328"/>
+      <c r="I7" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="352"/>
-      <c r="K7" s="350" t="s">
+      <c r="J7" s="328"/>
+      <c r="K7" s="326" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="352"/>
-      <c r="M7" s="350" t="s">
+      <c r="L7" s="328"/>
+      <c r="M7" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="352"/>
+      <c r="N7" s="328"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -3664,13 +3676,13 @@
       <c r="H10" s="130">
         <v>0</v>
       </c>
-      <c r="I10" s="359"/>
+      <c r="I10" s="322"/>
       <c r="J10" s="130">
         <v>0</v>
       </c>
-      <c r="K10" s="359"/>
+      <c r="K10" s="322"/>
       <c r="L10" s="127"/>
-      <c r="M10" s="361"/>
+      <c r="M10" s="324"/>
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
       <c r="P10" s="80"/>
@@ -3694,15 +3706,15 @@
       <c r="H11" s="130">
         <v>0</v>
       </c>
-      <c r="I11" s="360"/>
+      <c r="I11" s="323"/>
       <c r="J11" s="130">
         <v>0</v>
       </c>
-      <c r="K11" s="360"/>
+      <c r="K11" s="323"/>
       <c r="L11" s="130">
         <v>0</v>
       </c>
-      <c r="M11" s="360"/>
+      <c r="M11" s="323"/>
       <c r="N11" s="131">
         <f t="shared" ref="N11:N17" si="0">+J11</f>
         <v>0</v>
@@ -3729,15 +3741,15 @@
       <c r="H12" s="130">
         <v>0</v>
       </c>
-      <c r="I12" s="360"/>
+      <c r="I12" s="323"/>
       <c r="J12" s="130">
         <v>0</v>
       </c>
-      <c r="K12" s="360"/>
+      <c r="K12" s="323"/>
       <c r="L12" s="130">
         <v>0</v>
       </c>
-      <c r="M12" s="360"/>
+      <c r="M12" s="323"/>
       <c r="N12" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3766,15 +3778,15 @@
       <c r="H13" s="130">
         <v>0</v>
       </c>
-      <c r="I13" s="360"/>
+      <c r="I13" s="323"/>
       <c r="J13" s="130">
         <v>0</v>
       </c>
-      <c r="K13" s="360"/>
+      <c r="K13" s="323"/>
       <c r="L13" s="130">
         <v>0</v>
       </c>
-      <c r="M13" s="360"/>
+      <c r="M13" s="323"/>
       <c r="N13" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3803,15 +3815,15 @@
       <c r="H14" s="130">
         <v>0</v>
       </c>
-      <c r="I14" s="360"/>
+      <c r="I14" s="323"/>
       <c r="J14" s="130">
         <v>0</v>
       </c>
-      <c r="K14" s="360"/>
+      <c r="K14" s="323"/>
       <c r="L14" s="130">
         <v>0</v>
       </c>
-      <c r="M14" s="360"/>
+      <c r="M14" s="323"/>
       <c r="N14" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3840,15 +3852,15 @@
       <c r="H15" s="130">
         <v>0</v>
       </c>
-      <c r="I15" s="360"/>
+      <c r="I15" s="323"/>
       <c r="J15" s="130">
         <v>0</v>
       </c>
-      <c r="K15" s="360"/>
+      <c r="K15" s="323"/>
       <c r="L15" s="130">
         <v>0</v>
       </c>
-      <c r="M15" s="360"/>
+      <c r="M15" s="323"/>
       <c r="N15" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3875,15 +3887,15 @@
       <c r="H16" s="130">
         <v>0</v>
       </c>
-      <c r="I16" s="360"/>
+      <c r="I16" s="323"/>
       <c r="J16" s="130">
         <v>0</v>
       </c>
-      <c r="K16" s="360"/>
+      <c r="K16" s="323"/>
       <c r="L16" s="130">
         <v>0</v>
       </c>
-      <c r="M16" s="360"/>
+      <c r="M16" s="323"/>
       <c r="N16" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3908,15 +3920,15 @@
       <c r="H17" s="130">
         <v>0</v>
       </c>
-      <c r="I17" s="360"/>
+      <c r="I17" s="323"/>
       <c r="J17" s="130">
         <v>0</v>
       </c>
-      <c r="K17" s="360"/>
+      <c r="K17" s="323"/>
       <c r="L17" s="130">
         <v>0</v>
       </c>
-      <c r="M17" s="360"/>
+      <c r="M17" s="323"/>
       <c r="N17" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3941,15 +3953,15 @@
       <c r="H18" s="130">
         <v>0</v>
       </c>
-      <c r="I18" s="360"/>
+      <c r="I18" s="323"/>
       <c r="J18" s="130">
         <v>0</v>
       </c>
-      <c r="K18" s="360"/>
+      <c r="K18" s="323"/>
       <c r="L18" s="130">
         <v>0</v>
       </c>
-      <c r="M18" s="360"/>
+      <c r="M18" s="323"/>
       <c r="N18" s="131">
         <f>+J18</f>
         <v>0</v>
@@ -3974,15 +3986,15 @@
       <c r="H19" s="130">
         <v>0</v>
       </c>
-      <c r="I19" s="360"/>
+      <c r="I19" s="323"/>
       <c r="J19" s="130">
         <v>0</v>
       </c>
-      <c r="K19" s="360"/>
+      <c r="K19" s="323"/>
       <c r="L19" s="130">
         <v>0</v>
       </c>
-      <c r="M19" s="360"/>
+      <c r="M19" s="323"/>
       <c r="N19" s="131">
         <f t="shared" ref="N19:N44" si="1">+J19</f>
         <v>0</v>
@@ -4007,15 +4019,15 @@
       <c r="H20" s="130">
         <v>0</v>
       </c>
-      <c r="I20" s="360"/>
+      <c r="I20" s="323"/>
       <c r="J20" s="130">
         <v>0</v>
       </c>
-      <c r="K20" s="360"/>
+      <c r="K20" s="323"/>
       <c r="L20" s="130">
         <v>0</v>
       </c>
-      <c r="M20" s="360"/>
+      <c r="M20" s="323"/>
       <c r="N20" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4040,15 +4052,15 @@
       <c r="H21" s="130">
         <v>0</v>
       </c>
-      <c r="I21" s="360"/>
+      <c r="I21" s="323"/>
       <c r="J21" s="130">
         <v>0</v>
       </c>
-      <c r="K21" s="360"/>
+      <c r="K21" s="323"/>
       <c r="L21" s="130">
         <v>0</v>
       </c>
-      <c r="M21" s="360"/>
+      <c r="M21" s="323"/>
       <c r="N21" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4073,15 +4085,15 @@
       <c r="H22" s="130">
         <v>0</v>
       </c>
-      <c r="I22" s="360"/>
+      <c r="I22" s="323"/>
       <c r="J22" s="130">
         <v>0</v>
       </c>
-      <c r="K22" s="360"/>
+      <c r="K22" s="323"/>
       <c r="L22" s="130">
         <v>0</v>
       </c>
-      <c r="M22" s="360"/>
+      <c r="M22" s="323"/>
       <c r="N22" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4106,15 +4118,15 @@
       <c r="H23" s="130">
         <v>0</v>
       </c>
-      <c r="I23" s="360"/>
+      <c r="I23" s="323"/>
       <c r="J23" s="130">
         <v>0</v>
       </c>
-      <c r="K23" s="360"/>
+      <c r="K23" s="323"/>
       <c r="L23" s="130">
         <v>0</v>
       </c>
-      <c r="M23" s="360"/>
+      <c r="M23" s="323"/>
       <c r="N23" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4139,15 +4151,15 @@
       <c r="H24" s="130">
         <v>0</v>
       </c>
-      <c r="I24" s="360"/>
+      <c r="I24" s="323"/>
       <c r="J24" s="130">
         <v>0</v>
       </c>
-      <c r="K24" s="360"/>
+      <c r="K24" s="323"/>
       <c r="L24" s="130">
         <v>0</v>
       </c>
-      <c r="M24" s="360"/>
+      <c r="M24" s="323"/>
       <c r="N24" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4172,15 +4184,15 @@
       <c r="H25" s="130">
         <v>0</v>
       </c>
-      <c r="I25" s="360"/>
+      <c r="I25" s="323"/>
       <c r="J25" s="130">
         <v>0</v>
       </c>
-      <c r="K25" s="360"/>
+      <c r="K25" s="323"/>
       <c r="L25" s="130">
         <v>0</v>
       </c>
-      <c r="M25" s="360"/>
+      <c r="M25" s="323"/>
       <c r="N25" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4205,15 +4217,15 @@
       <c r="H26" s="130">
         <v>0</v>
       </c>
-      <c r="I26" s="360"/>
+      <c r="I26" s="323"/>
       <c r="J26" s="130">
         <v>0</v>
       </c>
-      <c r="K26" s="360"/>
+      <c r="K26" s="323"/>
       <c r="L26" s="130">
         <v>0</v>
       </c>
-      <c r="M26" s="360"/>
+      <c r="M26" s="323"/>
       <c r="N26" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4238,15 +4250,15 @@
       <c r="H27" s="130">
         <v>0</v>
       </c>
-      <c r="I27" s="360"/>
+      <c r="I27" s="323"/>
       <c r="J27" s="130">
         <v>0</v>
       </c>
-      <c r="K27" s="360"/>
+      <c r="K27" s="323"/>
       <c r="L27" s="130">
         <v>0</v>
       </c>
-      <c r="M27" s="360"/>
+      <c r="M27" s="323"/>
       <c r="N27" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4271,15 +4283,15 @@
       <c r="H28" s="130">
         <v>0</v>
       </c>
-      <c r="I28" s="360"/>
+      <c r="I28" s="323"/>
       <c r="J28" s="130">
         <v>0</v>
       </c>
-      <c r="K28" s="360"/>
+      <c r="K28" s="323"/>
       <c r="L28" s="130">
         <v>0</v>
       </c>
-      <c r="M28" s="360"/>
+      <c r="M28" s="323"/>
       <c r="N28" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4304,15 +4316,15 @@
       <c r="H29" s="130">
         <v>0</v>
       </c>
-      <c r="I29" s="360"/>
+      <c r="I29" s="323"/>
       <c r="J29" s="130">
         <v>0</v>
       </c>
-      <c r="K29" s="360"/>
+      <c r="K29" s="323"/>
       <c r="L29" s="130">
         <v>0</v>
       </c>
-      <c r="M29" s="360"/>
+      <c r="M29" s="323"/>
       <c r="N29" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4337,15 +4349,15 @@
       <c r="H30" s="130">
         <v>0</v>
       </c>
-      <c r="I30" s="360"/>
+      <c r="I30" s="323"/>
       <c r="J30" s="130">
         <v>0</v>
       </c>
-      <c r="K30" s="360"/>
+      <c r="K30" s="323"/>
       <c r="L30" s="130">
         <v>0</v>
       </c>
-      <c r="M30" s="360"/>
+      <c r="M30" s="323"/>
       <c r="N30" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4370,15 +4382,15 @@
       <c r="H31" s="130">
         <v>0</v>
       </c>
-      <c r="I31" s="360"/>
+      <c r="I31" s="323"/>
       <c r="J31" s="130">
         <v>0</v>
       </c>
-      <c r="K31" s="360"/>
+      <c r="K31" s="323"/>
       <c r="L31" s="130">
         <v>0</v>
       </c>
-      <c r="M31" s="360"/>
+      <c r="M31" s="323"/>
       <c r="N31" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4403,15 +4415,15 @@
       <c r="H32" s="130">
         <v>0</v>
       </c>
-      <c r="I32" s="360"/>
+      <c r="I32" s="323"/>
       <c r="J32" s="130">
         <v>0</v>
       </c>
-      <c r="K32" s="360"/>
+      <c r="K32" s="323"/>
       <c r="L32" s="130">
         <v>0</v>
       </c>
-      <c r="M32" s="360"/>
+      <c r="M32" s="323"/>
       <c r="N32" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4436,15 +4448,15 @@
       <c r="H33" s="130">
         <v>0</v>
       </c>
-      <c r="I33" s="360"/>
+      <c r="I33" s="323"/>
       <c r="J33" s="130">
         <v>0</v>
       </c>
-      <c r="K33" s="360"/>
+      <c r="K33" s="323"/>
       <c r="L33" s="130">
         <v>0</v>
       </c>
-      <c r="M33" s="360"/>
+      <c r="M33" s="323"/>
       <c r="N33" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4469,15 +4481,15 @@
       <c r="H34" s="130">
         <v>0</v>
       </c>
-      <c r="I34" s="360"/>
+      <c r="I34" s="323"/>
       <c r="J34" s="130">
         <v>0</v>
       </c>
-      <c r="K34" s="360"/>
+      <c r="K34" s="323"/>
       <c r="L34" s="130">
         <v>0</v>
       </c>
-      <c r="M34" s="360"/>
+      <c r="M34" s="323"/>
       <c r="N34" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4502,15 +4514,15 @@
       <c r="H35" s="130">
         <v>0</v>
       </c>
-      <c r="I35" s="360"/>
+      <c r="I35" s="323"/>
       <c r="J35" s="130">
         <v>0</v>
       </c>
-      <c r="K35" s="360"/>
+      <c r="K35" s="323"/>
       <c r="L35" s="130">
         <v>0</v>
       </c>
-      <c r="M35" s="360"/>
+      <c r="M35" s="323"/>
       <c r="N35" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4535,15 +4547,15 @@
       <c r="H36" s="130">
         <v>0</v>
       </c>
-      <c r="I36" s="360"/>
+      <c r="I36" s="323"/>
       <c r="J36" s="130">
         <v>0</v>
       </c>
-      <c r="K36" s="360"/>
+      <c r="K36" s="323"/>
       <c r="L36" s="130">
         <v>0</v>
       </c>
-      <c r="M36" s="360"/>
+      <c r="M36" s="323"/>
       <c r="N36" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4568,15 +4580,15 @@
       <c r="H37" s="130">
         <v>0</v>
       </c>
-      <c r="I37" s="360"/>
+      <c r="I37" s="323"/>
       <c r="J37" s="130">
         <v>0</v>
       </c>
-      <c r="K37" s="360"/>
+      <c r="K37" s="323"/>
       <c r="L37" s="130">
         <v>0</v>
       </c>
-      <c r="M37" s="360"/>
+      <c r="M37" s="323"/>
       <c r="N37" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4601,15 +4613,15 @@
       <c r="H38" s="130">
         <v>0</v>
       </c>
-      <c r="I38" s="360"/>
+      <c r="I38" s="323"/>
       <c r="J38" s="130">
         <v>0</v>
       </c>
-      <c r="K38" s="360"/>
+      <c r="K38" s="323"/>
       <c r="L38" s="130">
         <v>0</v>
       </c>
-      <c r="M38" s="360"/>
+      <c r="M38" s="323"/>
       <c r="N38" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4634,15 +4646,15 @@
       <c r="H39" s="130">
         <v>0</v>
       </c>
-      <c r="I39" s="360"/>
+      <c r="I39" s="323"/>
       <c r="J39" s="130">
         <v>0</v>
       </c>
-      <c r="K39" s="360"/>
+      <c r="K39" s="323"/>
       <c r="L39" s="130">
         <v>0</v>
       </c>
-      <c r="M39" s="360"/>
+      <c r="M39" s="323"/>
       <c r="N39" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4667,15 +4679,15 @@
       <c r="H40" s="130">
         <v>0</v>
       </c>
-      <c r="I40" s="360"/>
+      <c r="I40" s="323"/>
       <c r="J40" s="130">
         <v>0</v>
       </c>
-      <c r="K40" s="360"/>
+      <c r="K40" s="323"/>
       <c r="L40" s="130">
         <v>0</v>
       </c>
-      <c r="M40" s="360"/>
+      <c r="M40" s="323"/>
       <c r="N40" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4700,15 +4712,15 @@
       <c r="H41" s="130">
         <v>0</v>
       </c>
-      <c r="I41" s="360"/>
+      <c r="I41" s="323"/>
       <c r="J41" s="130">
         <v>0</v>
       </c>
-      <c r="K41" s="360"/>
+      <c r="K41" s="323"/>
       <c r="L41" s="130">
         <v>0</v>
       </c>
-      <c r="M41" s="360"/>
+      <c r="M41" s="323"/>
       <c r="N41" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4733,15 +4745,15 @@
       <c r="H42" s="130">
         <v>0</v>
       </c>
-      <c r="I42" s="360"/>
+      <c r="I42" s="323"/>
       <c r="J42" s="130">
         <v>0</v>
       </c>
-      <c r="K42" s="360"/>
+      <c r="K42" s="323"/>
       <c r="L42" s="130">
         <v>0</v>
       </c>
-      <c r="M42" s="360"/>
+      <c r="M42" s="323"/>
       <c r="N42" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4766,15 +4778,15 @@
       <c r="H43" s="130">
         <v>0</v>
       </c>
-      <c r="I43" s="360"/>
+      <c r="I43" s="323"/>
       <c r="J43" s="130">
         <v>0</v>
       </c>
-      <c r="K43" s="360"/>
+      <c r="K43" s="323"/>
       <c r="L43" s="130">
         <v>0</v>
       </c>
-      <c r="M43" s="360"/>
+      <c r="M43" s="323"/>
       <c r="N43" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4799,15 +4811,15 @@
       <c r="H44" s="130">
         <v>0</v>
       </c>
-      <c r="I44" s="360"/>
+      <c r="I44" s="323"/>
       <c r="J44" s="130">
         <v>0</v>
       </c>
-      <c r="K44" s="360"/>
+      <c r="K44" s="323"/>
       <c r="L44" s="130">
         <v>0</v>
       </c>
-      <c r="M44" s="360"/>
+      <c r="M44" s="323"/>
       <c r="N44" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4868,10 +4880,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="167"/>
       <c r="F46" s="168"/>
-      <c r="G46" s="332" t="s">
+      <c r="G46" s="325" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="332"/>
+      <c r="H46" s="325"/>
       <c r="I46" s="169"/>
       <c r="J46" s="170"/>
       <c r="K46" s="171"/>
@@ -4994,61 +5006,61 @@
       <c r="V50" s="198"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="339"/>
-      <c r="C51" s="339"/>
-      <c r="D51" s="339"/>
-      <c r="E51" s="339"/>
-      <c r="F51" s="339"/>
-      <c r="G51" s="339"/>
-      <c r="H51" s="339"/>
-      <c r="I51" s="339"/>
-      <c r="J51" s="339"/>
-      <c r="K51" s="339"/>
-      <c r="L51" s="339"/>
-      <c r="M51" s="339"/>
-      <c r="N51" s="339"/>
-      <c r="O51" s="339"/>
-      <c r="P51" s="339"/>
-      <c r="Q51" s="339"/>
-      <c r="R51" s="339"/>
-      <c r="S51" s="339"/>
-      <c r="T51" s="339"/>
-      <c r="U51" s="339"/>
-      <c r="V51" s="340"/>
+      <c r="A51" s="331" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="332"/>
+      <c r="C51" s="332"/>
+      <c r="D51" s="332"/>
+      <c r="E51" s="332"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="332"/>
+      <c r="J51" s="332"/>
+      <c r="K51" s="332"/>
+      <c r="L51" s="332"/>
+      <c r="M51" s="332"/>
+      <c r="N51" s="332"/>
+      <c r="O51" s="332"/>
+      <c r="P51" s="332"/>
+      <c r="Q51" s="332"/>
+      <c r="R51" s="332"/>
+      <c r="S51" s="332"/>
+      <c r="T51" s="332"/>
+      <c r="U51" s="332"/>
+      <c r="V51" s="333"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="329" t="s">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="330"/>
-      <c r="C52" s="330"/>
-      <c r="D52" s="330"/>
-      <c r="E52" s="330"/>
-      <c r="F52" s="330"/>
-      <c r="G52" s="330"/>
-      <c r="H52" s="330"/>
-      <c r="I52" s="330"/>
-      <c r="J52" s="330"/>
-      <c r="K52" s="330"/>
-      <c r="L52" s="330"/>
-      <c r="M52" s="330"/>
-      <c r="N52" s="330"/>
-      <c r="O52" s="330"/>
-      <c r="P52" s="330"/>
-      <c r="Q52" s="330"/>
-      <c r="R52" s="330"/>
-      <c r="S52" s="330"/>
-      <c r="T52" s="330"/>
-      <c r="U52" s="330"/>
-      <c r="V52" s="331"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="338"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="A53" s="339"/>
+      <c r="B53" s="340"/>
+      <c r="C53" s="340"/>
       <c r="D53" s="88"/>
       <c r="E53" s="88"/>
       <c r="F53" s="89"/>
@@ -5072,49 +5084,49 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="347"/>
+      <c r="A54" s="341"/>
+      <c r="B54" s="342"/>
+      <c r="C54" s="342"/>
+      <c r="D54" s="342"/>
+      <c r="E54" s="342"/>
+      <c r="F54" s="342"/>
+      <c r="G54" s="342"/>
+      <c r="H54" s="342"/>
+      <c r="I54" s="342"/>
+      <c r="J54" s="342"/>
+      <c r="K54" s="342"/>
+      <c r="L54" s="342"/>
+      <c r="M54" s="342"/>
+      <c r="N54" s="342"/>
+      <c r="O54" s="342"/>
+      <c r="P54" s="342"/>
+      <c r="Q54" s="342"/>
+      <c r="R54" s="342"/>
+      <c r="S54" s="342"/>
+      <c r="T54" s="342"/>
+      <c r="U54" s="342"/>
+      <c r="V54" s="343"/>
     </row>
     <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
+      <c r="A55" s="344"/>
+      <c r="B55" s="345"/>
+      <c r="C55" s="345"/>
+      <c r="D55" s="345"/>
+      <c r="E55" s="345"/>
+      <c r="F55" s="345"/>
+      <c r="G55" s="345"/>
+      <c r="H55" s="345"/>
+      <c r="I55" s="345"/>
+      <c r="J55" s="345"/>
+      <c r="K55" s="345"/>
+      <c r="L55" s="345"/>
+      <c r="M55" s="345"/>
+      <c r="N55" s="345"/>
+      <c r="O55" s="345"/>
+      <c r="P55" s="345"/>
+      <c r="Q55" s="345"/>
+      <c r="R55" s="345"/>
+      <c r="S55" s="345"/>
       <c r="T55" s="87" t="s">
         <v>68</v>
       </c>
@@ -5153,25 +5165,25 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="326" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="351"/>
-      <c r="F57" s="351"/>
-      <c r="G57" s="351"/>
-      <c r="H57" s="352"/>
-      <c r="I57" s="350" t="s">
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
+      <c r="I57" s="326" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="352"/>
-      <c r="K57" s="350" t="s">
+      <c r="J57" s="328"/>
+      <c r="K57" s="326" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="352"/>
-      <c r="M57" s="350" t="s">
+      <c r="L57" s="328"/>
+      <c r="M57" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="352"/>
+      <c r="N57" s="328"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -5411,9 +5423,9 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="341"/>
-      <c r="S63" s="341"/>
-      <c r="T63" s="341"/>
+      <c r="R63" s="334"/>
+      <c r="S63" s="334"/>
+      <c r="T63" s="334"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
@@ -5446,11 +5458,11 @@
       <c r="O64" s="134"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="342" t="s">
+      <c r="R64" s="335" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="342"/>
-      <c r="T64" s="342"/>
+      <c r="S64" s="335"/>
+      <c r="T64" s="335"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
@@ -6544,10 +6556,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="151"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="330"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="156"/>
@@ -6612,29 +6624,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="160"/>
-      <c r="P96" s="326" t="s">
+      <c r="P96" s="350" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="327"/>
-      <c r="R96" s="327"/>
-      <c r="S96" s="327"/>
-      <c r="T96" s="327"/>
-      <c r="U96" s="327"/>
-      <c r="V96" s="328"/>
+      <c r="Q96" s="351"/>
+      <c r="R96" s="351"/>
+      <c r="S96" s="351"/>
+      <c r="T96" s="351"/>
+      <c r="U96" s="351"/>
+      <c r="V96" s="352"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="329" t="s">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="330"/>
-      <c r="C97" s="331"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="167"/>
       <c r="F97" s="168"/>
-      <c r="G97" s="332" t="s">
+      <c r="G97" s="325" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="332"/>
+      <c r="H97" s="325"/>
       <c r="I97" s="169"/>
       <c r="J97" s="170"/>
       <c r="K97" s="171"/>
@@ -6656,9 +6668,9 @@
       <c r="V97" s="185"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="333"/>
-      <c r="B98" s="322"/>
-      <c r="C98" s="334"/>
+      <c r="A98" s="353"/>
+      <c r="B98" s="346"/>
+      <c r="C98" s="354"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="180"/>
@@ -6685,20 +6697,20 @@
       <c r="W98" s="185"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="333" t="s">
+      <c r="A99" s="353" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="322"/>
-      <c r="C99" s="334"/>
+      <c r="B99" s="346"/>
+      <c r="C99" s="354"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="335" t="s">
+      <c r="E99" s="355" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="335"/>
-      <c r="G99" s="335"/>
-      <c r="H99" s="335"/>
-      <c r="I99" s="335"/>
-      <c r="J99" s="335"/>
+      <c r="F99" s="355"/>
+      <c r="G99" s="355"/>
+      <c r="H99" s="355"/>
+      <c r="I99" s="355"/>
+      <c r="J99" s="355"/>
       <c r="K99" s="169"/>
       <c r="L99" s="182"/>
       <c r="M99" s="211"/>
@@ -6723,13 +6735,13 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="177"/>
-      <c r="F100" s="322" t="s">
+      <c r="F100" s="346" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="322"/>
-      <c r="H100" s="322"/>
-      <c r="I100" s="322"/>
-      <c r="J100" s="322"/>
+      <c r="G100" s="346"/>
+      <c r="H100" s="346"/>
+      <c r="I100" s="346"/>
+      <c r="J100" s="346"/>
       <c r="K100" s="189"/>
       <c r="L100" s="190"/>
       <c r="M100" s="214"/>
@@ -6749,20 +6761,20 @@
       <c r="W100" s="149"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="323" t="s">
+      <c r="A101" s="347" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="324"/>
-      <c r="C101" s="325"/>
+      <c r="B101" s="348"/>
+      <c r="C101" s="349"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="324" t="s">
+      <c r="F101" s="348" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="324"/>
-      <c r="H101" s="324"/>
-      <c r="I101" s="324"/>
-      <c r="J101" s="324"/>
+      <c r="G101" s="348"/>
+      <c r="H101" s="348"/>
+      <c r="I101" s="348"/>
+      <c r="J101" s="348"/>
       <c r="K101" s="193"/>
       <c r="L101" s="194"/>
       <c r="M101" s="218"/>
@@ -6778,11 +6790,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -6795,15 +6811,11 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
@@ -6823,7 +6835,7 @@
   <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -6904,9 +6916,9 @@
       <c r="V2" s="277"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
+      <c r="A3" s="339"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
       <c r="D3" s="224"/>
       <c r="E3" s="224"/>
       <c r="F3" s="89"/>
@@ -7019,25 +7031,25 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="326" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="351"/>
-      <c r="H7" s="352"/>
-      <c r="I7" s="353" t="s">
+      <c r="E7" s="327"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="327"/>
+      <c r="H7" s="328"/>
+      <c r="I7" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="354"/>
-      <c r="K7" s="353" t="s">
+      <c r="J7" s="357"/>
+      <c r="K7" s="356" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="350" t="s">
+      <c r="L7" s="357"/>
+      <c r="M7" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="352"/>
+      <c r="N7" s="328"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -7061,10 +7073,10 @@
       <c r="E8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="355" t="s">
+      <c r="F8" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="356"/>
+      <c r="G8" s="359"/>
       <c r="H8" s="114" t="s">
         <v>16</v>
       </c>
@@ -7107,10 +7119,10 @@
       <c r="C9" s="121"/>
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
-      <c r="F9" s="357" t="s">
+      <c r="F9" s="360" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="358"/>
+      <c r="G9" s="361"/>
       <c r="H9" s="122" t="s">
         <v>21</v>
       </c>
@@ -8287,10 +8299,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="167"/>
       <c r="F46" s="168"/>
-      <c r="G46" s="332" t="s">
+      <c r="G46" s="325" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="332"/>
+      <c r="H46" s="325"/>
       <c r="I46" s="169"/>
       <c r="J46" s="170"/>
       <c r="K46" s="171"/>
@@ -8414,61 +8426,61 @@
       <c r="V50" s="198"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="339"/>
-      <c r="C51" s="339"/>
-      <c r="D51" s="339"/>
-      <c r="E51" s="339"/>
-      <c r="F51" s="339"/>
-      <c r="G51" s="339"/>
-      <c r="H51" s="339"/>
-      <c r="I51" s="339"/>
-      <c r="J51" s="339"/>
-      <c r="K51" s="339"/>
-      <c r="L51" s="339"/>
-      <c r="M51" s="339"/>
-      <c r="N51" s="339"/>
-      <c r="O51" s="339"/>
-      <c r="P51" s="339"/>
-      <c r="Q51" s="339"/>
-      <c r="R51" s="339"/>
-      <c r="S51" s="339"/>
-      <c r="T51" s="339"/>
-      <c r="U51" s="339"/>
-      <c r="V51" s="340"/>
+      <c r="A51" s="331" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="332"/>
+      <c r="C51" s="332"/>
+      <c r="D51" s="332"/>
+      <c r="E51" s="332"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="332"/>
+      <c r="J51" s="332"/>
+      <c r="K51" s="332"/>
+      <c r="L51" s="332"/>
+      <c r="M51" s="332"/>
+      <c r="N51" s="332"/>
+      <c r="O51" s="332"/>
+      <c r="P51" s="332"/>
+      <c r="Q51" s="332"/>
+      <c r="R51" s="332"/>
+      <c r="S51" s="332"/>
+      <c r="T51" s="332"/>
+      <c r="U51" s="332"/>
+      <c r="V51" s="333"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="329" t="s">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="330"/>
-      <c r="C52" s="330"/>
-      <c r="D52" s="330"/>
-      <c r="E52" s="330"/>
-      <c r="F52" s="330"/>
-      <c r="G52" s="330"/>
-      <c r="H52" s="330"/>
-      <c r="I52" s="330"/>
-      <c r="J52" s="330"/>
-      <c r="K52" s="330"/>
-      <c r="L52" s="330"/>
-      <c r="M52" s="330"/>
-      <c r="N52" s="330"/>
-      <c r="O52" s="330"/>
-      <c r="P52" s="330"/>
-      <c r="Q52" s="330"/>
-      <c r="R52" s="330"/>
-      <c r="S52" s="330"/>
-      <c r="T52" s="330"/>
-      <c r="U52" s="330"/>
-      <c r="V52" s="331"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="338"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="A53" s="339"/>
+      <c r="B53" s="340"/>
+      <c r="C53" s="340"/>
       <c r="D53" s="224"/>
       <c r="E53" s="224"/>
       <c r="F53" s="89"/>
@@ -8492,49 +8504,49 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="347"/>
+      <c r="A54" s="341"/>
+      <c r="B54" s="342"/>
+      <c r="C54" s="342"/>
+      <c r="D54" s="342"/>
+      <c r="E54" s="342"/>
+      <c r="F54" s="342"/>
+      <c r="G54" s="342"/>
+      <c r="H54" s="342"/>
+      <c r="I54" s="342"/>
+      <c r="J54" s="342"/>
+      <c r="K54" s="342"/>
+      <c r="L54" s="342"/>
+      <c r="M54" s="342"/>
+      <c r="N54" s="342"/>
+      <c r="O54" s="342"/>
+      <c r="P54" s="342"/>
+      <c r="Q54" s="342"/>
+      <c r="R54" s="342"/>
+      <c r="S54" s="342"/>
+      <c r="T54" s="342"/>
+      <c r="U54" s="342"/>
+      <c r="V54" s="343"/>
     </row>
     <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
+      <c r="A55" s="344"/>
+      <c r="B55" s="345"/>
+      <c r="C55" s="345"/>
+      <c r="D55" s="345"/>
+      <c r="E55" s="345"/>
+      <c r="F55" s="345"/>
+      <c r="G55" s="345"/>
+      <c r="H55" s="345"/>
+      <c r="I55" s="345"/>
+      <c r="J55" s="345"/>
+      <c r="K55" s="345"/>
+      <c r="L55" s="345"/>
+      <c r="M55" s="345"/>
+      <c r="N55" s="345"/>
+      <c r="O55" s="345"/>
+      <c r="P55" s="345"/>
+      <c r="Q55" s="345"/>
+      <c r="R55" s="345"/>
+      <c r="S55" s="345"/>
       <c r="T55" s="87" t="s">
         <v>3</v>
       </c>
@@ -8573,25 +8585,25 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="326" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="351"/>
-      <c r="F57" s="351"/>
-      <c r="G57" s="351"/>
-      <c r="H57" s="352"/>
-      <c r="I57" s="353" t="s">
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
+      <c r="I57" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="354"/>
-      <c r="K57" s="353" t="s">
+      <c r="J57" s="357"/>
+      <c r="K57" s="356" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="354"/>
-      <c r="M57" s="350" t="s">
+      <c r="L57" s="357"/>
+      <c r="M57" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="352"/>
+      <c r="N57" s="328"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -8615,10 +8627,10 @@
       <c r="E58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="355" t="s">
+      <c r="F58" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="356"/>
+      <c r="G58" s="359"/>
       <c r="H58" s="114" t="s">
         <v>16</v>
       </c>
@@ -8661,10 +8673,10 @@
       <c r="C59" s="121"/>
       <c r="D59" s="119"/>
       <c r="E59" s="119"/>
-      <c r="F59" s="357" t="s">
+      <c r="F59" s="360" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="358"/>
+      <c r="G59" s="361"/>
       <c r="H59" s="122" t="s">
         <v>21</v>
       </c>
@@ -8819,9 +8831,9 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="341"/>
-      <c r="S63" s="341"/>
-      <c r="T63" s="341"/>
+      <c r="R63" s="334"/>
+      <c r="S63" s="334"/>
+      <c r="T63" s="334"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
@@ -8852,12 +8864,12 @@
       <c r="O64" s="242"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="342" t="str">
+      <c r="R64" s="335" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="342"/>
-      <c r="T64" s="342"/>
+      <c r="S64" s="335"/>
+      <c r="T64" s="335"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
@@ -9892,10 +9904,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="151"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="330"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="156"/>
@@ -9960,29 +9972,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="160"/>
-      <c r="P96" s="326" t="s">
+      <c r="P96" s="350" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="327"/>
-      <c r="R96" s="327"/>
-      <c r="S96" s="327"/>
-      <c r="T96" s="327"/>
-      <c r="U96" s="327"/>
-      <c r="V96" s="328"/>
+      <c r="Q96" s="351"/>
+      <c r="R96" s="351"/>
+      <c r="S96" s="351"/>
+      <c r="T96" s="351"/>
+      <c r="U96" s="351"/>
+      <c r="V96" s="352"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="329" t="s">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="330"/>
-      <c r="C97" s="331"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="167"/>
       <c r="F97" s="168"/>
-      <c r="G97" s="332" t="s">
+      <c r="G97" s="325" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="332"/>
+      <c r="H97" s="325"/>
       <c r="I97" s="180"/>
       <c r="J97" s="170"/>
       <c r="K97" s="170"/>
@@ -10004,9 +10016,9 @@
       <c r="V97" s="185"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="333"/>
-      <c r="B98" s="322"/>
-      <c r="C98" s="334"/>
+      <c r="A98" s="353"/>
+      <c r="B98" s="346"/>
+      <c r="C98" s="354"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="180"/>
@@ -10032,20 +10044,20 @@
       <c r="V98" s="185"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="333" t="s">
+      <c r="A99" s="353" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="322"/>
-      <c r="C99" s="334"/>
+      <c r="B99" s="346"/>
+      <c r="C99" s="354"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="335" t="s">
+      <c r="E99" s="355" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="335"/>
-      <c r="G99" s="335"/>
-      <c r="H99" s="335"/>
-      <c r="I99" s="335"/>
-      <c r="J99" s="335"/>
+      <c r="F99" s="355"/>
+      <c r="G99" s="355"/>
+      <c r="H99" s="355"/>
+      <c r="I99" s="355"/>
+      <c r="J99" s="355"/>
       <c r="K99" s="181"/>
       <c r="L99" s="250"/>
       <c r="M99" s="251"/>
@@ -10062,19 +10074,19 @@
       <c r="V99" s="185"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="333"/>
-      <c r="B100" s="322"/>
-      <c r="C100" s="334"/>
+      <c r="A100" s="353"/>
+      <c r="B100" s="346"/>
+      <c r="C100" s="354"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="322" t="str">
+      <c r="E100" s="346" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="F100" s="322"/>
-      <c r="G100" s="322"/>
-      <c r="H100" s="322"/>
-      <c r="I100" s="322"/>
-      <c r="J100" s="322"/>
+      <c r="F100" s="346"/>
+      <c r="G100" s="346"/>
+      <c r="H100" s="346"/>
+      <c r="I100" s="346"/>
+      <c r="J100" s="346"/>
       <c r="K100" s="254"/>
       <c r="L100" s="255"/>
       <c r="M100" s="256"/>
@@ -10093,20 +10105,20 @@
       <c r="V100" s="217"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="323" t="s">
+      <c r="A101" s="347" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="324"/>
-      <c r="C101" s="325"/>
+      <c r="B101" s="348"/>
+      <c r="C101" s="349"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="324" t="s">
+      <c r="F101" s="348" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="324"/>
-      <c r="H101" s="324"/>
-      <c r="I101" s="324"/>
-      <c r="J101" s="324"/>
+      <c r="G101" s="348"/>
+      <c r="H101" s="348"/>
+      <c r="I101" s="348"/>
+      <c r="J101" s="348"/>
       <c r="K101" s="258"/>
       <c r="L101" s="259"/>
       <c r="M101" s="260"/>
@@ -10140,6 +10152,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
     <mergeCell ref="R64:T64"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
@@ -10156,22 +10184,6 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="R63:T63"/>
     <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A55:S55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -10186,8 +10198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -10274,9 +10286,9 @@
       <c r="X2" s="277"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
+      <c r="A3" s="339"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
       <c r="D3" s="224"/>
       <c r="E3" s="224"/>
       <c r="F3" s="224"/>
@@ -10397,27 +10409,27 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="350" t="s">
+      <c r="D7" s="326" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="351"/>
-      <c r="H7" s="351"/>
-      <c r="I7" s="351"/>
-      <c r="J7" s="352"/>
-      <c r="K7" s="353" t="s">
+      <c r="E7" s="327"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="327"/>
+      <c r="H7" s="327"/>
+      <c r="I7" s="327"/>
+      <c r="J7" s="328"/>
+      <c r="K7" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="353" t="s">
+      <c r="L7" s="357"/>
+      <c r="M7" s="356" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="354"/>
-      <c r="O7" s="350" t="s">
+      <c r="N7" s="357"/>
+      <c r="O7" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="352"/>
+      <c r="P7" s="328"/>
       <c r="Q7" s="109"/>
       <c r="R7" s="107"/>
       <c r="S7" s="109"/>
@@ -10447,10 +10459,10 @@
       <c r="G8" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="355" t="s">
+      <c r="H8" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="356"/>
+      <c r="I8" s="359"/>
       <c r="J8" s="114" t="s">
         <v>16</v>
       </c>
@@ -10499,10 +10511,10 @@
       <c r="G9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="357" t="s">
+      <c r="H9" s="360" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="358"/>
+      <c r="I9" s="361"/>
       <c r="J9" s="122" t="s">
         <v>21</v>
       </c>
@@ -10537,7 +10549,7 @@
       <c r="E10" s="58"/>
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
-      <c r="H10" s="231"/>
+      <c r="H10" s="362"/>
       <c r="I10" s="232"/>
       <c r="J10" s="233"/>
       <c r="K10" s="234"/>
@@ -10575,7 +10587,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="236"/>
+      <c r="H11" s="363"/>
       <c r="I11" s="202"/>
       <c r="J11" s="237"/>
       <c r="K11" s="238"/>
@@ -10613,7 +10625,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="236"/>
+      <c r="H12" s="363"/>
       <c r="I12" s="202"/>
       <c r="J12" s="241"/>
       <c r="K12" s="238"/>
@@ -10653,7 +10665,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="236"/>
+      <c r="H13" s="363"/>
       <c r="I13" s="202"/>
       <c r="J13" s="241"/>
       <c r="K13" s="238"/>
@@ -10693,7 +10705,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="236"/>
+      <c r="H14" s="363"/>
       <c r="I14" s="202"/>
       <c r="J14" s="241"/>
       <c r="K14" s="238"/>
@@ -10733,7 +10745,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="236"/>
+      <c r="H15" s="363"/>
       <c r="I15" s="202"/>
       <c r="J15" s="241"/>
       <c r="K15" s="238"/>
@@ -10771,7 +10783,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="236"/>
+      <c r="H16" s="363"/>
       <c r="I16" s="202"/>
       <c r="J16" s="52"/>
       <c r="K16" s="59"/>
@@ -10807,7 +10819,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="236"/>
+      <c r="H17" s="363"/>
       <c r="I17" s="202"/>
       <c r="J17" s="241"/>
       <c r="K17" s="59"/>
@@ -10843,7 +10855,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="236"/>
+      <c r="H18" s="363"/>
       <c r="I18" s="202"/>
       <c r="J18" s="52"/>
       <c r="K18" s="59"/>
@@ -10879,7 +10891,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="236"/>
+      <c r="H19" s="363"/>
       <c r="I19" s="202"/>
       <c r="J19" s="241"/>
       <c r="K19" s="238"/>
@@ -10915,7 +10927,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="236"/>
+      <c r="H20" s="363"/>
       <c r="I20" s="202"/>
       <c r="J20" s="241"/>
       <c r="K20" s="238"/>
@@ -10951,7 +10963,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="236"/>
+      <c r="H21" s="363"/>
       <c r="I21" s="202"/>
       <c r="J21" s="52"/>
       <c r="K21" s="59"/>
@@ -10987,7 +10999,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="236"/>
+      <c r="H22" s="363"/>
       <c r="I22" s="202"/>
       <c r="J22" s="241"/>
       <c r="K22" s="59"/>
@@ -11023,7 +11035,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="236"/>
+      <c r="H23" s="363"/>
       <c r="I23" s="202"/>
       <c r="J23" s="241"/>
       <c r="K23" s="238"/>
@@ -11059,7 +11071,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="236"/>
+      <c r="H24" s="363"/>
       <c r="I24" s="202"/>
       <c r="J24" s="241"/>
       <c r="K24" s="238"/>
@@ -11095,7 +11107,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="236"/>
+      <c r="H25" s="363"/>
       <c r="I25" s="202"/>
       <c r="J25" s="241"/>
       <c r="K25" s="238"/>
@@ -11131,7 +11143,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="236"/>
+      <c r="H26" s="363"/>
       <c r="I26" s="202"/>
       <c r="J26" s="52"/>
       <c r="K26" s="59"/>
@@ -11167,7 +11179,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="236"/>
+      <c r="H27" s="363"/>
       <c r="I27" s="202"/>
       <c r="J27" s="241"/>
       <c r="K27" s="239"/>
@@ -11203,7 +11215,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="236"/>
+      <c r="H28" s="363"/>
       <c r="I28" s="202"/>
       <c r="J28" s="241"/>
       <c r="K28" s="238"/>
@@ -11239,7 +11251,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="236"/>
+      <c r="H29" s="363"/>
       <c r="I29" s="202"/>
       <c r="J29" s="241"/>
       <c r="K29" s="238"/>
@@ -11275,7 +11287,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="236"/>
+      <c r="H30" s="363"/>
       <c r="I30" s="202"/>
       <c r="J30" s="241"/>
       <c r="K30" s="238"/>
@@ -11311,7 +11323,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="236"/>
+      <c r="H31" s="363"/>
       <c r="I31" s="202"/>
       <c r="J31" s="52"/>
       <c r="K31" s="59"/>
@@ -11347,7 +11359,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="236"/>
+      <c r="H32" s="363"/>
       <c r="I32" s="202"/>
       <c r="J32" s="241"/>
       <c r="K32" s="59"/>
@@ -11383,7 +11395,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="236"/>
+      <c r="H33" s="363"/>
       <c r="I33" s="202"/>
       <c r="J33" s="241"/>
       <c r="K33" s="238"/>
@@ -11419,7 +11431,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="236"/>
+      <c r="H34" s="363"/>
       <c r="I34" s="202"/>
       <c r="J34" s="241"/>
       <c r="K34" s="238"/>
@@ -11455,7 +11467,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="70"/>
       <c r="G35" s="70"/>
-      <c r="H35" s="236"/>
+      <c r="H35" s="363"/>
       <c r="I35" s="202"/>
       <c r="J35" s="52"/>
       <c r="K35" s="67"/>
@@ -11491,7 +11503,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="236"/>
+      <c r="H36" s="363"/>
       <c r="I36" s="202"/>
       <c r="J36" s="241"/>
       <c r="K36" s="59"/>
@@ -11527,7 +11539,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="236"/>
+      <c r="H37" s="363"/>
       <c r="I37" s="202"/>
       <c r="J37" s="241"/>
       <c r="K37" s="238"/>
@@ -11563,7 +11575,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
-      <c r="H38" s="236"/>
+      <c r="H38" s="363"/>
       <c r="I38" s="202"/>
       <c r="J38" s="52"/>
       <c r="K38" s="238"/>
@@ -11599,7 +11611,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="236"/>
+      <c r="H39" s="363"/>
       <c r="I39" s="202"/>
       <c r="J39" s="52"/>
       <c r="K39" s="238"/>
@@ -11635,7 +11647,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="236"/>
+      <c r="H40" s="363"/>
       <c r="I40" s="202"/>
       <c r="J40" s="52"/>
       <c r="K40" s="238"/>
@@ -11671,7 +11683,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="236"/>
+      <c r="H41" s="363"/>
       <c r="I41" s="202"/>
       <c r="J41" s="52"/>
       <c r="K41" s="238"/>
@@ -11707,7 +11719,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="236"/>
+      <c r="H42" s="363"/>
       <c r="I42" s="202"/>
       <c r="J42" s="52"/>
       <c r="K42" s="238"/>
@@ -11743,7 +11755,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="236"/>
+      <c r="H43" s="363"/>
       <c r="I43" s="202"/>
       <c r="J43" s="52"/>
       <c r="K43" s="238"/>
@@ -11779,7 +11791,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
-      <c r="H44" s="243"/>
+      <c r="H44" s="365"/>
       <c r="I44" s="244"/>
       <c r="J44" s="21"/>
       <c r="K44" s="130"/>
@@ -11990,65 +12002,65 @@
       <c r="X50" s="198"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="338" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="339"/>
-      <c r="C51" s="339"/>
-      <c r="D51" s="339"/>
-      <c r="E51" s="339"/>
-      <c r="F51" s="339"/>
-      <c r="G51" s="339"/>
-      <c r="H51" s="339"/>
-      <c r="I51" s="339"/>
-      <c r="J51" s="339"/>
-      <c r="K51" s="339"/>
-      <c r="L51" s="339"/>
-      <c r="M51" s="339"/>
-      <c r="N51" s="339"/>
-      <c r="O51" s="339"/>
-      <c r="P51" s="339"/>
-      <c r="Q51" s="339"/>
-      <c r="R51" s="339"/>
-      <c r="S51" s="339"/>
-      <c r="T51" s="339"/>
-      <c r="U51" s="339"/>
-      <c r="V51" s="339"/>
-      <c r="W51" s="339"/>
-      <c r="X51" s="340"/>
+      <c r="A51" s="331" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="332"/>
+      <c r="C51" s="332"/>
+      <c r="D51" s="332"/>
+      <c r="E51" s="332"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="332"/>
+      <c r="J51" s="332"/>
+      <c r="K51" s="332"/>
+      <c r="L51" s="332"/>
+      <c r="M51" s="332"/>
+      <c r="N51" s="332"/>
+      <c r="O51" s="332"/>
+      <c r="P51" s="332"/>
+      <c r="Q51" s="332"/>
+      <c r="R51" s="332"/>
+      <c r="S51" s="332"/>
+      <c r="T51" s="332"/>
+      <c r="U51" s="332"/>
+      <c r="V51" s="332"/>
+      <c r="W51" s="332"/>
+      <c r="X51" s="333"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="329" t="s">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="330"/>
-      <c r="C52" s="330"/>
-      <c r="D52" s="330"/>
-      <c r="E52" s="330"/>
-      <c r="F52" s="330"/>
-      <c r="G52" s="330"/>
-      <c r="H52" s="330"/>
-      <c r="I52" s="330"/>
-      <c r="J52" s="330"/>
-      <c r="K52" s="330"/>
-      <c r="L52" s="330"/>
-      <c r="M52" s="330"/>
-      <c r="N52" s="330"/>
-      <c r="O52" s="330"/>
-      <c r="P52" s="330"/>
-      <c r="Q52" s="330"/>
-      <c r="R52" s="330"/>
-      <c r="S52" s="330"/>
-      <c r="T52" s="330"/>
-      <c r="U52" s="330"/>
-      <c r="V52" s="330"/>
-      <c r="W52" s="330"/>
-      <c r="X52" s="331"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="337"/>
+      <c r="W52" s="337"/>
+      <c r="X52" s="338"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="A53" s="339"/>
+      <c r="B53" s="340"/>
+      <c r="C53" s="340"/>
       <c r="D53" s="224"/>
       <c r="E53" s="224"/>
       <c r="F53" s="224"/>
@@ -12074,52 +12086,52 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="346"/>
-      <c r="W54" s="346"/>
-      <c r="X54" s="347"/>
+      <c r="A54" s="341"/>
+      <c r="B54" s="342"/>
+      <c r="C54" s="342"/>
+      <c r="D54" s="342"/>
+      <c r="E54" s="342"/>
+      <c r="F54" s="342"/>
+      <c r="G54" s="342"/>
+      <c r="H54" s="342"/>
+      <c r="I54" s="342"/>
+      <c r="J54" s="342"/>
+      <c r="K54" s="342"/>
+      <c r="L54" s="342"/>
+      <c r="M54" s="342"/>
+      <c r="N54" s="342"/>
+      <c r="O54" s="342"/>
+      <c r="P54" s="342"/>
+      <c r="Q54" s="342"/>
+      <c r="R54" s="342"/>
+      <c r="S54" s="342"/>
+      <c r="T54" s="342"/>
+      <c r="U54" s="342"/>
+      <c r="V54" s="342"/>
+      <c r="W54" s="342"/>
+      <c r="X54" s="343"/>
     </row>
     <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
-      <c r="T55" s="349"/>
+      <c r="A55" s="344"/>
+      <c r="B55" s="345"/>
+      <c r="C55" s="345"/>
+      <c r="D55" s="345"/>
+      <c r="E55" s="345"/>
+      <c r="F55" s="345"/>
+      <c r="G55" s="345"/>
+      <c r="H55" s="345"/>
+      <c r="I55" s="345"/>
+      <c r="J55" s="345"/>
+      <c r="K55" s="345"/>
+      <c r="L55" s="345"/>
+      <c r="M55" s="345"/>
+      <c r="N55" s="345"/>
+      <c r="O55" s="345"/>
+      <c r="P55" s="345"/>
+      <c r="Q55" s="345"/>
+      <c r="R55" s="345"/>
+      <c r="S55" s="345"/>
+      <c r="T55" s="345"/>
       <c r="U55" s="314" t="s">
         <v>78</v>
       </c>
@@ -12161,27 +12173,27 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="350" t="s">
+      <c r="D57" s="326" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="351"/>
-      <c r="F57" s="351"/>
-      <c r="G57" s="351"/>
-      <c r="H57" s="351"/>
-      <c r="I57" s="351"/>
-      <c r="J57" s="352"/>
-      <c r="K57" s="353" t="s">
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="327"/>
+      <c r="I57" s="327"/>
+      <c r="J57" s="328"/>
+      <c r="K57" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="354"/>
-      <c r="M57" s="353" t="s">
+      <c r="L57" s="357"/>
+      <c r="M57" s="356" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="354"/>
-      <c r="O57" s="350" t="s">
+      <c r="N57" s="357"/>
+      <c r="O57" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="352"/>
+      <c r="P57" s="328"/>
       <c r="Q57" s="109"/>
       <c r="R57" s="107"/>
       <c r="S57" s="109"/>
@@ -12211,10 +12223,10 @@
       <c r="G58" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="355" t="s">
+      <c r="H58" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="356"/>
+      <c r="I58" s="359"/>
       <c r="J58" s="114" t="s">
         <v>16</v>
       </c>
@@ -12263,10 +12275,10 @@
       <c r="G59" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="357" t="s">
+      <c r="H59" s="360" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="358"/>
+      <c r="I59" s="361"/>
       <c r="J59" s="122" t="s">
         <v>21</v>
       </c>
@@ -12301,7 +12313,7 @@
       <c r="E60" s="33"/>
       <c r="F60" s="84"/>
       <c r="G60" s="75"/>
-      <c r="H60" s="231"/>
+      <c r="H60" s="362"/>
       <c r="I60" s="232"/>
       <c r="J60" s="233"/>
       <c r="K60" s="238"/>
@@ -12339,7 +12351,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="236"/>
+      <c r="H61" s="363"/>
       <c r="I61" s="202"/>
       <c r="J61" s="52"/>
       <c r="K61" s="238"/>
@@ -12377,7 +12389,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
-      <c r="H62" s="236"/>
+      <c r="H62" s="363"/>
       <c r="I62" s="202"/>
       <c r="J62" s="241"/>
       <c r="K62" s="238"/>
@@ -12417,7 +12429,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
-      <c r="H63" s="236"/>
+      <c r="H63" s="363"/>
       <c r="I63" s="202"/>
       <c r="J63" s="241"/>
       <c r="K63" s="238"/>
@@ -12441,9 +12453,9 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="341"/>
-      <c r="U63" s="341"/>
-      <c r="V63" s="341"/>
+      <c r="T63" s="334"/>
+      <c r="U63" s="334"/>
+      <c r="V63" s="334"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
@@ -12457,7 +12469,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
-      <c r="H64" s="236"/>
+      <c r="H64" s="363"/>
       <c r="I64" s="202"/>
       <c r="J64" s="52"/>
       <c r="K64" s="238"/>
@@ -12479,12 +12491,12 @@
       <c r="Q64" s="242"/>
       <c r="R64" s="83"/>
       <c r="S64" s="47"/>
-      <c r="T64" s="342" t="str">
+      <c r="T64" s="335" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="342"/>
-      <c r="V64" s="342"/>
+      <c r="U64" s="335"/>
+      <c r="V64" s="335"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
@@ -12498,7 +12510,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
-      <c r="H65" s="236"/>
+      <c r="H65" s="363"/>
       <c r="I65" s="202"/>
       <c r="J65" s="52"/>
       <c r="K65" s="238"/>
@@ -12536,7 +12548,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="236"/>
+      <c r="H66" s="363"/>
       <c r="I66" s="202"/>
       <c r="J66" s="52"/>
       <c r="K66" s="238"/>
@@ -12572,7 +12584,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="236"/>
+      <c r="H67" s="363"/>
       <c r="I67" s="202"/>
       <c r="J67" s="237"/>
       <c r="K67" s="238"/>
@@ -12610,7 +12622,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
-      <c r="H68" s="236"/>
+      <c r="H68" s="363"/>
       <c r="I68" s="202"/>
       <c r="J68" s="52"/>
       <c r="K68" s="238"/>
@@ -12648,7 +12660,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
-      <c r="H69" s="236"/>
+      <c r="H69" s="363"/>
       <c r="I69" s="202"/>
       <c r="J69" s="237"/>
       <c r="K69" s="238"/>
@@ -12688,7 +12700,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
-      <c r="H70" s="236"/>
+      <c r="H70" s="363"/>
       <c r="I70" s="202"/>
       <c r="J70" s="52"/>
       <c r="K70" s="238"/>
@@ -12726,7 +12738,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
-      <c r="H71" s="236"/>
+      <c r="H71" s="363"/>
       <c r="I71" s="202"/>
       <c r="J71" s="52"/>
       <c r="K71" s="238"/>
@@ -12764,7 +12776,7 @@
       <c r="E72" s="72"/>
       <c r="F72" s="76"/>
       <c r="G72" s="76"/>
-      <c r="H72" s="236"/>
+      <c r="H72" s="363"/>
       <c r="I72" s="202"/>
       <c r="J72" s="236"/>
       <c r="K72" s="238"/>
@@ -12802,7 +12814,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
-      <c r="H73" s="236"/>
+      <c r="H73" s="363"/>
       <c r="I73" s="202"/>
       <c r="J73" s="241"/>
       <c r="K73" s="238"/>
@@ -12840,7 +12852,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
-      <c r="H74" s="236"/>
+      <c r="H74" s="363"/>
       <c r="I74" s="202"/>
       <c r="J74" s="241"/>
       <c r="K74" s="238"/>
@@ -12883,7 +12895,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
-      <c r="H75" s="236"/>
+      <c r="H75" s="363"/>
       <c r="I75" s="202"/>
       <c r="J75" s="52"/>
       <c r="K75" s="238"/>
@@ -12926,7 +12938,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="236"/>
+      <c r="H76" s="363"/>
       <c r="I76" s="202"/>
       <c r="J76" s="236"/>
       <c r="K76" s="238"/>
@@ -12968,7 +12980,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
-      <c r="H77" s="236"/>
+      <c r="H77" s="363"/>
       <c r="I77" s="202"/>
       <c r="J77" s="236"/>
       <c r="K77" s="238"/>
@@ -13011,7 +13023,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="236"/>
+      <c r="H78" s="363"/>
       <c r="I78" s="202"/>
       <c r="J78" s="236"/>
       <c r="K78" s="238"/>
@@ -13054,7 +13066,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
-      <c r="H79" s="236"/>
+      <c r="H79" s="363"/>
       <c r="I79" s="202"/>
       <c r="J79" s="236"/>
       <c r="K79" s="238"/>
@@ -13097,7 +13109,7 @@
       <c r="E80" s="26"/>
       <c r="F80" s="9"/>
       <c r="G80" s="77"/>
-      <c r="H80" s="236"/>
+      <c r="H80" s="363"/>
       <c r="I80" s="202"/>
       <c r="J80" s="53"/>
       <c r="K80" s="52"/>
@@ -13141,7 +13153,7 @@
       <c r="E81" s="26"/>
       <c r="F81" s="9"/>
       <c r="G81" s="77"/>
-      <c r="H81" s="236"/>
+      <c r="H81" s="363"/>
       <c r="I81" s="202"/>
       <c r="J81" s="52"/>
       <c r="K81" s="52"/>
@@ -13183,7 +13195,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
-      <c r="H82" s="236"/>
+      <c r="H82" s="363"/>
       <c r="I82" s="202"/>
       <c r="J82" s="52"/>
       <c r="K82" s="52"/>
@@ -13225,7 +13237,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
-      <c r="H83" s="236"/>
+      <c r="H83" s="363"/>
       <c r="I83" s="202"/>
       <c r="J83" s="52"/>
       <c r="K83" s="52"/>
@@ -13267,7 +13279,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
-      <c r="H84" s="236"/>
+      <c r="H84" s="363"/>
       <c r="I84" s="202"/>
       <c r="J84" s="52"/>
       <c r="K84" s="52"/>
@@ -13310,7 +13322,7 @@
       <c r="E85" s="13"/>
       <c r="F85" s="78"/>
       <c r="G85" s="78"/>
-      <c r="H85" s="236"/>
+      <c r="H85" s="363"/>
       <c r="I85" s="202"/>
       <c r="J85" s="52"/>
       <c r="K85" s="52"/>
@@ -13349,7 +13361,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
-      <c r="H86" s="236"/>
+      <c r="H86" s="363"/>
       <c r="I86" s="202"/>
       <c r="J86" s="52"/>
       <c r="K86" s="52"/>
@@ -13385,7 +13397,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
-      <c r="H87" s="236"/>
+      <c r="H87" s="363"/>
       <c r="I87" s="202"/>
       <c r="J87" s="52"/>
       <c r="K87" s="52"/>
@@ -13421,7 +13433,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
-      <c r="H88" s="236"/>
+      <c r="H88" s="363"/>
       <c r="I88" s="202"/>
       <c r="J88" s="52"/>
       <c r="K88" s="52"/>
@@ -13457,7 +13469,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
-      <c r="H89" s="236"/>
+      <c r="H89" s="363"/>
       <c r="I89" s="202"/>
       <c r="J89" s="52"/>
       <c r="K89" s="52"/>
@@ -13493,7 +13505,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
-      <c r="H90" s="236"/>
+      <c r="H90" s="363"/>
       <c r="I90" s="202"/>
       <c r="J90" s="52"/>
       <c r="K90" s="52"/>
@@ -13529,7 +13541,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
-      <c r="H91" s="236"/>
+      <c r="H91" s="363"/>
       <c r="I91" s="202"/>
       <c r="J91" s="52"/>
       <c r="K91" s="52"/>
@@ -13565,7 +13577,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
-      <c r="H92" s="236"/>
+      <c r="H92" s="363"/>
       <c r="I92" s="202"/>
       <c r="J92" s="52"/>
       <c r="K92" s="52"/>
@@ -13601,7 +13613,7 @@
       <c r="E93" s="13"/>
       <c r="F93" s="78"/>
       <c r="G93" s="78"/>
-      <c r="H93" s="236"/>
+      <c r="H93" s="363"/>
       <c r="I93" s="202"/>
       <c r="J93" s="52"/>
       <c r="K93" s="52"/>
@@ -13637,7 +13649,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="74"/>
       <c r="G94" s="74"/>
-      <c r="H94" s="247"/>
+      <c r="H94" s="364"/>
       <c r="I94" s="248"/>
       <c r="J94" s="52"/>
       <c r="K94" s="52"/>
@@ -13667,10 +13679,10 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="151"/>
-      <c r="B95" s="336" t="s">
+      <c r="B95" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="337"/>
+      <c r="C95" s="330"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="155"/>
@@ -13739,22 +13751,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="160"/>
-      <c r="R96" s="326" t="s">
+      <c r="R96" s="350" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="327"/>
-      <c r="T96" s="327"/>
-      <c r="U96" s="327"/>
-      <c r="V96" s="327"/>
-      <c r="W96" s="327"/>
-      <c r="X96" s="328"/>
+      <c r="S96" s="351"/>
+      <c r="T96" s="351"/>
+      <c r="U96" s="351"/>
+      <c r="V96" s="351"/>
+      <c r="W96" s="351"/>
+      <c r="X96" s="352"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="329" t="s">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="330"/>
-      <c r="C97" s="331"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="167"/>
       <c r="F97" s="167"/>
@@ -13784,9 +13796,9 @@
       <c r="X97" s="185"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="333"/>
-      <c r="B98" s="322"/>
-      <c r="C98" s="334"/>
+      <c r="A98" s="353"/>
+      <c r="B98" s="346"/>
+      <c r="C98" s="354"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="179"/>
@@ -13814,22 +13826,22 @@
       <c r="X98" s="185"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="333" t="s">
+      <c r="A99" s="353" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="322"/>
-      <c r="C99" s="334"/>
+      <c r="B99" s="346"/>
+      <c r="C99" s="354"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="335" t="s">
+      <c r="E99" s="355" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="335"/>
-      <c r="G99" s="335"/>
-      <c r="H99" s="335"/>
-      <c r="I99" s="335"/>
-      <c r="J99" s="335"/>
-      <c r="K99" s="335"/>
-      <c r="L99" s="335"/>
+      <c r="F99" s="355"/>
+      <c r="G99" s="355"/>
+      <c r="H99" s="355"/>
+      <c r="I99" s="355"/>
+      <c r="J99" s="355"/>
+      <c r="K99" s="355"/>
+      <c r="L99" s="355"/>
       <c r="M99" s="181"/>
       <c r="N99" s="250"/>
       <c r="O99" s="251"/>
@@ -13846,24 +13858,21 @@
       <c r="X99" s="185"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="333">
-        <f>+A49</f>
-        <v>0</v>
-      </c>
-      <c r="B100" s="322"/>
-      <c r="C100" s="334"/>
+      <c r="A100" s="353"/>
+      <c r="B100" s="346"/>
+      <c r="C100" s="354"/>
       <c r="D100" s="4"/>
       <c r="E100" s="177"/>
-      <c r="F100" s="322" t="str">
+      <c r="F100" s="346" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="322"/>
-      <c r="H100" s="322"/>
-      <c r="I100" s="322"/>
-      <c r="J100" s="322"/>
-      <c r="K100" s="322"/>
-      <c r="L100" s="322"/>
+      <c r="G100" s="346"/>
+      <c r="H100" s="346"/>
+      <c r="I100" s="346"/>
+      <c r="J100" s="346"/>
+      <c r="K100" s="346"/>
+      <c r="L100" s="346"/>
       <c r="M100" s="254"/>
       <c r="N100" s="255"/>
       <c r="O100" s="256"/>
@@ -13882,22 +13891,22 @@
       <c r="X100" s="217"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="323" t="s">
+      <c r="A101" s="347" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="324"/>
-      <c r="C101" s="325"/>
+      <c r="B101" s="348"/>
+      <c r="C101" s="349"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="324" t="s">
+      <c r="F101" s="348" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="324"/>
-      <c r="H101" s="324"/>
-      <c r="I101" s="324"/>
-      <c r="J101" s="324"/>
-      <c r="K101" s="324"/>
-      <c r="L101" s="324"/>
+      <c r="G101" s="348"/>
+      <c r="H101" s="348"/>
+      <c r="I101" s="348"/>
+      <c r="J101" s="348"/>
+      <c r="K101" s="348"/>
+      <c r="L101" s="348"/>
       <c r="M101" s="258"/>
       <c r="N101" s="259"/>
       <c r="O101" s="260"/>
@@ -13931,12 +13940,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -13945,22 +13964,12 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="80">
   <si>
     <t>การไฟฟ้าส่วนภูมิภาค</t>
   </si>
@@ -267,6 +267,9 @@
   <si>
     <t>ค่าอุปกรณ์ ค่าขนส่ง ค่าติดตั้งและทดสอบ</t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +279,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +332,12 @@
       <sz val="22"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -788,7 +797,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1630,16 +1639,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1661,15 +1712,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,34 +1735,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1741,17 +1762,8 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1773,1311 +1785,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="21678900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="21282660"/>
-          <a:ext cx="236220" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24170640" y="22029420"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24170640" y="22410420"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="113088420"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="112722660"/>
-          <a:ext cx="236220" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24170640" y="113827560"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="113469420"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24208740" y="116410740"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24208740" y="116776500"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21968460" y="112753140"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21983700" y="116410740"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21983700" y="116776500"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="113454180"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="113781840"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="113118900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21968460" y="3025140"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="3726180"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="4053840"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="3390900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21968460" y="21313140"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21983700" y="24970740"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21983700" y="25336500"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="22014180"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="22341840"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="21678900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21968460" y="3025140"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="3726180"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="4053840"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="3390900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3348,8 +2055,8 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -3543,25 +2250,25 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="326" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="359"/>
+      <c r="I7" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="328"/>
-      <c r="K7" s="326" t="s">
+      <c r="J7" s="359"/>
+      <c r="K7" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="328"/>
-      <c r="M7" s="326" t="s">
+      <c r="L7" s="359"/>
+      <c r="M7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="328"/>
+      <c r="N7" s="359"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -3655,7 +2362,9 @@
         <v>21</v>
       </c>
       <c r="O9" s="120"/>
-      <c r="P9" s="80"/>
+      <c r="P9" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q9" s="11" t="s">
         <v>22</v>
       </c>
@@ -3685,7 +2394,9 @@
       <c r="M10" s="324"/>
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
-      <c r="P10" s="80"/>
+      <c r="P10" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q10" s="11" t="s">
         <v>23</v>
       </c>
@@ -3720,7 +2431,9 @@
         <v>0</v>
       </c>
       <c r="O11" s="132"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3755,7 +2468,9 @@
         <v>0</v>
       </c>
       <c r="O12" s="134"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q12" s="4" t="s">
         <v>25</v>
       </c>
@@ -4880,10 +3595,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="167"/>
       <c r="F46" s="168"/>
-      <c r="G46" s="325" t="s">
+      <c r="G46" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="325"/>
+      <c r="H46" s="339"/>
       <c r="I46" s="169"/>
       <c r="J46" s="170"/>
       <c r="K46" s="171"/>
@@ -5006,30 +3721,30 @@
       <c r="V50" s="198"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="332"/>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="332"/>
-      <c r="K51" s="332"/>
-      <c r="L51" s="332"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="332"/>
-      <c r="O51" s="332"/>
-      <c r="P51" s="332"/>
-      <c r="Q51" s="332"/>
-      <c r="R51" s="332"/>
-      <c r="S51" s="332"/>
-      <c r="T51" s="332"/>
-      <c r="U51" s="332"/>
-      <c r="V51" s="333"/>
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="347"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="336" t="s">
@@ -5058,9 +3773,9 @@
       <c r="V52" s="338"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="339"/>
-      <c r="B53" s="340"/>
-      <c r="C53" s="340"/>
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="88"/>
       <c r="E53" s="88"/>
       <c r="F53" s="89"/>
@@ -5084,49 +3799,49 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="341"/>
-      <c r="B54" s="342"/>
-      <c r="C54" s="342"/>
-      <c r="D54" s="342"/>
-      <c r="E54" s="342"/>
-      <c r="F54" s="342"/>
-      <c r="G54" s="342"/>
-      <c r="H54" s="342"/>
-      <c r="I54" s="342"/>
-      <c r="J54" s="342"/>
-      <c r="K54" s="342"/>
-      <c r="L54" s="342"/>
-      <c r="M54" s="342"/>
-      <c r="N54" s="342"/>
-      <c r="O54" s="342"/>
-      <c r="P54" s="342"/>
-      <c r="Q54" s="342"/>
-      <c r="R54" s="342"/>
-      <c r="S54" s="342"/>
-      <c r="T54" s="342"/>
-      <c r="U54" s="342"/>
-      <c r="V54" s="343"/>
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="354"/>
     </row>
     <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="344"/>
-      <c r="B55" s="345"/>
-      <c r="C55" s="345"/>
-      <c r="D55" s="345"/>
-      <c r="E55" s="345"/>
-      <c r="F55" s="345"/>
-      <c r="G55" s="345"/>
-      <c r="H55" s="345"/>
-      <c r="I55" s="345"/>
-      <c r="J55" s="345"/>
-      <c r="K55" s="345"/>
-      <c r="L55" s="345"/>
-      <c r="M55" s="345"/>
-      <c r="N55" s="345"/>
-      <c r="O55" s="345"/>
-      <c r="P55" s="345"/>
-      <c r="Q55" s="345"/>
-      <c r="R55" s="345"/>
-      <c r="S55" s="345"/>
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="87" t="s">
         <v>68</v>
       </c>
@@ -5165,25 +3880,25 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="326" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
-      <c r="I57" s="326" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="328"/>
-      <c r="K57" s="326" t="s">
+      <c r="J57" s="359"/>
+      <c r="K57" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="328"/>
-      <c r="M57" s="326" t="s">
+      <c r="L57" s="359"/>
+      <c r="M57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="328"/>
+      <c r="N57" s="359"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -5277,7 +3992,9 @@
         <v>21</v>
       </c>
       <c r="O59" s="120"/>
-      <c r="P59" s="80"/>
+      <c r="P59" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q59" s="11" t="s">
         <v>22</v>
       </c>
@@ -5312,7 +4029,9 @@
         <v>0</v>
       </c>
       <c r="O60" s="134"/>
-      <c r="P60" s="80"/>
+      <c r="P60" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q60" s="11" t="s">
         <v>23</v>
       </c>
@@ -5347,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="O61" s="134"/>
-      <c r="P61" s="3"/>
+      <c r="P61" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q61" s="4" t="s">
         <v>24</v>
       </c>
@@ -5382,7 +4103,9 @@
         <v>0</v>
       </c>
       <c r="O62" s="134"/>
-      <c r="P62" s="3"/>
+      <c r="P62" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q62" s="4" t="s">
         <v>25</v>
       </c>
@@ -5423,9 +4146,9 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="334"/>
-      <c r="S63" s="334"/>
-      <c r="T63" s="334"/>
+      <c r="R63" s="348"/>
+      <c r="S63" s="348"/>
+      <c r="T63" s="348"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
@@ -5458,11 +4181,11 @@
       <c r="O64" s="134"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="335" t="s">
+      <c r="R64" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="335"/>
-      <c r="T64" s="335"/>
+      <c r="S64" s="349"/>
+      <c r="T64" s="349"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
@@ -5668,7 +4391,9 @@
         <v>0</v>
       </c>
       <c r="O70" s="134"/>
-      <c r="P70" s="3"/>
+      <c r="P70" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q70" s="4" t="s">
         <v>41</v>
       </c>
@@ -5703,7 +4428,9 @@
         <v>0</v>
       </c>
       <c r="O71" s="134"/>
-      <c r="P71" s="3"/>
+      <c r="P71" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q71" s="4" t="s">
         <v>42</v>
       </c>
@@ -6556,10 +5283,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="151"/>
-      <c r="B95" s="329" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="330"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="156"/>
@@ -6624,15 +5351,15 @@
         <v>0</v>
       </c>
       <c r="O96" s="160"/>
-      <c r="P96" s="350" t="s">
+      <c r="P96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="351"/>
-      <c r="R96" s="351"/>
-      <c r="S96" s="351"/>
-      <c r="T96" s="351"/>
-      <c r="U96" s="351"/>
-      <c r="V96" s="352"/>
+      <c r="Q96" s="334"/>
+      <c r="R96" s="334"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="335"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="336" t="s">
@@ -6643,10 +5370,10 @@
       <c r="D97" s="4"/>
       <c r="E97" s="167"/>
       <c r="F97" s="168"/>
-      <c r="G97" s="325" t="s">
+      <c r="G97" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="325"/>
+      <c r="H97" s="339"/>
       <c r="I97" s="169"/>
       <c r="J97" s="170"/>
       <c r="K97" s="171"/>
@@ -6668,9 +5395,9 @@
       <c r="V97" s="185"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="353"/>
-      <c r="B98" s="346"/>
-      <c r="C98" s="354"/>
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="180"/>
@@ -6697,20 +5424,20 @@
       <c r="W98" s="185"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="353" t="s">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="346"/>
-      <c r="C99" s="354"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="355" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="355"/>
-      <c r="G99" s="355"/>
-      <c r="H99" s="355"/>
-      <c r="I99" s="355"/>
-      <c r="J99" s="355"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
       <c r="K99" s="169"/>
       <c r="L99" s="182"/>
       <c r="M99" s="211"/>
@@ -6735,13 +5462,13 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="177"/>
-      <c r="F100" s="346" t="s">
+      <c r="F100" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="346"/>
-      <c r="H100" s="346"/>
-      <c r="I100" s="346"/>
-      <c r="J100" s="346"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
       <c r="K100" s="189"/>
       <c r="L100" s="190"/>
       <c r="M100" s="214"/>
@@ -6761,20 +5488,20 @@
       <c r="W100" s="149"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="347" t="s">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="348"/>
-      <c r="C101" s="349"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="348" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="348"/>
-      <c r="H101" s="348"/>
-      <c r="I101" s="348"/>
-      <c r="J101" s="348"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
       <c r="K101" s="193"/>
       <c r="L101" s="194"/>
       <c r="M101" s="218"/>
@@ -6790,15 +5517,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -6811,11 +5534,15 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
@@ -6823,7 +5550,6 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6834,8 +5560,8 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A59" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70:P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -6916,9 +5642,9 @@
       <c r="V2" s="277"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="339"/>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
+      <c r="A3" s="350"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="224"/>
       <c r="E3" s="224"/>
       <c r="F3" s="89"/>
@@ -7031,25 +5757,25 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="356" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="359"/>
+      <c r="I7" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="357"/>
-      <c r="K7" s="356" t="s">
+      <c r="J7" s="361"/>
+      <c r="K7" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="357"/>
-      <c r="M7" s="326" t="s">
+      <c r="L7" s="361"/>
+      <c r="M7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="328"/>
+      <c r="N7" s="359"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -7073,10 +5799,10 @@
       <c r="E8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="358" t="s">
+      <c r="F8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="359"/>
+      <c r="G8" s="363"/>
       <c r="H8" s="114" t="s">
         <v>16</v>
       </c>
@@ -7119,10 +5845,10 @@
       <c r="C9" s="121"/>
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
-      <c r="F9" s="360" t="s">
+      <c r="F9" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="361"/>
+      <c r="G9" s="365"/>
       <c r="H9" s="122" t="s">
         <v>21</v>
       </c>
@@ -7139,7 +5865,9 @@
         <v>21</v>
       </c>
       <c r="O9" s="120"/>
-      <c r="P9" s="80"/>
+      <c r="P9" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q9" s="11" t="s">
         <v>22</v>
       </c>
@@ -7172,7 +5900,9 @@
         <v>0</v>
       </c>
       <c r="O10" s="235"/>
-      <c r="P10" s="80"/>
+      <c r="P10" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q10" s="11" t="s">
         <v>23</v>
       </c>
@@ -7205,7 +5935,9 @@
         <v>0</v>
       </c>
       <c r="O11" s="240"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>24</v>
       </c>
@@ -7238,7 +5970,9 @@
         <v>0</v>
       </c>
       <c r="O12" s="242"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q12" s="4" t="s">
         <v>25</v>
       </c>
@@ -8299,10 +7033,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="167"/>
       <c r="F46" s="168"/>
-      <c r="G46" s="325" t="s">
+      <c r="G46" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="325"/>
+      <c r="H46" s="339"/>
       <c r="I46" s="169"/>
       <c r="J46" s="170"/>
       <c r="K46" s="171"/>
@@ -8426,30 +7160,30 @@
       <c r="V50" s="198"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="332"/>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="332"/>
-      <c r="K51" s="332"/>
-      <c r="L51" s="332"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="332"/>
-      <c r="O51" s="332"/>
-      <c r="P51" s="332"/>
-      <c r="Q51" s="332"/>
-      <c r="R51" s="332"/>
-      <c r="S51" s="332"/>
-      <c r="T51" s="332"/>
-      <c r="U51" s="332"/>
-      <c r="V51" s="333"/>
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="347"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="336" t="s">
@@ -8478,9 +7212,9 @@
       <c r="V52" s="338"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="339"/>
-      <c r="B53" s="340"/>
-      <c r="C53" s="340"/>
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="224"/>
       <c r="E53" s="224"/>
       <c r="F53" s="89"/>
@@ -8504,49 +7238,49 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="341"/>
-      <c r="B54" s="342"/>
-      <c r="C54" s="342"/>
-      <c r="D54" s="342"/>
-      <c r="E54" s="342"/>
-      <c r="F54" s="342"/>
-      <c r="G54" s="342"/>
-      <c r="H54" s="342"/>
-      <c r="I54" s="342"/>
-      <c r="J54" s="342"/>
-      <c r="K54" s="342"/>
-      <c r="L54" s="342"/>
-      <c r="M54" s="342"/>
-      <c r="N54" s="342"/>
-      <c r="O54" s="342"/>
-      <c r="P54" s="342"/>
-      <c r="Q54" s="342"/>
-      <c r="R54" s="342"/>
-      <c r="S54" s="342"/>
-      <c r="T54" s="342"/>
-      <c r="U54" s="342"/>
-      <c r="V54" s="343"/>
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="354"/>
     </row>
     <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="344"/>
-      <c r="B55" s="345"/>
-      <c r="C55" s="345"/>
-      <c r="D55" s="345"/>
-      <c r="E55" s="345"/>
-      <c r="F55" s="345"/>
-      <c r="G55" s="345"/>
-      <c r="H55" s="345"/>
-      <c r="I55" s="345"/>
-      <c r="J55" s="345"/>
-      <c r="K55" s="345"/>
-      <c r="L55" s="345"/>
-      <c r="M55" s="345"/>
-      <c r="N55" s="345"/>
-      <c r="O55" s="345"/>
-      <c r="P55" s="345"/>
-      <c r="Q55" s="345"/>
-      <c r="R55" s="345"/>
-      <c r="S55" s="345"/>
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="87" t="s">
         <v>3</v>
       </c>
@@ -8585,25 +7319,25 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="326" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
-      <c r="I57" s="356" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="357"/>
-      <c r="K57" s="356" t="s">
+      <c r="J57" s="361"/>
+      <c r="K57" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="357"/>
-      <c r="M57" s="326" t="s">
+      <c r="L57" s="361"/>
+      <c r="M57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="328"/>
+      <c r="N57" s="359"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -8627,10 +7361,10 @@
       <c r="E58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="358" t="s">
+      <c r="F58" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="359"/>
+      <c r="G58" s="363"/>
       <c r="H58" s="114" t="s">
         <v>16</v>
       </c>
@@ -8673,10 +7407,10 @@
       <c r="C59" s="121"/>
       <c r="D59" s="119"/>
       <c r="E59" s="119"/>
-      <c r="F59" s="360" t="s">
+      <c r="F59" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="361"/>
+      <c r="G59" s="365"/>
       <c r="H59" s="122" t="s">
         <v>21</v>
       </c>
@@ -8693,7 +7427,9 @@
         <v>21</v>
       </c>
       <c r="O59" s="120"/>
-      <c r="P59" s="80"/>
+      <c r="P59" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q59" s="11" t="s">
         <v>22</v>
       </c>
@@ -8726,7 +7462,9 @@
         <v>0</v>
       </c>
       <c r="O60" s="235"/>
-      <c r="P60" s="80"/>
+      <c r="P60" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q60" s="11" t="s">
         <v>23</v>
       </c>
@@ -8759,7 +7497,9 @@
         <v>0</v>
       </c>
       <c r="O61" s="242"/>
-      <c r="P61" s="3"/>
+      <c r="P61" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q61" s="4" t="s">
         <v>24</v>
       </c>
@@ -8792,7 +7532,9 @@
         <v>0</v>
       </c>
       <c r="O62" s="242"/>
-      <c r="P62" s="3"/>
+      <c r="P62" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q62" s="4" t="s">
         <v>25</v>
       </c>
@@ -8831,9 +7573,9 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="334"/>
-      <c r="S63" s="334"/>
-      <c r="T63" s="334"/>
+      <c r="R63" s="348"/>
+      <c r="S63" s="348"/>
+      <c r="T63" s="348"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
@@ -8864,12 +7606,12 @@
       <c r="O64" s="242"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="335" t="str">
+      <c r="R64" s="349" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="335"/>
-      <c r="T64" s="335"/>
+      <c r="S64" s="349"/>
+      <c r="T64" s="349"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
@@ -9063,7 +7805,9 @@
         <v>0</v>
       </c>
       <c r="O70" s="242"/>
-      <c r="P70" s="3"/>
+      <c r="P70" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q70" s="4" t="s">
         <v>41</v>
       </c>
@@ -9096,7 +7840,9 @@
         <v>0</v>
       </c>
       <c r="O71" s="242"/>
-      <c r="P71" s="3"/>
+      <c r="P71" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="Q71" s="4" t="s">
         <v>42</v>
       </c>
@@ -9904,10 +8650,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="151"/>
-      <c r="B95" s="329" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="330"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="156"/>
@@ -9972,15 +8718,15 @@
         <v>0</v>
       </c>
       <c r="O96" s="160"/>
-      <c r="P96" s="350" t="s">
+      <c r="P96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="351"/>
-      <c r="R96" s="351"/>
-      <c r="S96" s="351"/>
-      <c r="T96" s="351"/>
-      <c r="U96" s="351"/>
-      <c r="V96" s="352"/>
+      <c r="Q96" s="334"/>
+      <c r="R96" s="334"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="335"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="336" t="s">
@@ -9991,10 +8737,10 @@
       <c r="D97" s="4"/>
       <c r="E97" s="167"/>
       <c r="F97" s="168"/>
-      <c r="G97" s="325" t="s">
+      <c r="G97" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="325"/>
+      <c r="H97" s="339"/>
       <c r="I97" s="180"/>
       <c r="J97" s="170"/>
       <c r="K97" s="170"/>
@@ -10016,9 +8762,9 @@
       <c r="V97" s="185"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="353"/>
-      <c r="B98" s="346"/>
-      <c r="C98" s="354"/>
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="180"/>
@@ -10044,20 +8790,20 @@
       <c r="V98" s="185"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="353" t="s">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="346"/>
-      <c r="C99" s="354"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="355" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="355"/>
-      <c r="G99" s="355"/>
-      <c r="H99" s="355"/>
-      <c r="I99" s="355"/>
-      <c r="J99" s="355"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
       <c r="K99" s="181"/>
       <c r="L99" s="250"/>
       <c r="M99" s="251"/>
@@ -10074,19 +8820,19 @@
       <c r="V99" s="185"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="353"/>
-      <c r="B100" s="346"/>
-      <c r="C100" s="354"/>
+      <c r="A100" s="340"/>
+      <c r="B100" s="329"/>
+      <c r="C100" s="341"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="346" t="str">
+      <c r="E100" s="329" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="F100" s="346"/>
-      <c r="G100" s="346"/>
-      <c r="H100" s="346"/>
-      <c r="I100" s="346"/>
-      <c r="J100" s="346"/>
+      <c r="F100" s="329"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
       <c r="K100" s="254"/>
       <c r="L100" s="255"/>
       <c r="M100" s="256"/>
@@ -10105,20 +8851,20 @@
       <c r="V100" s="217"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="347" t="s">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="348"/>
-      <c r="C101" s="349"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="348" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="348"/>
-      <c r="H101" s="348"/>
-      <c r="I101" s="348"/>
-      <c r="J101" s="348"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
       <c r="K101" s="258"/>
       <c r="L101" s="259"/>
       <c r="M101" s="260"/>
@@ -10152,22 +8898,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="A55:S55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
     <mergeCell ref="R64:T64"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
@@ -10184,13 +8914,28 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="R63:T63"/>
     <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10199,7 +8944,7 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H44"/>
+      <selection activeCell="R9" sqref="R9:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -10286,9 +9031,9 @@
       <c r="X2" s="277"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="339"/>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
+      <c r="A3" s="350"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="224"/>
       <c r="E3" s="224"/>
       <c r="F3" s="224"/>
@@ -10409,27 +9154,27 @@
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="356" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="358"/>
+      <c r="I7" s="358"/>
+      <c r="J7" s="359"/>
+      <c r="K7" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="357"/>
-      <c r="M7" s="356" t="s">
+      <c r="L7" s="361"/>
+      <c r="M7" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="357"/>
-      <c r="O7" s="326" t="s">
+      <c r="N7" s="361"/>
+      <c r="O7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="328"/>
+      <c r="P7" s="359"/>
       <c r="Q7" s="109"/>
       <c r="R7" s="107"/>
       <c r="S7" s="109"/>
@@ -10459,10 +9204,10 @@
       <c r="G8" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="358" t="s">
+      <c r="H8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="359"/>
+      <c r="I8" s="363"/>
       <c r="J8" s="114" t="s">
         <v>16</v>
       </c>
@@ -10511,10 +9256,10 @@
       <c r="G9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="360" t="s">
+      <c r="H9" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="361"/>
+      <c r="I9" s="365"/>
       <c r="J9" s="122" t="s">
         <v>21</v>
       </c>
@@ -10531,7 +9276,9 @@
         <v>21</v>
       </c>
       <c r="Q9" s="120"/>
-      <c r="R9" s="80"/>
+      <c r="R9" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S9" s="11" t="s">
         <v>22</v>
       </c>
@@ -10549,7 +9296,7 @@
       <c r="E10" s="58"/>
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
-      <c r="H10" s="362"/>
+      <c r="H10" s="325"/>
       <c r="I10" s="232"/>
       <c r="J10" s="233"/>
       <c r="K10" s="234"/>
@@ -10569,7 +9316,9 @@
         <v>0</v>
       </c>
       <c r="Q10" s="235"/>
-      <c r="R10" s="80"/>
+      <c r="R10" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S10" s="11" t="s">
         <v>23</v>
       </c>
@@ -10587,7 +9336,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="363"/>
+      <c r="H11" s="326"/>
       <c r="I11" s="202"/>
       <c r="J11" s="237"/>
       <c r="K11" s="238"/>
@@ -10607,7 +9356,9 @@
         <v>0</v>
       </c>
       <c r="Q11" s="240"/>
-      <c r="R11" s="3"/>
+      <c r="R11" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S11" s="4" t="s">
         <v>24</v>
       </c>
@@ -10625,7 +9376,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="363"/>
+      <c r="H12" s="326"/>
       <c r="I12" s="202"/>
       <c r="J12" s="241"/>
       <c r="K12" s="238"/>
@@ -10645,7 +9396,9 @@
         <v>0</v>
       </c>
       <c r="Q12" s="242"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S12" s="4" t="s">
         <v>25</v>
       </c>
@@ -10665,7 +9418,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="363"/>
+      <c r="H13" s="326"/>
       <c r="I13" s="202"/>
       <c r="J13" s="241"/>
       <c r="K13" s="238"/>
@@ -10705,7 +9458,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="363"/>
+      <c r="H14" s="326"/>
       <c r="I14" s="202"/>
       <c r="J14" s="241"/>
       <c r="K14" s="238"/>
@@ -10745,7 +9498,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="363"/>
+      <c r="H15" s="326"/>
       <c r="I15" s="202"/>
       <c r="J15" s="241"/>
       <c r="K15" s="238"/>
@@ -10783,7 +9536,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="363"/>
+      <c r="H16" s="326"/>
       <c r="I16" s="202"/>
       <c r="J16" s="52"/>
       <c r="K16" s="59"/>
@@ -10819,7 +9572,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="363"/>
+      <c r="H17" s="326"/>
       <c r="I17" s="202"/>
       <c r="J17" s="241"/>
       <c r="K17" s="59"/>
@@ -10855,7 +9608,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="363"/>
+      <c r="H18" s="326"/>
       <c r="I18" s="202"/>
       <c r="J18" s="52"/>
       <c r="K18" s="59"/>
@@ -10891,7 +9644,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="363"/>
+      <c r="H19" s="326"/>
       <c r="I19" s="202"/>
       <c r="J19" s="241"/>
       <c r="K19" s="238"/>
@@ -10927,7 +9680,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="363"/>
+      <c r="H20" s="326"/>
       <c r="I20" s="202"/>
       <c r="J20" s="241"/>
       <c r="K20" s="238"/>
@@ -10963,7 +9716,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="363"/>
+      <c r="H21" s="326"/>
       <c r="I21" s="202"/>
       <c r="J21" s="52"/>
       <c r="K21" s="59"/>
@@ -10999,7 +9752,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="363"/>
+      <c r="H22" s="326"/>
       <c r="I22" s="202"/>
       <c r="J22" s="241"/>
       <c r="K22" s="59"/>
@@ -11035,7 +9788,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="363"/>
+      <c r="H23" s="326"/>
       <c r="I23" s="202"/>
       <c r="J23" s="241"/>
       <c r="K23" s="238"/>
@@ -11071,7 +9824,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="363"/>
+      <c r="H24" s="326"/>
       <c r="I24" s="202"/>
       <c r="J24" s="241"/>
       <c r="K24" s="238"/>
@@ -11107,7 +9860,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="363"/>
+      <c r="H25" s="326"/>
       <c r="I25" s="202"/>
       <c r="J25" s="241"/>
       <c r="K25" s="238"/>
@@ -11143,7 +9896,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="363"/>
+      <c r="H26" s="326"/>
       <c r="I26" s="202"/>
       <c r="J26" s="52"/>
       <c r="K26" s="59"/>
@@ -11179,7 +9932,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="363"/>
+      <c r="H27" s="326"/>
       <c r="I27" s="202"/>
       <c r="J27" s="241"/>
       <c r="K27" s="239"/>
@@ -11215,7 +9968,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="363"/>
+      <c r="H28" s="326"/>
       <c r="I28" s="202"/>
       <c r="J28" s="241"/>
       <c r="K28" s="238"/>
@@ -11251,7 +10004,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="363"/>
+      <c r="H29" s="326"/>
       <c r="I29" s="202"/>
       <c r="J29" s="241"/>
       <c r="K29" s="238"/>
@@ -11287,7 +10040,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="363"/>
+      <c r="H30" s="326"/>
       <c r="I30" s="202"/>
       <c r="J30" s="241"/>
       <c r="K30" s="238"/>
@@ -11323,7 +10076,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="363"/>
+      <c r="H31" s="326"/>
       <c r="I31" s="202"/>
       <c r="J31" s="52"/>
       <c r="K31" s="59"/>
@@ -11359,7 +10112,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="363"/>
+      <c r="H32" s="326"/>
       <c r="I32" s="202"/>
       <c r="J32" s="241"/>
       <c r="K32" s="59"/>
@@ -11395,7 +10148,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="363"/>
+      <c r="H33" s="326"/>
       <c r="I33" s="202"/>
       <c r="J33" s="241"/>
       <c r="K33" s="238"/>
@@ -11431,7 +10184,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="363"/>
+      <c r="H34" s="326"/>
       <c r="I34" s="202"/>
       <c r="J34" s="241"/>
       <c r="K34" s="238"/>
@@ -11467,7 +10220,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="70"/>
       <c r="G35" s="70"/>
-      <c r="H35" s="363"/>
+      <c r="H35" s="326"/>
       <c r="I35" s="202"/>
       <c r="J35" s="52"/>
       <c r="K35" s="67"/>
@@ -11503,7 +10256,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="363"/>
+      <c r="H36" s="326"/>
       <c r="I36" s="202"/>
       <c r="J36" s="241"/>
       <c r="K36" s="59"/>
@@ -11539,7 +10292,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="363"/>
+      <c r="H37" s="326"/>
       <c r="I37" s="202"/>
       <c r="J37" s="241"/>
       <c r="K37" s="238"/>
@@ -11575,7 +10328,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
-      <c r="H38" s="363"/>
+      <c r="H38" s="326"/>
       <c r="I38" s="202"/>
       <c r="J38" s="52"/>
       <c r="K38" s="238"/>
@@ -11611,7 +10364,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="363"/>
+      <c r="H39" s="326"/>
       <c r="I39" s="202"/>
       <c r="J39" s="52"/>
       <c r="K39" s="238"/>
@@ -11647,7 +10400,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="363"/>
+      <c r="H40" s="326"/>
       <c r="I40" s="202"/>
       <c r="J40" s="52"/>
       <c r="K40" s="238"/>
@@ -11683,7 +10436,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="363"/>
+      <c r="H41" s="326"/>
       <c r="I41" s="202"/>
       <c r="J41" s="52"/>
       <c r="K41" s="238"/>
@@ -11719,7 +10472,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="363"/>
+      <c r="H42" s="326"/>
       <c r="I42" s="202"/>
       <c r="J42" s="52"/>
       <c r="K42" s="238"/>
@@ -11755,7 +10508,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="363"/>
+      <c r="H43" s="326"/>
       <c r="I43" s="202"/>
       <c r="J43" s="52"/>
       <c r="K43" s="238"/>
@@ -11791,7 +10544,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
-      <c r="H44" s="365"/>
+      <c r="H44" s="328"/>
       <c r="I44" s="244"/>
       <c r="J44" s="21"/>
       <c r="K44" s="130"/>
@@ -12002,32 +10755,32 @@
       <c r="X50" s="198"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="332"/>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="332"/>
-      <c r="K51" s="332"/>
-      <c r="L51" s="332"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="332"/>
-      <c r="O51" s="332"/>
-      <c r="P51" s="332"/>
-      <c r="Q51" s="332"/>
-      <c r="R51" s="332"/>
-      <c r="S51" s="332"/>
-      <c r="T51" s="332"/>
-      <c r="U51" s="332"/>
-      <c r="V51" s="332"/>
-      <c r="W51" s="332"/>
-      <c r="X51" s="333"/>
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="346"/>
+      <c r="W51" s="346"/>
+      <c r="X51" s="347"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="336" t="s">
@@ -12058,9 +10811,9 @@
       <c r="X52" s="338"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="339"/>
-      <c r="B53" s="340"/>
-      <c r="C53" s="340"/>
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="224"/>
       <c r="E53" s="224"/>
       <c r="F53" s="224"/>
@@ -12086,52 +10839,52 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="341"/>
-      <c r="B54" s="342"/>
-      <c r="C54" s="342"/>
-      <c r="D54" s="342"/>
-      <c r="E54" s="342"/>
-      <c r="F54" s="342"/>
-      <c r="G54" s="342"/>
-      <c r="H54" s="342"/>
-      <c r="I54" s="342"/>
-      <c r="J54" s="342"/>
-      <c r="K54" s="342"/>
-      <c r="L54" s="342"/>
-      <c r="M54" s="342"/>
-      <c r="N54" s="342"/>
-      <c r="O54" s="342"/>
-      <c r="P54" s="342"/>
-      <c r="Q54" s="342"/>
-      <c r="R54" s="342"/>
-      <c r="S54" s="342"/>
-      <c r="T54" s="342"/>
-      <c r="U54" s="342"/>
-      <c r="V54" s="342"/>
-      <c r="W54" s="342"/>
-      <c r="X54" s="343"/>
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="353"/>
+      <c r="W54" s="353"/>
+      <c r="X54" s="354"/>
     </row>
     <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="344"/>
-      <c r="B55" s="345"/>
-      <c r="C55" s="345"/>
-      <c r="D55" s="345"/>
-      <c r="E55" s="345"/>
-      <c r="F55" s="345"/>
-      <c r="G55" s="345"/>
-      <c r="H55" s="345"/>
-      <c r="I55" s="345"/>
-      <c r="J55" s="345"/>
-      <c r="K55" s="345"/>
-      <c r="L55" s="345"/>
-      <c r="M55" s="345"/>
-      <c r="N55" s="345"/>
-      <c r="O55" s="345"/>
-      <c r="P55" s="345"/>
-      <c r="Q55" s="345"/>
-      <c r="R55" s="345"/>
-      <c r="S55" s="345"/>
-      <c r="T55" s="345"/>
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
+      <c r="T55" s="356"/>
       <c r="U55" s="314" t="s">
         <v>78</v>
       </c>
@@ -12173,27 +10926,27 @@
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="326" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="327"/>
-      <c r="I57" s="327"/>
-      <c r="J57" s="328"/>
-      <c r="K57" s="356" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="358"/>
+      <c r="I57" s="358"/>
+      <c r="J57" s="359"/>
+      <c r="K57" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="357"/>
-      <c r="M57" s="356" t="s">
+      <c r="L57" s="361"/>
+      <c r="M57" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="357"/>
-      <c r="O57" s="326" t="s">
+      <c r="N57" s="361"/>
+      <c r="O57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="328"/>
+      <c r="P57" s="359"/>
       <c r="Q57" s="109"/>
       <c r="R57" s="107"/>
       <c r="S57" s="109"/>
@@ -12223,10 +10976,10 @@
       <c r="G58" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="358" t="s">
+      <c r="H58" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="359"/>
+      <c r="I58" s="363"/>
       <c r="J58" s="114" t="s">
         <v>16</v>
       </c>
@@ -12275,10 +11028,10 @@
       <c r="G59" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="360" t="s">
+      <c r="H59" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="361"/>
+      <c r="I59" s="365"/>
       <c r="J59" s="122" t="s">
         <v>21</v>
       </c>
@@ -12295,7 +11048,9 @@
         <v>21</v>
       </c>
       <c r="Q59" s="120"/>
-      <c r="R59" s="80"/>
+      <c r="R59" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S59" s="11" t="s">
         <v>22</v>
       </c>
@@ -12313,7 +11068,7 @@
       <c r="E60" s="33"/>
       <c r="F60" s="84"/>
       <c r="G60" s="75"/>
-      <c r="H60" s="362"/>
+      <c r="H60" s="325"/>
       <c r="I60" s="232"/>
       <c r="J60" s="233"/>
       <c r="K60" s="238"/>
@@ -12333,7 +11088,9 @@
         <v>0</v>
       </c>
       <c r="Q60" s="235"/>
-      <c r="R60" s="80"/>
+      <c r="R60" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S60" s="11" t="s">
         <v>23</v>
       </c>
@@ -12351,7 +11108,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="363"/>
+      <c r="H61" s="326"/>
       <c r="I61" s="202"/>
       <c r="J61" s="52"/>
       <c r="K61" s="238"/>
@@ -12371,7 +11128,9 @@
         <v>0</v>
       </c>
       <c r="Q61" s="242"/>
-      <c r="R61" s="3"/>
+      <c r="R61" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S61" s="4" t="s">
         <v>24</v>
       </c>
@@ -12389,7 +11148,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
-      <c r="H62" s="363"/>
+      <c r="H62" s="326"/>
       <c r="I62" s="202"/>
       <c r="J62" s="241"/>
       <c r="K62" s="238"/>
@@ -12409,7 +11168,9 @@
         <v>0</v>
       </c>
       <c r="Q62" s="242"/>
-      <c r="R62" s="3"/>
+      <c r="R62" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S62" s="4" t="s">
         <v>25</v>
       </c>
@@ -12429,7 +11190,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
-      <c r="H63" s="363"/>
+      <c r="H63" s="326"/>
       <c r="I63" s="202"/>
       <c r="J63" s="241"/>
       <c r="K63" s="238"/>
@@ -12453,9 +11214,9 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="334"/>
-      <c r="U63" s="334"/>
-      <c r="V63" s="334"/>
+      <c r="T63" s="348"/>
+      <c r="U63" s="348"/>
+      <c r="V63" s="348"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
@@ -12469,7 +11230,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
-      <c r="H64" s="363"/>
+      <c r="H64" s="326"/>
       <c r="I64" s="202"/>
       <c r="J64" s="52"/>
       <c r="K64" s="238"/>
@@ -12491,12 +11252,12 @@
       <c r="Q64" s="242"/>
       <c r="R64" s="83"/>
       <c r="S64" s="47"/>
-      <c r="T64" s="335" t="str">
+      <c r="T64" s="349" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="335"/>
-      <c r="V64" s="335"/>
+      <c r="U64" s="349"/>
+      <c r="V64" s="349"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
@@ -12510,7 +11271,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
-      <c r="H65" s="363"/>
+      <c r="H65" s="326"/>
       <c r="I65" s="202"/>
       <c r="J65" s="52"/>
       <c r="K65" s="238"/>
@@ -12548,7 +11309,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="363"/>
+      <c r="H66" s="326"/>
       <c r="I66" s="202"/>
       <c r="J66" s="52"/>
       <c r="K66" s="238"/>
@@ -12584,7 +11345,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="363"/>
+      <c r="H67" s="326"/>
       <c r="I67" s="202"/>
       <c r="J67" s="237"/>
       <c r="K67" s="238"/>
@@ -12622,7 +11383,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
-      <c r="H68" s="363"/>
+      <c r="H68" s="326"/>
       <c r="I68" s="202"/>
       <c r="J68" s="52"/>
       <c r="K68" s="238"/>
@@ -12660,7 +11421,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
-      <c r="H69" s="363"/>
+      <c r="H69" s="326"/>
       <c r="I69" s="202"/>
       <c r="J69" s="237"/>
       <c r="K69" s="238"/>
@@ -12700,7 +11461,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
-      <c r="H70" s="363"/>
+      <c r="H70" s="326"/>
       <c r="I70" s="202"/>
       <c r="J70" s="52"/>
       <c r="K70" s="238"/>
@@ -12720,7 +11481,9 @@
         <v>0</v>
       </c>
       <c r="Q70" s="242"/>
-      <c r="R70" s="3"/>
+      <c r="R70" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S70" s="4" t="s">
         <v>41</v>
       </c>
@@ -12738,7 +11501,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
-      <c r="H71" s="363"/>
+      <c r="H71" s="326"/>
       <c r="I71" s="202"/>
       <c r="J71" s="52"/>
       <c r="K71" s="238"/>
@@ -12758,7 +11521,9 @@
         <v>0</v>
       </c>
       <c r="Q71" s="242"/>
-      <c r="R71" s="3"/>
+      <c r="R71" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S71" s="4" t="s">
         <v>42</v>
       </c>
@@ -12776,7 +11541,7 @@
       <c r="E72" s="72"/>
       <c r="F72" s="76"/>
       <c r="G72" s="76"/>
-      <c r="H72" s="363"/>
+      <c r="H72" s="326"/>
       <c r="I72" s="202"/>
       <c r="J72" s="236"/>
       <c r="K72" s="238"/>
@@ -12814,7 +11579,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
-      <c r="H73" s="363"/>
+      <c r="H73" s="326"/>
       <c r="I73" s="202"/>
       <c r="J73" s="241"/>
       <c r="K73" s="238"/>
@@ -12852,7 +11617,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
-      <c r="H74" s="363"/>
+      <c r="H74" s="326"/>
       <c r="I74" s="202"/>
       <c r="J74" s="241"/>
       <c r="K74" s="238"/>
@@ -12895,7 +11660,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
-      <c r="H75" s="363"/>
+      <c r="H75" s="326"/>
       <c r="I75" s="202"/>
       <c r="J75" s="52"/>
       <c r="K75" s="238"/>
@@ -12938,7 +11703,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="363"/>
+      <c r="H76" s="326"/>
       <c r="I76" s="202"/>
       <c r="J76" s="236"/>
       <c r="K76" s="238"/>
@@ -12980,7 +11745,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
-      <c r="H77" s="363"/>
+      <c r="H77" s="326"/>
       <c r="I77" s="202"/>
       <c r="J77" s="236"/>
       <c r="K77" s="238"/>
@@ -13023,7 +11788,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="363"/>
+      <c r="H78" s="326"/>
       <c r="I78" s="202"/>
       <c r="J78" s="236"/>
       <c r="K78" s="238"/>
@@ -13066,7 +11831,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
-      <c r="H79" s="363"/>
+      <c r="H79" s="326"/>
       <c r="I79" s="202"/>
       <c r="J79" s="236"/>
       <c r="K79" s="238"/>
@@ -13109,7 +11874,7 @@
       <c r="E80" s="26"/>
       <c r="F80" s="9"/>
       <c r="G80" s="77"/>
-      <c r="H80" s="363"/>
+      <c r="H80" s="326"/>
       <c r="I80" s="202"/>
       <c r="J80" s="53"/>
       <c r="K80" s="52"/>
@@ -13153,7 +11918,7 @@
       <c r="E81" s="26"/>
       <c r="F81" s="9"/>
       <c r="G81" s="77"/>
-      <c r="H81" s="363"/>
+      <c r="H81" s="326"/>
       <c r="I81" s="202"/>
       <c r="J81" s="52"/>
       <c r="K81" s="52"/>
@@ -13195,7 +11960,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
-      <c r="H82" s="363"/>
+      <c r="H82" s="326"/>
       <c r="I82" s="202"/>
       <c r="J82" s="52"/>
       <c r="K82" s="52"/>
@@ -13237,7 +12002,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
-      <c r="H83" s="363"/>
+      <c r="H83" s="326"/>
       <c r="I83" s="202"/>
       <c r="J83" s="52"/>
       <c r="K83" s="52"/>
@@ -13279,7 +12044,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
-      <c r="H84" s="363"/>
+      <c r="H84" s="326"/>
       <c r="I84" s="202"/>
       <c r="J84" s="52"/>
       <c r="K84" s="52"/>
@@ -13322,7 +12087,7 @@
       <c r="E85" s="13"/>
       <c r="F85" s="78"/>
       <c r="G85" s="78"/>
-      <c r="H85" s="363"/>
+      <c r="H85" s="326"/>
       <c r="I85" s="202"/>
       <c r="J85" s="52"/>
       <c r="K85" s="52"/>
@@ -13361,7 +12126,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
-      <c r="H86" s="363"/>
+      <c r="H86" s="326"/>
       <c r="I86" s="202"/>
       <c r="J86" s="52"/>
       <c r="K86" s="52"/>
@@ -13397,7 +12162,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
-      <c r="H87" s="363"/>
+      <c r="H87" s="326"/>
       <c r="I87" s="202"/>
       <c r="J87" s="52"/>
       <c r="K87" s="52"/>
@@ -13433,7 +12198,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
-      <c r="H88" s="363"/>
+      <c r="H88" s="326"/>
       <c r="I88" s="202"/>
       <c r="J88" s="52"/>
       <c r="K88" s="52"/>
@@ -13469,7 +12234,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
-      <c r="H89" s="363"/>
+      <c r="H89" s="326"/>
       <c r="I89" s="202"/>
       <c r="J89" s="52"/>
       <c r="K89" s="52"/>
@@ -13505,7 +12270,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
-      <c r="H90" s="363"/>
+      <c r="H90" s="326"/>
       <c r="I90" s="202"/>
       <c r="J90" s="52"/>
       <c r="K90" s="52"/>
@@ -13541,7 +12306,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
-      <c r="H91" s="363"/>
+      <c r="H91" s="326"/>
       <c r="I91" s="202"/>
       <c r="J91" s="52"/>
       <c r="K91" s="52"/>
@@ -13577,7 +12342,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
-      <c r="H92" s="363"/>
+      <c r="H92" s="326"/>
       <c r="I92" s="202"/>
       <c r="J92" s="52"/>
       <c r="K92" s="52"/>
@@ -13613,7 +12378,7 @@
       <c r="E93" s="13"/>
       <c r="F93" s="78"/>
       <c r="G93" s="78"/>
-      <c r="H93" s="363"/>
+      <c r="H93" s="326"/>
       <c r="I93" s="202"/>
       <c r="J93" s="52"/>
       <c r="K93" s="52"/>
@@ -13649,7 +12414,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="74"/>
       <c r="G94" s="74"/>
-      <c r="H94" s="364"/>
+      <c r="H94" s="327"/>
       <c r="I94" s="248"/>
       <c r="J94" s="52"/>
       <c r="K94" s="52"/>
@@ -13679,10 +12444,10 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="151"/>
-      <c r="B95" s="329" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="330"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="155"/>
@@ -13751,15 +12516,15 @@
         <v>0</v>
       </c>
       <c r="Q96" s="160"/>
-      <c r="R96" s="350" t="s">
+      <c r="R96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="351"/>
-      <c r="T96" s="351"/>
-      <c r="U96" s="351"/>
-      <c r="V96" s="351"/>
-      <c r="W96" s="351"/>
-      <c r="X96" s="352"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="334"/>
+      <c r="W96" s="334"/>
+      <c r="X96" s="335"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="336" t="s">
@@ -13796,9 +12561,9 @@
       <c r="X97" s="185"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="353"/>
-      <c r="B98" s="346"/>
-      <c r="C98" s="354"/>
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="179"/>
@@ -13826,22 +12591,22 @@
       <c r="X98" s="185"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="353" t="s">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="346"/>
-      <c r="C99" s="354"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="355" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="355"/>
-      <c r="G99" s="355"/>
-      <c r="H99" s="355"/>
-      <c r="I99" s="355"/>
-      <c r="J99" s="355"/>
-      <c r="K99" s="355"/>
-      <c r="L99" s="355"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
+      <c r="K99" s="342"/>
+      <c r="L99" s="342"/>
       <c r="M99" s="181"/>
       <c r="N99" s="250"/>
       <c r="O99" s="251"/>
@@ -13858,21 +12623,21 @@
       <c r="X99" s="185"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="353"/>
-      <c r="B100" s="346"/>
-      <c r="C100" s="354"/>
+      <c r="A100" s="340"/>
+      <c r="B100" s="329"/>
+      <c r="C100" s="341"/>
       <c r="D100" s="4"/>
       <c r="E100" s="177"/>
-      <c r="F100" s="346" t="str">
+      <c r="F100" s="329" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="346"/>
-      <c r="H100" s="346"/>
-      <c r="I100" s="346"/>
-      <c r="J100" s="346"/>
-      <c r="K100" s="346"/>
-      <c r="L100" s="346"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
+      <c r="K100" s="329"/>
+      <c r="L100" s="329"/>
       <c r="M100" s="254"/>
       <c r="N100" s="255"/>
       <c r="O100" s="256"/>
@@ -13891,22 +12656,22 @@
       <c r="X100" s="217"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="347" t="s">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="348"/>
-      <c r="C101" s="349"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="348" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="348"/>
-      <c r="H101" s="348"/>
-      <c r="I101" s="348"/>
-      <c r="J101" s="348"/>
-      <c r="K101" s="348"/>
-      <c r="L101" s="348"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
+      <c r="K101" s="331"/>
+      <c r="L101" s="331"/>
       <c r="M101" s="258"/>
       <c r="N101" s="259"/>
       <c r="O101" s="260"/>
@@ -13940,22 +12705,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -13964,18 +12719,27 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pea_jk\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ค่าอุปกรณ์ และขนส่ง'!$A$1:$V$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="80">
   <si>
     <t>การไฟฟ้าส่วนภูมิภาค</t>
   </si>
@@ -267,16 +262,19 @@
   <si>
     <t>ค่าอุปกรณ์ ค่าขนส่ง ค่าติดตั้งและทดสอบ</t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +328,19 @@
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -351,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -779,16 +790,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,11 +858,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,13 +878,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,13 +947,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -944,10 +964,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -968,7 +988,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,16 +1046,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,19 +1069,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1090,19 +1110,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,39 +1137,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1164,7 +1184,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1181,8 +1201,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1191,19 +1211,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1215,21 +1235,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1237,47 +1257,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1287,38 +1307,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,134 +1347,134 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1463,34 +1483,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1578,7 +1598,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1611,7 +1631,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1630,22 +1650,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1661,15 +1723,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1693,65 +1746,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1777,1134 +1803,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="21678900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="21282660"/>
-          <a:ext cx="236220" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24170640" y="22029420"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24170640" y="22410420"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="113088420"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="112722660"/>
-          <a:ext cx="236220" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24170640" y="113827560"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24155400" y="113469420"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24208740" y="116410740"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24208740" y="116776500"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21968460" y="112753140"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21983700" y="116410740"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21983700" y="116776500"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="113454180"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="113781840"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="113118900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21968460" y="3025140"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="3726180"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="4053840"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="3390900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21968460" y="21313140"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21983700" y="24970740"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21983700" y="25336500"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="22014180"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="22341840"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21960840" y="21678900"/>
-          <a:ext cx="236220" cy="198120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -3123,7 +2021,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3158,7 +2056,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3335,7 +2233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3348,36 +2246,36 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="11" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
-    <col min="3" max="3" width="122.6640625" style="85" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" style="85" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="220" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="220" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="220" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="221" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="220" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="222" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
+    <col min="3" max="3" width="122.7109375" style="85" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="220" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="220" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="220" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="221" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="220" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="222" customWidth="1"/>
     <col min="12" max="12" width="28" style="85" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="223" customWidth="1"/>
-    <col min="14" max="14" width="21.44140625" style="85" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="85" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="85"/>
-    <col min="18" max="18" width="9.6640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="85" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="85" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="223" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="85" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="85" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="85"/>
+    <col min="18" max="18" width="9.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="85" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="85" customWidth="1"/>
     <col min="21" max="21" width="11" style="85" customWidth="1"/>
-    <col min="22" max="22" width="44.44140625" style="85" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="85"/>
+    <col min="22" max="22" width="44.42578125" style="85" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A1" s="275" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +2301,7 @@
       <c r="U1" s="167"/>
       <c r="V1" s="276"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A2" s="164" t="s">
         <v>1</v>
       </c>
@@ -3429,7 +2327,7 @@
       <c r="U2" s="165"/>
       <c r="V2" s="277"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A3" s="86"/>
       <c r="B3" s="87"/>
       <c r="C3" s="87"/>
@@ -3455,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A4" s="278" t="s">
         <v>65</v>
       </c>
@@ -3481,7 +2379,7 @@
       <c r="U4" s="279"/>
       <c r="V4" s="280"/>
     </row>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="281" t="s">
         <v>71</v>
       </c>
@@ -3511,7 +2409,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -3539,29 +2437,29 @@
       <c r="U6" s="101"/>
       <c r="V6" s="104"/>
     </row>
-    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="326" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="359"/>
+      <c r="I7" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="328"/>
-      <c r="K7" s="326" t="s">
+      <c r="J7" s="359"/>
+      <c r="K7" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="328"/>
-      <c r="M7" s="326" t="s">
+      <c r="L7" s="359"/>
+      <c r="M7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="328"/>
+      <c r="N7" s="359"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -3571,7 +2469,7 @@
       <c r="U7" s="109"/>
       <c r="V7" s="108"/>
     </row>
-    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -3627,7 +2525,7 @@
       <c r="U8" s="79"/>
       <c r="V8" s="118"/>
     </row>
-    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
@@ -3655,7 +2553,9 @@
         <v>21</v>
       </c>
       <c r="O9" s="120"/>
-      <c r="P9" s="80"/>
+      <c r="P9" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q9" s="11" t="s">
         <v>22</v>
       </c>
@@ -3665,7 +2565,7 @@
       <c r="U9" s="79"/>
       <c r="V9" s="118"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="286"/>
       <c r="C10" s="287"/>
@@ -3685,7 +2585,9 @@
       <c r="M10" s="324"/>
       <c r="N10" s="128"/>
       <c r="O10" s="129"/>
-      <c r="P10" s="80"/>
+      <c r="P10" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q10" s="11" t="s">
         <v>23</v>
       </c>
@@ -3695,7 +2597,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="118"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="286"/>
       <c r="C11" s="288"/>
@@ -3720,7 +2622,9 @@
         <v>0</v>
       </c>
       <c r="O11" s="132"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3730,7 +2634,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="133"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="286"/>
       <c r="C12" s="288"/>
@@ -3755,7 +2659,9 @@
         <v>0</v>
       </c>
       <c r="O12" s="134"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q12" s="4" t="s">
         <v>25</v>
       </c>
@@ -3767,7 +2673,7 @@
       </c>
       <c r="V12" s="133"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="286"/>
       <c r="C13" s="288"/>
@@ -3804,7 +2710,7 @@
       </c>
       <c r="V13" s="133"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="289"/>
       <c r="C14" s="290"/>
@@ -3841,7 +2747,7 @@
       </c>
       <c r="V14" s="118"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="289"/>
       <c r="C15" s="290"/>
@@ -3876,7 +2782,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="137"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A16" s="1"/>
       <c r="B16" s="289"/>
       <c r="C16" s="290"/>
@@ -3909,7 +2815,7 @@
       <c r="U16" s="139"/>
       <c r="V16" s="141"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A17" s="17"/>
       <c r="B17" s="291"/>
       <c r="C17" s="290"/>
@@ -3942,7 +2848,7 @@
       <c r="U17" s="143"/>
       <c r="V17" s="144"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A18" s="1"/>
       <c r="B18" s="289"/>
       <c r="C18" s="292"/>
@@ -3975,7 +2881,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="133"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A19" s="1"/>
       <c r="B19" s="291"/>
       <c r="C19" s="292"/>
@@ -4008,7 +2914,7 @@
       <c r="U19" s="51"/>
       <c r="V19" s="133"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A20" s="17"/>
       <c r="B20" s="291"/>
       <c r="C20" s="293"/>
@@ -4041,7 +2947,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="133"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A21" s="1"/>
       <c r="B21" s="289"/>
       <c r="C21" s="290"/>
@@ -4074,7 +2980,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="133"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A22" s="1"/>
       <c r="B22" s="289"/>
       <c r="C22" s="290"/>
@@ -4107,7 +3013,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="133"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A23" s="17"/>
       <c r="B23" s="291"/>
       <c r="C23" s="290"/>
@@ -4140,7 +3046,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="133"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A24" s="1"/>
       <c r="B24" s="289"/>
       <c r="C24" s="292"/>
@@ -4173,7 +3079,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="133"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A25" s="1"/>
       <c r="B25" s="289"/>
       <c r="C25" s="292"/>
@@ -4206,7 +3112,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="133"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A26" s="1"/>
       <c r="B26" s="289"/>
       <c r="C26" s="292"/>
@@ -4239,7 +3145,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="133"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A27" s="17"/>
       <c r="B27" s="291"/>
       <c r="C27" s="292"/>
@@ -4272,7 +3178,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="133"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A28" s="1"/>
       <c r="B28" s="289"/>
       <c r="C28" s="290"/>
@@ -4305,7 +3211,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="133"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A29" s="1"/>
       <c r="B29" s="291"/>
       <c r="C29" s="290"/>
@@ -4338,7 +3244,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="133"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A30" s="1"/>
       <c r="B30" s="289"/>
       <c r="C30" s="290"/>
@@ -4371,7 +3277,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="133"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A31" s="1"/>
       <c r="B31" s="291"/>
       <c r="C31" s="290"/>
@@ -4404,7 +3310,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="133"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A32" s="1"/>
       <c r="B32" s="289"/>
       <c r="C32" s="290"/>
@@ -4437,7 +3343,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="133"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A33" s="1"/>
       <c r="B33" s="291"/>
       <c r="C33" s="290"/>
@@ -4470,7 +3376,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="133"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A34" s="5"/>
       <c r="B34" s="289"/>
       <c r="C34" s="290"/>
@@ -4503,7 +3409,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="149"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A35" s="6"/>
       <c r="B35" s="289"/>
       <c r="C35" s="290"/>
@@ -4536,7 +3442,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="150"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A36" s="6"/>
       <c r="B36" s="289"/>
       <c r="C36" s="290"/>
@@ -4569,7 +3475,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="118"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A37" s="1"/>
       <c r="B37" s="289"/>
       <c r="C37" s="290"/>
@@ -4602,7 +3508,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="133"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A38" s="12"/>
       <c r="B38" s="291"/>
       <c r="C38" s="290"/>
@@ -4635,7 +3541,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="150"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A39" s="12"/>
       <c r="B39" s="289"/>
       <c r="C39" s="290"/>
@@ -4668,7 +3574,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="149"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A40" s="12"/>
       <c r="B40" s="291"/>
       <c r="C40" s="290"/>
@@ -4701,7 +3607,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="149"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A41" s="17"/>
       <c r="B41" s="291"/>
       <c r="C41" s="290"/>
@@ -4734,7 +3640,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="150"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A42" s="12"/>
       <c r="B42" s="289"/>
       <c r="C42" s="290"/>
@@ -4767,7 +3673,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="133"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A43" s="12"/>
       <c r="B43" s="289"/>
       <c r="C43" s="290"/>
@@ -4800,7 +3706,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="133"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A44" s="13"/>
       <c r="B44" s="289"/>
       <c r="C44" s="290"/>
@@ -4833,7 +3739,7 @@
       <c r="U44" s="139"/>
       <c r="V44" s="141"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A45" s="151"/>
       <c r="B45" s="152"/>
       <c r="C45" s="153" t="s">
@@ -4871,7 +3777,7 @@
       <c r="U45" s="162"/>
       <c r="V45" s="163"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A46" s="164"/>
       <c r="B46" s="165"/>
       <c r="C46" s="166" t="s">
@@ -4880,10 +3786,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="167"/>
       <c r="F46" s="168"/>
-      <c r="G46" s="325" t="s">
+      <c r="G46" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="325"/>
+      <c r="H46" s="339"/>
       <c r="I46" s="169"/>
       <c r="J46" s="170"/>
       <c r="K46" s="171"/>
@@ -4899,7 +3805,7 @@
       <c r="U46" s="175"/>
       <c r="V46" s="133"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A47" s="176"/>
       <c r="B47" s="177"/>
       <c r="C47" s="178"/>
@@ -4923,7 +3829,7 @@
       <c r="U47" s="47"/>
       <c r="V47" s="185"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
       <c r="B48" s="177"/>
       <c r="C48" s="186" t="s">
         <v>74</v>
@@ -4949,7 +3855,7 @@
       <c r="U48" s="47"/>
       <c r="V48" s="185"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A49" s="176"/>
       <c r="B49" s="177"/>
       <c r="C49" s="188" t="s">
@@ -4977,7 +3883,7 @@
       <c r="U49" s="47"/>
       <c r="V49" s="185"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="192" t="s">
@@ -5005,33 +3911,33 @@
       <c r="U50" s="197"/>
       <c r="V50" s="198"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="332"/>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="332"/>
-      <c r="K51" s="332"/>
-      <c r="L51" s="332"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="332"/>
-      <c r="O51" s="332"/>
-      <c r="P51" s="332"/>
-      <c r="Q51" s="332"/>
-      <c r="R51" s="332"/>
-      <c r="S51" s="332"/>
-      <c r="T51" s="332"/>
-      <c r="U51" s="332"/>
-      <c r="V51" s="333"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="347"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
@@ -5057,10 +3963,10 @@
       <c r="U52" s="337"/>
       <c r="V52" s="338"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="339"/>
-      <c r="B53" s="340"/>
-      <c r="C53" s="340"/>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="88"/>
       <c r="E53" s="88"/>
       <c r="F53" s="89"/>
@@ -5083,57 +3989,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="341"/>
-      <c r="B54" s="342"/>
-      <c r="C54" s="342"/>
-      <c r="D54" s="342"/>
-      <c r="E54" s="342"/>
-      <c r="F54" s="342"/>
-      <c r="G54" s="342"/>
-      <c r="H54" s="342"/>
-      <c r="I54" s="342"/>
-      <c r="J54" s="342"/>
-      <c r="K54" s="342"/>
-      <c r="L54" s="342"/>
-      <c r="M54" s="342"/>
-      <c r="N54" s="342"/>
-      <c r="O54" s="342"/>
-      <c r="P54" s="342"/>
-      <c r="Q54" s="342"/>
-      <c r="R54" s="342"/>
-      <c r="S54" s="342"/>
-      <c r="T54" s="342"/>
-      <c r="U54" s="342"/>
-      <c r="V54" s="343"/>
-    </row>
-    <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="344"/>
-      <c r="B55" s="345"/>
-      <c r="C55" s="345"/>
-      <c r="D55" s="345"/>
-      <c r="E55" s="345"/>
-      <c r="F55" s="345"/>
-      <c r="G55" s="345"/>
-      <c r="H55" s="345"/>
-      <c r="I55" s="345"/>
-      <c r="J55" s="345"/>
-      <c r="K55" s="345"/>
-      <c r="L55" s="345"/>
-      <c r="M55" s="345"/>
-      <c r="N55" s="345"/>
-      <c r="O55" s="345"/>
-      <c r="P55" s="345"/>
-      <c r="Q55" s="345"/>
-      <c r="R55" s="345"/>
-      <c r="S55" s="345"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="354"/>
+    </row>
+    <row r="55" spans="1:22" ht="68.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="87" t="s">
         <v>68</v>
       </c>
       <c r="U55" s="87"/>
       <c r="V55" s="94"/>
     </row>
-    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -5161,29 +4067,29 @@
       <c r="U56" s="199"/>
       <c r="V56" s="104"/>
     </row>
-    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="326" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
-      <c r="I57" s="326" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="328"/>
-      <c r="K57" s="326" t="s">
+      <c r="J57" s="359"/>
+      <c r="K57" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="328"/>
-      <c r="M57" s="326" t="s">
+      <c r="L57" s="359"/>
+      <c r="M57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="328"/>
+      <c r="N57" s="359"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -5193,7 +4099,7 @@
       <c r="U57" s="109"/>
       <c r="V57" s="108"/>
     </row>
-    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -5249,7 +4155,7 @@
       <c r="U58" s="79"/>
       <c r="V58" s="118"/>
     </row>
-    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
@@ -5277,7 +4183,9 @@
         <v>21</v>
       </c>
       <c r="O59" s="120"/>
-      <c r="P59" s="80"/>
+      <c r="P59" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q59" s="11" t="s">
         <v>22</v>
       </c>
@@ -5287,7 +4195,7 @@
       <c r="U59" s="79"/>
       <c r="V59" s="118"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A60" s="17"/>
       <c r="B60" s="81"/>
       <c r="C60" s="294"/>
@@ -5312,7 +4220,9 @@
         <v>0</v>
       </c>
       <c r="O60" s="134"/>
-      <c r="P60" s="80"/>
+      <c r="P60" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q60" s="11" t="s">
         <v>23</v>
       </c>
@@ -5322,7 +4232,7 @@
       <c r="U60" s="11"/>
       <c r="V60" s="118"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A61" s="38"/>
       <c r="B61" s="40"/>
       <c r="C61" s="285"/>
@@ -5347,7 +4257,9 @@
         <v>0</v>
       </c>
       <c r="O61" s="134"/>
-      <c r="P61" s="3"/>
+      <c r="P61" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q61" s="4" t="s">
         <v>24</v>
       </c>
@@ -5357,7 +4269,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="133"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A62" s="1"/>
       <c r="B62" s="284"/>
       <c r="C62" s="285"/>
@@ -5382,7 +4294,9 @@
         <v>0</v>
       </c>
       <c r="O62" s="134"/>
-      <c r="P62" s="3"/>
+      <c r="P62" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q62" s="4" t="s">
         <v>25</v>
       </c>
@@ -5394,7 +4308,7 @@
       </c>
       <c r="V62" s="133"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A63" s="38"/>
       <c r="B63" s="40"/>
       <c r="C63" s="45"/>
@@ -5423,15 +4337,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="334"/>
-      <c r="S63" s="334"/>
-      <c r="T63" s="334"/>
+      <c r="R63" s="348"/>
+      <c r="S63" s="348"/>
+      <c r="T63" s="348"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="133"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A64" s="1"/>
       <c r="B64" s="40"/>
       <c r="C64" s="8"/>
@@ -5458,17 +4372,17 @@
       <c r="O64" s="134"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="335" t="s">
+      <c r="R64" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="335"/>
-      <c r="T64" s="335"/>
+      <c r="S64" s="349"/>
+      <c r="T64" s="349"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="118"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A65" s="38"/>
       <c r="B65" s="40"/>
       <c r="C65" s="45"/>
@@ -5503,7 +4417,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="137"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A66" s="23"/>
       <c r="B66" s="40"/>
       <c r="C66" s="8"/>
@@ -5536,7 +4450,7 @@
       <c r="U66" s="139"/>
       <c r="V66" s="141"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A67" s="38"/>
       <c r="B67" s="69"/>
       <c r="C67" s="8"/>
@@ -5571,7 +4485,7 @@
       <c r="U67" s="48"/>
       <c r="V67" s="133"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A68" s="17"/>
       <c r="B68" s="40"/>
       <c r="C68" s="8"/>
@@ -5606,7 +4520,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="133"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A69" s="23"/>
       <c r="B69" s="40"/>
       <c r="C69" s="45"/>
@@ -5643,7 +4557,7 @@
       </c>
       <c r="V69" s="133"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A70" s="6"/>
       <c r="B70" s="69"/>
       <c r="C70" s="283"/>
@@ -5668,7 +4582,9 @@
         <v>0</v>
       </c>
       <c r="O70" s="134"/>
-      <c r="P70" s="3"/>
+      <c r="P70" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q70" s="4" t="s">
         <v>41</v>
       </c>
@@ -5678,7 +4594,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="133"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A71" s="1"/>
       <c r="B71" s="82"/>
       <c r="C71" s="44"/>
@@ -5703,7 +4619,9 @@
         <v>0</v>
       </c>
       <c r="O71" s="134"/>
-      <c r="P71" s="3"/>
+      <c r="P71" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q71" s="4" t="s">
         <v>42</v>
       </c>
@@ -5713,7 +4631,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="133"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A72" s="28"/>
       <c r="B72" s="284"/>
       <c r="C72" s="295"/>
@@ -5748,7 +4666,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="133"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A73" s="28"/>
       <c r="B73" s="299"/>
       <c r="C73" s="295"/>
@@ -5783,7 +4701,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="133"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A74" s="38"/>
       <c r="B74" s="299"/>
       <c r="C74" s="295"/>
@@ -5823,7 +4741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A75" s="1"/>
       <c r="B75" s="82"/>
       <c r="C75" s="285"/>
@@ -5863,7 +4781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A76" s="28"/>
       <c r="B76" s="284"/>
       <c r="C76" s="296"/>
@@ -5902,7 +4820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A77" s="28"/>
       <c r="B77" s="40"/>
       <c r="C77" s="8"/>
@@ -5942,7 +4860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A78" s="28"/>
       <c r="B78" s="40"/>
       <c r="C78" s="8"/>
@@ -5982,7 +4900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A79" s="23"/>
       <c r="B79" s="40"/>
       <c r="C79" s="8"/>
@@ -6022,7 +4940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A80" s="38"/>
       <c r="B80" s="40"/>
       <c r="C80" s="29"/>
@@ -6063,7 +4981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A81" s="1"/>
       <c r="B81" s="40"/>
       <c r="C81" s="297"/>
@@ -6102,7 +5020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A82" s="1"/>
       <c r="B82" s="40"/>
       <c r="C82" s="8"/>
@@ -6141,7 +5059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A83" s="1"/>
       <c r="B83" s="40"/>
       <c r="C83" s="8"/>
@@ -6180,7 +5098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A84" s="2"/>
       <c r="B84" s="40"/>
       <c r="C84" s="8"/>
@@ -6220,7 +5138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A85" s="1"/>
       <c r="B85" s="40"/>
       <c r="C85" s="8"/>
@@ -6256,7 +5174,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="133"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A86" s="12"/>
       <c r="B86" s="40"/>
       <c r="C86" s="8"/>
@@ -6289,7 +5207,7 @@
       <c r="U86" s="317"/>
       <c r="V86" s="316"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A87" s="1"/>
       <c r="B87" s="40"/>
       <c r="C87" s="8"/>
@@ -6322,7 +5240,7 @@
       <c r="U87" s="317"/>
       <c r="V87" s="316"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A88" s="12"/>
       <c r="B88" s="40"/>
       <c r="C88" s="27"/>
@@ -6355,7 +5273,7 @@
       <c r="U88" s="317"/>
       <c r="V88" s="316"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A89" s="12"/>
       <c r="B89" s="284"/>
       <c r="C89" s="27"/>
@@ -6388,7 +5306,7 @@
       <c r="U89" s="317"/>
       <c r="V89" s="316"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A90" s="12"/>
       <c r="B90" s="284"/>
       <c r="C90" s="27"/>
@@ -6421,7 +5339,7 @@
       <c r="U90" s="317"/>
       <c r="V90" s="316"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A91" s="12"/>
       <c r="B91" s="284"/>
       <c r="C91" s="27"/>
@@ -6453,7 +5371,7 @@
       <c r="U91" s="317"/>
       <c r="V91" s="316"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A92" s="12"/>
       <c r="B92" s="284"/>
       <c r="C92" s="27"/>
@@ -6488,7 +5406,7 @@
       <c r="U92" s="317"/>
       <c r="V92" s="316"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A93" s="1"/>
       <c r="B93" s="284"/>
       <c r="C93" s="27"/>
@@ -6521,7 +5439,7 @@
       <c r="U93" s="317"/>
       <c r="V93" s="316"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A94" s="13"/>
       <c r="B94" s="300"/>
       <c r="C94" s="298"/>
@@ -6554,12 +5472,12 @@
       <c r="U94" s="317"/>
       <c r="V94" s="317"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A95" s="151"/>
-      <c r="B95" s="329" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="330"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="156"/>
@@ -6594,7 +5512,7 @@
       <c r="U95" s="317"/>
       <c r="V95" s="316"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A96" s="151"/>
       <c r="B96" s="205"/>
       <c r="C96" s="206" t="s">
@@ -6624,17 +5542,17 @@
         <v>0</v>
       </c>
       <c r="O96" s="160"/>
-      <c r="P96" s="350" t="s">
+      <c r="P96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="351"/>
-      <c r="R96" s="351"/>
-      <c r="S96" s="351"/>
-      <c r="T96" s="351"/>
-      <c r="U96" s="351"/>
-      <c r="V96" s="352"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q96" s="334"/>
+      <c r="R96" s="334"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="335"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
@@ -6643,10 +5561,10 @@
       <c r="D97" s="4"/>
       <c r="E97" s="167"/>
       <c r="F97" s="168"/>
-      <c r="G97" s="325" t="s">
+      <c r="G97" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="325"/>
+      <c r="H97" s="339"/>
       <c r="I97" s="169"/>
       <c r="J97" s="170"/>
       <c r="K97" s="171"/>
@@ -6667,10 +5585,10 @@
       <c r="U97" s="47"/>
       <c r="V97" s="185"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="353"/>
-      <c r="B98" s="346"/>
-      <c r="C98" s="354"/>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="180"/>
@@ -6696,21 +5614,21 @@
       <c r="V98" s="185"/>
       <c r="W98" s="185"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="353" t="s">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="346"/>
-      <c r="C99" s="354"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="355" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="355"/>
-      <c r="G99" s="355"/>
-      <c r="H99" s="355"/>
-      <c r="I99" s="355"/>
-      <c r="J99" s="355"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
       <c r="K99" s="169"/>
       <c r="L99" s="182"/>
       <c r="M99" s="211"/>
@@ -6727,7 +5645,7 @@
       <c r="V99" s="185"/>
       <c r="W99" s="185"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A100" s="176"/>
       <c r="B100" s="177"/>
       <c r="C100" s="188" t="s">
@@ -6735,13 +5653,13 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="177"/>
-      <c r="F100" s="346" t="s">
+      <c r="F100" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="346"/>
-      <c r="H100" s="346"/>
-      <c r="I100" s="346"/>
-      <c r="J100" s="346"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
       <c r="K100" s="189"/>
       <c r="L100" s="190"/>
       <c r="M100" s="214"/>
@@ -6760,21 +5678,21 @@
       <c r="V100" s="217"/>
       <c r="W100" s="149"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="347" t="s">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="348"/>
-      <c r="C101" s="349"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="348" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="348"/>
-      <c r="H101" s="348"/>
-      <c r="I101" s="348"/>
-      <c r="J101" s="348"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
       <c r="K101" s="193"/>
       <c r="L101" s="194"/>
       <c r="M101" s="218"/>
@@ -6790,15 +5708,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -6811,19 +5725,22 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6834,36 +5751,36 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
     <col min="3" max="3" width="116" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="262" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="262" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="220" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="262" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="262" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="220" customWidth="1"/>
     <col min="7" max="7" width="7" style="220" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="220" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="220" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="220" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="220" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" style="220" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="220" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="262" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.88671875" style="85"/>
-    <col min="19" max="19" width="20.88671875" style="85" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" style="85" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="85" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="220" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="220" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="220" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="220" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" style="220" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="220" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="262" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.85546875" style="85"/>
+    <col min="19" max="19" width="20.85546875" style="85" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="85" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="85" customWidth="1"/>
     <col min="22" max="22" width="37" style="85" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="85"/>
+    <col min="23" max="16384" width="8.85546875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A1" s="275" t="s">
         <v>0</v>
       </c>
@@ -6889,7 +5806,7 @@
       <c r="U1" s="167"/>
       <c r="V1" s="276"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A2" s="164" t="s">
         <v>1</v>
       </c>
@@ -6915,10 +5832,10 @@
       <c r="U2" s="165"/>
       <c r="V2" s="277"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="339"/>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A3" s="350"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="224"/>
       <c r="E3" s="224"/>
       <c r="F3" s="89"/>
@@ -6941,7 +5858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A4" s="278" t="s">
         <v>65</v>
       </c>
@@ -6967,7 +5884,7 @@
       <c r="U4" s="279"/>
       <c r="V4" s="280"/>
     </row>
-    <row r="5" spans="1:22" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" ht="61.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="281" t="s">
         <v>71</v>
       </c>
@@ -6997,7 +5914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -7027,29 +5944,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="356" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="359"/>
+      <c r="I7" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="357"/>
-      <c r="K7" s="356" t="s">
+      <c r="J7" s="361"/>
+      <c r="K7" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="357"/>
-      <c r="M7" s="326" t="s">
+      <c r="L7" s="361"/>
+      <c r="M7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="328"/>
+      <c r="N7" s="359"/>
       <c r="O7" s="109"/>
       <c r="P7" s="107"/>
       <c r="Q7" s="109"/>
@@ -7059,7 +5976,7 @@
       <c r="U7" s="109"/>
       <c r="V7" s="108"/>
     </row>
-    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -7073,10 +5990,10 @@
       <c r="E8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="358" t="s">
+      <c r="F8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="359"/>
+      <c r="G8" s="363"/>
       <c r="H8" s="114" t="s">
         <v>16</v>
       </c>
@@ -7113,16 +6030,16 @@
       <c r="U8" s="79"/>
       <c r="V8" s="118"/>
     </row>
-    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
       <c r="D9" s="119"/>
       <c r="E9" s="119"/>
-      <c r="F9" s="360" t="s">
+      <c r="F9" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="361"/>
+      <c r="G9" s="365"/>
       <c r="H9" s="122" t="s">
         <v>21</v>
       </c>
@@ -7139,7 +6056,9 @@
         <v>21</v>
       </c>
       <c r="O9" s="120"/>
-      <c r="P9" s="80"/>
+      <c r="P9" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q9" s="11" t="s">
         <v>22</v>
       </c>
@@ -7149,7 +6068,7 @@
       <c r="U9" s="79"/>
       <c r="V9" s="118"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A10" s="56"/>
       <c r="B10" s="321"/>
       <c r="C10" s="310"/>
@@ -7172,7 +6091,9 @@
         <v>0</v>
       </c>
       <c r="O10" s="235"/>
-      <c r="P10" s="80"/>
+      <c r="P10" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q10" s="11" t="s">
         <v>23</v>
       </c>
@@ -7182,7 +6103,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="118"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A11" s="17"/>
       <c r="B11" s="291"/>
       <c r="C11" s="290"/>
@@ -7205,7 +6126,9 @@
         <v>0</v>
       </c>
       <c r="O11" s="240"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>24</v>
       </c>
@@ -7215,7 +6138,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="133"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A12" s="17"/>
       <c r="B12" s="289"/>
       <c r="C12" s="290"/>
@@ -7238,7 +6161,9 @@
         <v>0</v>
       </c>
       <c r="O12" s="242"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q12" s="4" t="s">
         <v>25</v>
       </c>
@@ -7250,7 +6175,7 @@
       </c>
       <c r="V12" s="133"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A13" s="17"/>
       <c r="B13" s="289"/>
       <c r="C13" s="290"/>
@@ -7285,7 +6210,7 @@
       </c>
       <c r="V13" s="133"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A14" s="17"/>
       <c r="B14" s="289"/>
       <c r="C14" s="290"/>
@@ -7320,7 +6245,7 @@
       </c>
       <c r="V14" s="118"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A15" s="17"/>
       <c r="B15" s="289"/>
       <c r="C15" s="290"/>
@@ -7353,7 +6278,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="137"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A16" s="17"/>
       <c r="B16" s="291"/>
       <c r="C16" s="292"/>
@@ -7384,7 +6309,7 @@
       <c r="U16" s="139"/>
       <c r="V16" s="141"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A17" s="17"/>
       <c r="B17" s="289"/>
       <c r="C17" s="292"/>
@@ -7415,7 +6340,7 @@
       <c r="U17" s="143"/>
       <c r="V17" s="144"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A18" s="17"/>
       <c r="B18" s="289"/>
       <c r="C18" s="292"/>
@@ -7446,7 +6371,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="133"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A19" s="17"/>
       <c r="B19" s="289"/>
       <c r="C19" s="290"/>
@@ -7477,7 +6402,7 @@
       <c r="U19" s="51"/>
       <c r="V19" s="133"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A20" s="17"/>
       <c r="B20" s="289"/>
       <c r="C20" s="290"/>
@@ -7508,7 +6433,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="133"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A21" s="17"/>
       <c r="B21" s="291"/>
       <c r="C21" s="292"/>
@@ -7539,7 +6464,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="133"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A22" s="17"/>
       <c r="B22" s="289"/>
       <c r="C22" s="320"/>
@@ -7570,7 +6495,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="133"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A23" s="17"/>
       <c r="B23" s="289"/>
       <c r="C23" s="293"/>
@@ -7601,7 +6526,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="133"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A24" s="17"/>
       <c r="B24" s="289"/>
       <c r="C24" s="290"/>
@@ -7632,7 +6557,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="133"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A25" s="17"/>
       <c r="B25" s="289"/>
       <c r="C25" s="290"/>
@@ -7663,7 +6588,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="133"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A26" s="17"/>
       <c r="B26" s="291"/>
       <c r="C26" s="292"/>
@@ -7694,7 +6619,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="133"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A27" s="17"/>
       <c r="B27" s="289"/>
       <c r="C27" s="320"/>
@@ -7725,7 +6650,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="133"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A28" s="17"/>
       <c r="B28" s="289"/>
       <c r="C28" s="290"/>
@@ -7756,7 +6681,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="133"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A29" s="17"/>
       <c r="B29" s="289"/>
       <c r="C29" s="293"/>
@@ -7787,7 +6712,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="133"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A30" s="17"/>
       <c r="B30" s="289"/>
       <c r="C30" s="290"/>
@@ -7818,7 +6743,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="133"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A31" s="17"/>
       <c r="B31" s="291"/>
       <c r="C31" s="292"/>
@@ -7849,7 +6774,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="133"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A32" s="17"/>
       <c r="B32" s="289"/>
       <c r="C32" s="320"/>
@@ -7880,7 +6805,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="133"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A33" s="17"/>
       <c r="B33" s="289"/>
       <c r="C33" s="290"/>
@@ -7911,7 +6836,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="133"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A34" s="17"/>
       <c r="B34" s="289"/>
       <c r="C34" s="290"/>
@@ -7942,7 +6867,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="149"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A35" s="64"/>
       <c r="B35" s="289"/>
       <c r="C35" s="293"/>
@@ -7973,7 +6898,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="150"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A36" s="16"/>
       <c r="B36" s="291"/>
       <c r="C36" s="320"/>
@@ -8004,7 +6929,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="118"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A37" s="16"/>
       <c r="B37" s="289"/>
       <c r="C37" s="290"/>
@@ -8035,7 +6960,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="118"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A38" s="17"/>
       <c r="B38" s="291"/>
       <c r="C38" s="292"/>
@@ -8066,7 +6991,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="133"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A39" s="12"/>
       <c r="B39" s="289"/>
       <c r="C39" s="292"/>
@@ -8097,7 +7022,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="150"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A40" s="12"/>
       <c r="B40" s="289"/>
       <c r="C40" s="292"/>
@@ -8128,7 +7053,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="149"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A41" s="12"/>
       <c r="B41" s="289"/>
       <c r="C41" s="292"/>
@@ -8159,7 +7084,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="149"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A42" s="12"/>
       <c r="B42" s="289"/>
       <c r="C42" s="292"/>
@@ -8190,7 +7115,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="150"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A43" s="12"/>
       <c r="B43" s="289"/>
       <c r="C43" s="292"/>
@@ -8221,7 +7146,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="133"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A44" s="13"/>
       <c r="B44" s="312"/>
       <c r="C44" s="292"/>
@@ -8252,7 +7177,7 @@
       <c r="U44" s="139"/>
       <c r="V44" s="141"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A45" s="151"/>
       <c r="B45" s="152"/>
       <c r="C45" s="153" t="s">
@@ -8290,7 +7215,7 @@
       <c r="U45" s="162"/>
       <c r="V45" s="163"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A46" s="164"/>
       <c r="B46" s="165"/>
       <c r="C46" s="166" t="s">
@@ -8299,10 +7224,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="167"/>
       <c r="F46" s="168"/>
-      <c r="G46" s="325" t="s">
+      <c r="G46" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="325"/>
+      <c r="H46" s="339"/>
       <c r="I46" s="169"/>
       <c r="J46" s="170"/>
       <c r="K46" s="171"/>
@@ -8318,7 +7243,7 @@
       <c r="U46" s="175"/>
       <c r="V46" s="133"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A47" s="176"/>
       <c r="B47" s="177"/>
       <c r="C47" s="178"/>
@@ -8342,7 +7267,7 @@
       <c r="U47" s="47"/>
       <c r="V47" s="185"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
       <c r="B48" s="177"/>
       <c r="C48" s="186" t="s">
         <v>74</v>
@@ -8369,7 +7294,7 @@
       <c r="U48" s="47"/>
       <c r="V48" s="185"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A49" s="176"/>
       <c r="B49" s="177"/>
       <c r="C49" s="188" t="s">
@@ -8397,7 +7322,7 @@
       <c r="U49" s="47"/>
       <c r="V49" s="185"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="246" t="s">
@@ -8425,33 +7350,33 @@
       <c r="U50" s="197"/>
       <c r="V50" s="198"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="332"/>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="332"/>
-      <c r="K51" s="332"/>
-      <c r="L51" s="332"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="332"/>
-      <c r="O51" s="332"/>
-      <c r="P51" s="332"/>
-      <c r="Q51" s="332"/>
-      <c r="R51" s="332"/>
-      <c r="S51" s="332"/>
-      <c r="T51" s="332"/>
-      <c r="U51" s="332"/>
-      <c r="V51" s="333"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="347"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
@@ -8477,10 +7402,10 @@
       <c r="U52" s="337"/>
       <c r="V52" s="338"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="339"/>
-      <c r="B53" s="340"/>
-      <c r="C53" s="340"/>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="224"/>
       <c r="E53" s="224"/>
       <c r="F53" s="89"/>
@@ -8503,57 +7428,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="341"/>
-      <c r="B54" s="342"/>
-      <c r="C54" s="342"/>
-      <c r="D54" s="342"/>
-      <c r="E54" s="342"/>
-      <c r="F54" s="342"/>
-      <c r="G54" s="342"/>
-      <c r="H54" s="342"/>
-      <c r="I54" s="342"/>
-      <c r="J54" s="342"/>
-      <c r="K54" s="342"/>
-      <c r="L54" s="342"/>
-      <c r="M54" s="342"/>
-      <c r="N54" s="342"/>
-      <c r="O54" s="342"/>
-      <c r="P54" s="342"/>
-      <c r="Q54" s="342"/>
-      <c r="R54" s="342"/>
-      <c r="S54" s="342"/>
-      <c r="T54" s="342"/>
-      <c r="U54" s="342"/>
-      <c r="V54" s="343"/>
-    </row>
-    <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="344"/>
-      <c r="B55" s="345"/>
-      <c r="C55" s="345"/>
-      <c r="D55" s="345"/>
-      <c r="E55" s="345"/>
-      <c r="F55" s="345"/>
-      <c r="G55" s="345"/>
-      <c r="H55" s="345"/>
-      <c r="I55" s="345"/>
-      <c r="J55" s="345"/>
-      <c r="K55" s="345"/>
-      <c r="L55" s="345"/>
-      <c r="M55" s="345"/>
-      <c r="N55" s="345"/>
-      <c r="O55" s="345"/>
-      <c r="P55" s="345"/>
-      <c r="Q55" s="345"/>
-      <c r="R55" s="345"/>
-      <c r="S55" s="345"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="354"/>
+    </row>
+    <row r="55" spans="1:22" ht="56.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="87" t="s">
         <v>3</v>
       </c>
       <c r="U55" s="87"/>
       <c r="V55" s="94"/>
     </row>
-    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -8581,29 +7506,29 @@
       <c r="U56" s="199"/>
       <c r="V56" s="104"/>
     </row>
-    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="326" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
-      <c r="I57" s="356" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="357"/>
-      <c r="K57" s="356" t="s">
+      <c r="J57" s="361"/>
+      <c r="K57" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="357"/>
-      <c r="M57" s="326" t="s">
+      <c r="L57" s="361"/>
+      <c r="M57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="328"/>
+      <c r="N57" s="359"/>
       <c r="O57" s="109"/>
       <c r="P57" s="107"/>
       <c r="Q57" s="109"/>
@@ -8613,7 +7538,7 @@
       <c r="U57" s="109"/>
       <c r="V57" s="108"/>
     </row>
-    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -8627,10 +7552,10 @@
       <c r="E58" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="358" t="s">
+      <c r="F58" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="359"/>
+      <c r="G58" s="363"/>
       <c r="H58" s="114" t="s">
         <v>16</v>
       </c>
@@ -8667,16 +7592,16 @@
       <c r="U58" s="79"/>
       <c r="V58" s="118"/>
     </row>
-    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
       <c r="D59" s="119"/>
       <c r="E59" s="119"/>
-      <c r="F59" s="360" t="s">
+      <c r="F59" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="361"/>
+      <c r="G59" s="365"/>
       <c r="H59" s="122" t="s">
         <v>21</v>
       </c>
@@ -8693,7 +7618,9 @@
         <v>21</v>
       </c>
       <c r="O59" s="120"/>
-      <c r="P59" s="80"/>
+      <c r="P59" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q59" s="11" t="s">
         <v>22</v>
       </c>
@@ -8703,7 +7630,7 @@
       <c r="U59" s="79"/>
       <c r="V59" s="118"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A60" s="17"/>
       <c r="B60" s="291"/>
       <c r="C60" s="310"/>
@@ -8726,7 +7653,9 @@
         <v>0</v>
       </c>
       <c r="O60" s="235"/>
-      <c r="P60" s="80"/>
+      <c r="P60" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q60" s="11" t="s">
         <v>23</v>
       </c>
@@ -8736,7 +7665,7 @@
       <c r="U60" s="11"/>
       <c r="V60" s="118"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A61" s="38"/>
       <c r="B61" s="303"/>
       <c r="C61" s="292"/>
@@ -8759,7 +7688,9 @@
         <v>0</v>
       </c>
       <c r="O61" s="242"/>
-      <c r="P61" s="3"/>
+      <c r="P61" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q61" s="4" t="s">
         <v>24</v>
       </c>
@@ -8769,7 +7700,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="133"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A62" s="17"/>
       <c r="B62" s="289"/>
       <c r="C62" s="292"/>
@@ -8792,7 +7723,9 @@
         <v>0</v>
       </c>
       <c r="O62" s="242"/>
-      <c r="P62" s="3"/>
+      <c r="P62" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q62" s="4" t="s">
         <v>25</v>
       </c>
@@ -8804,7 +7737,7 @@
       </c>
       <c r="V62" s="133"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A63" s="38"/>
       <c r="B63" s="303"/>
       <c r="C63" s="304"/>
@@ -8831,15 +7764,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="334"/>
-      <c r="S63" s="334"/>
-      <c r="T63" s="334"/>
+      <c r="R63" s="348"/>
+      <c r="S63" s="348"/>
+      <c r="T63" s="348"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="133"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A64" s="17"/>
       <c r="B64" s="303"/>
       <c r="C64" s="290"/>
@@ -8864,18 +7797,18 @@
       <c r="O64" s="242"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="47"/>
-      <c r="R64" s="335" t="str">
+      <c r="R64" s="349" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="335"/>
-      <c r="T64" s="335"/>
+      <c r="S64" s="349"/>
+      <c r="T64" s="349"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="118"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A65" s="38"/>
       <c r="B65" s="303"/>
       <c r="C65" s="304"/>
@@ -8908,7 +7841,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="137"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A66" s="70"/>
       <c r="B66" s="303"/>
       <c r="C66" s="290"/>
@@ -8939,7 +7872,7 @@
       <c r="U66" s="139"/>
       <c r="V66" s="141"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A67" s="38"/>
       <c r="B67" s="303"/>
       <c r="C67" s="290"/>
@@ -8972,7 +7905,7 @@
       <c r="U67" s="48"/>
       <c r="V67" s="133"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A68" s="17"/>
       <c r="B68" s="303"/>
       <c r="C68" s="290"/>
@@ -9005,7 +7938,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="133"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A69" s="70"/>
       <c r="B69" s="303"/>
       <c r="C69" s="304"/>
@@ -9040,7 +7973,7 @@
       </c>
       <c r="V69" s="133"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A70" s="16"/>
       <c r="B70" s="303"/>
       <c r="C70" s="290"/>
@@ -9063,7 +7996,9 @@
         <v>0</v>
       </c>
       <c r="O70" s="242"/>
-      <c r="P70" s="3"/>
+      <c r="P70" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q70" s="4" t="s">
         <v>41</v>
       </c>
@@ -9073,7 +8008,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="133"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A71" s="17"/>
       <c r="B71" s="291"/>
       <c r="C71" s="304"/>
@@ -9096,7 +8031,9 @@
         <v>0</v>
       </c>
       <c r="O71" s="242"/>
-      <c r="P71" s="3"/>
+      <c r="P71" s="367" t="s">
+        <v>79</v>
+      </c>
       <c r="Q71" s="4" t="s">
         <v>42</v>
       </c>
@@ -9106,7 +8043,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="133"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A72" s="71"/>
       <c r="B72" s="289"/>
       <c r="C72" s="305"/>
@@ -9139,7 +8076,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="133"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A73" s="71"/>
       <c r="B73" s="311"/>
       <c r="C73" s="305"/>
@@ -9172,7 +8109,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="133"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A74" s="38"/>
       <c r="B74" s="311"/>
       <c r="C74" s="305"/>
@@ -9210,7 +8147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A75" s="17"/>
       <c r="B75" s="291"/>
       <c r="C75" s="292"/>
@@ -9248,7 +8185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A76" s="71"/>
       <c r="B76" s="289"/>
       <c r="C76" s="292"/>
@@ -9285,7 +8222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A77" s="71"/>
       <c r="B77" s="303"/>
       <c r="C77" s="290"/>
@@ -9323,7 +8260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A78" s="71"/>
       <c r="B78" s="303"/>
       <c r="C78" s="290"/>
@@ -9361,7 +8298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A79" s="70"/>
       <c r="B79" s="303"/>
       <c r="C79" s="290"/>
@@ -9399,7 +8336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A80" s="38"/>
       <c r="B80" s="303"/>
       <c r="C80" s="307"/>
@@ -9438,7 +8375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A81" s="17"/>
       <c r="B81" s="303"/>
       <c r="C81" s="304"/>
@@ -9475,7 +8412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A82" s="12"/>
       <c r="B82" s="312"/>
       <c r="C82" s="304"/>
@@ -9512,7 +8449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A83" s="12"/>
       <c r="B83" s="312"/>
       <c r="C83" s="304"/>
@@ -9549,7 +8486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A84" s="12"/>
       <c r="B84" s="312"/>
       <c r="C84" s="304"/>
@@ -9587,7 +8524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A85" s="12"/>
       <c r="B85" s="303"/>
       <c r="C85" s="304"/>
@@ -9621,7 +8558,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="133"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A86" s="12"/>
       <c r="B86" s="312"/>
       <c r="C86" s="304"/>
@@ -9652,7 +8589,7 @@
       <c r="U86" s="317"/>
       <c r="V86" s="316"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A87" s="12"/>
       <c r="B87" s="312"/>
       <c r="C87" s="304"/>
@@ -9683,7 +8620,7 @@
       <c r="U87" s="317"/>
       <c r="V87" s="316"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A88" s="12"/>
       <c r="B88" s="312"/>
       <c r="C88" s="304"/>
@@ -9714,7 +8651,7 @@
       <c r="U88" s="317"/>
       <c r="V88" s="316"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A89" s="12"/>
       <c r="B89" s="312"/>
       <c r="C89" s="304"/>
@@ -9745,7 +8682,7 @@
       <c r="U89" s="317"/>
       <c r="V89" s="316"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A90" s="12"/>
       <c r="B90" s="312"/>
       <c r="C90" s="304"/>
@@ -9776,7 +8713,7 @@
       <c r="U90" s="317"/>
       <c r="V90" s="316"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A91" s="12"/>
       <c r="B91" s="312"/>
       <c r="C91" s="304"/>
@@ -9807,7 +8744,7 @@
       <c r="U91" s="317"/>
       <c r="V91" s="316"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A92" s="12"/>
       <c r="B92" s="312"/>
       <c r="C92" s="309"/>
@@ -9840,7 +8777,7 @@
       <c r="U92" s="317"/>
       <c r="V92" s="316"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A93" s="12"/>
       <c r="B93" s="303"/>
       <c r="C93" s="292"/>
@@ -9871,7 +8808,7 @@
       <c r="U93" s="317"/>
       <c r="V93" s="316"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A94" s="13"/>
       <c r="B94" s="312"/>
       <c r="C94" s="292"/>
@@ -9902,12 +8839,12 @@
       <c r="U94" s="317"/>
       <c r="V94" s="316"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A95" s="151"/>
-      <c r="B95" s="329" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="330"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="156"/>
@@ -9942,7 +8879,7 @@
       <c r="U95" s="317"/>
       <c r="V95" s="316"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A96" s="151"/>
       <c r="B96" s="205"/>
       <c r="C96" s="206" t="s">
@@ -9972,17 +8909,17 @@
         <v>0</v>
       </c>
       <c r="O96" s="160"/>
-      <c r="P96" s="350" t="s">
+      <c r="P96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="351"/>
-      <c r="R96" s="351"/>
-      <c r="S96" s="351"/>
-      <c r="T96" s="351"/>
-      <c r="U96" s="351"/>
-      <c r="V96" s="352"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q96" s="334"/>
+      <c r="R96" s="334"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="335"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
@@ -9991,10 +8928,10 @@
       <c r="D97" s="4"/>
       <c r="E97" s="167"/>
       <c r="F97" s="168"/>
-      <c r="G97" s="325" t="s">
+      <c r="G97" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="325"/>
+      <c r="H97" s="339"/>
       <c r="I97" s="180"/>
       <c r="J97" s="170"/>
       <c r="K97" s="170"/>
@@ -10015,10 +8952,10 @@
       <c r="U97" s="47"/>
       <c r="V97" s="185"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="353"/>
-      <c r="B98" s="346"/>
-      <c r="C98" s="354"/>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="180"/>
@@ -10043,21 +8980,21 @@
       <c r="U98" s="47"/>
       <c r="V98" s="185"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="353" t="s">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="346"/>
-      <c r="C99" s="354"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="355" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="355"/>
-      <c r="G99" s="355"/>
-      <c r="H99" s="355"/>
-      <c r="I99" s="355"/>
-      <c r="J99" s="355"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
       <c r="K99" s="181"/>
       <c r="L99" s="250"/>
       <c r="M99" s="251"/>
@@ -10073,20 +9010,20 @@
       <c r="U99" s="47"/>
       <c r="V99" s="185"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="353"/>
-      <c r="B100" s="346"/>
-      <c r="C100" s="354"/>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A100" s="340"/>
+      <c r="B100" s="329"/>
+      <c r="C100" s="341"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="346" t="str">
+      <c r="E100" s="329" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="F100" s="346"/>
-      <c r="G100" s="346"/>
-      <c r="H100" s="346"/>
-      <c r="I100" s="346"/>
-      <c r="J100" s="346"/>
+      <c r="F100" s="329"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
       <c r="K100" s="254"/>
       <c r="L100" s="255"/>
       <c r="M100" s="256"/>
@@ -10104,21 +9041,21 @@
       <c r="U100" s="216"/>
       <c r="V100" s="217"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="347" t="s">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="348"/>
-      <c r="C101" s="349"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="348" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="348"/>
-      <c r="H101" s="348"/>
-      <c r="I101" s="348"/>
-      <c r="J101" s="348"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
       <c r="K101" s="258"/>
       <c r="L101" s="259"/>
       <c r="M101" s="260"/>
@@ -10132,7 +9069,7 @@
       <c r="U101" s="197"/>
       <c r="V101" s="198"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.75">
       <c r="P102" s="143"/>
       <c r="Q102" s="143"/>
       <c r="R102" s="143"/>
@@ -10141,7 +9078,7 @@
       <c r="U102" s="263"/>
       <c r="V102" s="263"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.75">
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="216"/>
@@ -10152,22 +9089,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="A55:S55"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
     <mergeCell ref="R64:T64"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
@@ -10184,13 +9105,28 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="R63:T63"/>
     <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="D57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10198,38 +9134,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H44"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="85" customWidth="1"/>
-    <col min="3" max="3" width="106.88671875" style="85" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="262" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="262" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" style="262" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="220" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="85" customWidth="1"/>
+    <col min="3" max="3" width="106.85546875" style="85" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="262" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="262" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" style="262" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="220" customWidth="1"/>
     <col min="9" max="9" width="7" style="220" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="220" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="220" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="220" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="220" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" style="220" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" style="220" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="262" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="85"/>
-    <col min="20" max="20" width="18.33203125" style="85" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" style="85" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" style="85" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="85" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="220" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="220" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="220" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="220" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="220" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="220" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="262" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.85546875" style="85"/>
+    <col min="20" max="20" width="18.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" style="85" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="85" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="85" customWidth="1"/>
     <col min="24" max="24" width="37" style="85" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="85"/>
+    <col min="25" max="16384" width="8.85546875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A1" s="275" t="s">
         <v>0</v>
       </c>
@@ -10257,7 +9193,7 @@
       <c r="W1" s="167"/>
       <c r="X1" s="276"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A2" s="164" t="s">
         <v>1</v>
       </c>
@@ -10285,10 +9221,10 @@
       <c r="W2" s="165"/>
       <c r="X2" s="277"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="339"/>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A3" s="350"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="224"/>
       <c r="E3" s="224"/>
       <c r="F3" s="224"/>
@@ -10313,7 +9249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A4" s="278" t="s">
         <v>65</v>
       </c>
@@ -10341,7 +9277,7 @@
       <c r="W4" s="279"/>
       <c r="X4" s="280"/>
     </row>
-    <row r="5" spans="1:24" ht="58.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" ht="58.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="281" t="s">
         <v>71</v>
       </c>
@@ -10373,7 +9309,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
@@ -10405,31 +9341,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="106"/>
       <c r="B7" s="107"/>
       <c r="C7" s="108"/>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="356" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="358"/>
+      <c r="I7" s="358"/>
+      <c r="J7" s="359"/>
+      <c r="K7" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="357"/>
-      <c r="M7" s="356" t="s">
+      <c r="L7" s="361"/>
+      <c r="M7" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="357"/>
-      <c r="O7" s="326" t="s">
+      <c r="N7" s="361"/>
+      <c r="O7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="328"/>
+      <c r="P7" s="359"/>
       <c r="Q7" s="109"/>
       <c r="R7" s="107"/>
       <c r="S7" s="109"/>
@@ -10439,7 +9375,7 @@
       <c r="W7" s="109"/>
       <c r="X7" s="108"/>
     </row>
-    <row r="8" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="110" t="s">
         <v>11</v>
       </c>
@@ -10459,10 +9395,10 @@
       <c r="G8" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="358" t="s">
+      <c r="H8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="359"/>
+      <c r="I8" s="363"/>
       <c r="J8" s="114" t="s">
         <v>16</v>
       </c>
@@ -10499,7 +9435,7 @@
       <c r="W8" s="79"/>
       <c r="X8" s="118"/>
     </row>
-    <row r="9" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="119"/>
       <c r="B9" s="120"/>
       <c r="C9" s="121"/>
@@ -10511,10 +9447,10 @@
       <c r="G9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="360" t="s">
+      <c r="H9" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="361"/>
+      <c r="I9" s="365"/>
       <c r="J9" s="122" t="s">
         <v>21</v>
       </c>
@@ -10541,7 +9477,7 @@
       <c r="W9" s="79"/>
       <c r="X9" s="118"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A10" s="56"/>
       <c r="B10" s="57"/>
       <c r="C10" s="43"/>
@@ -10549,7 +9485,7 @@
       <c r="E10" s="58"/>
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
-      <c r="H10" s="362"/>
+      <c r="H10" s="325"/>
       <c r="I10" s="232"/>
       <c r="J10" s="233"/>
       <c r="K10" s="234"/>
@@ -10579,7 +9515,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="118"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A11" s="17"/>
       <c r="B11" s="20"/>
       <c r="C11" s="25"/>
@@ -10587,7 +9523,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="363"/>
+      <c r="H11" s="326"/>
       <c r="I11" s="202"/>
       <c r="J11" s="237"/>
       <c r="K11" s="238"/>
@@ -10617,7 +9553,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="133"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="15"/>
@@ -10625,7 +9561,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="363"/>
+      <c r="H12" s="326"/>
       <c r="I12" s="202"/>
       <c r="J12" s="241"/>
       <c r="K12" s="238"/>
@@ -10657,7 +9593,7 @@
       </c>
       <c r="X12" s="133"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A13" s="17"/>
       <c r="B13" s="7"/>
       <c r="C13" s="15"/>
@@ -10665,7 +9601,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="363"/>
+      <c r="H13" s="326"/>
       <c r="I13" s="202"/>
       <c r="J13" s="241"/>
       <c r="K13" s="238"/>
@@ -10697,7 +9633,7 @@
       </c>
       <c r="X13" s="133"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A14" s="17"/>
       <c r="B14" s="7"/>
       <c r="C14" s="15"/>
@@ -10705,7 +9641,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="363"/>
+      <c r="H14" s="326"/>
       <c r="I14" s="202"/>
       <c r="J14" s="241"/>
       <c r="K14" s="238"/>
@@ -10737,7 +9673,7 @@
       </c>
       <c r="X14" s="118"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A15" s="17"/>
       <c r="B15" s="7"/>
       <c r="C15" s="15"/>
@@ -10745,7 +9681,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="363"/>
+      <c r="H15" s="326"/>
       <c r="I15" s="202"/>
       <c r="J15" s="241"/>
       <c r="K15" s="238"/>
@@ -10775,7 +9711,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="137"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A16" s="17"/>
       <c r="B16" s="20"/>
       <c r="C16" s="18"/>
@@ -10783,7 +9719,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="363"/>
+      <c r="H16" s="326"/>
       <c r="I16" s="202"/>
       <c r="J16" s="52"/>
       <c r="K16" s="59"/>
@@ -10811,7 +9747,7 @@
       <c r="W16" s="139"/>
       <c r="X16" s="141"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A17" s="17"/>
       <c r="B17" s="7"/>
       <c r="C17" s="18"/>
@@ -10819,7 +9755,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="363"/>
+      <c r="H17" s="326"/>
       <c r="I17" s="202"/>
       <c r="J17" s="241"/>
       <c r="K17" s="59"/>
@@ -10847,7 +9783,7 @@
       <c r="W17" s="143"/>
       <c r="X17" s="144"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A18" s="17"/>
       <c r="B18" s="7"/>
       <c r="C18" s="18"/>
@@ -10855,7 +9791,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="363"/>
+      <c r="H18" s="326"/>
       <c r="I18" s="202"/>
       <c r="J18" s="52"/>
       <c r="K18" s="59"/>
@@ -10883,7 +9819,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="133"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A19" s="17"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15"/>
@@ -10891,7 +9827,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="363"/>
+      <c r="H19" s="326"/>
       <c r="I19" s="202"/>
       <c r="J19" s="241"/>
       <c r="K19" s="238"/>
@@ -10919,7 +9855,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="133"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A20" s="17"/>
       <c r="B20" s="7"/>
       <c r="C20" s="15"/>
@@ -10927,7 +9863,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="363"/>
+      <c r="H20" s="326"/>
       <c r="I20" s="202"/>
       <c r="J20" s="241"/>
       <c r="K20" s="238"/>
@@ -10955,7 +9891,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="133"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A21" s="17"/>
       <c r="B21" s="20"/>
       <c r="C21" s="18"/>
@@ -10963,7 +9899,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="363"/>
+      <c r="H21" s="326"/>
       <c r="I21" s="202"/>
       <c r="J21" s="52"/>
       <c r="K21" s="59"/>
@@ -10991,7 +9927,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="133"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A22" s="17"/>
       <c r="B22" s="7"/>
       <c r="C22" s="61"/>
@@ -10999,7 +9935,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="363"/>
+      <c r="H22" s="326"/>
       <c r="I22" s="202"/>
       <c r="J22" s="241"/>
       <c r="K22" s="59"/>
@@ -11027,7 +9963,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="133"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A23" s="17"/>
       <c r="B23" s="7"/>
       <c r="C23" s="62"/>
@@ -11035,7 +9971,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="363"/>
+      <c r="H23" s="326"/>
       <c r="I23" s="202"/>
       <c r="J23" s="241"/>
       <c r="K23" s="238"/>
@@ -11063,7 +9999,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="133"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A24" s="17"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15"/>
@@ -11071,7 +10007,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="363"/>
+      <c r="H24" s="326"/>
       <c r="I24" s="202"/>
       <c r="J24" s="241"/>
       <c r="K24" s="238"/>
@@ -11099,7 +10035,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="133"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A25" s="17"/>
       <c r="B25" s="7"/>
       <c r="C25" s="15"/>
@@ -11107,7 +10043,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="363"/>
+      <c r="H25" s="326"/>
       <c r="I25" s="202"/>
       <c r="J25" s="241"/>
       <c r="K25" s="238"/>
@@ -11135,7 +10071,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="133"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="18"/>
@@ -11143,7 +10079,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="363"/>
+      <c r="H26" s="326"/>
       <c r="I26" s="202"/>
       <c r="J26" s="52"/>
       <c r="K26" s="59"/>
@@ -11171,7 +10107,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="133"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A27" s="17"/>
       <c r="B27" s="7"/>
       <c r="C27" s="61"/>
@@ -11179,7 +10115,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="363"/>
+      <c r="H27" s="326"/>
       <c r="I27" s="202"/>
       <c r="J27" s="241"/>
       <c r="K27" s="239"/>
@@ -11207,7 +10143,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="133"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A28" s="17"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -11215,7 +10151,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="363"/>
+      <c r="H28" s="326"/>
       <c r="I28" s="202"/>
       <c r="J28" s="241"/>
       <c r="K28" s="238"/>
@@ -11243,7 +10179,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="133"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A29" s="17"/>
       <c r="B29" s="7"/>
       <c r="C29" s="63"/>
@@ -11251,7 +10187,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="363"/>
+      <c r="H29" s="326"/>
       <c r="I29" s="202"/>
       <c r="J29" s="241"/>
       <c r="K29" s="238"/>
@@ -11279,7 +10215,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="133"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A30" s="17"/>
       <c r="B30" s="7"/>
       <c r="C30" s="15"/>
@@ -11287,7 +10223,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="363"/>
+      <c r="H30" s="326"/>
       <c r="I30" s="202"/>
       <c r="J30" s="241"/>
       <c r="K30" s="238"/>
@@ -11315,7 +10251,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="133"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A31" s="17"/>
       <c r="B31" s="20"/>
       <c r="C31" s="18"/>
@@ -11323,7 +10259,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="363"/>
+      <c r="H31" s="326"/>
       <c r="I31" s="202"/>
       <c r="J31" s="52"/>
       <c r="K31" s="59"/>
@@ -11351,7 +10287,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="133"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A32" s="17"/>
       <c r="B32" s="7"/>
       <c r="C32" s="61"/>
@@ -11359,7 +10295,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
-      <c r="H32" s="363"/>
+      <c r="H32" s="326"/>
       <c r="I32" s="202"/>
       <c r="J32" s="241"/>
       <c r="K32" s="59"/>
@@ -11387,7 +10323,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="133"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A33" s="17"/>
       <c r="B33" s="7"/>
       <c r="C33" s="15"/>
@@ -11395,7 +10331,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="363"/>
+      <c r="H33" s="326"/>
       <c r="I33" s="202"/>
       <c r="J33" s="241"/>
       <c r="K33" s="238"/>
@@ -11423,7 +10359,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="133"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A34" s="17"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15"/>
@@ -11431,7 +10367,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="363"/>
+      <c r="H34" s="326"/>
       <c r="I34" s="202"/>
       <c r="J34" s="241"/>
       <c r="K34" s="238"/>
@@ -11459,7 +10395,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="149"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A35" s="64"/>
       <c r="B35" s="65"/>
       <c r="C35" s="66"/>
@@ -11467,7 +10403,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="70"/>
       <c r="G35" s="70"/>
-      <c r="H35" s="363"/>
+      <c r="H35" s="326"/>
       <c r="I35" s="202"/>
       <c r="J35" s="52"/>
       <c r="K35" s="67"/>
@@ -11495,7 +10431,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="150"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A36" s="16"/>
       <c r="B36" s="68"/>
       <c r="C36" s="61"/>
@@ -11503,7 +10439,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="363"/>
+      <c r="H36" s="326"/>
       <c r="I36" s="202"/>
       <c r="J36" s="241"/>
       <c r="K36" s="59"/>
@@ -11531,7 +10467,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="118"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A37" s="16"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -11539,7 +10475,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="363"/>
+      <c r="H37" s="326"/>
       <c r="I37" s="202"/>
       <c r="J37" s="241"/>
       <c r="K37" s="238"/>
@@ -11567,7 +10503,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="118"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A38" s="17"/>
       <c r="B38" s="20"/>
       <c r="C38" s="18"/>
@@ -11575,7 +10511,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
-      <c r="H38" s="363"/>
+      <c r="H38" s="326"/>
       <c r="I38" s="202"/>
       <c r="J38" s="52"/>
       <c r="K38" s="238"/>
@@ -11603,7 +10539,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="133"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A39" s="12"/>
       <c r="B39" s="7"/>
       <c r="C39" s="49"/>
@@ -11611,7 +10547,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="363"/>
+      <c r="H39" s="326"/>
       <c r="I39" s="202"/>
       <c r="J39" s="52"/>
       <c r="K39" s="238"/>
@@ -11639,7 +10575,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="150"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A40" s="12"/>
       <c r="B40" s="7"/>
       <c r="C40" s="18"/>
@@ -11647,7 +10583,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="363"/>
+      <c r="H40" s="326"/>
       <c r="I40" s="202"/>
       <c r="J40" s="52"/>
       <c r="K40" s="238"/>
@@ -11675,7 +10611,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="149"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A41" s="12"/>
       <c r="B41" s="7"/>
       <c r="C41" s="18"/>
@@ -11683,7 +10619,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="363"/>
+      <c r="H41" s="326"/>
       <c r="I41" s="202"/>
       <c r="J41" s="52"/>
       <c r="K41" s="238"/>
@@ -11711,7 +10647,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="149"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A42" s="12"/>
       <c r="B42" s="7"/>
       <c r="C42" s="18"/>
@@ -11719,7 +10655,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="363"/>
+      <c r="H42" s="326"/>
       <c r="I42" s="202"/>
       <c r="J42" s="52"/>
       <c r="K42" s="238"/>
@@ -11747,7 +10683,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="150"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A43" s="12"/>
       <c r="B43" s="7"/>
       <c r="C43" s="18"/>
@@ -11755,7 +10691,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="363"/>
+      <c r="H43" s="326"/>
       <c r="I43" s="202"/>
       <c r="J43" s="52"/>
       <c r="K43" s="238"/>
@@ -11783,7 +10719,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="133"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="18"/>
@@ -11791,7 +10727,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
-      <c r="H44" s="365"/>
+      <c r="H44" s="328"/>
       <c r="I44" s="244"/>
       <c r="J44" s="21"/>
       <c r="K44" s="130"/>
@@ -11819,7 +10755,7 @@
       <c r="W44" s="139"/>
       <c r="X44" s="141"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A45" s="151"/>
       <c r="B45" s="152"/>
       <c r="C45" s="153" t="s">
@@ -11859,7 +10795,7 @@
       <c r="W45" s="162"/>
       <c r="X45" s="163"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A46" s="164"/>
       <c r="B46" s="165"/>
       <c r="C46" s="166" t="s">
@@ -11888,7 +10824,7 @@
       <c r="W46" s="175"/>
       <c r="X46" s="133"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A47" s="176"/>
       <c r="B47" s="177"/>
       <c r="C47" s="178"/>
@@ -11914,7 +10850,7 @@
       <c r="W47" s="47"/>
       <c r="X47" s="185"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.75">
       <c r="B48" s="177"/>
       <c r="C48" s="188" t="s">
         <v>74</v>
@@ -11941,7 +10877,7 @@
       <c r="W48" s="47"/>
       <c r="X48" s="185"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A49" s="176"/>
       <c r="B49" s="177"/>
       <c r="C49" s="188" t="s">
@@ -11971,7 +10907,7 @@
       <c r="W49" s="47"/>
       <c r="X49" s="185"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A50" s="86"/>
       <c r="B50" s="87"/>
       <c r="C50" s="246" t="s">
@@ -12001,35 +10937,35 @@
       <c r="W50" s="274"/>
       <c r="X50" s="198"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="332"/>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
-      <c r="J51" s="332"/>
-      <c r="K51" s="332"/>
-      <c r="L51" s="332"/>
-      <c r="M51" s="332"/>
-      <c r="N51" s="332"/>
-      <c r="O51" s="332"/>
-      <c r="P51" s="332"/>
-      <c r="Q51" s="332"/>
-      <c r="R51" s="332"/>
-      <c r="S51" s="332"/>
-      <c r="T51" s="332"/>
-      <c r="U51" s="332"/>
-      <c r="V51" s="332"/>
-      <c r="W51" s="332"/>
-      <c r="X51" s="333"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="346"/>
+      <c r="W51" s="346"/>
+      <c r="X51" s="347"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
@@ -12057,10 +10993,10 @@
       <c r="W52" s="337"/>
       <c r="X52" s="338"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="339"/>
-      <c r="B53" s="340"/>
-      <c r="C53" s="340"/>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="224"/>
       <c r="E53" s="224"/>
       <c r="F53" s="224"/>
@@ -12085,53 +11021,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="341"/>
-      <c r="B54" s="342"/>
-      <c r="C54" s="342"/>
-      <c r="D54" s="342"/>
-      <c r="E54" s="342"/>
-      <c r="F54" s="342"/>
-      <c r="G54" s="342"/>
-      <c r="H54" s="342"/>
-      <c r="I54" s="342"/>
-      <c r="J54" s="342"/>
-      <c r="K54" s="342"/>
-      <c r="L54" s="342"/>
-      <c r="M54" s="342"/>
-      <c r="N54" s="342"/>
-      <c r="O54" s="342"/>
-      <c r="P54" s="342"/>
-      <c r="Q54" s="342"/>
-      <c r="R54" s="342"/>
-      <c r="S54" s="342"/>
-      <c r="T54" s="342"/>
-      <c r="U54" s="342"/>
-      <c r="V54" s="342"/>
-      <c r="W54" s="342"/>
-      <c r="X54" s="343"/>
-    </row>
-    <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="344"/>
-      <c r="B55" s="345"/>
-      <c r="C55" s="345"/>
-      <c r="D55" s="345"/>
-      <c r="E55" s="345"/>
-      <c r="F55" s="345"/>
-      <c r="G55" s="345"/>
-      <c r="H55" s="345"/>
-      <c r="I55" s="345"/>
-      <c r="J55" s="345"/>
-      <c r="K55" s="345"/>
-      <c r="L55" s="345"/>
-      <c r="M55" s="345"/>
-      <c r="N55" s="345"/>
-      <c r="O55" s="345"/>
-      <c r="P55" s="345"/>
-      <c r="Q55" s="345"/>
-      <c r="R55" s="345"/>
-      <c r="S55" s="345"/>
-      <c r="T55" s="345"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="353"/>
+      <c r="W54" s="353"/>
+      <c r="X54" s="354"/>
+    </row>
+    <row r="55" spans="1:24" ht="59.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
+      <c r="T55" s="356"/>
       <c r="U55" s="314" t="s">
         <v>78</v>
       </c>
@@ -12139,7 +11075,7 @@
       <c r="W55" s="87"/>
       <c r="X55" s="94"/>
     </row>
-    <row r="56" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="95" t="s">
         <v>4</v>
       </c>
@@ -12169,31 +11105,31 @@
       <c r="W56" s="199"/>
       <c r="X56" s="104"/>
     </row>
-    <row r="57" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="106"/>
       <c r="B57" s="107"/>
       <c r="C57" s="108"/>
-      <c r="D57" s="326" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="327"/>
-      <c r="I57" s="327"/>
-      <c r="J57" s="328"/>
-      <c r="K57" s="356" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="358"/>
+      <c r="I57" s="358"/>
+      <c r="J57" s="359"/>
+      <c r="K57" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="357"/>
-      <c r="M57" s="356" t="s">
+      <c r="L57" s="361"/>
+      <c r="M57" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="357"/>
-      <c r="O57" s="326" t="s">
+      <c r="N57" s="361"/>
+      <c r="O57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="328"/>
+      <c r="P57" s="359"/>
       <c r="Q57" s="109"/>
       <c r="R57" s="107"/>
       <c r="S57" s="109"/>
@@ -12203,7 +11139,7 @@
       <c r="W57" s="109"/>
       <c r="X57" s="108"/>
     </row>
-    <row r="58" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="110" t="s">
         <v>11</v>
       </c>
@@ -12223,10 +11159,10 @@
       <c r="G58" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="358" t="s">
+      <c r="H58" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="359"/>
+      <c r="I58" s="363"/>
       <c r="J58" s="114" t="s">
         <v>16</v>
       </c>
@@ -12263,7 +11199,7 @@
       <c r="W58" s="79"/>
       <c r="X58" s="118"/>
     </row>
-    <row r="59" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" s="105" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="119"/>
       <c r="B59" s="120"/>
       <c r="C59" s="121"/>
@@ -12275,10 +11211,10 @@
       <c r="G59" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="360" t="s">
+      <c r="H59" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="361"/>
+      <c r="I59" s="365"/>
       <c r="J59" s="122" t="s">
         <v>21</v>
       </c>
@@ -12295,7 +11231,9 @@
         <v>21</v>
       </c>
       <c r="Q59" s="120"/>
-      <c r="R59" s="80"/>
+      <c r="R59" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S59" s="11" t="s">
         <v>22</v>
       </c>
@@ -12305,7 +11243,7 @@
       <c r="W59" s="79"/>
       <c r="X59" s="118"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A60" s="17"/>
       <c r="B60" s="291"/>
       <c r="C60" s="310"/>
@@ -12313,7 +11251,7 @@
       <c r="E60" s="33"/>
       <c r="F60" s="84"/>
       <c r="G60" s="75"/>
-      <c r="H60" s="362"/>
+      <c r="H60" s="325"/>
       <c r="I60" s="232"/>
       <c r="J60" s="233"/>
       <c r="K60" s="238"/>
@@ -12333,7 +11271,9 @@
         <v>0</v>
       </c>
       <c r="Q60" s="235"/>
-      <c r="R60" s="80"/>
+      <c r="R60" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S60" s="11" t="s">
         <v>23</v>
       </c>
@@ -12343,7 +11283,7 @@
       <c r="W60" s="11"/>
       <c r="X60" s="118"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A61" s="38"/>
       <c r="B61" s="301"/>
       <c r="C61" s="292"/>
@@ -12351,7 +11291,7 @@
       <c r="E61" s="9"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="363"/>
+      <c r="H61" s="326"/>
       <c r="I61" s="202"/>
       <c r="J61" s="52"/>
       <c r="K61" s="238"/>
@@ -12371,7 +11311,9 @@
         <v>0</v>
       </c>
       <c r="Q61" s="242"/>
-      <c r="R61" s="3"/>
+      <c r="R61" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S61" s="4" t="s">
         <v>24</v>
       </c>
@@ -12381,7 +11323,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="133"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A62" s="17"/>
       <c r="B62" s="302"/>
       <c r="C62" s="292"/>
@@ -12389,7 +11331,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
-      <c r="H62" s="363"/>
+      <c r="H62" s="326"/>
       <c r="I62" s="202"/>
       <c r="J62" s="241"/>
       <c r="K62" s="238"/>
@@ -12409,7 +11351,9 @@
         <v>0</v>
       </c>
       <c r="Q62" s="242"/>
-      <c r="R62" s="3"/>
+      <c r="R62" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S62" s="4" t="s">
         <v>25</v>
       </c>
@@ -12421,7 +11365,7 @@
       </c>
       <c r="X62" s="133"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A63" s="38"/>
       <c r="B63" s="303"/>
       <c r="C63" s="304"/>
@@ -12429,7 +11373,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
-      <c r="H63" s="363"/>
+      <c r="H63" s="326"/>
       <c r="I63" s="202"/>
       <c r="J63" s="241"/>
       <c r="K63" s="238"/>
@@ -12453,15 +11397,15 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="334"/>
-      <c r="U63" s="334"/>
-      <c r="V63" s="334"/>
+      <c r="T63" s="348"/>
+      <c r="U63" s="348"/>
+      <c r="V63" s="348"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="X63" s="133"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A64" s="17"/>
       <c r="B64" s="301"/>
       <c r="C64" s="290"/>
@@ -12469,7 +11413,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
-      <c r="H64" s="363"/>
+      <c r="H64" s="326"/>
       <c r="I64" s="202"/>
       <c r="J64" s="52"/>
       <c r="K64" s="238"/>
@@ -12491,18 +11435,18 @@
       <c r="Q64" s="242"/>
       <c r="R64" s="83"/>
       <c r="S64" s="47"/>
-      <c r="T64" s="335" t="str">
+      <c r="T64" s="349" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="335"/>
-      <c r="V64" s="335"/>
+      <c r="U64" s="349"/>
+      <c r="V64" s="349"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="X64" s="118"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A65" s="38"/>
       <c r="B65" s="303"/>
       <c r="C65" s="304"/>
@@ -12510,7 +11454,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
-      <c r="H65" s="363"/>
+      <c r="H65" s="326"/>
       <c r="I65" s="202"/>
       <c r="J65" s="52"/>
       <c r="K65" s="238"/>
@@ -12540,7 +11484,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="137"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A66" s="70"/>
       <c r="B66" s="301"/>
       <c r="C66" s="290"/>
@@ -12548,7 +11492,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="363"/>
+      <c r="H66" s="326"/>
       <c r="I66" s="202"/>
       <c r="J66" s="52"/>
       <c r="K66" s="238"/>
@@ -12576,7 +11520,7 @@
       <c r="W66" s="139"/>
       <c r="X66" s="141"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A67" s="38"/>
       <c r="B67" s="301"/>
       <c r="C67" s="290"/>
@@ -12584,7 +11528,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="363"/>
+      <c r="H67" s="326"/>
       <c r="I67" s="202"/>
       <c r="J67" s="237"/>
       <c r="K67" s="238"/>
@@ -12614,7 +11558,7 @@
       <c r="W67" s="48"/>
       <c r="X67" s="133"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A68" s="17"/>
       <c r="B68" s="301"/>
       <c r="C68" s="290"/>
@@ -12622,7 +11566,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
-      <c r="H68" s="363"/>
+      <c r="H68" s="326"/>
       <c r="I68" s="202"/>
       <c r="J68" s="52"/>
       <c r="K68" s="238"/>
@@ -12652,7 +11596,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="133"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A69" s="70"/>
       <c r="B69" s="301"/>
       <c r="C69" s="304"/>
@@ -12660,7 +11604,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
-      <c r="H69" s="363"/>
+      <c r="H69" s="326"/>
       <c r="I69" s="202"/>
       <c r="J69" s="237"/>
       <c r="K69" s="238"/>
@@ -12692,7 +11636,7 @@
       </c>
       <c r="X69" s="133"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A70" s="16"/>
       <c r="B70" s="301"/>
       <c r="C70" s="290"/>
@@ -12700,7 +11644,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
-      <c r="H70" s="363"/>
+      <c r="H70" s="326"/>
       <c r="I70" s="202"/>
       <c r="J70" s="52"/>
       <c r="K70" s="238"/>
@@ -12720,7 +11664,9 @@
         <v>0</v>
       </c>
       <c r="Q70" s="242"/>
-      <c r="R70" s="3"/>
+      <c r="R70" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S70" s="4" t="s">
         <v>41</v>
       </c>
@@ -12730,7 +11676,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="133"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A71" s="17"/>
       <c r="B71" s="291"/>
       <c r="C71" s="304"/>
@@ -12738,7 +11684,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
-      <c r="H71" s="363"/>
+      <c r="H71" s="326"/>
       <c r="I71" s="202"/>
       <c r="J71" s="52"/>
       <c r="K71" s="238"/>
@@ -12758,7 +11704,9 @@
         <v>0</v>
       </c>
       <c r="Q71" s="242"/>
-      <c r="R71" s="3"/>
+      <c r="R71" s="366" t="s">
+        <v>79</v>
+      </c>
       <c r="S71" s="4" t="s">
         <v>42</v>
       </c>
@@ -12768,7 +11716,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="133"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A72" s="71"/>
       <c r="B72" s="302"/>
       <c r="C72" s="305"/>
@@ -12776,7 +11724,7 @@
       <c r="E72" s="72"/>
       <c r="F72" s="76"/>
       <c r="G72" s="76"/>
-      <c r="H72" s="363"/>
+      <c r="H72" s="326"/>
       <c r="I72" s="202"/>
       <c r="J72" s="236"/>
       <c r="K72" s="238"/>
@@ -12806,7 +11754,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="133"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A73" s="71"/>
       <c r="B73" s="306"/>
       <c r="C73" s="305"/>
@@ -12814,7 +11762,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
-      <c r="H73" s="363"/>
+      <c r="H73" s="326"/>
       <c r="I73" s="202"/>
       <c r="J73" s="241"/>
       <c r="K73" s="238"/>
@@ -12844,7 +11792,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="133"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A74" s="38"/>
       <c r="B74" s="306"/>
       <c r="C74" s="305"/>
@@ -12852,7 +11800,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
-      <c r="H74" s="363"/>
+      <c r="H74" s="326"/>
       <c r="I74" s="202"/>
       <c r="J74" s="241"/>
       <c r="K74" s="238"/>
@@ -12887,7 +11835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A75" s="17"/>
       <c r="B75" s="291"/>
       <c r="C75" s="292"/>
@@ -12895,7 +11843,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
-      <c r="H75" s="363"/>
+      <c r="H75" s="326"/>
       <c r="I75" s="202"/>
       <c r="J75" s="52"/>
       <c r="K75" s="238"/>
@@ -12930,7 +11878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A76" s="71"/>
       <c r="B76" s="302"/>
       <c r="C76" s="292"/>
@@ -12938,7 +11886,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="363"/>
+      <c r="H76" s="326"/>
       <c r="I76" s="202"/>
       <c r="J76" s="236"/>
       <c r="K76" s="238"/>
@@ -12972,7 +11920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A77" s="71"/>
       <c r="B77" s="301"/>
       <c r="C77" s="290"/>
@@ -12980,7 +11928,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
-      <c r="H77" s="363"/>
+      <c r="H77" s="326"/>
       <c r="I77" s="202"/>
       <c r="J77" s="236"/>
       <c r="K77" s="238"/>
@@ -13015,7 +11963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A78" s="71"/>
       <c r="B78" s="301"/>
       <c r="C78" s="290"/>
@@ -13023,7 +11971,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="363"/>
+      <c r="H78" s="326"/>
       <c r="I78" s="202"/>
       <c r="J78" s="236"/>
       <c r="K78" s="238"/>
@@ -13058,7 +12006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A79" s="70"/>
       <c r="B79" s="301"/>
       <c r="C79" s="290"/>
@@ -13066,7 +12014,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
-      <c r="H79" s="363"/>
+      <c r="H79" s="326"/>
       <c r="I79" s="202"/>
       <c r="J79" s="236"/>
       <c r="K79" s="238"/>
@@ -13101,7 +12049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A80" s="38"/>
       <c r="B80" s="303"/>
       <c r="C80" s="307"/>
@@ -13109,7 +12057,7 @@
       <c r="E80" s="26"/>
       <c r="F80" s="9"/>
       <c r="G80" s="77"/>
-      <c r="H80" s="363"/>
+      <c r="H80" s="326"/>
       <c r="I80" s="202"/>
       <c r="J80" s="53"/>
       <c r="K80" s="52"/>
@@ -13145,7 +12093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A81" s="17"/>
       <c r="B81" s="301"/>
       <c r="C81" s="304"/>
@@ -13153,7 +12101,7 @@
       <c r="E81" s="26"/>
       <c r="F81" s="9"/>
       <c r="G81" s="77"/>
-      <c r="H81" s="363"/>
+      <c r="H81" s="326"/>
       <c r="I81" s="202"/>
       <c r="J81" s="52"/>
       <c r="K81" s="52"/>
@@ -13187,7 +12135,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A82" s="12"/>
       <c r="B82" s="308"/>
       <c r="C82" s="304"/>
@@ -13195,7 +12143,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
-      <c r="H82" s="363"/>
+      <c r="H82" s="326"/>
       <c r="I82" s="202"/>
       <c r="J82" s="52"/>
       <c r="K82" s="52"/>
@@ -13229,7 +12177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A83" s="12"/>
       <c r="B83" s="308"/>
       <c r="C83" s="304"/>
@@ -13237,7 +12185,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
-      <c r="H83" s="363"/>
+      <c r="H83" s="326"/>
       <c r="I83" s="202"/>
       <c r="J83" s="52"/>
       <c r="K83" s="52"/>
@@ -13271,7 +12219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A84" s="12"/>
       <c r="B84" s="308"/>
       <c r="C84" s="304"/>
@@ -13279,7 +12227,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
-      <c r="H84" s="363"/>
+      <c r="H84" s="326"/>
       <c r="I84" s="202"/>
       <c r="J84" s="52"/>
       <c r="K84" s="52"/>
@@ -13314,7 +12262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A85" s="12"/>
       <c r="B85" s="301"/>
       <c r="C85" s="304"/>
@@ -13322,7 +12270,7 @@
       <c r="E85" s="13"/>
       <c r="F85" s="78"/>
       <c r="G85" s="78"/>
-      <c r="H85" s="363"/>
+      <c r="H85" s="326"/>
       <c r="I85" s="202"/>
       <c r="J85" s="52"/>
       <c r="K85" s="52"/>
@@ -13353,7 +12301,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="133"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A86" s="12"/>
       <c r="B86" s="308"/>
       <c r="C86" s="304"/>
@@ -13361,7 +12309,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
-      <c r="H86" s="363"/>
+      <c r="H86" s="326"/>
       <c r="I86" s="202"/>
       <c r="J86" s="52"/>
       <c r="K86" s="52"/>
@@ -13389,7 +12337,7 @@
       <c r="W86" s="317"/>
       <c r="X86" s="316"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A87" s="12"/>
       <c r="B87" s="308"/>
       <c r="C87" s="304"/>
@@ -13397,7 +12345,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
-      <c r="H87" s="363"/>
+      <c r="H87" s="326"/>
       <c r="I87" s="202"/>
       <c r="J87" s="52"/>
       <c r="K87" s="52"/>
@@ -13425,7 +12373,7 @@
       <c r="W87" s="317"/>
       <c r="X87" s="316"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A88" s="12"/>
       <c r="B88" s="308"/>
       <c r="C88" s="304"/>
@@ -13433,7 +12381,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
-      <c r="H88" s="363"/>
+      <c r="H88" s="326"/>
       <c r="I88" s="202"/>
       <c r="J88" s="52"/>
       <c r="K88" s="52"/>
@@ -13461,7 +12409,7 @@
       <c r="W88" s="317"/>
       <c r="X88" s="316"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A89" s="12"/>
       <c r="B89" s="308"/>
       <c r="C89" s="304"/>
@@ -13469,7 +12417,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
-      <c r="H89" s="363"/>
+      <c r="H89" s="326"/>
       <c r="I89" s="202"/>
       <c r="J89" s="52"/>
       <c r="K89" s="52"/>
@@ -13497,7 +12445,7 @@
       <c r="W89" s="317"/>
       <c r="X89" s="316"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A90" s="12"/>
       <c r="B90" s="308"/>
       <c r="C90" s="304"/>
@@ -13505,7 +12453,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
-      <c r="H90" s="363"/>
+      <c r="H90" s="326"/>
       <c r="I90" s="202"/>
       <c r="J90" s="52"/>
       <c r="K90" s="52"/>
@@ -13533,7 +12481,7 @@
       <c r="W90" s="317"/>
       <c r="X90" s="316"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A91" s="12"/>
       <c r="B91" s="308"/>
       <c r="C91" s="304"/>
@@ -13541,7 +12489,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
-      <c r="H91" s="363"/>
+      <c r="H91" s="326"/>
       <c r="I91" s="202"/>
       <c r="J91" s="52"/>
       <c r="K91" s="52"/>
@@ -13569,7 +12517,7 @@
       <c r="W91" s="317"/>
       <c r="X91" s="316"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A92" s="12"/>
       <c r="B92" s="308"/>
       <c r="C92" s="309"/>
@@ -13577,7 +12525,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
-      <c r="H92" s="363"/>
+      <c r="H92" s="326"/>
       <c r="I92" s="202"/>
       <c r="J92" s="52"/>
       <c r="K92" s="52"/>
@@ -13605,7 +12553,7 @@
       <c r="W92" s="317"/>
       <c r="X92" s="316"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A93" s="12"/>
       <c r="B93" s="301"/>
       <c r="C93" s="292"/>
@@ -13613,7 +12561,7 @@
       <c r="E93" s="13"/>
       <c r="F93" s="78"/>
       <c r="G93" s="78"/>
-      <c r="H93" s="363"/>
+      <c r="H93" s="326"/>
       <c r="I93" s="202"/>
       <c r="J93" s="52"/>
       <c r="K93" s="52"/>
@@ -13641,7 +12589,7 @@
       <c r="W93" s="317"/>
       <c r="X93" s="316"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A94" s="13"/>
       <c r="B94" s="308"/>
       <c r="C94" s="292"/>
@@ -13649,7 +12597,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="74"/>
       <c r="G94" s="74"/>
-      <c r="H94" s="364"/>
+      <c r="H94" s="327"/>
       <c r="I94" s="248"/>
       <c r="J94" s="52"/>
       <c r="K94" s="52"/>
@@ -13677,12 +12625,12 @@
       <c r="W94" s="317"/>
       <c r="X94" s="316"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A95" s="151"/>
-      <c r="B95" s="329" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="330"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="154"/>
       <c r="E95" s="155"/>
       <c r="F95" s="155"/>
@@ -13719,7 +12667,7 @@
       <c r="W95" s="317"/>
       <c r="X95" s="316"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A96" s="151"/>
       <c r="B96" s="205"/>
       <c r="C96" s="206" t="s">
@@ -13751,17 +12699,17 @@
         <v>0</v>
       </c>
       <c r="Q96" s="160"/>
-      <c r="R96" s="350" t="s">
+      <c r="R96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="351"/>
-      <c r="T96" s="351"/>
-      <c r="U96" s="351"/>
-      <c r="V96" s="351"/>
-      <c r="W96" s="351"/>
-      <c r="X96" s="352"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="334"/>
+      <c r="W96" s="334"/>
+      <c r="X96" s="335"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
@@ -13795,10 +12743,10 @@
       <c r="W97" s="47"/>
       <c r="X97" s="185"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="353"/>
-      <c r="B98" s="346"/>
-      <c r="C98" s="354"/>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="179"/>
       <c r="E98" s="179"/>
       <c r="F98" s="179"/>
@@ -13825,23 +12773,23 @@
       <c r="W98" s="47"/>
       <c r="X98" s="185"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="353" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="346"/>
-      <c r="C99" s="354"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="355" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="355"/>
-      <c r="G99" s="355"/>
-      <c r="H99" s="355"/>
-      <c r="I99" s="355"/>
-      <c r="J99" s="355"/>
-      <c r="K99" s="355"/>
-      <c r="L99" s="355"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
+      <c r="K99" s="342"/>
+      <c r="L99" s="342"/>
       <c r="M99" s="181"/>
       <c r="N99" s="250"/>
       <c r="O99" s="251"/>
@@ -13857,22 +12805,22 @@
       <c r="W99" s="47"/>
       <c r="X99" s="185"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="353"/>
-      <c r="B100" s="346"/>
-      <c r="C100" s="354"/>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A100" s="340"/>
+      <c r="B100" s="329"/>
+      <c r="C100" s="341"/>
       <c r="D100" s="4"/>
       <c r="E100" s="177"/>
-      <c r="F100" s="346" t="str">
+      <c r="F100" s="329" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="346"/>
-      <c r="H100" s="346"/>
-      <c r="I100" s="346"/>
-      <c r="J100" s="346"/>
-      <c r="K100" s="346"/>
-      <c r="L100" s="346"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
+      <c r="K100" s="329"/>
+      <c r="L100" s="329"/>
       <c r="M100" s="254"/>
       <c r="N100" s="255"/>
       <c r="O100" s="256"/>
@@ -13890,23 +12838,23 @@
       <c r="W100" s="216"/>
       <c r="X100" s="217"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="347" t="s">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="348"/>
-      <c r="C101" s="349"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="139"/>
       <c r="E101" s="87"/>
-      <c r="F101" s="348" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="348"/>
-      <c r="H101" s="348"/>
-      <c r="I101" s="348"/>
-      <c r="J101" s="348"/>
-      <c r="K101" s="348"/>
-      <c r="L101" s="348"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
+      <c r="K101" s="331"/>
+      <c r="L101" s="331"/>
       <c r="M101" s="258"/>
       <c r="N101" s="259"/>
       <c r="O101" s="260"/>
@@ -13920,7 +12868,7 @@
       <c r="W101" s="197"/>
       <c r="X101" s="198"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.75">
       <c r="R102" s="143"/>
       <c r="S102" s="143"/>
       <c r="T102" s="143"/>
@@ -13929,7 +12877,7 @@
       <c r="W102" s="263"/>
       <c r="X102" s="263"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.75">
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="216"/>
@@ -13940,22 +12888,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -13964,12 +12902,22 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pea_jk\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ค่าติดตั้ง ทดสอบ'!$A$1:$V$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ค่าอุปกรณ์ และขนส่ง'!$A$1:$V$101</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -270,10 +275,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -795,11 +800,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -841,10 +846,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,13 +864,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,13 +927,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -938,16 +943,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,16 +1007,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,19 +1030,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1066,19 +1071,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1093,39 +1098,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1140,7 +1145,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1157,8 +1162,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1167,19 +1172,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1191,21 +1196,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1213,47 +1218,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1263,38 +1268,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1303,134 +1308,134 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1439,34 +1444,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1545,7 +1550,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,7 +1580,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1615,25 +1620,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,39 +1708,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1699,80 +1731,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2228,7 +2233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2245,32 +2250,32 @@
       <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="122.7109375" style="70" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="205" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="205" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="206" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="205" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="207" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="122.6640625" style="70" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="205" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="205" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="205" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="206" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="205" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="207" customWidth="1"/>
     <col min="12" max="12" width="28" style="70" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="208" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="70" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="70" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="70"/>
-    <col min="18" max="18" width="9.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="70" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="70" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="208" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" style="70" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="70" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="70"/>
+    <col min="18" max="18" width="9.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="70" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" style="70" customWidth="1"/>
     <col min="21" max="21" width="11" style="70" customWidth="1"/>
-    <col min="22" max="22" width="44.42578125" style="70" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="70"/>
+    <col min="22" max="22" width="44.44140625" style="70" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2301,7 @@
       <c r="U1" s="152"/>
       <c r="V1" s="261"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="U2" s="150"/>
       <c r="V2" s="262"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="71"/>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
@@ -2348,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -2374,7 +2379,7 @@
       <c r="U4" s="264"/>
       <c r="V4" s="265"/>
     </row>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -2404,7 +2409,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -2432,29 +2437,29 @@
       <c r="U6" s="86"/>
       <c r="V6" s="89"/>
     </row>
-    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="341" t="s">
+      <c r="D7" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="342"/>
-      <c r="F7" s="342"/>
-      <c r="G7" s="342"/>
-      <c r="H7" s="343"/>
-      <c r="I7" s="341" t="s">
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="330" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="343"/>
-      <c r="K7" s="341" t="s">
+      <c r="J7" s="332"/>
+      <c r="K7" s="330" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="343"/>
-      <c r="M7" s="341" t="s">
+      <c r="L7" s="332"/>
+      <c r="M7" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="343"/>
+      <c r="N7" s="332"/>
       <c r="O7" s="94"/>
       <c r="P7" s="92"/>
       <c r="Q7" s="94"/>
@@ -2464,7 +2469,7 @@
       <c r="U7" s="94"/>
       <c r="V7" s="93"/>
     </row>
-    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -2520,7 +2525,7 @@
       <c r="U8" s="64"/>
       <c r="V8" s="103"/>
     </row>
-    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
@@ -2560,7 +2565,7 @@
       <c r="U9" s="64"/>
       <c r="V9" s="103"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="271"/>
       <c r="C10" s="272"/>
@@ -2592,7 +2597,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="103"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="271"/>
       <c r="C11" s="273"/>
@@ -2629,7 +2634,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="118"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="271"/>
       <c r="C12" s="273"/>
@@ -2668,7 +2673,7 @@
       </c>
       <c r="V12" s="118"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="271"/>
       <c r="C13" s="273"/>
@@ -2705,7 +2710,7 @@
       </c>
       <c r="V13" s="118"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
@@ -2742,7 +2747,7 @@
       </c>
       <c r="V14" s="103"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="274"/>
       <c r="C15" s="275"/>
@@ -2777,7 +2782,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="122"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="274"/>
       <c r="C16" s="275"/>
@@ -2810,7 +2815,7 @@
       <c r="U16" s="124"/>
       <c r="V16" s="126"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="276"/>
       <c r="C17" s="275"/>
@@ -2843,7 +2848,7 @@
       <c r="U17" s="128"/>
       <c r="V17" s="129"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="274"/>
       <c r="C18" s="277"/>
@@ -2876,7 +2881,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="118"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="276"/>
       <c r="C19" s="277"/>
@@ -2909,7 +2914,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="118"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
       <c r="B20" s="276"/>
       <c r="C20" s="278"/>
@@ -2942,7 +2947,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="118"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="274"/>
       <c r="C21" s="275"/>
@@ -2975,7 +2980,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="118"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="274"/>
       <c r="C22" s="275"/>
@@ -3008,7 +3013,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="118"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="276"/>
       <c r="C23" s="275"/>
@@ -3041,7 +3046,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="118"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="274"/>
       <c r="C24" s="277"/>
@@ -3074,7 +3079,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="118"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="274"/>
       <c r="C25" s="277"/>
@@ -3107,7 +3112,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="118"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="274"/>
       <c r="C26" s="277"/>
@@ -3140,7 +3145,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="118"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14"/>
       <c r="B27" s="276"/>
       <c r="C27" s="277"/>
@@ -3173,7 +3178,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="118"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="274"/>
       <c r="C28" s="275"/>
@@ -3206,7 +3211,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="118"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="276"/>
       <c r="C29" s="275"/>
@@ -3239,7 +3244,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="118"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="274"/>
       <c r="C30" s="275"/>
@@ -3272,7 +3277,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="118"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="276"/>
       <c r="C31" s="275"/>
@@ -3305,7 +3310,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="118"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="274"/>
       <c r="C32" s="275"/>
@@ -3338,7 +3343,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="118"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="276"/>
       <c r="C33" s="275"/>
@@ -3371,7 +3376,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="118"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5"/>
       <c r="B34" s="274"/>
       <c r="C34" s="275"/>
@@ -3404,7 +3409,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="134"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="274"/>
       <c r="C35" s="275"/>
@@ -3437,7 +3442,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="135"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="274"/>
       <c r="C36" s="275"/>
@@ -3470,7 +3475,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="103"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="274"/>
       <c r="C37" s="275"/>
@@ -3503,7 +3508,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="118"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="276"/>
       <c r="C38" s="275"/>
@@ -3536,7 +3541,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="135"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="274"/>
       <c r="C39" s="275"/>
@@ -3569,7 +3574,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="134"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="276"/>
       <c r="C40" s="275"/>
@@ -3602,7 +3607,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="134"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="14"/>
       <c r="B41" s="276"/>
       <c r="C41" s="275"/>
@@ -3635,7 +3640,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="135"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="274"/>
       <c r="C42" s="275"/>
@@ -3668,7 +3673,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="118"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="274"/>
       <c r="C43" s="275"/>
@@ -3701,7 +3706,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="118"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="274"/>
       <c r="C44" s="275"/>
@@ -3734,7 +3739,7 @@
       <c r="U44" s="124"/>
       <c r="V44" s="126"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -3772,7 +3777,7 @@
       <c r="U45" s="147"/>
       <c r="V45" s="148"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -3781,10 +3786,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="152"/>
       <c r="F46" s="153"/>
-      <c r="G46" s="323" t="s">
+      <c r="G46" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="323"/>
+      <c r="H46" s="329"/>
       <c r="I46" s="154"/>
       <c r="J46" s="155"/>
       <c r="K46" s="156"/>
@@ -3800,7 +3805,7 @@
       <c r="U46" s="160"/>
       <c r="V46" s="118"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -3824,7 +3829,7 @@
       <c r="U47" s="40"/>
       <c r="V47" s="170"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="162"/>
       <c r="C48" s="171" t="s">
         <v>74</v>
@@ -3850,7 +3855,7 @@
       <c r="U48" s="40"/>
       <c r="V48" s="170"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -3878,7 +3883,7 @@
       <c r="U49" s="40"/>
       <c r="V49" s="170"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="177" t="s">
@@ -3906,62 +3911,62 @@
       <c r="U50" s="182"/>
       <c r="V50" s="183"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A51" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="330"/>
-      <c r="C51" s="330"/>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
-      <c r="G51" s="330"/>
-      <c r="H51" s="330"/>
-      <c r="I51" s="330"/>
-      <c r="J51" s="330"/>
-      <c r="K51" s="330"/>
-      <c r="L51" s="330"/>
-      <c r="M51" s="330"/>
-      <c r="N51" s="330"/>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="330"/>
-      <c r="S51" s="330"/>
-      <c r="T51" s="330"/>
-      <c r="U51" s="330"/>
-      <c r="V51" s="331"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A52" s="320" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="336"/>
+      <c r="C51" s="336"/>
+      <c r="D51" s="336"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="336"/>
+      <c r="H51" s="336"/>
+      <c r="I51" s="336"/>
+      <c r="J51" s="336"/>
+      <c r="K51" s="336"/>
+      <c r="L51" s="336"/>
+      <c r="M51" s="336"/>
+      <c r="N51" s="336"/>
+      <c r="O51" s="336"/>
+      <c r="P51" s="336"/>
+      <c r="Q51" s="336"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="337"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="321"/>
-      <c r="C52" s="321"/>
-      <c r="D52" s="321"/>
-      <c r="E52" s="321"/>
-      <c r="F52" s="321"/>
-      <c r="G52" s="321"/>
-      <c r="H52" s="321"/>
-      <c r="I52" s="321"/>
-      <c r="J52" s="321"/>
-      <c r="K52" s="321"/>
-      <c r="L52" s="321"/>
-      <c r="M52" s="321"/>
-      <c r="N52" s="321"/>
-      <c r="O52" s="321"/>
-      <c r="P52" s="321"/>
-      <c r="Q52" s="321"/>
-      <c r="R52" s="321"/>
-      <c r="S52" s="321"/>
-      <c r="T52" s="321"/>
-      <c r="U52" s="321"/>
-      <c r="V52" s="322"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A53" s="334"/>
-      <c r="B53" s="335"/>
-      <c r="C53" s="335"/>
+      <c r="B52" s="341"/>
+      <c r="C52" s="341"/>
+      <c r="D52" s="341"/>
+      <c r="E52" s="341"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="341"/>
+      <c r="H52" s="341"/>
+      <c r="I52" s="341"/>
+      <c r="J52" s="341"/>
+      <c r="K52" s="341"/>
+      <c r="L52" s="341"/>
+      <c r="M52" s="341"/>
+      <c r="N52" s="341"/>
+      <c r="O52" s="341"/>
+      <c r="P52" s="341"/>
+      <c r="Q52" s="341"/>
+      <c r="R52" s="341"/>
+      <c r="S52" s="341"/>
+      <c r="T52" s="341"/>
+      <c r="U52" s="341"/>
+      <c r="V52" s="342"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
       <c r="F53" s="74"/>
@@ -3984,57 +3989,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A54" s="336"/>
-      <c r="B54" s="337"/>
-      <c r="C54" s="337"/>
-      <c r="D54" s="337"/>
-      <c r="E54" s="337"/>
-      <c r="F54" s="337"/>
-      <c r="G54" s="337"/>
-      <c r="H54" s="337"/>
-      <c r="I54" s="337"/>
-      <c r="J54" s="337"/>
-      <c r="K54" s="337"/>
-      <c r="L54" s="337"/>
-      <c r="M54" s="337"/>
-      <c r="N54" s="337"/>
-      <c r="O54" s="337"/>
-      <c r="P54" s="337"/>
-      <c r="Q54" s="337"/>
-      <c r="R54" s="337"/>
-      <c r="S54" s="337"/>
-      <c r="T54" s="337"/>
-      <c r="U54" s="337"/>
-      <c r="V54" s="338"/>
-    </row>
-    <row r="55" spans="1:22" ht="68.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="339"/>
-      <c r="B55" s="340"/>
-      <c r="C55" s="340"/>
-      <c r="D55" s="340"/>
-      <c r="E55" s="340"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="340"/>
-      <c r="K55" s="340"/>
-      <c r="L55" s="340"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="340"/>
-      <c r="O55" s="340"/>
-      <c r="P55" s="340"/>
-      <c r="Q55" s="340"/>
-      <c r="R55" s="340"/>
-      <c r="S55" s="340"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="347"/>
+    </row>
+    <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
       <c r="T55" s="72" t="s">
         <v>68</v>
       </c>
       <c r="U55" s="72"/>
       <c r="V55" s="79"/>
     </row>
-    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -4062,29 +4067,29 @@
       <c r="U56" s="184"/>
       <c r="V56" s="89"/>
     </row>
-    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="341" t="s">
+      <c r="D57" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="342"/>
-      <c r="F57" s="342"/>
-      <c r="G57" s="342"/>
-      <c r="H57" s="343"/>
-      <c r="I57" s="341" t="s">
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
+      <c r="H57" s="332"/>
+      <c r="I57" s="330" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="343"/>
-      <c r="K57" s="341" t="s">
+      <c r="J57" s="332"/>
+      <c r="K57" s="330" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="343"/>
-      <c r="M57" s="341" t="s">
+      <c r="L57" s="332"/>
+      <c r="M57" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="343"/>
+      <c r="N57" s="332"/>
       <c r="O57" s="94"/>
       <c r="P57" s="92"/>
       <c r="Q57" s="94"/>
@@ -4094,7 +4099,7 @@
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
     </row>
-    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -4150,7 +4155,7 @@
       <c r="U58" s="64"/>
       <c r="V58" s="103"/>
     </row>
-    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
@@ -4190,7 +4195,7 @@
       <c r="U59" s="64"/>
       <c r="V59" s="103"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="14"/>
       <c r="B60" s="66"/>
       <c r="C60" s="279"/>
@@ -4227,7 +4232,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="103"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="270"/>
@@ -4264,7 +4269,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="118"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="269"/>
       <c r="C62" s="270"/>
@@ -4303,7 +4308,7 @@
       </c>
       <c r="V62" s="118"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="38"/>
@@ -4332,15 +4337,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="332"/>
-      <c r="S63" s="332"/>
-      <c r="T63" s="332"/>
+      <c r="R63" s="338"/>
+      <c r="S63" s="338"/>
+      <c r="T63" s="338"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="118"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="34"/>
       <c r="C64" s="7"/>
@@ -4367,17 +4372,17 @@
       <c r="O64" s="119"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="40"/>
-      <c r="R64" s="333" t="s">
+      <c r="R64" s="339" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="333"/>
-      <c r="T64" s="333"/>
+      <c r="S64" s="339"/>
+      <c r="T64" s="339"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="103"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="38"/>
@@ -4412,7 +4417,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="122"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="18"/>
       <c r="B66" s="34"/>
       <c r="C66" s="7"/>
@@ -4445,7 +4450,7 @@
       <c r="U66" s="124"/>
       <c r="V66" s="126"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="32"/>
       <c r="B67" s="54"/>
       <c r="C67" s="7"/>
@@ -4480,7 +4485,7 @@
       <c r="U67" s="41"/>
       <c r="V67" s="118"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="14"/>
       <c r="B68" s="34"/>
       <c r="C68" s="7"/>
@@ -4515,7 +4520,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="118"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="18"/>
       <c r="B69" s="34"/>
       <c r="C69" s="38"/>
@@ -4552,7 +4557,7 @@
       </c>
       <c r="V69" s="118"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6"/>
       <c r="B70" s="54"/>
       <c r="C70" s="268"/>
@@ -4589,7 +4594,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="118"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="67"/>
       <c r="C71" s="37"/>
@@ -4626,7 +4631,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="118"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="22"/>
       <c r="B72" s="269"/>
       <c r="C72" s="280"/>
@@ -4661,7 +4666,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="118"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="22"/>
       <c r="B73" s="284"/>
       <c r="C73" s="280"/>
@@ -4696,7 +4701,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="118"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="32"/>
       <c r="B74" s="284"/>
       <c r="C74" s="280"/>
@@ -4736,7 +4741,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="67"/>
       <c r="C75" s="270"/>
@@ -4776,7 +4781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="22"/>
       <c r="B76" s="269"/>
       <c r="C76" s="281"/>
@@ -4815,7 +4820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="22"/>
       <c r="B77" s="34"/>
       <c r="C77" s="7"/>
@@ -4855,7 +4860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="22"/>
       <c r="B78" s="34"/>
       <c r="C78" s="7"/>
@@ -4895,7 +4900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="18"/>
       <c r="B79" s="34"/>
       <c r="C79" s="7"/>
@@ -4935,7 +4940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="32"/>
       <c r="B80" s="34"/>
       <c r="C80" s="23"/>
@@ -4976,7 +4981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="34"/>
       <c r="C81" s="282"/>
@@ -5015,7 +5020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="34"/>
       <c r="C82" s="7"/>
@@ -5054,7 +5059,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="34"/>
       <c r="C83" s="7"/>
@@ -5093,7 +5098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="34"/>
       <c r="C84" s="7"/>
@@ -5133,7 +5138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="34"/>
       <c r="C85" s="7"/>
@@ -5169,7 +5174,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="118"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="34"/>
       <c r="C86" s="7"/>
@@ -5202,7 +5207,7 @@
       <c r="U86" s="298"/>
       <c r="V86" s="297"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="B87" s="34"/>
       <c r="C87" s="7"/>
@@ -5235,7 +5240,7 @@
       <c r="U87" s="298"/>
       <c r="V87" s="297"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="34"/>
       <c r="C88" s="21"/>
@@ -5268,7 +5273,7 @@
       <c r="U88" s="298"/>
       <c r="V88" s="297"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="269"/>
       <c r="C89" s="21"/>
@@ -5301,7 +5306,7 @@
       <c r="U89" s="298"/>
       <c r="V89" s="297"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="269"/>
       <c r="C90" s="21"/>
@@ -5334,7 +5339,7 @@
       <c r="U90" s="298"/>
       <c r="V90" s="297"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="269"/>
       <c r="C91" s="21"/>
@@ -5366,7 +5371,7 @@
       <c r="U91" s="298"/>
       <c r="V91" s="297"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="269"/>
       <c r="C92" s="21"/>
@@ -5401,7 +5406,7 @@
       <c r="U92" s="298"/>
       <c r="V92" s="297"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="269"/>
       <c r="C93" s="21"/>
@@ -5434,7 +5439,7 @@
       <c r="U93" s="298"/>
       <c r="V93" s="297"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="12"/>
       <c r="B94" s="285"/>
       <c r="C94" s="283"/>
@@ -5467,12 +5472,12 @@
       <c r="U94" s="298"/>
       <c r="V94" s="298"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="327" t="s">
+      <c r="B95" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="328"/>
+      <c r="C95" s="334"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="141"/>
@@ -5507,7 +5512,7 @@
       <c r="U95" s="298"/>
       <c r="V95" s="297"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -5537,29 +5542,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="145"/>
-      <c r="P96" s="317" t="s">
+      <c r="P96" s="354" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="318"/>
-      <c r="R96" s="318"/>
-      <c r="S96" s="318"/>
-      <c r="T96" s="318"/>
-      <c r="U96" s="318"/>
-      <c r="V96" s="319"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A97" s="320" t="s">
+      <c r="Q96" s="355"/>
+      <c r="R96" s="355"/>
+      <c r="S96" s="355"/>
+      <c r="T96" s="355"/>
+      <c r="U96" s="355"/>
+      <c r="V96" s="356"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="340" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="321"/>
-      <c r="C97" s="322"/>
+      <c r="B97" s="341"/>
+      <c r="C97" s="342"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="153"/>
-      <c r="G97" s="323" t="s">
+      <c r="G97" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="323"/>
+      <c r="H97" s="329"/>
       <c r="I97" s="154"/>
       <c r="J97" s="155"/>
       <c r="K97" s="156"/>
@@ -5580,10 +5585,10 @@
       <c r="U97" s="40"/>
       <c r="V97" s="170"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A98" s="324"/>
-      <c r="B98" s="313"/>
-      <c r="C98" s="325"/>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="357"/>
+      <c r="B98" s="350"/>
+      <c r="C98" s="358"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="165"/>
@@ -5609,21 +5614,21 @@
       <c r="V98" s="170"/>
       <c r="W98" s="170"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A99" s="324" t="s">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="313"/>
-      <c r="C99" s="325"/>
+      <c r="B99" s="350"/>
+      <c r="C99" s="358"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="326" t="s">
+      <c r="E99" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="326"/>
-      <c r="G99" s="326"/>
-      <c r="H99" s="326"/>
-      <c r="I99" s="326"/>
-      <c r="J99" s="326"/>
+      <c r="F99" s="359"/>
+      <c r="G99" s="359"/>
+      <c r="H99" s="359"/>
+      <c r="I99" s="359"/>
+      <c r="J99" s="359"/>
       <c r="K99" s="154"/>
       <c r="L99" s="167"/>
       <c r="M99" s="196"/>
@@ -5640,7 +5645,7 @@
       <c r="V99" s="170"/>
       <c r="W99" s="170"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="161"/>
       <c r="B100" s="162"/>
       <c r="C100" s="173" t="s">
@@ -5648,13 +5653,13 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="162"/>
-      <c r="F100" s="313" t="s">
+      <c r="F100" s="350" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="313"/>
-      <c r="H100" s="313"/>
-      <c r="I100" s="313"/>
-      <c r="J100" s="313"/>
+      <c r="G100" s="350"/>
+      <c r="H100" s="350"/>
+      <c r="I100" s="350"/>
+      <c r="J100" s="350"/>
       <c r="K100" s="174"/>
       <c r="L100" s="175"/>
       <c r="M100" s="199"/>
@@ -5673,21 +5678,21 @@
       <c r="V100" s="202"/>
       <c r="W100" s="134"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A101" s="314" t="s">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="351" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="315"/>
-      <c r="C101" s="316"/>
+      <c r="B101" s="352"/>
+      <c r="C101" s="353"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="315" t="s">
+      <c r="F101" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="315"/>
-      <c r="H101" s="315"/>
-      <c r="I101" s="315"/>
-      <c r="J101" s="315"/>
+      <c r="G101" s="352"/>
+      <c r="H101" s="352"/>
+      <c r="I101" s="352"/>
+      <c r="J101" s="352"/>
       <c r="K101" s="178"/>
       <c r="L101" s="179"/>
       <c r="M101" s="203"/>
@@ -5703,11 +5708,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -5720,19 +5729,15 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -5750,32 +5755,32 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="70" customWidth="1"/>
     <col min="3" max="3" width="116" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="247" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="247" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="205" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="247" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="247" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="205" customWidth="1"/>
     <col min="7" max="7" width="7" style="205" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="205" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="205" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="205" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" style="205" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="205" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="247" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.85546875" style="70"/>
-    <col min="19" max="19" width="20.85546875" style="70" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="70" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="70" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="205" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="205" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="205" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="205" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" style="205" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="205" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="247" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.88671875" style="70"/>
+    <col min="19" max="19" width="20.88671875" style="70" customWidth="1"/>
+    <col min="20" max="20" width="18.5546875" style="70" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="70" customWidth="1"/>
     <col min="22" max="22" width="37" style="70" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="70"/>
+    <col min="23" max="16384" width="8.88671875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -5801,7 +5806,7 @@
       <c r="U1" s="152"/>
       <c r="V1" s="261"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -5827,10 +5832,10 @@
       <c r="U2" s="150"/>
       <c r="V2" s="262"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A3" s="334"/>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
       <c r="D3" s="209"/>
       <c r="E3" s="209"/>
       <c r="F3" s="74"/>
@@ -5853,7 +5858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -5879,7 +5884,7 @@
       <c r="U4" s="264"/>
       <c r="V4" s="265"/>
     </row>
-    <row r="5" spans="1:22" ht="61.15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -5909,7 +5914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -5939,29 +5944,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="341" t="s">
+      <c r="D7" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="342"/>
-      <c r="F7" s="342"/>
-      <c r="G7" s="342"/>
-      <c r="H7" s="343"/>
-      <c r="I7" s="344" t="s">
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="345"/>
-      <c r="K7" s="344" t="s">
+      <c r="J7" s="365"/>
+      <c r="K7" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="345"/>
-      <c r="M7" s="341" t="s">
+      <c r="L7" s="365"/>
+      <c r="M7" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="343"/>
+      <c r="N7" s="332"/>
       <c r="O7" s="94"/>
       <c r="P7" s="92"/>
       <c r="Q7" s="94"/>
@@ -5971,7 +5976,7 @@
       <c r="U7" s="94"/>
       <c r="V7" s="93"/>
     </row>
-    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -5985,10 +5990,10 @@
       <c r="E8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="346" t="s">
+      <c r="F8" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="347"/>
+      <c r="G8" s="361"/>
       <c r="H8" s="99" t="s">
         <v>16</v>
       </c>
@@ -6025,16 +6030,16 @@
       <c r="U8" s="64"/>
       <c r="V8" s="103"/>
     </row>
-    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
       <c r="D9" s="104"/>
       <c r="E9" s="104"/>
-      <c r="F9" s="348" t="s">
+      <c r="F9" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="349"/>
+      <c r="G9" s="363"/>
       <c r="H9" s="107" t="s">
         <v>21</v>
       </c>
@@ -6063,7 +6068,7 @@
       <c r="U9" s="64"/>
       <c r="V9" s="103"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="48"/>
       <c r="B10" s="302"/>
       <c r="C10" s="291"/>
@@ -6098,7 +6103,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="103"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14"/>
       <c r="B11" s="276"/>
       <c r="C11" s="275"/>
@@ -6133,7 +6138,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="118"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="274"/>
       <c r="C12" s="275"/>
@@ -6170,7 +6175,7 @@
       </c>
       <c r="V12" s="118"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="274"/>
       <c r="C13" s="275"/>
@@ -6205,7 +6210,7 @@
       </c>
       <c r="V13" s="118"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
@@ -6240,7 +6245,7 @@
       </c>
       <c r="V14" s="103"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14"/>
       <c r="B15" s="274"/>
       <c r="C15" s="275"/>
@@ -6273,7 +6278,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="122"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14"/>
       <c r="B16" s="276"/>
       <c r="C16" s="277"/>
@@ -6304,7 +6309,7 @@
       <c r="U16" s="124"/>
       <c r="V16" s="126"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="274"/>
       <c r="C17" s="277"/>
@@ -6335,7 +6340,7 @@
       <c r="U17" s="128"/>
       <c r="V17" s="129"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14"/>
       <c r="B18" s="274"/>
       <c r="C18" s="277"/>
@@ -6366,7 +6371,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="118"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14"/>
       <c r="B19" s="274"/>
       <c r="C19" s="275"/>
@@ -6397,7 +6402,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="118"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
       <c r="B20" s="274"/>
       <c r="C20" s="275"/>
@@ -6428,7 +6433,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="118"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14"/>
       <c r="B21" s="276"/>
       <c r="C21" s="277"/>
@@ -6459,7 +6464,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="118"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14"/>
       <c r="B22" s="274"/>
       <c r="C22" s="301"/>
@@ -6490,7 +6495,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="118"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="274"/>
       <c r="C23" s="278"/>
@@ -6521,7 +6526,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="118"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14"/>
       <c r="B24" s="274"/>
       <c r="C24" s="275"/>
@@ -6552,7 +6557,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="118"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14"/>
       <c r="B25" s="274"/>
       <c r="C25" s="275"/>
@@ -6583,7 +6588,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="118"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14"/>
       <c r="B26" s="276"/>
       <c r="C26" s="277"/>
@@ -6614,7 +6619,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="118"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14"/>
       <c r="B27" s="274"/>
       <c r="C27" s="301"/>
@@ -6645,7 +6650,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="118"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="14"/>
       <c r="B28" s="274"/>
       <c r="C28" s="275"/>
@@ -6676,7 +6681,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="118"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
       <c r="B29" s="274"/>
       <c r="C29" s="278"/>
@@ -6707,7 +6712,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="118"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="14"/>
       <c r="B30" s="274"/>
       <c r="C30" s="275"/>
@@ -6738,7 +6743,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="118"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14"/>
       <c r="B31" s="276"/>
       <c r="C31" s="277"/>
@@ -6769,7 +6774,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="118"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="14"/>
       <c r="B32" s="274"/>
       <c r="C32" s="301"/>
@@ -6800,7 +6805,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="118"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14"/>
       <c r="B33" s="274"/>
       <c r="C33" s="275"/>
@@ -6831,7 +6836,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="118"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="14"/>
       <c r="B34" s="274"/>
       <c r="C34" s="275"/>
@@ -6862,7 +6867,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="134"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="52"/>
       <c r="B35" s="274"/>
       <c r="C35" s="278"/>
@@ -6893,7 +6898,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="135"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13"/>
       <c r="B36" s="276"/>
       <c r="C36" s="301"/>
@@ -6924,7 +6929,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="103"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13"/>
       <c r="B37" s="274"/>
       <c r="C37" s="275"/>
@@ -6955,7 +6960,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="103"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="14"/>
       <c r="B38" s="276"/>
       <c r="C38" s="277"/>
@@ -6986,7 +6991,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="118"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="274"/>
       <c r="C39" s="277"/>
@@ -7017,7 +7022,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="135"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="274"/>
       <c r="C40" s="277"/>
@@ -7048,7 +7053,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="134"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
       <c r="B41" s="274"/>
       <c r="C41" s="277"/>
@@ -7079,7 +7084,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="134"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="274"/>
       <c r="C42" s="277"/>
@@ -7110,7 +7115,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="135"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="274"/>
       <c r="C43" s="277"/>
@@ -7141,7 +7146,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="118"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="293"/>
       <c r="C44" s="277"/>
@@ -7172,7 +7177,7 @@
       <c r="U44" s="124"/>
       <c r="V44" s="126"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -7210,7 +7215,7 @@
       <c r="U45" s="147"/>
       <c r="V45" s="148"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -7219,10 +7224,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="152"/>
       <c r="F46" s="153"/>
-      <c r="G46" s="323" t="s">
+      <c r="G46" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="323"/>
+      <c r="H46" s="329"/>
       <c r="I46" s="154"/>
       <c r="J46" s="155"/>
       <c r="K46" s="156"/>
@@ -7238,7 +7243,7 @@
       <c r="U46" s="160"/>
       <c r="V46" s="118"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -7262,7 +7267,7 @@
       <c r="U47" s="40"/>
       <c r="V47" s="170"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="162"/>
       <c r="C48" s="171" t="s">
         <v>74</v>
@@ -7289,7 +7294,7 @@
       <c r="U48" s="40"/>
       <c r="V48" s="170"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -7317,7 +7322,7 @@
       <c r="U49" s="40"/>
       <c r="V49" s="170"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="231" t="s">
@@ -7345,62 +7350,62 @@
       <c r="U50" s="182"/>
       <c r="V50" s="183"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A51" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="330"/>
-      <c r="C51" s="330"/>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
-      <c r="G51" s="330"/>
-      <c r="H51" s="330"/>
-      <c r="I51" s="330"/>
-      <c r="J51" s="330"/>
-      <c r="K51" s="330"/>
-      <c r="L51" s="330"/>
-      <c r="M51" s="330"/>
-      <c r="N51" s="330"/>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="330"/>
-      <c r="S51" s="330"/>
-      <c r="T51" s="330"/>
-      <c r="U51" s="330"/>
-      <c r="V51" s="331"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A52" s="320" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="336"/>
+      <c r="C51" s="336"/>
+      <c r="D51" s="336"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="336"/>
+      <c r="H51" s="336"/>
+      <c r="I51" s="336"/>
+      <c r="J51" s="336"/>
+      <c r="K51" s="336"/>
+      <c r="L51" s="336"/>
+      <c r="M51" s="336"/>
+      <c r="N51" s="336"/>
+      <c r="O51" s="336"/>
+      <c r="P51" s="336"/>
+      <c r="Q51" s="336"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="337"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="321"/>
-      <c r="C52" s="321"/>
-      <c r="D52" s="321"/>
-      <c r="E52" s="321"/>
-      <c r="F52" s="321"/>
-      <c r="G52" s="321"/>
-      <c r="H52" s="321"/>
-      <c r="I52" s="321"/>
-      <c r="J52" s="321"/>
-      <c r="K52" s="321"/>
-      <c r="L52" s="321"/>
-      <c r="M52" s="321"/>
-      <c r="N52" s="321"/>
-      <c r="O52" s="321"/>
-      <c r="P52" s="321"/>
-      <c r="Q52" s="321"/>
-      <c r="R52" s="321"/>
-      <c r="S52" s="321"/>
-      <c r="T52" s="321"/>
-      <c r="U52" s="321"/>
-      <c r="V52" s="322"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A53" s="334"/>
-      <c r="B53" s="335"/>
-      <c r="C53" s="335"/>
+      <c r="B52" s="341"/>
+      <c r="C52" s="341"/>
+      <c r="D52" s="341"/>
+      <c r="E52" s="341"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="341"/>
+      <c r="H52" s="341"/>
+      <c r="I52" s="341"/>
+      <c r="J52" s="341"/>
+      <c r="K52" s="341"/>
+      <c r="L52" s="341"/>
+      <c r="M52" s="341"/>
+      <c r="N52" s="341"/>
+      <c r="O52" s="341"/>
+      <c r="P52" s="341"/>
+      <c r="Q52" s="341"/>
+      <c r="R52" s="341"/>
+      <c r="S52" s="341"/>
+      <c r="T52" s="341"/>
+      <c r="U52" s="341"/>
+      <c r="V52" s="342"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="209"/>
       <c r="E53" s="209"/>
       <c r="F53" s="74"/>
@@ -7423,57 +7428,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A54" s="336"/>
-      <c r="B54" s="337"/>
-      <c r="C54" s="337"/>
-      <c r="D54" s="337"/>
-      <c r="E54" s="337"/>
-      <c r="F54" s="337"/>
-      <c r="G54" s="337"/>
-      <c r="H54" s="337"/>
-      <c r="I54" s="337"/>
-      <c r="J54" s="337"/>
-      <c r="K54" s="337"/>
-      <c r="L54" s="337"/>
-      <c r="M54" s="337"/>
-      <c r="N54" s="337"/>
-      <c r="O54" s="337"/>
-      <c r="P54" s="337"/>
-      <c r="Q54" s="337"/>
-      <c r="R54" s="337"/>
-      <c r="S54" s="337"/>
-      <c r="T54" s="337"/>
-      <c r="U54" s="337"/>
-      <c r="V54" s="338"/>
-    </row>
-    <row r="55" spans="1:22" ht="56.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="339"/>
-      <c r="B55" s="340"/>
-      <c r="C55" s="340"/>
-      <c r="D55" s="340"/>
-      <c r="E55" s="340"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="340"/>
-      <c r="K55" s="340"/>
-      <c r="L55" s="340"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="340"/>
-      <c r="O55" s="340"/>
-      <c r="P55" s="340"/>
-      <c r="Q55" s="340"/>
-      <c r="R55" s="340"/>
-      <c r="S55" s="340"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="347"/>
+    </row>
+    <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
       <c r="T55" s="72" t="s">
         <v>3</v>
       </c>
       <c r="U55" s="72"/>
       <c r="V55" s="79"/>
     </row>
-    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -7501,29 +7506,29 @@
       <c r="U56" s="184"/>
       <c r="V56" s="89"/>
     </row>
-    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="341" t="s">
+      <c r="D57" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="342"/>
-      <c r="F57" s="342"/>
-      <c r="G57" s="342"/>
-      <c r="H57" s="343"/>
-      <c r="I57" s="344" t="s">
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
+      <c r="H57" s="332"/>
+      <c r="I57" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="345"/>
-      <c r="K57" s="344" t="s">
+      <c r="J57" s="365"/>
+      <c r="K57" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="345"/>
-      <c r="M57" s="341" t="s">
+      <c r="L57" s="365"/>
+      <c r="M57" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="343"/>
+      <c r="N57" s="332"/>
       <c r="O57" s="94"/>
       <c r="P57" s="92"/>
       <c r="Q57" s="94"/>
@@ -7533,7 +7538,7 @@
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
     </row>
-    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -7547,10 +7552,10 @@
       <c r="E58" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="346" t="s">
+      <c r="F58" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="347"/>
+      <c r="G58" s="361"/>
       <c r="H58" s="99" t="s">
         <v>16</v>
       </c>
@@ -7587,16 +7592,16 @@
       <c r="U58" s="64"/>
       <c r="V58" s="103"/>
     </row>
-    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
       <c r="D59" s="104"/>
       <c r="E59" s="104"/>
-      <c r="F59" s="348" t="s">
+      <c r="F59" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="349"/>
+      <c r="G59" s="363"/>
       <c r="H59" s="107" t="s">
         <v>21</v>
       </c>
@@ -7625,7 +7630,7 @@
       <c r="U59" s="64"/>
       <c r="V59" s="103"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="14"/>
       <c r="B60" s="276"/>
       <c r="C60" s="291"/>
@@ -7660,7 +7665,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="103"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="32"/>
       <c r="B61" s="286"/>
       <c r="C61" s="277"/>
@@ -7695,7 +7700,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="118"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="14"/>
       <c r="B62" s="274"/>
       <c r="C62" s="277"/>
@@ -7732,7 +7737,7 @@
       </c>
       <c r="V62" s="118"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="32"/>
       <c r="B63" s="286"/>
       <c r="C63" s="287"/>
@@ -7759,15 +7764,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="332"/>
-      <c r="S63" s="332"/>
-      <c r="T63" s="332"/>
+      <c r="R63" s="338"/>
+      <c r="S63" s="338"/>
+      <c r="T63" s="338"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="118"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="14"/>
       <c r="B64" s="286"/>
       <c r="C64" s="275"/>
@@ -7792,18 +7797,18 @@
       <c r="O64" s="227"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="40"/>
-      <c r="R64" s="333" t="str">
+      <c r="R64" s="339" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="333"/>
-      <c r="T64" s="333"/>
+      <c r="S64" s="339"/>
+      <c r="T64" s="339"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="103"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="32"/>
       <c r="B65" s="286"/>
       <c r="C65" s="287"/>
@@ -7836,7 +7841,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="122"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="55"/>
       <c r="B66" s="286"/>
       <c r="C66" s="275"/>
@@ -7867,7 +7872,7 @@
       <c r="U66" s="124"/>
       <c r="V66" s="126"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="32"/>
       <c r="B67" s="286"/>
       <c r="C67" s="275"/>
@@ -7900,7 +7905,7 @@
       <c r="U67" s="41"/>
       <c r="V67" s="118"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="14"/>
       <c r="B68" s="286"/>
       <c r="C68" s="275"/>
@@ -7933,7 +7938,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="118"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="55"/>
       <c r="B69" s="286"/>
       <c r="C69" s="287"/>
@@ -7968,7 +7973,7 @@
       </c>
       <c r="V69" s="118"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13"/>
       <c r="B70" s="286"/>
       <c r="C70" s="275"/>
@@ -8003,7 +8008,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="118"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="14"/>
       <c r="B71" s="276"/>
       <c r="C71" s="287"/>
@@ -8038,7 +8043,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="118"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="56"/>
       <c r="B72" s="274"/>
       <c r="C72" s="288"/>
@@ -8071,7 +8076,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="118"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="56"/>
       <c r="B73" s="292"/>
       <c r="C73" s="288"/>
@@ -8104,7 +8109,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="118"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="32"/>
       <c r="B74" s="292"/>
       <c r="C74" s="288"/>
@@ -8142,7 +8147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="14"/>
       <c r="B75" s="276"/>
       <c r="C75" s="277"/>
@@ -8180,7 +8185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="56"/>
       <c r="B76" s="274"/>
       <c r="C76" s="277"/>
@@ -8217,7 +8222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="56"/>
       <c r="B77" s="286"/>
       <c r="C77" s="275"/>
@@ -8255,7 +8260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="56"/>
       <c r="B78" s="286"/>
       <c r="C78" s="275"/>
@@ -8293,7 +8298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="55"/>
       <c r="B79" s="286"/>
       <c r="C79" s="275"/>
@@ -8331,7 +8336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="32"/>
       <c r="B80" s="286"/>
       <c r="C80" s="289"/>
@@ -8370,7 +8375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="14"/>
       <c r="B81" s="286"/>
       <c r="C81" s="287"/>
@@ -8407,7 +8412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
       <c r="B82" s="293"/>
       <c r="C82" s="287"/>
@@ -8444,7 +8449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
       <c r="B83" s="293"/>
       <c r="C83" s="287"/>
@@ -8481,7 +8486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="293"/>
       <c r="C84" s="287"/>
@@ -8519,7 +8524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
       <c r="B85" s="286"/>
       <c r="C85" s="287"/>
@@ -8553,7 +8558,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="118"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="293"/>
       <c r="C86" s="287"/>
@@ -8584,7 +8589,7 @@
       <c r="U86" s="298"/>
       <c r="V86" s="297"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
       <c r="B87" s="293"/>
       <c r="C87" s="287"/>
@@ -8615,7 +8620,7 @@
       <c r="U87" s="298"/>
       <c r="V87" s="297"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="293"/>
       <c r="C88" s="287"/>
@@ -8646,7 +8651,7 @@
       <c r="U88" s="298"/>
       <c r="V88" s="297"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="293"/>
       <c r="C89" s="287"/>
@@ -8677,7 +8682,7 @@
       <c r="U89" s="298"/>
       <c r="V89" s="297"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="293"/>
       <c r="C90" s="287"/>
@@ -8708,7 +8713,7 @@
       <c r="U90" s="298"/>
       <c r="V90" s="297"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="293"/>
       <c r="C91" s="287"/>
@@ -8739,7 +8744,7 @@
       <c r="U91" s="298"/>
       <c r="V91" s="297"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="293"/>
       <c r="C92" s="290"/>
@@ -8772,7 +8777,7 @@
       <c r="U92" s="298"/>
       <c r="V92" s="297"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
       <c r="B93" s="286"/>
       <c r="C93" s="277"/>
@@ -8803,7 +8808,7 @@
       <c r="U93" s="298"/>
       <c r="V93" s="297"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="12"/>
       <c r="B94" s="293"/>
       <c r="C94" s="277"/>
@@ -8834,12 +8839,12 @@
       <c r="U94" s="298"/>
       <c r="V94" s="297"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="327" t="s">
+      <c r="B95" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="328"/>
+      <c r="C95" s="334"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="141"/>
@@ -8874,7 +8879,7 @@
       <c r="U95" s="298"/>
       <c r="V95" s="297"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -8904,29 +8909,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="145"/>
-      <c r="P96" s="317" t="s">
+      <c r="P96" s="354" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="318"/>
-      <c r="R96" s="318"/>
-      <c r="S96" s="318"/>
-      <c r="T96" s="318"/>
-      <c r="U96" s="318"/>
-      <c r="V96" s="319"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A97" s="320" t="s">
+      <c r="Q96" s="355"/>
+      <c r="R96" s="355"/>
+      <c r="S96" s="355"/>
+      <c r="T96" s="355"/>
+      <c r="U96" s="355"/>
+      <c r="V96" s="356"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="340" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="321"/>
-      <c r="C97" s="322"/>
+      <c r="B97" s="341"/>
+      <c r="C97" s="342"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="153"/>
-      <c r="G97" s="323" t="s">
+      <c r="G97" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="323"/>
+      <c r="H97" s="329"/>
       <c r="I97" s="165"/>
       <c r="J97" s="155"/>
       <c r="K97" s="155"/>
@@ -8947,10 +8952,10 @@
       <c r="U97" s="40"/>
       <c r="V97" s="170"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A98" s="324"/>
-      <c r="B98" s="313"/>
-      <c r="C98" s="325"/>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="357"/>
+      <c r="B98" s="350"/>
+      <c r="C98" s="358"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="165"/>
@@ -8975,21 +8980,21 @@
       <c r="U98" s="40"/>
       <c r="V98" s="170"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="161"/>
       <c r="B99" s="162"/>
       <c r="C99" s="163" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="326" t="s">
+      <c r="E99" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="326"/>
-      <c r="G99" s="326"/>
-      <c r="H99" s="326"/>
-      <c r="I99" s="326"/>
-      <c r="J99" s="326"/>
+      <c r="F99" s="359"/>
+      <c r="G99" s="359"/>
+      <c r="H99" s="359"/>
+      <c r="I99" s="359"/>
+      <c r="J99" s="359"/>
       <c r="K99" s="166"/>
       <c r="L99" s="235"/>
       <c r="M99" s="236"/>
@@ -9005,20 +9010,20 @@
       <c r="U99" s="40"/>
       <c r="V99" s="170"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="161"/>
       <c r="B100" s="162"/>
       <c r="C100" s="163"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="313" t="str">
+      <c r="E100" s="350" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="F100" s="313"/>
-      <c r="G100" s="313"/>
-      <c r="H100" s="313"/>
-      <c r="I100" s="313"/>
-      <c r="J100" s="313"/>
+      <c r="F100" s="350"/>
+      <c r="G100" s="350"/>
+      <c r="H100" s="350"/>
+      <c r="I100" s="350"/>
+      <c r="J100" s="350"/>
       <c r="K100" s="239"/>
       <c r="L100" s="240"/>
       <c r="M100" s="241"/>
@@ -9036,21 +9041,21 @@
       <c r="U100" s="201"/>
       <c r="V100" s="202"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A101" s="314" t="s">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="351" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="315"/>
-      <c r="C101" s="316"/>
+      <c r="B101" s="352"/>
+      <c r="C101" s="353"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="315" t="s">
+      <c r="F101" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="315"/>
-      <c r="H101" s="315"/>
-      <c r="I101" s="315"/>
-      <c r="J101" s="315"/>
+      <c r="G101" s="352"/>
+      <c r="H101" s="352"/>
+      <c r="I101" s="352"/>
+      <c r="J101" s="352"/>
       <c r="K101" s="243"/>
       <c r="L101" s="244"/>
       <c r="M101" s="245"/>
@@ -9064,7 +9069,7 @@
       <c r="U101" s="182"/>
       <c r="V101" s="183"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P102" s="128"/>
       <c r="Q102" s="128"/>
       <c r="R102" s="128"/>
@@ -9073,7 +9078,7 @@
       <c r="U102" s="248"/>
       <c r="V102" s="248"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="201"/>
@@ -9084,21 +9089,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="E99:J99"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="F101:J101"/>
@@ -9114,9 +9104,24 @@
     <mergeCell ref="P96:V96"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="A54:V54"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -9127,38 +9132,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B94"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60:O94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="106.85546875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="247" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="247" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" style="247" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="205" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="106.88671875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="247" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="247" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" style="247" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="205" customWidth="1"/>
     <col min="9" max="9" width="7" style="205" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="205" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="205" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="205" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="205" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="205" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="247" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.85546875" style="70"/>
-    <col min="20" max="20" width="18.28515625" style="70" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" style="70" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="70" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="70" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="205" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="205" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="205" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="205" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" style="205" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" style="205" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="247" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" style="70"/>
+    <col min="20" max="20" width="18.33203125" style="70" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" style="70" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" style="70" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="70" customWidth="1"/>
     <col min="24" max="24" width="37" style="70" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="70"/>
+    <col min="25" max="16384" width="8.88671875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -9186,7 +9191,7 @@
       <c r="W1" s="152"/>
       <c r="X1" s="261"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -9214,10 +9219,10 @@
       <c r="W2" s="150"/>
       <c r="X2" s="262"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A3" s="334"/>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
       <c r="D3" s="209"/>
       <c r="E3" s="209"/>
       <c r="F3" s="209"/>
@@ -9242,7 +9247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -9270,7 +9275,7 @@
       <c r="W4" s="264"/>
       <c r="X4" s="265"/>
     </row>
-    <row r="5" spans="1:24" ht="58.15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:24" ht="58.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -9302,7 +9307,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -9334,31 +9339,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="341" t="s">
+      <c r="D7" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="342"/>
-      <c r="F7" s="342"/>
-      <c r="G7" s="342"/>
-      <c r="H7" s="342"/>
-      <c r="I7" s="342"/>
-      <c r="J7" s="343"/>
-      <c r="K7" s="344" t="s">
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="331"/>
+      <c r="I7" s="331"/>
+      <c r="J7" s="332"/>
+      <c r="K7" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="345"/>
-      <c r="M7" s="344" t="s">
+      <c r="L7" s="365"/>
+      <c r="M7" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="345"/>
-      <c r="O7" s="341" t="s">
+      <c r="N7" s="365"/>
+      <c r="O7" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="343"/>
+      <c r="P7" s="332"/>
       <c r="Q7" s="94"/>
       <c r="R7" s="92"/>
       <c r="S7" s="94"/>
@@ -9368,7 +9373,7 @@
       <c r="W7" s="94"/>
       <c r="X7" s="93"/>
     </row>
-    <row r="8" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -9388,10 +9393,10 @@
       <c r="G8" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="346" t="s">
+      <c r="H8" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="347"/>
+      <c r="I8" s="361"/>
       <c r="J8" s="99" t="s">
         <v>16</v>
       </c>
@@ -9428,7 +9433,7 @@
       <c r="W8" s="64"/>
       <c r="X8" s="103"/>
     </row>
-    <row r="9" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
@@ -9440,10 +9445,10 @@
       <c r="G9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="348" t="s">
+      <c r="H9" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="349"/>
+      <c r="I9" s="363"/>
       <c r="J9" s="107" t="s">
         <v>21</v>
       </c>
@@ -9470,10 +9475,10 @@
       <c r="W9" s="64"/>
       <c r="X9" s="103"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="48"/>
-      <c r="B10" s="350"/>
-      <c r="C10" s="351"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="314"/>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="58"/>
@@ -9489,10 +9494,7 @@
       <c r="N10" s="115">
         <v>0</v>
       </c>
-      <c r="O10" s="44">
-        <f t="shared" ref="O10" si="0">+I10</f>
-        <v>0</v>
-      </c>
+      <c r="O10" s="44"/>
       <c r="P10" s="115">
         <f>+L10</f>
         <v>0</v>
@@ -9508,10 +9510,10 @@
       <c r="W10" s="10"/>
       <c r="X10" s="103"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14"/>
-      <c r="B11" s="352"/>
-      <c r="C11" s="353"/>
+      <c r="B11" s="315"/>
+      <c r="C11" s="316"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="17"/>
@@ -9527,12 +9529,9 @@
       <c r="N11" s="115">
         <v>0</v>
       </c>
-      <c r="O11" s="44">
-        <f>+I11</f>
-        <v>0</v>
-      </c>
+      <c r="O11" s="44"/>
       <c r="P11" s="44">
-        <f t="shared" ref="P11:P44" si="1">+L11</f>
+        <f t="shared" ref="P11:P44" si="0">+L11</f>
         <v>0</v>
       </c>
       <c r="Q11" s="225"/>
@@ -9546,10 +9545,10 @@
       <c r="W11" s="4"/>
       <c r="X11" s="118"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
-      <c r="B12" s="357"/>
-      <c r="C12" s="353"/>
+      <c r="B12" s="320"/>
+      <c r="C12" s="316"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="17"/>
@@ -9565,12 +9564,9 @@
       <c r="N12" s="115">
         <v>0</v>
       </c>
-      <c r="O12" s="44">
-        <f t="shared" ref="O12:O44" si="2">+I12</f>
-        <v>0</v>
-      </c>
+      <c r="O12" s="44"/>
       <c r="P12" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12" s="227"/>
@@ -9586,10 +9582,10 @@
       </c>
       <c r="X12" s="118"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
-      <c r="B13" s="357"/>
-      <c r="C13" s="353"/>
+      <c r="B13" s="320"/>
+      <c r="C13" s="316"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="17"/>
@@ -9605,12 +9601,9 @@
       <c r="N13" s="115">
         <v>0</v>
       </c>
-      <c r="O13" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O13" s="44"/>
       <c r="P13" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="227"/>
@@ -9626,10 +9619,10 @@
       </c>
       <c r="X13" s="118"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
-      <c r="B14" s="357"/>
-      <c r="C14" s="353"/>
+      <c r="B14" s="320"/>
+      <c r="C14" s="316"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="17"/>
@@ -9645,12 +9638,9 @@
       <c r="N14" s="115">
         <v>0</v>
       </c>
-      <c r="O14" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O14" s="44"/>
       <c r="P14" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14" s="227"/>
@@ -9666,10 +9656,10 @@
       </c>
       <c r="X14" s="103"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14"/>
-      <c r="B15" s="357"/>
-      <c r="C15" s="353"/>
+      <c r="B15" s="320"/>
+      <c r="C15" s="316"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="17"/>
@@ -9685,12 +9675,9 @@
       <c r="N15" s="115">
         <v>0</v>
       </c>
-      <c r="O15" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O15" s="44"/>
       <c r="P15" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q15" s="227"/>
@@ -9704,10 +9691,10 @@
       <c r="W15" s="4"/>
       <c r="X15" s="122"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14"/>
-      <c r="B16" s="352"/>
-      <c r="C16" s="354"/>
+      <c r="B16" s="315"/>
+      <c r="C16" s="317"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="17"/>
@@ -9723,12 +9710,9 @@
       <c r="N16" s="115">
         <v>0</v>
       </c>
-      <c r="O16" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O16" s="44"/>
       <c r="P16" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q16" s="227"/>
@@ -9740,10 +9724,10 @@
       <c r="W16" s="124"/>
       <c r="X16" s="126"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
-      <c r="B17" s="357"/>
-      <c r="C17" s="354"/>
+      <c r="B17" s="320"/>
+      <c r="C17" s="317"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="17"/>
@@ -9759,12 +9743,9 @@
       <c r="N17" s="115">
         <v>0</v>
       </c>
-      <c r="O17" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O17" s="44"/>
       <c r="P17" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q17" s="227"/>
@@ -9776,10 +9757,10 @@
       <c r="W17" s="128"/>
       <c r="X17" s="129"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14"/>
-      <c r="B18" s="357"/>
-      <c r="C18" s="354"/>
+      <c r="B18" s="320"/>
+      <c r="C18" s="317"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="17"/>
@@ -9795,12 +9776,9 @@
       <c r="N18" s="115">
         <v>0</v>
       </c>
-      <c r="O18" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O18" s="44"/>
       <c r="P18" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q18" s="227"/>
@@ -9812,10 +9790,10 @@
       <c r="W18" s="4"/>
       <c r="X18" s="118"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14"/>
-      <c r="B19" s="357"/>
-      <c r="C19" s="353"/>
+      <c r="B19" s="320"/>
+      <c r="C19" s="316"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="17"/>
@@ -9831,12 +9809,9 @@
       <c r="N19" s="115">
         <v>0</v>
       </c>
-      <c r="O19" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O19" s="44"/>
       <c r="P19" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q19" s="227"/>
@@ -9848,10 +9823,10 @@
       <c r="W19" s="43"/>
       <c r="X19" s="118"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
-      <c r="B20" s="357"/>
-      <c r="C20" s="353"/>
+      <c r="B20" s="320"/>
+      <c r="C20" s="316"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="17"/>
@@ -9867,12 +9842,9 @@
       <c r="N20" s="115">
         <v>0</v>
       </c>
-      <c r="O20" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O20" s="44"/>
       <c r="P20" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q20" s="227"/>
@@ -9884,10 +9856,10 @@
       <c r="W20" s="4"/>
       <c r="X20" s="118"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14"/>
-      <c r="B21" s="352"/>
-      <c r="C21" s="354"/>
+      <c r="B21" s="315"/>
+      <c r="C21" s="317"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="17"/>
@@ -9903,12 +9875,9 @@
       <c r="N21" s="115">
         <v>0</v>
       </c>
-      <c r="O21" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O21" s="44"/>
       <c r="P21" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q21" s="227"/>
@@ -9920,10 +9889,10 @@
       <c r="W21" s="4"/>
       <c r="X21" s="118"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14"/>
-      <c r="B22" s="357"/>
-      <c r="C22" s="355"/>
+      <c r="B22" s="320"/>
+      <c r="C22" s="318"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="17"/>
@@ -9939,12 +9908,9 @@
       <c r="N22" s="115">
         <v>0</v>
       </c>
-      <c r="O22" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O22" s="44"/>
       <c r="P22" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q22" s="227"/>
@@ -9956,10 +9922,10 @@
       <c r="W22" s="4"/>
       <c r="X22" s="118"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
-      <c r="B23" s="357"/>
-      <c r="C23" s="356"/>
+      <c r="B23" s="320"/>
+      <c r="C23" s="319"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="17"/>
@@ -9975,12 +9941,9 @@
       <c r="N23" s="115">
         <v>0</v>
       </c>
-      <c r="O23" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O23" s="44"/>
       <c r="P23" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q23" s="227"/>
@@ -9992,10 +9955,10 @@
       <c r="W23" s="4"/>
       <c r="X23" s="118"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14"/>
-      <c r="B24" s="357"/>
-      <c r="C24" s="353"/>
+      <c r="B24" s="320"/>
+      <c r="C24" s="316"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="17"/>
@@ -10011,12 +9974,9 @@
       <c r="N24" s="115">
         <v>0</v>
       </c>
-      <c r="O24" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O24" s="44"/>
       <c r="P24" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q24" s="227"/>
@@ -10028,10 +9988,10 @@
       <c r="W24" s="4"/>
       <c r="X24" s="118"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14"/>
-      <c r="B25" s="357"/>
-      <c r="C25" s="353"/>
+      <c r="B25" s="320"/>
+      <c r="C25" s="316"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="17"/>
@@ -10047,12 +10007,9 @@
       <c r="N25" s="115">
         <v>0</v>
       </c>
-      <c r="O25" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O25" s="44"/>
       <c r="P25" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q25" s="227"/>
@@ -10064,10 +10021,10 @@
       <c r="W25" s="4"/>
       <c r="X25" s="118"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14"/>
-      <c r="B26" s="352"/>
-      <c r="C26" s="354"/>
+      <c r="B26" s="315"/>
+      <c r="C26" s="317"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="17"/>
@@ -10083,12 +10040,9 @@
       <c r="N26" s="115">
         <v>0</v>
       </c>
-      <c r="O26" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O26" s="44"/>
       <c r="P26" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q26" s="227"/>
@@ -10100,10 +10054,10 @@
       <c r="W26" s="4"/>
       <c r="X26" s="118"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14"/>
-      <c r="B27" s="357"/>
-      <c r="C27" s="355"/>
+      <c r="B27" s="320"/>
+      <c r="C27" s="318"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="17"/>
@@ -10119,12 +10073,9 @@
       <c r="N27" s="115">
         <v>0</v>
       </c>
-      <c r="O27" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O27" s="44"/>
       <c r="P27" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q27" s="227"/>
@@ -10136,10 +10087,10 @@
       <c r="W27" s="4"/>
       <c r="X27" s="118"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="14"/>
-      <c r="B28" s="357"/>
-      <c r="C28" s="353"/>
+      <c r="B28" s="320"/>
+      <c r="C28" s="316"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="17"/>
@@ -10155,12 +10106,9 @@
       <c r="N28" s="115">
         <v>0</v>
       </c>
-      <c r="O28" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O28" s="44"/>
       <c r="P28" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q28" s="227"/>
@@ -10172,10 +10120,10 @@
       <c r="W28" s="4"/>
       <c r="X28" s="118"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
-      <c r="B29" s="357"/>
-      <c r="C29" s="356"/>
+      <c r="B29" s="320"/>
+      <c r="C29" s="319"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="17"/>
@@ -10191,12 +10139,9 @@
       <c r="N29" s="115">
         <v>0</v>
       </c>
-      <c r="O29" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O29" s="44"/>
       <c r="P29" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q29" s="227"/>
@@ -10208,10 +10153,10 @@
       <c r="W29" s="4"/>
       <c r="X29" s="118"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="14"/>
-      <c r="B30" s="357"/>
-      <c r="C30" s="353"/>
+      <c r="B30" s="320"/>
+      <c r="C30" s="316"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="17"/>
@@ -10227,12 +10172,9 @@
       <c r="N30" s="115">
         <v>0</v>
       </c>
-      <c r="O30" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O30" s="44"/>
       <c r="P30" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q30" s="227"/>
@@ -10244,10 +10186,10 @@
       <c r="W30" s="4"/>
       <c r="X30" s="118"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14"/>
-      <c r="B31" s="352"/>
-      <c r="C31" s="354"/>
+      <c r="B31" s="315"/>
+      <c r="C31" s="317"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="17"/>
@@ -10263,12 +10205,9 @@
       <c r="N31" s="115">
         <v>0</v>
       </c>
-      <c r="O31" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O31" s="44"/>
       <c r="P31" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q31" s="227"/>
@@ -10280,10 +10219,10 @@
       <c r="W31" s="4"/>
       <c r="X31" s="118"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="14"/>
-      <c r="B32" s="357"/>
-      <c r="C32" s="355"/>
+      <c r="B32" s="320"/>
+      <c r="C32" s="318"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="17"/>
@@ -10299,12 +10238,9 @@
       <c r="N32" s="115">
         <v>0</v>
       </c>
-      <c r="O32" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O32" s="44"/>
       <c r="P32" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q32" s="227"/>
@@ -10316,10 +10252,10 @@
       <c r="W32" s="4"/>
       <c r="X32" s="118"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14"/>
-      <c r="B33" s="357"/>
-      <c r="C33" s="353"/>
+      <c r="B33" s="320"/>
+      <c r="C33" s="316"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="17"/>
@@ -10335,12 +10271,9 @@
       <c r="N33" s="115">
         <v>0</v>
       </c>
-      <c r="O33" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O33" s="44"/>
       <c r="P33" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q33" s="227"/>
@@ -10352,10 +10285,10 @@
       <c r="W33" s="4"/>
       <c r="X33" s="118"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="14"/>
-      <c r="B34" s="357"/>
-      <c r="C34" s="353"/>
+      <c r="B34" s="320"/>
+      <c r="C34" s="316"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="17"/>
@@ -10371,12 +10304,9 @@
       <c r="N34" s="115">
         <v>0</v>
       </c>
-      <c r="O34" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O34" s="44"/>
       <c r="P34" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q34" s="227"/>
@@ -10388,10 +10318,10 @@
       <c r="W34" s="4"/>
       <c r="X34" s="134"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="52"/>
-      <c r="B35" s="357"/>
-      <c r="C35" s="356"/>
+      <c r="B35" s="320"/>
+      <c r="C35" s="319"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="55"/>
@@ -10407,12 +10337,9 @@
       <c r="N35" s="115">
         <v>0</v>
       </c>
-      <c r="O35" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O35" s="44"/>
       <c r="P35" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q35" s="227"/>
@@ -10424,10 +10351,10 @@
       <c r="W35" s="4"/>
       <c r="X35" s="135"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="52"/>
-      <c r="B36" s="352"/>
-      <c r="C36" s="355"/>
+      <c r="B36" s="315"/>
+      <c r="C36" s="318"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="17"/>
@@ -10443,12 +10370,9 @@
       <c r="N36" s="115">
         <v>0</v>
       </c>
-      <c r="O36" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O36" s="44"/>
       <c r="P36" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q36" s="227"/>
@@ -10460,10 +10384,10 @@
       <c r="W36" s="4"/>
       <c r="X36" s="103"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="52"/>
-      <c r="B37" s="357"/>
-      <c r="C37" s="353"/>
+      <c r="B37" s="320"/>
+      <c r="C37" s="316"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="17"/>
@@ -10479,12 +10403,9 @@
       <c r="N37" s="115">
         <v>0</v>
       </c>
-      <c r="O37" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O37" s="44"/>
       <c r="P37" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q37" s="227"/>
@@ -10496,10 +10417,10 @@
       <c r="W37" s="4"/>
       <c r="X37" s="103"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="14"/>
-      <c r="B38" s="352"/>
-      <c r="C38" s="354"/>
+      <c r="B38" s="315"/>
+      <c r="C38" s="317"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="35"/>
@@ -10515,12 +10436,9 @@
       <c r="N38" s="115">
         <v>0</v>
       </c>
-      <c r="O38" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O38" s="44"/>
       <c r="P38" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q38" s="227"/>
@@ -10532,10 +10450,10 @@
       <c r="W38" s="4"/>
       <c r="X38" s="118"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
-      <c r="B39" s="357"/>
-      <c r="C39" s="354"/>
+      <c r="B39" s="320"/>
+      <c r="C39" s="317"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="17"/>
@@ -10551,12 +10469,9 @@
       <c r="N39" s="115">
         <v>0</v>
       </c>
-      <c r="O39" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O39" s="44"/>
       <c r="P39" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q39" s="227"/>
@@ -10568,10 +10483,10 @@
       <c r="W39" s="4"/>
       <c r="X39" s="135"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
-      <c r="B40" s="357"/>
-      <c r="C40" s="354"/>
+      <c r="B40" s="320"/>
+      <c r="C40" s="317"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="17"/>
@@ -10587,12 +10502,9 @@
       <c r="N40" s="115">
         <v>0</v>
       </c>
-      <c r="O40" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O40" s="44"/>
       <c r="P40" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q40" s="227"/>
@@ -10604,10 +10516,10 @@
       <c r="W40" s="4"/>
       <c r="X40" s="134"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
-      <c r="B41" s="357"/>
-      <c r="C41" s="354"/>
+      <c r="B41" s="320"/>
+      <c r="C41" s="317"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="17"/>
@@ -10623,12 +10535,9 @@
       <c r="N41" s="115">
         <v>0</v>
       </c>
-      <c r="O41" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O41" s="44"/>
       <c r="P41" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q41" s="227"/>
@@ -10640,10 +10549,10 @@
       <c r="W41" s="4"/>
       <c r="X41" s="134"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
-      <c r="B42" s="357"/>
-      <c r="C42" s="354"/>
+      <c r="B42" s="320"/>
+      <c r="C42" s="317"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="17"/>
@@ -10659,12 +10568,9 @@
       <c r="N42" s="115">
         <v>0</v>
       </c>
-      <c r="O42" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O42" s="44"/>
       <c r="P42" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q42" s="227"/>
@@ -10676,10 +10582,10 @@
       <c r="W42" s="4"/>
       <c r="X42" s="135"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="354"/>
+      <c r="B43" s="320"/>
+      <c r="C43" s="317"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="17"/>
@@ -10695,12 +10601,9 @@
       <c r="N43" s="115">
         <v>0</v>
       </c>
-      <c r="O43" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O43" s="44"/>
       <c r="P43" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q43" s="227"/>
@@ -10712,10 +10615,10 @@
       <c r="W43" s="4"/>
       <c r="X43" s="118"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11"/>
-      <c r="B44" s="363"/>
-      <c r="C44" s="354"/>
+      <c r="B44" s="326"/>
+      <c r="C44" s="317"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="59"/>
@@ -10731,12 +10634,9 @@
       <c r="N44" s="115">
         <v>0</v>
       </c>
-      <c r="O44" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O44" s="44"/>
       <c r="P44" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q44" s="119"/>
@@ -10748,7 +10648,7 @@
       <c r="W44" s="124"/>
       <c r="X44" s="126"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -10788,7 +10688,7 @@
       <c r="W45" s="147"/>
       <c r="X45" s="148"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -10817,7 +10717,7 @@
       <c r="W46" s="160"/>
       <c r="X46" s="118"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -10843,22 +10743,22 @@
       <c r="W47" s="40"/>
       <c r="X47" s="170"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="162"/>
       <c r="C48" s="173" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="326" t="s">
+      <c r="E48" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="326"/>
-      <c r="G48" s="326"/>
-      <c r="H48" s="326"/>
-      <c r="I48" s="326"/>
-      <c r="J48" s="326"/>
-      <c r="K48" s="326"/>
-      <c r="L48" s="326"/>
+      <c r="F48" s="359"/>
+      <c r="G48" s="359"/>
+      <c r="H48" s="359"/>
+      <c r="I48" s="359"/>
+      <c r="J48" s="359"/>
+      <c r="K48" s="359"/>
+      <c r="L48" s="359"/>
       <c r="M48" s="166"/>
       <c r="N48" s="252"/>
       <c r="O48" s="165"/>
@@ -10872,7 +10772,7 @@
       <c r="W48" s="40"/>
       <c r="X48" s="170"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -10902,7 +10802,7 @@
       <c r="W49" s="40"/>
       <c r="X49" s="170"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="231" t="s">
@@ -10932,66 +10832,66 @@
       <c r="W50" s="259"/>
       <c r="X50" s="183"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A51" s="329" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="330"/>
-      <c r="C51" s="330"/>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
-      <c r="G51" s="330"/>
-      <c r="H51" s="330"/>
-      <c r="I51" s="330"/>
-      <c r="J51" s="330"/>
-      <c r="K51" s="330"/>
-      <c r="L51" s="330"/>
-      <c r="M51" s="330"/>
-      <c r="N51" s="330"/>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="330"/>
-      <c r="S51" s="330"/>
-      <c r="T51" s="330"/>
-      <c r="U51" s="330"/>
-      <c r="V51" s="330"/>
-      <c r="W51" s="330"/>
-      <c r="X51" s="331"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A52" s="320" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="336"/>
+      <c r="C51" s="336"/>
+      <c r="D51" s="336"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="336"/>
+      <c r="H51" s="336"/>
+      <c r="I51" s="336"/>
+      <c r="J51" s="336"/>
+      <c r="K51" s="336"/>
+      <c r="L51" s="336"/>
+      <c r="M51" s="336"/>
+      <c r="N51" s="336"/>
+      <c r="O51" s="336"/>
+      <c r="P51" s="336"/>
+      <c r="Q51" s="336"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="336"/>
+      <c r="W51" s="336"/>
+      <c r="X51" s="337"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="321"/>
-      <c r="C52" s="321"/>
-      <c r="D52" s="321"/>
-      <c r="E52" s="321"/>
-      <c r="F52" s="321"/>
-      <c r="G52" s="321"/>
-      <c r="H52" s="321"/>
-      <c r="I52" s="321"/>
-      <c r="J52" s="321"/>
-      <c r="K52" s="321"/>
-      <c r="L52" s="321"/>
-      <c r="M52" s="321"/>
-      <c r="N52" s="321"/>
-      <c r="O52" s="321"/>
-      <c r="P52" s="321"/>
-      <c r="Q52" s="321"/>
-      <c r="R52" s="321"/>
-      <c r="S52" s="321"/>
-      <c r="T52" s="321"/>
-      <c r="U52" s="321"/>
-      <c r="V52" s="321"/>
-      <c r="W52" s="321"/>
-      <c r="X52" s="322"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A53" s="334"/>
-      <c r="B53" s="335"/>
-      <c r="C53" s="335"/>
+      <c r="B52" s="341"/>
+      <c r="C52" s="341"/>
+      <c r="D52" s="341"/>
+      <c r="E52" s="341"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="341"/>
+      <c r="H52" s="341"/>
+      <c r="I52" s="341"/>
+      <c r="J52" s="341"/>
+      <c r="K52" s="341"/>
+      <c r="L52" s="341"/>
+      <c r="M52" s="341"/>
+      <c r="N52" s="341"/>
+      <c r="O52" s="341"/>
+      <c r="P52" s="341"/>
+      <c r="Q52" s="341"/>
+      <c r="R52" s="341"/>
+      <c r="S52" s="341"/>
+      <c r="T52" s="341"/>
+      <c r="U52" s="341"/>
+      <c r="V52" s="341"/>
+      <c r="W52" s="341"/>
+      <c r="X52" s="342"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="209"/>
       <c r="E53" s="209"/>
       <c r="F53" s="209"/>
@@ -11016,53 +10916,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A54" s="336"/>
-      <c r="B54" s="337"/>
-      <c r="C54" s="337"/>
-      <c r="D54" s="337"/>
-      <c r="E54" s="337"/>
-      <c r="F54" s="337"/>
-      <c r="G54" s="337"/>
-      <c r="H54" s="337"/>
-      <c r="I54" s="337"/>
-      <c r="J54" s="337"/>
-      <c r="K54" s="337"/>
-      <c r="L54" s="337"/>
-      <c r="M54" s="337"/>
-      <c r="N54" s="337"/>
-      <c r="O54" s="337"/>
-      <c r="P54" s="337"/>
-      <c r="Q54" s="337"/>
-      <c r="R54" s="337"/>
-      <c r="S54" s="337"/>
-      <c r="T54" s="337"/>
-      <c r="U54" s="337"/>
-      <c r="V54" s="337"/>
-      <c r="W54" s="337"/>
-      <c r="X54" s="338"/>
-    </row>
-    <row r="55" spans="1:24" ht="59.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="339"/>
-      <c r="B55" s="340"/>
-      <c r="C55" s="340"/>
-      <c r="D55" s="340"/>
-      <c r="E55" s="340"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="340"/>
-      <c r="K55" s="340"/>
-      <c r="L55" s="340"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="340"/>
-      <c r="O55" s="340"/>
-      <c r="P55" s="340"/>
-      <c r="Q55" s="340"/>
-      <c r="R55" s="340"/>
-      <c r="S55" s="340"/>
-      <c r="T55" s="340"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="346"/>
+      <c r="W54" s="346"/>
+      <c r="X54" s="347"/>
+    </row>
+    <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
+      <c r="T55" s="349"/>
       <c r="U55" s="295" t="s">
         <v>78</v>
       </c>
@@ -11070,7 +10970,7 @@
       <c r="W55" s="72"/>
       <c r="X55" s="79"/>
     </row>
-    <row r="56" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -11100,31 +11000,31 @@
       <c r="W56" s="184"/>
       <c r="X56" s="89"/>
     </row>
-    <row r="57" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="341" t="s">
+      <c r="D57" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="342"/>
-      <c r="F57" s="342"/>
-      <c r="G57" s="342"/>
-      <c r="H57" s="342"/>
-      <c r="I57" s="342"/>
-      <c r="J57" s="343"/>
-      <c r="K57" s="344" t="s">
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
+      <c r="H57" s="331"/>
+      <c r="I57" s="331"/>
+      <c r="J57" s="332"/>
+      <c r="K57" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="345"/>
-      <c r="M57" s="344" t="s">
+      <c r="L57" s="365"/>
+      <c r="M57" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="345"/>
-      <c r="O57" s="341" t="s">
+      <c r="N57" s="365"/>
+      <c r="O57" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="343"/>
+      <c r="P57" s="332"/>
       <c r="Q57" s="94"/>
       <c r="R57" s="92"/>
       <c r="S57" s="94"/>
@@ -11134,7 +11034,7 @@
       <c r="W57" s="94"/>
       <c r="X57" s="93"/>
     </row>
-    <row r="58" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -11154,10 +11054,10 @@
       <c r="G58" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="346" t="s">
+      <c r="H58" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="347"/>
+      <c r="I58" s="361"/>
       <c r="J58" s="99" t="s">
         <v>16</v>
       </c>
@@ -11194,7 +11094,7 @@
       <c r="W58" s="64"/>
       <c r="X58" s="103"/>
     </row>
-    <row r="59" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
@@ -11206,10 +11106,10 @@
       <c r="G59" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="348" t="s">
+      <c r="H59" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="349"/>
+      <c r="I59" s="363"/>
       <c r="J59" s="107" t="s">
         <v>21</v>
       </c>
@@ -11238,10 +11138,10 @@
       <c r="W59" s="64"/>
       <c r="X59" s="103"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="14"/>
-      <c r="B60" s="352"/>
-      <c r="C60" s="351"/>
+      <c r="B60" s="315"/>
+      <c r="C60" s="314"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="69"/>
@@ -11257,10 +11157,7 @@
       <c r="N60" s="115">
         <v>0</v>
       </c>
-      <c r="O60" s="44">
-        <f t="shared" ref="O60:O94" si="3">+I60</f>
-        <v>0</v>
-      </c>
+      <c r="O60" s="44"/>
       <c r="P60" s="115">
         <f>+L60</f>
         <v>0</v>
@@ -11278,10 +11175,10 @@
       <c r="W60" s="10"/>
       <c r="X60" s="103"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="32"/>
-      <c r="B61" s="358"/>
-      <c r="C61" s="354"/>
+      <c r="B61" s="321"/>
+      <c r="C61" s="317"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="17"/>
@@ -11297,12 +11194,9 @@
       <c r="N61" s="115">
         <v>0</v>
       </c>
-      <c r="O61" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O61" s="44"/>
       <c r="P61" s="44">
-        <f t="shared" ref="P61:P94" si="4">+L61</f>
+        <f t="shared" ref="P61:P94" si="1">+L61</f>
         <v>0</v>
       </c>
       <c r="Q61" s="227"/>
@@ -11318,10 +11212,10 @@
       <c r="W61" s="4"/>
       <c r="X61" s="118"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="14"/>
-      <c r="B62" s="357"/>
-      <c r="C62" s="354"/>
+      <c r="B62" s="320"/>
+      <c r="C62" s="317"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="35"/>
@@ -11337,12 +11231,9 @@
       <c r="N62" s="115">
         <v>0</v>
       </c>
-      <c r="O62" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O62" s="44"/>
       <c r="P62" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q62" s="227"/>
@@ -11360,10 +11251,10 @@
       </c>
       <c r="X62" s="118"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="32"/>
-      <c r="B63" s="358"/>
-      <c r="C63" s="359"/>
+      <c r="B63" s="321"/>
+      <c r="C63" s="322"/>
       <c r="D63" s="36"/>
       <c r="E63" s="9"/>
       <c r="F63" s="35"/>
@@ -11379,12 +11270,9 @@
       <c r="N63" s="115">
         <v>0</v>
       </c>
-      <c r="O63" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O63" s="44"/>
       <c r="P63" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q63" s="227"/>
@@ -11392,18 +11280,18 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="332"/>
-      <c r="U63" s="332"/>
-      <c r="V63" s="332"/>
+      <c r="T63" s="338"/>
+      <c r="U63" s="338"/>
+      <c r="V63" s="338"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="X63" s="118"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="14"/>
-      <c r="B64" s="358"/>
-      <c r="C64" s="353"/>
+      <c r="B64" s="321"/>
+      <c r="C64" s="316"/>
       <c r="D64" s="36"/>
       <c r="E64" s="9"/>
       <c r="F64" s="35"/>
@@ -11419,32 +11307,29 @@
       <c r="N64" s="115">
         <v>0</v>
       </c>
-      <c r="O64" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O64" s="44"/>
       <c r="P64" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q64" s="227"/>
       <c r="R64" s="68"/>
       <c r="S64" s="40"/>
-      <c r="T64" s="333" t="str">
+      <c r="T64" s="339" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="333"/>
-      <c r="V64" s="333"/>
+      <c r="U64" s="339"/>
+      <c r="V64" s="339"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="X64" s="103"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="32"/>
-      <c r="B65" s="358"/>
-      <c r="C65" s="359"/>
+      <c r="B65" s="321"/>
+      <c r="C65" s="322"/>
       <c r="D65" s="36"/>
       <c r="E65" s="9"/>
       <c r="F65" s="35"/>
@@ -11460,12 +11345,9 @@
       <c r="N65" s="115">
         <v>0</v>
       </c>
-      <c r="O65" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O65" s="44"/>
       <c r="P65" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q65" s="227"/>
@@ -11479,10 +11361,10 @@
       <c r="W65" s="4"/>
       <c r="X65" s="122"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A66" s="364"/>
-      <c r="B66" s="358"/>
-      <c r="C66" s="353"/>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="327"/>
+      <c r="B66" s="321"/>
+      <c r="C66" s="316"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="17"/>
@@ -11498,12 +11380,9 @@
       <c r="N66" s="115">
         <v>0</v>
       </c>
-      <c r="O66" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O66" s="44"/>
       <c r="P66" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q66" s="227"/>
@@ -11515,10 +11394,10 @@
       <c r="W66" s="124"/>
       <c r="X66" s="126"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="32"/>
-      <c r="B67" s="358"/>
-      <c r="C67" s="353"/>
+      <c r="B67" s="321"/>
+      <c r="C67" s="316"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="17"/>
@@ -11534,12 +11413,9 @@
       <c r="N67" s="115">
         <v>0</v>
       </c>
-      <c r="O67" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O67" s="44"/>
       <c r="P67" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q67" s="227"/>
@@ -11553,10 +11429,10 @@
       <c r="W67" s="41"/>
       <c r="X67" s="118"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="14"/>
-      <c r="B68" s="358"/>
-      <c r="C68" s="353"/>
+      <c r="B68" s="321"/>
+      <c r="C68" s="316"/>
       <c r="D68" s="20"/>
       <c r="E68" s="8"/>
       <c r="F68" s="17"/>
@@ -11572,12 +11448,9 @@
       <c r="N68" s="115">
         <v>0</v>
       </c>
-      <c r="O68" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O68" s="44"/>
       <c r="P68" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q68" s="227"/>
@@ -11591,10 +11464,10 @@
       <c r="W68" s="4"/>
       <c r="X68" s="118"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A69" s="364"/>
-      <c r="B69" s="358"/>
-      <c r="C69" s="359"/>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="327"/>
+      <c r="B69" s="321"/>
+      <c r="C69" s="322"/>
       <c r="D69" s="36"/>
       <c r="E69" s="9"/>
       <c r="F69" s="35"/>
@@ -11610,12 +11483,9 @@
       <c r="N69" s="115">
         <v>0</v>
       </c>
-      <c r="O69" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O69" s="44"/>
       <c r="P69" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q69" s="227"/>
@@ -11631,10 +11501,10 @@
       </c>
       <c r="X69" s="118"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="52"/>
-      <c r="B70" s="358"/>
-      <c r="C70" s="353"/>
+      <c r="B70" s="321"/>
+      <c r="C70" s="316"/>
       <c r="D70" s="36"/>
       <c r="E70" s="9"/>
       <c r="F70" s="35"/>
@@ -11650,12 +11520,9 @@
       <c r="N70" s="115">
         <v>0</v>
       </c>
-      <c r="O70" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O70" s="44"/>
       <c r="P70" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q70" s="227"/>
@@ -11671,10 +11538,10 @@
       <c r="W70" s="4"/>
       <c r="X70" s="118"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="14"/>
-      <c r="B71" s="352"/>
-      <c r="C71" s="359"/>
+      <c r="B71" s="315"/>
+      <c r="C71" s="322"/>
       <c r="D71" s="36"/>
       <c r="E71" s="9"/>
       <c r="F71" s="35"/>
@@ -11690,12 +11557,9 @@
       <c r="N71" s="115">
         <v>0</v>
       </c>
-      <c r="O71" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O71" s="44"/>
       <c r="P71" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q71" s="227"/>
@@ -11711,10 +11575,10 @@
       <c r="W71" s="4"/>
       <c r="X71" s="118"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="56"/>
-      <c r="B72" s="357"/>
-      <c r="C72" s="360"/>
+      <c r="B72" s="320"/>
+      <c r="C72" s="323"/>
       <c r="D72" s="57"/>
       <c r="E72" s="57"/>
       <c r="F72" s="61"/>
@@ -11730,12 +11594,9 @@
       <c r="N72" s="115">
         <v>0</v>
       </c>
-      <c r="O72" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O72" s="44"/>
       <c r="P72" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q72" s="227"/>
@@ -11749,10 +11610,10 @@
       <c r="W72" s="4"/>
       <c r="X72" s="118"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="56"/>
-      <c r="B73" s="365"/>
-      <c r="C73" s="360"/>
+      <c r="B73" s="328"/>
+      <c r="C73" s="323"/>
       <c r="D73" s="36"/>
       <c r="E73" s="9"/>
       <c r="F73" s="35"/>
@@ -11768,12 +11629,9 @@
       <c r="N73" s="115">
         <v>0</v>
       </c>
-      <c r="O73" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O73" s="44"/>
       <c r="P73" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q73" s="227"/>
@@ -11787,10 +11645,10 @@
       <c r="W73" s="4"/>
       <c r="X73" s="118"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="32"/>
-      <c r="B74" s="365"/>
-      <c r="C74" s="360"/>
+      <c r="B74" s="328"/>
+      <c r="C74" s="323"/>
       <c r="D74" s="36"/>
       <c r="E74" s="9"/>
       <c r="F74" s="35"/>
@@ -11806,12 +11664,9 @@
       <c r="N74" s="115">
         <v>0</v>
       </c>
-      <c r="O74" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O74" s="44"/>
       <c r="P74" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q74" s="227"/>
@@ -11830,10 +11685,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="14"/>
-      <c r="B75" s="352"/>
-      <c r="C75" s="354"/>
+      <c r="B75" s="315"/>
+      <c r="C75" s="317"/>
       <c r="D75" s="36"/>
       <c r="E75" s="9"/>
       <c r="F75" s="35"/>
@@ -11849,12 +11704,9 @@
       <c r="N75" s="115">
         <v>0</v>
       </c>
-      <c r="O75" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O75" s="44"/>
       <c r="P75" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q75" s="227"/>
@@ -11873,10 +11725,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="56"/>
-      <c r="B76" s="357"/>
-      <c r="C76" s="354"/>
+      <c r="B76" s="320"/>
+      <c r="C76" s="317"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="17"/>
@@ -11892,12 +11744,9 @@
       <c r="N76" s="115">
         <v>0</v>
       </c>
-      <c r="O76" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O76" s="44"/>
       <c r="P76" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q76" s="227"/>
@@ -11915,10 +11764,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="56"/>
-      <c r="B77" s="358"/>
-      <c r="C77" s="353"/>
+      <c r="B77" s="321"/>
+      <c r="C77" s="316"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="17"/>
@@ -11934,12 +11783,9 @@
       <c r="N77" s="115">
         <v>0</v>
       </c>
-      <c r="O77" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O77" s="44"/>
       <c r="P77" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q77" s="227"/>
@@ -11958,10 +11804,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="56"/>
-      <c r="B78" s="358"/>
-      <c r="C78" s="353"/>
+      <c r="B78" s="321"/>
+      <c r="C78" s="316"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="17"/>
@@ -11977,12 +11823,9 @@
       <c r="N78" s="115">
         <v>0</v>
       </c>
-      <c r="O78" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O78" s="44"/>
       <c r="P78" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q78" s="227"/>
@@ -12001,10 +11844,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A79" s="364"/>
-      <c r="B79" s="358"/>
-      <c r="C79" s="353"/>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="327"/>
+      <c r="B79" s="321"/>
+      <c r="C79" s="316"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="17"/>
@@ -12020,12 +11863,9 @@
       <c r="N79" s="115">
         <v>0</v>
       </c>
-      <c r="O79" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O79" s="44"/>
       <c r="P79" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q79" s="227"/>
@@ -12044,10 +11884,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="32"/>
-      <c r="B80" s="358"/>
-      <c r="C80" s="361"/>
+      <c r="B80" s="321"/>
+      <c r="C80" s="324"/>
       <c r="D80" s="29"/>
       <c r="E80" s="20"/>
       <c r="F80" s="8"/>
@@ -12063,12 +11903,9 @@
       <c r="N80" s="115">
         <v>0</v>
       </c>
-      <c r="O80" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O80" s="44"/>
       <c r="P80" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q80" s="227"/>
@@ -12088,10 +11925,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="14"/>
-      <c r="B81" s="358"/>
-      <c r="C81" s="359"/>
+      <c r="B81" s="321"/>
+      <c r="C81" s="322"/>
       <c r="D81" s="27"/>
       <c r="E81" s="20"/>
       <c r="F81" s="8"/>
@@ -12107,12 +11944,9 @@
       <c r="N81" s="115">
         <v>0</v>
       </c>
-      <c r="O81" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O81" s="44"/>
       <c r="P81" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q81" s="227"/>
@@ -12130,10 +11964,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
-      <c r="B82" s="363"/>
-      <c r="C82" s="359"/>
+      <c r="B82" s="326"/>
+      <c r="C82" s="322"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="35"/>
@@ -12149,12 +11983,9 @@
       <c r="N82" s="115">
         <v>0</v>
       </c>
-      <c r="O82" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O82" s="44"/>
       <c r="P82" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q82" s="227"/>
@@ -12172,10 +12003,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
-      <c r="B83" s="363"/>
-      <c r="C83" s="359"/>
+      <c r="B83" s="326"/>
+      <c r="C83" s="322"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="35"/>
@@ -12191,12 +12022,9 @@
       <c r="N83" s="115">
         <v>0</v>
       </c>
-      <c r="O83" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O83" s="44"/>
       <c r="P83" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q83" s="227"/>
@@ -12214,10 +12042,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
-      <c r="B84" s="363"/>
-      <c r="C84" s="359"/>
+      <c r="B84" s="326"/>
+      <c r="C84" s="322"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="35"/>
@@ -12233,12 +12061,9 @@
       <c r="N84" s="115">
         <v>0</v>
       </c>
-      <c r="O84" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O84" s="44"/>
       <c r="P84" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q84" s="227"/>
@@ -12257,10 +12082,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
-      <c r="B85" s="358"/>
-      <c r="C85" s="359"/>
+      <c r="B85" s="321"/>
+      <c r="C85" s="322"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="63"/>
@@ -12276,12 +12101,9 @@
       <c r="N85" s="115">
         <v>0</v>
       </c>
-      <c r="O85" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O85" s="44"/>
       <c r="P85" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q85" s="227"/>
@@ -12296,10 +12118,10 @@
       <c r="W85" s="4"/>
       <c r="X85" s="118"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
-      <c r="B86" s="363"/>
-      <c r="C86" s="359"/>
+      <c r="B86" s="326"/>
+      <c r="C86" s="322"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="35"/>
@@ -12315,12 +12137,9 @@
       <c r="N86" s="115">
         <v>0</v>
       </c>
-      <c r="O86" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O86" s="44"/>
       <c r="P86" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q86" s="227"/>
@@ -12332,10 +12151,10 @@
       <c r="W86" s="298"/>
       <c r="X86" s="297"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
-      <c r="B87" s="363"/>
-      <c r="C87" s="359"/>
+      <c r="B87" s="326"/>
+      <c r="C87" s="322"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="35"/>
@@ -12351,12 +12170,9 @@
       <c r="N87" s="115">
         <v>0</v>
       </c>
-      <c r="O87" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O87" s="44"/>
       <c r="P87" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q87" s="227"/>
@@ -12368,10 +12184,10 @@
       <c r="W87" s="298"/>
       <c r="X87" s="297"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
-      <c r="B88" s="363"/>
-      <c r="C88" s="359"/>
+      <c r="B88" s="326"/>
+      <c r="C88" s="322"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="35"/>
@@ -12387,12 +12203,9 @@
       <c r="N88" s="115">
         <v>0</v>
       </c>
-      <c r="O88" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O88" s="44"/>
       <c r="P88" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q88" s="227"/>
@@ -12404,10 +12217,10 @@
       <c r="W88" s="298"/>
       <c r="X88" s="297"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
-      <c r="B89" s="363"/>
-      <c r="C89" s="359"/>
+      <c r="B89" s="326"/>
+      <c r="C89" s="322"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="35"/>
@@ -12423,12 +12236,9 @@
       <c r="N89" s="115">
         <v>0</v>
       </c>
-      <c r="O89" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O89" s="44"/>
       <c r="P89" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q89" s="227"/>
@@ -12440,10 +12250,10 @@
       <c r="W89" s="298"/>
       <c r="X89" s="297"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
-      <c r="B90" s="363"/>
-      <c r="C90" s="359"/>
+      <c r="B90" s="326"/>
+      <c r="C90" s="322"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="35"/>
@@ -12459,12 +12269,9 @@
       <c r="N90" s="115">
         <v>0</v>
       </c>
-      <c r="O90" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O90" s="44"/>
       <c r="P90" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q90" s="227"/>
@@ -12476,10 +12283,10 @@
       <c r="W90" s="298"/>
       <c r="X90" s="297"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
-      <c r="B91" s="363"/>
-      <c r="C91" s="359"/>
+      <c r="B91" s="326"/>
+      <c r="C91" s="322"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="35"/>
@@ -12495,12 +12302,9 @@
       <c r="N91" s="115">
         <v>0</v>
       </c>
-      <c r="O91" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O91" s="44"/>
       <c r="P91" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q91" s="227"/>
@@ -12512,10 +12316,10 @@
       <c r="W91" s="298"/>
       <c r="X91" s="297"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
-      <c r="B92" s="363"/>
-      <c r="C92" s="362"/>
+      <c r="B92" s="326"/>
+      <c r="C92" s="325"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="35"/>
@@ -12531,12 +12335,9 @@
       <c r="N92" s="115">
         <v>0</v>
       </c>
-      <c r="O92" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O92" s="44"/>
       <c r="P92" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q92" s="227"/>
@@ -12548,10 +12349,10 @@
       <c r="W92" s="298"/>
       <c r="X92" s="297"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
-      <c r="B93" s="358"/>
-      <c r="C93" s="354"/>
+      <c r="B93" s="321"/>
+      <c r="C93" s="317"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="63"/>
@@ -12567,12 +12368,9 @@
       <c r="N93" s="115">
         <v>0</v>
       </c>
-      <c r="O93" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O93" s="44"/>
       <c r="P93" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q93" s="227"/>
@@ -12584,10 +12382,10 @@
       <c r="W93" s="298"/>
       <c r="X93" s="297"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11"/>
-      <c r="B94" s="363"/>
-      <c r="C94" s="354"/>
+      <c r="B94" s="326"/>
+      <c r="C94" s="317"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="59"/>
@@ -12603,12 +12401,9 @@
       <c r="N94" s="115">
         <v>0</v>
       </c>
-      <c r="O94" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="O94" s="44"/>
       <c r="P94" s="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q94" s="299"/>
@@ -12620,12 +12415,12 @@
       <c r="W94" s="298"/>
       <c r="X94" s="297"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="327" t="s">
+      <c r="B95" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="328"/>
+      <c r="C95" s="334"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="140"/>
@@ -12662,7 +12457,7 @@
       <c r="W95" s="298"/>
       <c r="X95" s="297"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -12694,22 +12489,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="145"/>
-      <c r="R96" s="317" t="s">
+      <c r="R96" s="354" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="318"/>
-      <c r="T96" s="318"/>
-      <c r="U96" s="318"/>
-      <c r="V96" s="318"/>
-      <c r="W96" s="318"/>
-      <c r="X96" s="319"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A97" s="320" t="s">
+      <c r="S96" s="355"/>
+      <c r="T96" s="355"/>
+      <c r="U96" s="355"/>
+      <c r="V96" s="355"/>
+      <c r="W96" s="355"/>
+      <c r="X96" s="356"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="340" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="321"/>
-      <c r="C97" s="322"/>
+      <c r="B97" s="341"/>
+      <c r="C97" s="342"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="152"/>
@@ -12738,10 +12533,10 @@
       <c r="W97" s="40"/>
       <c r="X97" s="170"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A98" s="324"/>
-      <c r="B98" s="313"/>
-      <c r="C98" s="325"/>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="357"/>
+      <c r="B98" s="350"/>
+      <c r="C98" s="358"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="164"/>
@@ -12768,23 +12563,23 @@
       <c r="W98" s="40"/>
       <c r="X98" s="170"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A99" s="324" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="313"/>
-      <c r="C99" s="325"/>
+      <c r="B99" s="350"/>
+      <c r="C99" s="358"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="326" t="s">
+      <c r="E99" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="326"/>
-      <c r="G99" s="326"/>
-      <c r="H99" s="326"/>
-      <c r="I99" s="326"/>
-      <c r="J99" s="326"/>
-      <c r="K99" s="326"/>
-      <c r="L99" s="326"/>
+      <c r="F99" s="359"/>
+      <c r="G99" s="359"/>
+      <c r="H99" s="359"/>
+      <c r="I99" s="359"/>
+      <c r="J99" s="359"/>
+      <c r="K99" s="359"/>
+      <c r="L99" s="359"/>
       <c r="M99" s="166"/>
       <c r="N99" s="235"/>
       <c r="O99" s="236"/>
@@ -12800,22 +12595,22 @@
       <c r="W99" s="40"/>
       <c r="X99" s="170"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A100" s="324"/>
-      <c r="B100" s="313"/>
-      <c r="C100" s="325"/>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="357"/>
+      <c r="B100" s="350"/>
+      <c r="C100" s="358"/>
       <c r="D100" s="4"/>
       <c r="E100" s="162"/>
-      <c r="F100" s="313" t="str">
+      <c r="F100" s="350" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="313"/>
-      <c r="H100" s="313"/>
-      <c r="I100" s="313"/>
-      <c r="J100" s="313"/>
-      <c r="K100" s="313"/>
-      <c r="L100" s="313"/>
+      <c r="G100" s="350"/>
+      <c r="H100" s="350"/>
+      <c r="I100" s="350"/>
+      <c r="J100" s="350"/>
+      <c r="K100" s="350"/>
+      <c r="L100" s="350"/>
       <c r="M100" s="239"/>
       <c r="N100" s="240"/>
       <c r="O100" s="241"/>
@@ -12833,23 +12628,23 @@
       <c r="W100" s="201"/>
       <c r="X100" s="202"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A101" s="314" t="s">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="351" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="315"/>
-      <c r="C101" s="316"/>
+      <c r="B101" s="352"/>
+      <c r="C101" s="353"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="315" t="s">
+      <c r="F101" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="315"/>
-      <c r="H101" s="315"/>
-      <c r="I101" s="315"/>
-      <c r="J101" s="315"/>
-      <c r="K101" s="315"/>
-      <c r="L101" s="315"/>
+      <c r="G101" s="352"/>
+      <c r="H101" s="352"/>
+      <c r="I101" s="352"/>
+      <c r="J101" s="352"/>
+      <c r="K101" s="352"/>
+      <c r="L101" s="352"/>
       <c r="M101" s="243"/>
       <c r="N101" s="244"/>
       <c r="O101" s="245"/>
@@ -12863,7 +12658,7 @@
       <c r="W101" s="182"/>
       <c r="X101" s="183"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R102" s="128"/>
       <c r="S102" s="128"/>
       <c r="T102" s="128"/>
@@ -12872,7 +12667,7 @@
       <c r="W102" s="248"/>
       <c r="X102" s="248"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="201"/>
@@ -12883,12 +12678,23 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -12897,23 +12703,12 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pea_jk\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ค่าติดตั้ง ทดสอบ'!$A$1:$V$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ค่าอุปกรณ์ และขนส่ง'!$A$1:$V$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="82">
   <si>
     <t>การไฟฟ้าส่วนภูมิภาค</t>
   </si>
@@ -271,14 +266,20 @@
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t xml:space="preserve">  ลงชื่อ...................................................................................   </t>
+  </si>
+  <si>
+    <t>วันที่ .......................................................</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -800,11 +801,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -846,10 +847,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,13 +865,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,13 +928,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -943,16 +944,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,16 +1008,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,19 +1031,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1071,19 +1072,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1098,39 +1099,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1145,7 +1146,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1162,8 +1163,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,19 +1173,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1196,21 +1197,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1218,47 +1219,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1268,38 +1269,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,134 +1309,134 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1444,34 +1445,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1550,7 +1551,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,7 +1581,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1653,7 +1654,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1668,22 +1669,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1699,15 +1730,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,52 +1753,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2233,7 +2234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2250,32 +2251,32 @@
       <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="11" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="122.6640625" style="70" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="205" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="205" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="206" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="205" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="207" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="122.7109375" style="70" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="205" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="205" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="205" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="206" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="205" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="207" customWidth="1"/>
     <col min="12" max="12" width="28" style="70" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="208" customWidth="1"/>
-    <col min="14" max="14" width="21.44140625" style="70" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" style="70" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="70"/>
-    <col min="18" max="18" width="9.6640625" style="70" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="70" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="70" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="208" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="70" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="70" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="70"/>
+    <col min="18" max="18" width="9.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="70" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="70" customWidth="1"/>
     <col min="21" max="21" width="11" style="70" customWidth="1"/>
-    <col min="22" max="22" width="44.44140625" style="70" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="70"/>
+    <col min="22" max="22" width="44.42578125" style="70" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2302,7 @@
       <c r="U1" s="152"/>
       <c r="V1" s="261"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +2328,7 @@
       <c r="U2" s="150"/>
       <c r="V2" s="262"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A3" s="71"/>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
@@ -2353,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -2379,7 +2380,7 @@
       <c r="U4" s="264"/>
       <c r="V4" s="265"/>
     </row>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -2437,29 +2438,29 @@
       <c r="U6" s="86"/>
       <c r="V6" s="89"/>
     </row>
-    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="330" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="332"/>
-      <c r="I7" s="330" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="359"/>
+      <c r="I7" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="332"/>
-      <c r="K7" s="330" t="s">
+      <c r="J7" s="359"/>
+      <c r="K7" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="332"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="359"/>
+      <c r="M7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="332"/>
+      <c r="N7" s="359"/>
       <c r="O7" s="94"/>
       <c r="P7" s="92"/>
       <c r="Q7" s="94"/>
@@ -2469,7 +2470,7 @@
       <c r="U7" s="94"/>
       <c r="V7" s="93"/>
     </row>
-    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -2525,7 +2526,7 @@
       <c r="U8" s="64"/>
       <c r="V8" s="103"/>
     </row>
-    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
@@ -2565,7 +2566,7 @@
       <c r="U9" s="64"/>
       <c r="V9" s="103"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="271"/>
       <c r="C10" s="272"/>
@@ -2597,7 +2598,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="103"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="271"/>
       <c r="C11" s="273"/>
@@ -2634,7 +2635,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="118"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="271"/>
       <c r="C12" s="273"/>
@@ -2673,7 +2674,7 @@
       </c>
       <c r="V12" s="118"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="271"/>
       <c r="C13" s="273"/>
@@ -2710,7 +2711,7 @@
       </c>
       <c r="V13" s="118"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
@@ -2747,7 +2748,7 @@
       </c>
       <c r="V14" s="103"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="274"/>
       <c r="C15" s="275"/>
@@ -2782,7 +2783,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="122"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A16" s="1"/>
       <c r="B16" s="274"/>
       <c r="C16" s="275"/>
@@ -2815,7 +2816,7 @@
       <c r="U16" s="124"/>
       <c r="V16" s="126"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A17" s="14"/>
       <c r="B17" s="276"/>
       <c r="C17" s="275"/>
@@ -2848,7 +2849,7 @@
       <c r="U17" s="128"/>
       <c r="V17" s="129"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A18" s="1"/>
       <c r="B18" s="274"/>
       <c r="C18" s="277"/>
@@ -2881,7 +2882,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="118"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A19" s="1"/>
       <c r="B19" s="276"/>
       <c r="C19" s="277"/>
@@ -2914,7 +2915,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="118"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A20" s="14"/>
       <c r="B20" s="276"/>
       <c r="C20" s="278"/>
@@ -2947,7 +2948,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="118"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A21" s="1"/>
       <c r="B21" s="274"/>
       <c r="C21" s="275"/>
@@ -2980,7 +2981,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="118"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A22" s="1"/>
       <c r="B22" s="274"/>
       <c r="C22" s="275"/>
@@ -3013,7 +3014,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="118"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A23" s="14"/>
       <c r="B23" s="276"/>
       <c r="C23" s="275"/>
@@ -3046,7 +3047,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="118"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A24" s="1"/>
       <c r="B24" s="274"/>
       <c r="C24" s="277"/>
@@ -3079,7 +3080,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="118"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A25" s="1"/>
       <c r="B25" s="274"/>
       <c r="C25" s="277"/>
@@ -3112,7 +3113,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="118"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A26" s="1"/>
       <c r="B26" s="274"/>
       <c r="C26" s="277"/>
@@ -3145,7 +3146,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="118"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A27" s="14"/>
       <c r="B27" s="276"/>
       <c r="C27" s="277"/>
@@ -3178,7 +3179,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="118"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A28" s="1"/>
       <c r="B28" s="274"/>
       <c r="C28" s="275"/>
@@ -3211,7 +3212,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="118"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A29" s="1"/>
       <c r="B29" s="276"/>
       <c r="C29" s="275"/>
@@ -3244,7 +3245,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="118"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A30" s="1"/>
       <c r="B30" s="274"/>
       <c r="C30" s="275"/>
@@ -3277,7 +3278,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="118"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A31" s="1"/>
       <c r="B31" s="276"/>
       <c r="C31" s="275"/>
@@ -3310,7 +3311,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="118"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A32" s="1"/>
       <c r="B32" s="274"/>
       <c r="C32" s="275"/>
@@ -3343,7 +3344,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="118"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A33" s="1"/>
       <c r="B33" s="276"/>
       <c r="C33" s="275"/>
@@ -3376,7 +3377,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="118"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A34" s="5"/>
       <c r="B34" s="274"/>
       <c r="C34" s="275"/>
@@ -3409,7 +3410,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="134"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A35" s="6"/>
       <c r="B35" s="274"/>
       <c r="C35" s="275"/>
@@ -3442,7 +3443,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="135"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A36" s="6"/>
       <c r="B36" s="274"/>
       <c r="C36" s="275"/>
@@ -3475,7 +3476,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="103"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A37" s="1"/>
       <c r="B37" s="274"/>
       <c r="C37" s="275"/>
@@ -3508,7 +3509,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="118"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A38" s="11"/>
       <c r="B38" s="276"/>
       <c r="C38" s="275"/>
@@ -3541,7 +3542,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="135"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A39" s="11"/>
       <c r="B39" s="274"/>
       <c r="C39" s="275"/>
@@ -3574,7 +3575,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="134"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A40" s="11"/>
       <c r="B40" s="276"/>
       <c r="C40" s="275"/>
@@ -3607,7 +3608,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="134"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A41" s="14"/>
       <c r="B41" s="276"/>
       <c r="C41" s="275"/>
@@ -3640,7 +3641,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="135"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A42" s="11"/>
       <c r="B42" s="274"/>
       <c r="C42" s="275"/>
@@ -3673,7 +3674,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="118"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A43" s="11"/>
       <c r="B43" s="274"/>
       <c r="C43" s="275"/>
@@ -3706,7 +3707,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="118"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A44" s="12"/>
       <c r="B44" s="274"/>
       <c r="C44" s="275"/>
@@ -3739,7 +3740,7 @@
       <c r="U44" s="124"/>
       <c r="V44" s="126"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -3777,7 +3778,7 @@
       <c r="U45" s="147"/>
       <c r="V45" s="148"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -3786,10 +3787,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="152"/>
       <c r="F46" s="153"/>
-      <c r="G46" s="329" t="s">
+      <c r="G46" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="329"/>
+      <c r="H46" s="339"/>
       <c r="I46" s="154"/>
       <c r="J46" s="155"/>
       <c r="K46" s="156"/>
@@ -3805,7 +3806,7 @@
       <c r="U46" s="160"/>
       <c r="V46" s="118"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -3829,7 +3830,7 @@
       <c r="U47" s="40"/>
       <c r="V47" s="170"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
       <c r="B48" s="162"/>
       <c r="C48" s="171" t="s">
         <v>74</v>
@@ -3855,7 +3856,7 @@
       <c r="U48" s="40"/>
       <c r="V48" s="170"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -3883,7 +3884,7 @@
       <c r="U49" s="40"/>
       <c r="V49" s="170"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="177" t="s">
@@ -3911,62 +3912,62 @@
       <c r="U50" s="182"/>
       <c r="V50" s="183"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="335" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="336"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="336"/>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-      <c r="J51" s="336"/>
-      <c r="K51" s="336"/>
-      <c r="L51" s="336"/>
-      <c r="M51" s="336"/>
-      <c r="N51" s="336"/>
-      <c r="O51" s="336"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="336"/>
-      <c r="T51" s="336"/>
-      <c r="U51" s="336"/>
-      <c r="V51" s="337"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="340" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="347"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="341"/>
-      <c r="C52" s="341"/>
-      <c r="D52" s="341"/>
-      <c r="E52" s="341"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="341"/>
-      <c r="H52" s="341"/>
-      <c r="I52" s="341"/>
-      <c r="J52" s="341"/>
-      <c r="K52" s="341"/>
-      <c r="L52" s="341"/>
-      <c r="M52" s="341"/>
-      <c r="N52" s="341"/>
-      <c r="O52" s="341"/>
-      <c r="P52" s="341"/>
-      <c r="Q52" s="341"/>
-      <c r="R52" s="341"/>
-      <c r="S52" s="341"/>
-      <c r="T52" s="341"/>
-      <c r="U52" s="341"/>
-      <c r="V52" s="342"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="338"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
       <c r="F53" s="74"/>
@@ -3989,57 +3990,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="347"/>
-    </row>
-    <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="354"/>
+    </row>
+    <row r="55" spans="1:22" ht="68.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="72" t="s">
         <v>68</v>
       </c>
       <c r="U55" s="72"/>
       <c r="V55" s="79"/>
     </row>
-    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -4067,29 +4068,29 @@
       <c r="U56" s="184"/>
       <c r="V56" s="89"/>
     </row>
-    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="330" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="331"/>
-      <c r="F57" s="331"/>
-      <c r="G57" s="331"/>
-      <c r="H57" s="332"/>
-      <c r="I57" s="330" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="332"/>
-      <c r="K57" s="330" t="s">
+      <c r="J57" s="359"/>
+      <c r="K57" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="332"/>
-      <c r="M57" s="330" t="s">
+      <c r="L57" s="359"/>
+      <c r="M57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="332"/>
+      <c r="N57" s="359"/>
       <c r="O57" s="94"/>
       <c r="P57" s="92"/>
       <c r="Q57" s="94"/>
@@ -4099,7 +4100,7 @@
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
     </row>
-    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -4155,7 +4156,7 @@
       <c r="U58" s="64"/>
       <c r="V58" s="103"/>
     </row>
-    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
@@ -4195,7 +4196,7 @@
       <c r="U59" s="64"/>
       <c r="V59" s="103"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A60" s="14"/>
       <c r="B60" s="66"/>
       <c r="C60" s="279"/>
@@ -4232,7 +4233,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="103"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="270"/>
@@ -4269,7 +4270,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="118"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A62" s="1"/>
       <c r="B62" s="269"/>
       <c r="C62" s="270"/>
@@ -4308,7 +4309,7 @@
       </c>
       <c r="V62" s="118"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="38"/>
@@ -4337,15 +4338,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="338"/>
-      <c r="S63" s="338"/>
-      <c r="T63" s="338"/>
+      <c r="R63" s="348"/>
+      <c r="S63" s="348"/>
+      <c r="T63" s="348"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="118"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A64" s="1"/>
       <c r="B64" s="34"/>
       <c r="C64" s="7"/>
@@ -4372,17 +4373,17 @@
       <c r="O64" s="119"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="40"/>
-      <c r="R64" s="339" t="s">
+      <c r="R64" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="339"/>
-      <c r="T64" s="339"/>
+      <c r="S64" s="349"/>
+      <c r="T64" s="349"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="103"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="38"/>
@@ -4417,7 +4418,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="122"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A66" s="18"/>
       <c r="B66" s="34"/>
       <c r="C66" s="7"/>
@@ -4450,7 +4451,7 @@
       <c r="U66" s="124"/>
       <c r="V66" s="126"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A67" s="32"/>
       <c r="B67" s="54"/>
       <c r="C67" s="7"/>
@@ -4485,7 +4486,7 @@
       <c r="U67" s="41"/>
       <c r="V67" s="118"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A68" s="14"/>
       <c r="B68" s="34"/>
       <c r="C68" s="7"/>
@@ -4520,7 +4521,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="118"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A69" s="18"/>
       <c r="B69" s="34"/>
       <c r="C69" s="38"/>
@@ -4557,7 +4558,7 @@
       </c>
       <c r="V69" s="118"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A70" s="6"/>
       <c r="B70" s="54"/>
       <c r="C70" s="268"/>
@@ -4594,7 +4595,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="118"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A71" s="1"/>
       <c r="B71" s="67"/>
       <c r="C71" s="37"/>
@@ -4631,7 +4632,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="118"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A72" s="22"/>
       <c r="B72" s="269"/>
       <c r="C72" s="280"/>
@@ -4666,7 +4667,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="118"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A73" s="22"/>
       <c r="B73" s="284"/>
       <c r="C73" s="280"/>
@@ -4701,7 +4702,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="118"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A74" s="32"/>
       <c r="B74" s="284"/>
       <c r="C74" s="280"/>
@@ -4741,7 +4742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A75" s="1"/>
       <c r="B75" s="67"/>
       <c r="C75" s="270"/>
@@ -4781,7 +4782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A76" s="22"/>
       <c r="B76" s="269"/>
       <c r="C76" s="281"/>
@@ -4820,7 +4821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A77" s="22"/>
       <c r="B77" s="34"/>
       <c r="C77" s="7"/>
@@ -4860,7 +4861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A78" s="22"/>
       <c r="B78" s="34"/>
       <c r="C78" s="7"/>
@@ -4900,7 +4901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A79" s="18"/>
       <c r="B79" s="34"/>
       <c r="C79" s="7"/>
@@ -4940,7 +4941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A80" s="32"/>
       <c r="B80" s="34"/>
       <c r="C80" s="23"/>
@@ -4981,7 +4982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A81" s="1"/>
       <c r="B81" s="34"/>
       <c r="C81" s="282"/>
@@ -5020,7 +5021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A82" s="1"/>
       <c r="B82" s="34"/>
       <c r="C82" s="7"/>
@@ -5059,7 +5060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A83" s="1"/>
       <c r="B83" s="34"/>
       <c r="C83" s="7"/>
@@ -5098,7 +5099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A84" s="2"/>
       <c r="B84" s="34"/>
       <c r="C84" s="7"/>
@@ -5138,7 +5139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A85" s="1"/>
       <c r="B85" s="34"/>
       <c r="C85" s="7"/>
@@ -5174,7 +5175,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="118"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A86" s="11"/>
       <c r="B86" s="34"/>
       <c r="C86" s="7"/>
@@ -5207,7 +5208,7 @@
       <c r="U86" s="298"/>
       <c r="V86" s="297"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A87" s="1"/>
       <c r="B87" s="34"/>
       <c r="C87" s="7"/>
@@ -5240,7 +5241,7 @@
       <c r="U87" s="298"/>
       <c r="V87" s="297"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A88" s="11"/>
       <c r="B88" s="34"/>
       <c r="C88" s="21"/>
@@ -5273,7 +5274,7 @@
       <c r="U88" s="298"/>
       <c r="V88" s="297"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A89" s="11"/>
       <c r="B89" s="269"/>
       <c r="C89" s="21"/>
@@ -5306,7 +5307,7 @@
       <c r="U89" s="298"/>
       <c r="V89" s="297"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A90" s="11"/>
       <c r="B90" s="269"/>
       <c r="C90" s="21"/>
@@ -5339,7 +5340,7 @@
       <c r="U90" s="298"/>
       <c r="V90" s="297"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A91" s="11"/>
       <c r="B91" s="269"/>
       <c r="C91" s="21"/>
@@ -5371,7 +5372,7 @@
       <c r="U91" s="298"/>
       <c r="V91" s="297"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A92" s="11"/>
       <c r="B92" s="269"/>
       <c r="C92" s="21"/>
@@ -5406,7 +5407,7 @@
       <c r="U92" s="298"/>
       <c r="V92" s="297"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A93" s="1"/>
       <c r="B93" s="269"/>
       <c r="C93" s="21"/>
@@ -5439,7 +5440,7 @@
       <c r="U93" s="298"/>
       <c r="V93" s="297"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A94" s="12"/>
       <c r="B94" s="285"/>
       <c r="C94" s="283"/>
@@ -5472,12 +5473,12 @@
       <c r="U94" s="298"/>
       <c r="V94" s="298"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A95" s="136"/>
-      <c r="B95" s="333" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="334"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="141"/>
@@ -5512,7 +5513,7 @@
       <c r="U95" s="298"/>
       <c r="V95" s="297"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -5542,29 +5543,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="145"/>
-      <c r="P96" s="354" t="s">
+      <c r="P96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="355"/>
-      <c r="R96" s="355"/>
-      <c r="S96" s="355"/>
-      <c r="T96" s="355"/>
-      <c r="U96" s="355"/>
-      <c r="V96" s="356"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="340" t="s">
+      <c r="Q96" s="334"/>
+      <c r="R96" s="334"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="335"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="341"/>
-      <c r="C97" s="342"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="153"/>
-      <c r="G97" s="329" t="s">
+      <c r="G97" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="329"/>
+      <c r="H97" s="339"/>
       <c r="I97" s="154"/>
       <c r="J97" s="155"/>
       <c r="K97" s="156"/>
@@ -5585,10 +5586,10 @@
       <c r="U97" s="40"/>
       <c r="V97" s="170"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="357"/>
-      <c r="B98" s="350"/>
-      <c r="C98" s="358"/>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="165"/>
@@ -5614,21 +5615,21 @@
       <c r="V98" s="170"/>
       <c r="W98" s="170"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="357" t="s">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="350"/>
-      <c r="C99" s="358"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="359" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="359"/>
-      <c r="G99" s="359"/>
-      <c r="H99" s="359"/>
-      <c r="I99" s="359"/>
-      <c r="J99" s="359"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
       <c r="K99" s="154"/>
       <c r="L99" s="167"/>
       <c r="M99" s="196"/>
@@ -5645,7 +5646,7 @@
       <c r="V99" s="170"/>
       <c r="W99" s="170"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.75">
       <c r="A100" s="161"/>
       <c r="B100" s="162"/>
       <c r="C100" s="173" t="s">
@@ -5653,13 +5654,13 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="162"/>
-      <c r="F100" s="350" t="s">
+      <c r="F100" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="350"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
       <c r="K100" s="174"/>
       <c r="L100" s="175"/>
       <c r="M100" s="199"/>
@@ -5678,21 +5679,21 @@
       <c r="V100" s="202"/>
       <c r="W100" s="134"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="351" t="s">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="352"/>
-      <c r="C101" s="353"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="352" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="352"/>
-      <c r="H101" s="352"/>
-      <c r="I101" s="352"/>
-      <c r="J101" s="352"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
       <c r="K101" s="178"/>
       <c r="L101" s="179"/>
       <c r="M101" s="203"/>
@@ -5708,15 +5709,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -5729,15 +5726,19 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -5751,36 +5752,36 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="70" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
     <col min="3" max="3" width="116" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="247" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="247" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="205" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="247" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="247" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="205" customWidth="1"/>
     <col min="7" max="7" width="7" style="205" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="205" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="205" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="205" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="205" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" style="205" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="205" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="247" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.88671875" style="70"/>
-    <col min="19" max="19" width="20.88671875" style="70" customWidth="1"/>
-    <col min="20" max="20" width="18.5546875" style="70" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="70" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="205" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="205" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="205" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="205" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" style="205" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="205" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="247" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.85546875" style="70"/>
+    <col min="19" max="19" width="20.85546875" style="70" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="70" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="70" customWidth="1"/>
     <col min="22" max="22" width="37" style="70" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="70"/>
+    <col min="23" max="16384" width="8.85546875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -5806,7 +5807,7 @@
       <c r="U1" s="152"/>
       <c r="V1" s="261"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -5832,10 +5833,10 @@
       <c r="U2" s="150"/>
       <c r="V2" s="262"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A3" s="350"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="209"/>
       <c r="E3" s="209"/>
       <c r="F3" s="74"/>
@@ -5858,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -5884,7 +5885,7 @@
       <c r="U4" s="264"/>
       <c r="V4" s="265"/>
     </row>
-    <row r="5" spans="1:22" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" ht="61.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -5944,29 +5945,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="330" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="332"/>
-      <c r="I7" s="364" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="359"/>
+      <c r="I7" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="365"/>
-      <c r="K7" s="364" t="s">
+      <c r="J7" s="361"/>
+      <c r="K7" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="365"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="361"/>
+      <c r="M7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="332"/>
+      <c r="N7" s="359"/>
       <c r="O7" s="94"/>
       <c r="P7" s="92"/>
       <c r="Q7" s="94"/>
@@ -5976,7 +5977,7 @@
       <c r="U7" s="94"/>
       <c r="V7" s="93"/>
     </row>
-    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -5990,10 +5991,10 @@
       <c r="E8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="361"/>
+      <c r="G8" s="363"/>
       <c r="H8" s="99" t="s">
         <v>16</v>
       </c>
@@ -6030,16 +6031,16 @@
       <c r="U8" s="64"/>
       <c r="V8" s="103"/>
     </row>
-    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
       <c r="D9" s="104"/>
       <c r="E9" s="104"/>
-      <c r="F9" s="362" t="s">
+      <c r="F9" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="363"/>
+      <c r="G9" s="365"/>
       <c r="H9" s="107" t="s">
         <v>21</v>
       </c>
@@ -6068,7 +6069,7 @@
       <c r="U9" s="64"/>
       <c r="V9" s="103"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A10" s="48"/>
       <c r="B10" s="302"/>
       <c r="C10" s="291"/>
@@ -6103,7 +6104,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="103"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A11" s="14"/>
       <c r="B11" s="276"/>
       <c r="C11" s="275"/>
@@ -6138,7 +6139,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="118"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A12" s="14"/>
       <c r="B12" s="274"/>
       <c r="C12" s="275"/>
@@ -6175,7 +6176,7 @@
       </c>
       <c r="V12" s="118"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A13" s="14"/>
       <c r="B13" s="274"/>
       <c r="C13" s="275"/>
@@ -6210,7 +6211,7 @@
       </c>
       <c r="V13" s="118"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A14" s="14"/>
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
@@ -6235,7 +6236,7 @@
       <c r="O14" s="227"/>
       <c r="P14" s="68"/>
       <c r="Q14" s="40"/>
-      <c r="R14" s="312" t="s">
+      <c r="R14" s="300" t="s">
         <v>66</v>
       </c>
       <c r="S14" s="312"/>
@@ -6245,7 +6246,7 @@
       </c>
       <c r="V14" s="103"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A15" s="14"/>
       <c r="B15" s="274"/>
       <c r="C15" s="275"/>
@@ -6278,7 +6279,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="122"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A16" s="14"/>
       <c r="B16" s="276"/>
       <c r="C16" s="277"/>
@@ -6309,7 +6310,7 @@
       <c r="U16" s="124"/>
       <c r="V16" s="126"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A17" s="14"/>
       <c r="B17" s="274"/>
       <c r="C17" s="277"/>
@@ -6340,7 +6341,7 @@
       <c r="U17" s="128"/>
       <c r="V17" s="129"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A18" s="14"/>
       <c r="B18" s="274"/>
       <c r="C18" s="277"/>
@@ -6371,7 +6372,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="118"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A19" s="14"/>
       <c r="B19" s="274"/>
       <c r="C19" s="275"/>
@@ -6402,7 +6403,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="118"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A20" s="14"/>
       <c r="B20" s="274"/>
       <c r="C20" s="275"/>
@@ -6433,7 +6434,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="118"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A21" s="14"/>
       <c r="B21" s="276"/>
       <c r="C21" s="277"/>
@@ -6464,7 +6465,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="118"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A22" s="14"/>
       <c r="B22" s="274"/>
       <c r="C22" s="301"/>
@@ -6495,7 +6496,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="118"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A23" s="14"/>
       <c r="B23" s="274"/>
       <c r="C23" s="278"/>
@@ -6526,7 +6527,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="118"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A24" s="14"/>
       <c r="B24" s="274"/>
       <c r="C24" s="275"/>
@@ -6557,7 +6558,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="118"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A25" s="14"/>
       <c r="B25" s="274"/>
       <c r="C25" s="275"/>
@@ -6588,7 +6589,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="118"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A26" s="14"/>
       <c r="B26" s="276"/>
       <c r="C26" s="277"/>
@@ -6619,7 +6620,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="118"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A27" s="14"/>
       <c r="B27" s="274"/>
       <c r="C27" s="301"/>
@@ -6650,7 +6651,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="118"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A28" s="14"/>
       <c r="B28" s="274"/>
       <c r="C28" s="275"/>
@@ -6681,7 +6682,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="118"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A29" s="14"/>
       <c r="B29" s="274"/>
       <c r="C29" s="278"/>
@@ -6712,7 +6713,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="118"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A30" s="14"/>
       <c r="B30" s="274"/>
       <c r="C30" s="275"/>
@@ -6743,7 +6744,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="118"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A31" s="14"/>
       <c r="B31" s="276"/>
       <c r="C31" s="277"/>
@@ -6774,7 +6775,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="118"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A32" s="14"/>
       <c r="B32" s="274"/>
       <c r="C32" s="301"/>
@@ -6805,7 +6806,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="118"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A33" s="14"/>
       <c r="B33" s="274"/>
       <c r="C33" s="275"/>
@@ -6836,7 +6837,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="118"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A34" s="14"/>
       <c r="B34" s="274"/>
       <c r="C34" s="275"/>
@@ -6867,7 +6868,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="134"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A35" s="52"/>
       <c r="B35" s="274"/>
       <c r="C35" s="278"/>
@@ -6898,7 +6899,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="135"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A36" s="13"/>
       <c r="B36" s="276"/>
       <c r="C36" s="301"/>
@@ -6929,7 +6930,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="103"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A37" s="13"/>
       <c r="B37" s="274"/>
       <c r="C37" s="275"/>
@@ -6960,7 +6961,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="103"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A38" s="14"/>
       <c r="B38" s="276"/>
       <c r="C38" s="277"/>
@@ -6991,7 +6992,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="118"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A39" s="11"/>
       <c r="B39" s="274"/>
       <c r="C39" s="277"/>
@@ -7022,7 +7023,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="135"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A40" s="11"/>
       <c r="B40" s="274"/>
       <c r="C40" s="277"/>
@@ -7053,7 +7054,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="134"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A41" s="11"/>
       <c r="B41" s="274"/>
       <c r="C41" s="277"/>
@@ -7084,7 +7085,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="134"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A42" s="11"/>
       <c r="B42" s="274"/>
       <c r="C42" s="277"/>
@@ -7115,7 +7116,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="135"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A43" s="11"/>
       <c r="B43" s="274"/>
       <c r="C43" s="277"/>
@@ -7146,7 +7147,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="118"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A44" s="12"/>
       <c r="B44" s="293"/>
       <c r="C44" s="277"/>
@@ -7177,7 +7178,7 @@
       <c r="U44" s="124"/>
       <c r="V44" s="126"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -7215,7 +7216,7 @@
       <c r="U45" s="147"/>
       <c r="V45" s="148"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -7224,10 +7225,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="152"/>
       <c r="F46" s="153"/>
-      <c r="G46" s="329" t="s">
+      <c r="G46" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="329"/>
+      <c r="H46" s="339"/>
       <c r="I46" s="154"/>
       <c r="J46" s="155"/>
       <c r="K46" s="156"/>
@@ -7243,7 +7244,7 @@
       <c r="U46" s="160"/>
       <c r="V46" s="118"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -7267,7 +7268,7 @@
       <c r="U47" s="40"/>
       <c r="V47" s="170"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
       <c r="B48" s="162"/>
       <c r="C48" s="171" t="s">
         <v>74</v>
@@ -7294,7 +7295,7 @@
       <c r="U48" s="40"/>
       <c r="V48" s="170"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -7322,7 +7323,7 @@
       <c r="U49" s="40"/>
       <c r="V49" s="170"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="231" t="s">
@@ -7350,62 +7351,62 @@
       <c r="U50" s="182"/>
       <c r="V50" s="183"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="335" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="336"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="336"/>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-      <c r="J51" s="336"/>
-      <c r="K51" s="336"/>
-      <c r="L51" s="336"/>
-      <c r="M51" s="336"/>
-      <c r="N51" s="336"/>
-      <c r="O51" s="336"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="336"/>
-      <c r="T51" s="336"/>
-      <c r="U51" s="336"/>
-      <c r="V51" s="337"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="340" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="347"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="341"/>
-      <c r="C52" s="341"/>
-      <c r="D52" s="341"/>
-      <c r="E52" s="341"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="341"/>
-      <c r="H52" s="341"/>
-      <c r="I52" s="341"/>
-      <c r="J52" s="341"/>
-      <c r="K52" s="341"/>
-      <c r="L52" s="341"/>
-      <c r="M52" s="341"/>
-      <c r="N52" s="341"/>
-      <c r="O52" s="341"/>
-      <c r="P52" s="341"/>
-      <c r="Q52" s="341"/>
-      <c r="R52" s="341"/>
-      <c r="S52" s="341"/>
-      <c r="T52" s="341"/>
-      <c r="U52" s="341"/>
-      <c r="V52" s="342"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="338"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="209"/>
       <c r="E53" s="209"/>
       <c r="F53" s="74"/>
@@ -7428,57 +7429,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="347"/>
-    </row>
-    <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="354"/>
+    </row>
+    <row r="55" spans="1:22" ht="56.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="72" t="s">
         <v>3</v>
       </c>
       <c r="U55" s="72"/>
       <c r="V55" s="79"/>
     </row>
-    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -7506,29 +7507,29 @@
       <c r="U56" s="184"/>
       <c r="V56" s="89"/>
     </row>
-    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="330" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="331"/>
-      <c r="F57" s="331"/>
-      <c r="G57" s="331"/>
-      <c r="H57" s="332"/>
-      <c r="I57" s="364" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="365"/>
-      <c r="K57" s="364" t="s">
+      <c r="J57" s="361"/>
+      <c r="K57" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="365"/>
-      <c r="M57" s="330" t="s">
+      <c r="L57" s="361"/>
+      <c r="M57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="332"/>
+      <c r="N57" s="359"/>
       <c r="O57" s="94"/>
       <c r="P57" s="92"/>
       <c r="Q57" s="94"/>
@@ -7538,7 +7539,7 @@
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
     </row>
-    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -7552,10 +7553,10 @@
       <c r="E58" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="360" t="s">
+      <c r="F58" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="361"/>
+      <c r="G58" s="363"/>
       <c r="H58" s="99" t="s">
         <v>16</v>
       </c>
@@ -7592,16 +7593,16 @@
       <c r="U58" s="64"/>
       <c r="V58" s="103"/>
     </row>
-    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
       <c r="D59" s="104"/>
       <c r="E59" s="104"/>
-      <c r="F59" s="362" t="s">
+      <c r="F59" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="363"/>
+      <c r="G59" s="365"/>
       <c r="H59" s="107" t="s">
         <v>21</v>
       </c>
@@ -7630,7 +7631,7 @@
       <c r="U59" s="64"/>
       <c r="V59" s="103"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A60" s="14"/>
       <c r="B60" s="276"/>
       <c r="C60" s="291"/>
@@ -7665,7 +7666,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="103"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A61" s="32"/>
       <c r="B61" s="286"/>
       <c r="C61" s="277"/>
@@ -7700,7 +7701,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="118"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A62" s="14"/>
       <c r="B62" s="274"/>
       <c r="C62" s="277"/>
@@ -7737,7 +7738,7 @@
       </c>
       <c r="V62" s="118"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A63" s="32"/>
       <c r="B63" s="286"/>
       <c r="C63" s="287"/>
@@ -7764,15 +7765,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="338"/>
-      <c r="S63" s="338"/>
-      <c r="T63" s="338"/>
+      <c r="R63" s="348"/>
+      <c r="S63" s="348"/>
+      <c r="T63" s="348"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="118"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A64" s="14"/>
       <c r="B64" s="286"/>
       <c r="C64" s="275"/>
@@ -7797,18 +7798,18 @@
       <c r="O64" s="227"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="40"/>
-      <c r="R64" s="339" t="str">
+      <c r="R64" s="349" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="339"/>
-      <c r="T64" s="339"/>
+      <c r="S64" s="349"/>
+      <c r="T64" s="349"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="103"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A65" s="32"/>
       <c r="B65" s="286"/>
       <c r="C65" s="287"/>
@@ -7841,7 +7842,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="122"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A66" s="55"/>
       <c r="B66" s="286"/>
       <c r="C66" s="275"/>
@@ -7872,7 +7873,7 @@
       <c r="U66" s="124"/>
       <c r="V66" s="126"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A67" s="32"/>
       <c r="B67" s="286"/>
       <c r="C67" s="275"/>
@@ -7905,7 +7906,7 @@
       <c r="U67" s="41"/>
       <c r="V67" s="118"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A68" s="14"/>
       <c r="B68" s="286"/>
       <c r="C68" s="275"/>
@@ -7938,7 +7939,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="118"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A69" s="55"/>
       <c r="B69" s="286"/>
       <c r="C69" s="287"/>
@@ -7973,7 +7974,7 @@
       </c>
       <c r="V69" s="118"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A70" s="13"/>
       <c r="B70" s="286"/>
       <c r="C70" s="275"/>
@@ -8008,7 +8009,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="118"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A71" s="14"/>
       <c r="B71" s="276"/>
       <c r="C71" s="287"/>
@@ -8043,7 +8044,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="118"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A72" s="56"/>
       <c r="B72" s="274"/>
       <c r="C72" s="288"/>
@@ -8076,7 +8077,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="118"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A73" s="56"/>
       <c r="B73" s="292"/>
       <c r="C73" s="288"/>
@@ -8109,7 +8110,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="118"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A74" s="32"/>
       <c r="B74" s="292"/>
       <c r="C74" s="288"/>
@@ -8147,7 +8148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A75" s="14"/>
       <c r="B75" s="276"/>
       <c r="C75" s="277"/>
@@ -8185,7 +8186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A76" s="56"/>
       <c r="B76" s="274"/>
       <c r="C76" s="277"/>
@@ -8222,7 +8223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A77" s="56"/>
       <c r="B77" s="286"/>
       <c r="C77" s="275"/>
@@ -8260,7 +8261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A78" s="56"/>
       <c r="B78" s="286"/>
       <c r="C78" s="275"/>
@@ -8298,7 +8299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A79" s="55"/>
       <c r="B79" s="286"/>
       <c r="C79" s="275"/>
@@ -8336,7 +8337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A80" s="32"/>
       <c r="B80" s="286"/>
       <c r="C80" s="289"/>
@@ -8375,7 +8376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A81" s="14"/>
       <c r="B81" s="286"/>
       <c r="C81" s="287"/>
@@ -8412,7 +8413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A82" s="11"/>
       <c r="B82" s="293"/>
       <c r="C82" s="287"/>
@@ -8449,7 +8450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A83" s="11"/>
       <c r="B83" s="293"/>
       <c r="C83" s="287"/>
@@ -8486,7 +8487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A84" s="11"/>
       <c r="B84" s="293"/>
       <c r="C84" s="287"/>
@@ -8524,7 +8525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A85" s="11"/>
       <c r="B85" s="286"/>
       <c r="C85" s="287"/>
@@ -8558,7 +8559,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="118"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A86" s="11"/>
       <c r="B86" s="293"/>
       <c r="C86" s="287"/>
@@ -8589,7 +8590,7 @@
       <c r="U86" s="298"/>
       <c r="V86" s="297"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A87" s="11"/>
       <c r="B87" s="293"/>
       <c r="C87" s="287"/>
@@ -8620,7 +8621,7 @@
       <c r="U87" s="298"/>
       <c r="V87" s="297"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A88" s="11"/>
       <c r="B88" s="293"/>
       <c r="C88" s="287"/>
@@ -8651,7 +8652,7 @@
       <c r="U88" s="298"/>
       <c r="V88" s="297"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A89" s="11"/>
       <c r="B89" s="293"/>
       <c r="C89" s="287"/>
@@ -8682,7 +8683,7 @@
       <c r="U89" s="298"/>
       <c r="V89" s="297"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A90" s="11"/>
       <c r="B90" s="293"/>
       <c r="C90" s="287"/>
@@ -8713,7 +8714,7 @@
       <c r="U90" s="298"/>
       <c r="V90" s="297"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A91" s="11"/>
       <c r="B91" s="293"/>
       <c r="C91" s="287"/>
@@ -8744,7 +8745,7 @@
       <c r="U91" s="298"/>
       <c r="V91" s="297"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A92" s="11"/>
       <c r="B92" s="293"/>
       <c r="C92" s="290"/>
@@ -8777,7 +8778,7 @@
       <c r="U92" s="298"/>
       <c r="V92" s="297"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A93" s="11"/>
       <c r="B93" s="286"/>
       <c r="C93" s="277"/>
@@ -8808,7 +8809,7 @@
       <c r="U93" s="298"/>
       <c r="V93" s="297"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A94" s="12"/>
       <c r="B94" s="293"/>
       <c r="C94" s="277"/>
@@ -8839,12 +8840,12 @@
       <c r="U94" s="298"/>
       <c r="V94" s="297"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A95" s="136"/>
-      <c r="B95" s="333" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="334"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="141"/>
@@ -8879,7 +8880,7 @@
       <c r="U95" s="298"/>
       <c r="V95" s="297"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -8909,29 +8910,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="145"/>
-      <c r="P96" s="354" t="s">
+      <c r="P96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="355"/>
-      <c r="R96" s="355"/>
-      <c r="S96" s="355"/>
-      <c r="T96" s="355"/>
-      <c r="U96" s="355"/>
-      <c r="V96" s="356"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="340" t="s">
+      <c r="Q96" s="334"/>
+      <c r="R96" s="334"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="335"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="341"/>
-      <c r="C97" s="342"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="153"/>
-      <c r="G97" s="329" t="s">
+      <c r="G97" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="329"/>
+      <c r="H97" s="339"/>
       <c r="I97" s="165"/>
       <c r="J97" s="155"/>
       <c r="K97" s="155"/>
@@ -8952,10 +8953,10 @@
       <c r="U97" s="40"/>
       <c r="V97" s="170"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="357"/>
-      <c r="B98" s="350"/>
-      <c r="C98" s="358"/>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="165"/>
@@ -8980,21 +8981,21 @@
       <c r="U98" s="40"/>
       <c r="V98" s="170"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A99" s="161"/>
       <c r="B99" s="162"/>
-      <c r="C99" s="163" t="s">
-        <v>33</v>
+      <c r="C99" s="173" t="s">
+        <v>80</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="359" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="359"/>
-      <c r="G99" s="359"/>
-      <c r="H99" s="359"/>
-      <c r="I99" s="359"/>
-      <c r="J99" s="359"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
       <c r="K99" s="166"/>
       <c r="L99" s="235"/>
       <c r="M99" s="236"/>
@@ -9010,20 +9011,20 @@
       <c r="U99" s="40"/>
       <c r="V99" s="170"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A100" s="161"/>
       <c r="B100" s="162"/>
-      <c r="C100" s="163"/>
+      <c r="C100" s="173"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="350" t="str">
+      <c r="E100" s="329" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="F100" s="350"/>
-      <c r="G100" s="350"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
+      <c r="F100" s="329"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
       <c r="K100" s="239"/>
       <c r="L100" s="240"/>
       <c r="M100" s="241"/>
@@ -9041,21 +9042,21 @@
       <c r="U100" s="201"/>
       <c r="V100" s="202"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="351" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" s="352"/>
-      <c r="C101" s="353"/>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.75">
+      <c r="A101" s="330" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="352" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="352"/>
-      <c r="H101" s="352"/>
-      <c r="I101" s="352"/>
-      <c r="J101" s="352"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
       <c r="K101" s="243"/>
       <c r="L101" s="244"/>
       <c r="M101" s="245"/>
@@ -9069,7 +9070,7 @@
       <c r="U101" s="182"/>
       <c r="V101" s="183"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.75">
       <c r="P102" s="128"/>
       <c r="Q102" s="128"/>
       <c r="R102" s="128"/>
@@ -9078,7 +9079,7 @@
       <c r="U102" s="248"/>
       <c r="V102" s="248"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.75">
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="201"/>
@@ -9089,6 +9090,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="E99:J99"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="F101:J101"/>
@@ -9104,24 +9120,9 @@
     <mergeCell ref="P96:V96"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="A54:V54"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -9132,38 +9133,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A74" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
       <selection activeCell="O60" sqref="O60:O94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="106.88671875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="247" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="247" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" style="247" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="205" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="106.85546875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="247" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="247" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" style="247" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="205" customWidth="1"/>
     <col min="9" max="9" width="7" style="205" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="205" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="205" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="205" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="205" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" style="205" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" style="205" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" style="247" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="70"/>
-    <col min="20" max="20" width="18.33203125" style="70" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" style="70" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" style="70" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="70" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="205" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="205" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="205" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="205" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="205" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="205" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="247" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.85546875" style="70"/>
+    <col min="20" max="20" width="18.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" style="70" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="70" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" style="70" customWidth="1"/>
     <col min="24" max="24" width="37" style="70" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="70"/>
+    <col min="25" max="16384" width="8.85546875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -9191,7 +9192,7 @@
       <c r="W1" s="152"/>
       <c r="X1" s="261"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -9219,10 +9220,10 @@
       <c r="W2" s="150"/>
       <c r="X2" s="262"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A3" s="350"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="209"/>
       <c r="E3" s="209"/>
       <c r="F3" s="209"/>
@@ -9247,7 +9248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -9275,7 +9276,7 @@
       <c r="W4" s="264"/>
       <c r="X4" s="265"/>
     </row>
-    <row r="5" spans="1:24" ht="58.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" ht="58.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -9307,7 +9308,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -9339,31 +9340,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="330" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="331"/>
-      <c r="I7" s="331"/>
-      <c r="J7" s="332"/>
-      <c r="K7" s="364" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="358"/>
+      <c r="I7" s="358"/>
+      <c r="J7" s="359"/>
+      <c r="K7" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="365"/>
-      <c r="M7" s="364" t="s">
+      <c r="L7" s="361"/>
+      <c r="M7" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="365"/>
-      <c r="O7" s="330" t="s">
+      <c r="N7" s="361"/>
+      <c r="O7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="332"/>
+      <c r="P7" s="359"/>
       <c r="Q7" s="94"/>
       <c r="R7" s="92"/>
       <c r="S7" s="94"/>
@@ -9373,7 +9374,7 @@
       <c r="W7" s="94"/>
       <c r="X7" s="93"/>
     </row>
-    <row r="8" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -9393,10 +9394,10 @@
       <c r="G8" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="360" t="s">
+      <c r="H8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="361"/>
+      <c r="I8" s="363"/>
       <c r="J8" s="99" t="s">
         <v>16</v>
       </c>
@@ -9433,7 +9434,7 @@
       <c r="W8" s="64"/>
       <c r="X8" s="103"/>
     </row>
-    <row r="9" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
@@ -9445,10 +9446,10 @@
       <c r="G9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="362" t="s">
+      <c r="H9" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="363"/>
+      <c r="I9" s="365"/>
       <c r="J9" s="107" t="s">
         <v>21</v>
       </c>
@@ -9475,7 +9476,7 @@
       <c r="W9" s="64"/>
       <c r="X9" s="103"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A10" s="48"/>
       <c r="B10" s="313"/>
       <c r="C10" s="314"/>
@@ -9510,7 +9511,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="103"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A11" s="14"/>
       <c r="B11" s="315"/>
       <c r="C11" s="316"/>
@@ -9545,7 +9546,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="118"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A12" s="14"/>
       <c r="B12" s="320"/>
       <c r="C12" s="316"/>
@@ -9582,7 +9583,7 @@
       </c>
       <c r="X12" s="118"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A13" s="14"/>
       <c r="B13" s="320"/>
       <c r="C13" s="316"/>
@@ -9619,7 +9620,7 @@
       </c>
       <c r="X13" s="118"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A14" s="14"/>
       <c r="B14" s="320"/>
       <c r="C14" s="316"/>
@@ -9656,7 +9657,7 @@
       </c>
       <c r="X14" s="103"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A15" s="14"/>
       <c r="B15" s="320"/>
       <c r="C15" s="316"/>
@@ -9691,7 +9692,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="122"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A16" s="14"/>
       <c r="B16" s="315"/>
       <c r="C16" s="317"/>
@@ -9724,7 +9725,7 @@
       <c r="W16" s="124"/>
       <c r="X16" s="126"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A17" s="14"/>
       <c r="B17" s="320"/>
       <c r="C17" s="317"/>
@@ -9757,7 +9758,7 @@
       <c r="W17" s="128"/>
       <c r="X17" s="129"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A18" s="14"/>
       <c r="B18" s="320"/>
       <c r="C18" s="317"/>
@@ -9790,7 +9791,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="118"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A19" s="14"/>
       <c r="B19" s="320"/>
       <c r="C19" s="316"/>
@@ -9823,7 +9824,7 @@
       <c r="W19" s="43"/>
       <c r="X19" s="118"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A20" s="14"/>
       <c r="B20" s="320"/>
       <c r="C20" s="316"/>
@@ -9856,7 +9857,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="118"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A21" s="14"/>
       <c r="B21" s="315"/>
       <c r="C21" s="317"/>
@@ -9889,7 +9890,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="118"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A22" s="14"/>
       <c r="B22" s="320"/>
       <c r="C22" s="318"/>
@@ -9922,7 +9923,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="118"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A23" s="14"/>
       <c r="B23" s="320"/>
       <c r="C23" s="319"/>
@@ -9955,7 +9956,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="118"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A24" s="14"/>
       <c r="B24" s="320"/>
       <c r="C24" s="316"/>
@@ -9988,7 +9989,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="118"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A25" s="14"/>
       <c r="B25" s="320"/>
       <c r="C25" s="316"/>
@@ -10021,7 +10022,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="118"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A26" s="14"/>
       <c r="B26" s="315"/>
       <c r="C26" s="317"/>
@@ -10054,7 +10055,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="118"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A27" s="14"/>
       <c r="B27" s="320"/>
       <c r="C27" s="318"/>
@@ -10087,7 +10088,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="118"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A28" s="14"/>
       <c r="B28" s="320"/>
       <c r="C28" s="316"/>
@@ -10120,7 +10121,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="118"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A29" s="14"/>
       <c r="B29" s="320"/>
       <c r="C29" s="319"/>
@@ -10153,7 +10154,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="118"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A30" s="14"/>
       <c r="B30" s="320"/>
       <c r="C30" s="316"/>
@@ -10186,7 +10187,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="118"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A31" s="14"/>
       <c r="B31" s="315"/>
       <c r="C31" s="317"/>
@@ -10219,7 +10220,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="118"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A32" s="14"/>
       <c r="B32" s="320"/>
       <c r="C32" s="318"/>
@@ -10252,7 +10253,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="118"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A33" s="14"/>
       <c r="B33" s="320"/>
       <c r="C33" s="316"/>
@@ -10285,7 +10286,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="118"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A34" s="14"/>
       <c r="B34" s="320"/>
       <c r="C34" s="316"/>
@@ -10318,7 +10319,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="134"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A35" s="52"/>
       <c r="B35" s="320"/>
       <c r="C35" s="319"/>
@@ -10351,7 +10352,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="135"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A36" s="52"/>
       <c r="B36" s="315"/>
       <c r="C36" s="318"/>
@@ -10384,7 +10385,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="103"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A37" s="52"/>
       <c r="B37" s="320"/>
       <c r="C37" s="316"/>
@@ -10417,7 +10418,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="103"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A38" s="14"/>
       <c r="B38" s="315"/>
       <c r="C38" s="317"/>
@@ -10450,7 +10451,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="118"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A39" s="11"/>
       <c r="B39" s="320"/>
       <c r="C39" s="317"/>
@@ -10483,7 +10484,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="135"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A40" s="11"/>
       <c r="B40" s="320"/>
       <c r="C40" s="317"/>
@@ -10516,7 +10517,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="134"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A41" s="11"/>
       <c r="B41" s="320"/>
       <c r="C41" s="317"/>
@@ -10549,7 +10550,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="134"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A42" s="11"/>
       <c r="B42" s="320"/>
       <c r="C42" s="317"/>
@@ -10582,7 +10583,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="135"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A43" s="11"/>
       <c r="B43" s="320"/>
       <c r="C43" s="317"/>
@@ -10615,7 +10616,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="118"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A44" s="11"/>
       <c r="B44" s="326"/>
       <c r="C44" s="317"/>
@@ -10648,7 +10649,7 @@
       <c r="W44" s="124"/>
       <c r="X44" s="126"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -10688,7 +10689,7 @@
       <c r="W45" s="147"/>
       <c r="X45" s="148"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -10717,7 +10718,7 @@
       <c r="W46" s="160"/>
       <c r="X46" s="118"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -10743,22 +10744,22 @@
       <c r="W47" s="40"/>
       <c r="X47" s="170"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.75">
       <c r="B48" s="162"/>
       <c r="C48" s="173" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="359" t="s">
+      <c r="E48" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="359"/>
-      <c r="G48" s="359"/>
-      <c r="H48" s="359"/>
-      <c r="I48" s="359"/>
-      <c r="J48" s="359"/>
-      <c r="K48" s="359"/>
-      <c r="L48" s="359"/>
+      <c r="F48" s="342"/>
+      <c r="G48" s="342"/>
+      <c r="H48" s="342"/>
+      <c r="I48" s="342"/>
+      <c r="J48" s="342"/>
+      <c r="K48" s="342"/>
+      <c r="L48" s="342"/>
       <c r="M48" s="166"/>
       <c r="N48" s="252"/>
       <c r="O48" s="165"/>
@@ -10772,7 +10773,7 @@
       <c r="W48" s="40"/>
       <c r="X48" s="170"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -10802,7 +10803,7 @@
       <c r="W49" s="40"/>
       <c r="X49" s="170"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="231" t="s">
@@ -10832,66 +10833,66 @@
       <c r="W50" s="259"/>
       <c r="X50" s="183"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="335" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="336"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="336"/>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-      <c r="J51" s="336"/>
-      <c r="K51" s="336"/>
-      <c r="L51" s="336"/>
-      <c r="M51" s="336"/>
-      <c r="N51" s="336"/>
-      <c r="O51" s="336"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="336"/>
-      <c r="T51" s="336"/>
-      <c r="U51" s="336"/>
-      <c r="V51" s="336"/>
-      <c r="W51" s="336"/>
-      <c r="X51" s="337"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="340" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="346"/>
+      <c r="W51" s="346"/>
+      <c r="X51" s="347"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="341"/>
-      <c r="C52" s="341"/>
-      <c r="D52" s="341"/>
-      <c r="E52" s="341"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="341"/>
-      <c r="H52" s="341"/>
-      <c r="I52" s="341"/>
-      <c r="J52" s="341"/>
-      <c r="K52" s="341"/>
-      <c r="L52" s="341"/>
-      <c r="M52" s="341"/>
-      <c r="N52" s="341"/>
-      <c r="O52" s="341"/>
-      <c r="P52" s="341"/>
-      <c r="Q52" s="341"/>
-      <c r="R52" s="341"/>
-      <c r="S52" s="341"/>
-      <c r="T52" s="341"/>
-      <c r="U52" s="341"/>
-      <c r="V52" s="341"/>
-      <c r="W52" s="341"/>
-      <c r="X52" s="342"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="337"/>
+      <c r="W52" s="337"/>
+      <c r="X52" s="338"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="209"/>
       <c r="E53" s="209"/>
       <c r="F53" s="209"/>
@@ -10916,53 +10917,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="346"/>
-      <c r="W54" s="346"/>
-      <c r="X54" s="347"/>
-    </row>
-    <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
-      <c r="T55" s="349"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="353"/>
+      <c r="W54" s="353"/>
+      <c r="X54" s="354"/>
+    </row>
+    <row r="55" spans="1:24" ht="59.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
+      <c r="T55" s="356"/>
       <c r="U55" s="295" t="s">
         <v>78</v>
       </c>
@@ -10970,7 +10971,7 @@
       <c r="W55" s="72"/>
       <c r="X55" s="79"/>
     </row>
-    <row r="56" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -11000,31 +11001,31 @@
       <c r="W56" s="184"/>
       <c r="X56" s="89"/>
     </row>
-    <row r="57" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="330" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="331"/>
-      <c r="F57" s="331"/>
-      <c r="G57" s="331"/>
-      <c r="H57" s="331"/>
-      <c r="I57" s="331"/>
-      <c r="J57" s="332"/>
-      <c r="K57" s="364" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="358"/>
+      <c r="I57" s="358"/>
+      <c r="J57" s="359"/>
+      <c r="K57" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="365"/>
-      <c r="M57" s="364" t="s">
+      <c r="L57" s="361"/>
+      <c r="M57" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="365"/>
-      <c r="O57" s="330" t="s">
+      <c r="N57" s="361"/>
+      <c r="O57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="332"/>
+      <c r="P57" s="359"/>
       <c r="Q57" s="94"/>
       <c r="R57" s="92"/>
       <c r="S57" s="94"/>
@@ -11034,7 +11035,7 @@
       <c r="W57" s="94"/>
       <c r="X57" s="93"/>
     </row>
-    <row r="58" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -11054,10 +11055,10 @@
       <c r="G58" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="360" t="s">
+      <c r="H58" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="361"/>
+      <c r="I58" s="363"/>
       <c r="J58" s="99" t="s">
         <v>16</v>
       </c>
@@ -11094,7 +11095,7 @@
       <c r="W58" s="64"/>
       <c r="X58" s="103"/>
     </row>
-    <row r="59" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
@@ -11106,10 +11107,10 @@
       <c r="G59" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="362" t="s">
+      <c r="H59" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="363"/>
+      <c r="I59" s="365"/>
       <c r="J59" s="107" t="s">
         <v>21</v>
       </c>
@@ -11138,7 +11139,7 @@
       <c r="W59" s="64"/>
       <c r="X59" s="103"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A60" s="14"/>
       <c r="B60" s="315"/>
       <c r="C60" s="314"/>
@@ -11175,7 +11176,7 @@
       <c r="W60" s="10"/>
       <c r="X60" s="103"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A61" s="32"/>
       <c r="B61" s="321"/>
       <c r="C61" s="317"/>
@@ -11212,7 +11213,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="118"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A62" s="14"/>
       <c r="B62" s="320"/>
       <c r="C62" s="317"/>
@@ -11251,7 +11252,7 @@
       </c>
       <c r="X62" s="118"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A63" s="32"/>
       <c r="B63" s="321"/>
       <c r="C63" s="322"/>
@@ -11280,15 +11281,15 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="338"/>
-      <c r="U63" s="338"/>
-      <c r="V63" s="338"/>
+      <c r="T63" s="348"/>
+      <c r="U63" s="348"/>
+      <c r="V63" s="348"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="X63" s="118"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A64" s="14"/>
       <c r="B64" s="321"/>
       <c r="C64" s="316"/>
@@ -11315,18 +11316,18 @@
       <c r="Q64" s="227"/>
       <c r="R64" s="68"/>
       <c r="S64" s="40"/>
-      <c r="T64" s="339" t="str">
+      <c r="T64" s="349" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="339"/>
-      <c r="V64" s="339"/>
+      <c r="U64" s="349"/>
+      <c r="V64" s="349"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="X64" s="103"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A65" s="32"/>
       <c r="B65" s="321"/>
       <c r="C65" s="322"/>
@@ -11361,7 +11362,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="122"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A66" s="327"/>
       <c r="B66" s="321"/>
       <c r="C66" s="316"/>
@@ -11394,7 +11395,7 @@
       <c r="W66" s="124"/>
       <c r="X66" s="126"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A67" s="32"/>
       <c r="B67" s="321"/>
       <c r="C67" s="316"/>
@@ -11429,7 +11430,7 @@
       <c r="W67" s="41"/>
       <c r="X67" s="118"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A68" s="14"/>
       <c r="B68" s="321"/>
       <c r="C68" s="316"/>
@@ -11464,7 +11465,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="118"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A69" s="327"/>
       <c r="B69" s="321"/>
       <c r="C69" s="322"/>
@@ -11501,7 +11502,7 @@
       </c>
       <c r="X69" s="118"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A70" s="52"/>
       <c r="B70" s="321"/>
       <c r="C70" s="316"/>
@@ -11538,7 +11539,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="118"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A71" s="14"/>
       <c r="B71" s="315"/>
       <c r="C71" s="322"/>
@@ -11575,7 +11576,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="118"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A72" s="56"/>
       <c r="B72" s="320"/>
       <c r="C72" s="323"/>
@@ -11610,7 +11611,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="118"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A73" s="56"/>
       <c r="B73" s="328"/>
       <c r="C73" s="323"/>
@@ -11645,7 +11646,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="118"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A74" s="32"/>
       <c r="B74" s="328"/>
       <c r="C74" s="323"/>
@@ -11685,7 +11686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A75" s="14"/>
       <c r="B75" s="315"/>
       <c r="C75" s="317"/>
@@ -11725,7 +11726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A76" s="56"/>
       <c r="B76" s="320"/>
       <c r="C76" s="317"/>
@@ -11764,7 +11765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A77" s="56"/>
       <c r="B77" s="321"/>
       <c r="C77" s="316"/>
@@ -11804,7 +11805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A78" s="56"/>
       <c r="B78" s="321"/>
       <c r="C78" s="316"/>
@@ -11844,7 +11845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A79" s="327"/>
       <c r="B79" s="321"/>
       <c r="C79" s="316"/>
@@ -11884,7 +11885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A80" s="32"/>
       <c r="B80" s="321"/>
       <c r="C80" s="324"/>
@@ -11925,7 +11926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A81" s="14"/>
       <c r="B81" s="321"/>
       <c r="C81" s="322"/>
@@ -11964,7 +11965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A82" s="11"/>
       <c r="B82" s="326"/>
       <c r="C82" s="322"/>
@@ -12003,7 +12004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A83" s="11"/>
       <c r="B83" s="326"/>
       <c r="C83" s="322"/>
@@ -12042,7 +12043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A84" s="11"/>
       <c r="B84" s="326"/>
       <c r="C84" s="322"/>
@@ -12082,7 +12083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A85" s="11"/>
       <c r="B85" s="321"/>
       <c r="C85" s="322"/>
@@ -12118,7 +12119,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="118"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A86" s="11"/>
       <c r="B86" s="326"/>
       <c r="C86" s="322"/>
@@ -12151,7 +12152,7 @@
       <c r="W86" s="298"/>
       <c r="X86" s="297"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A87" s="11"/>
       <c r="B87" s="326"/>
       <c r="C87" s="322"/>
@@ -12184,7 +12185,7 @@
       <c r="W87" s="298"/>
       <c r="X87" s="297"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A88" s="11"/>
       <c r="B88" s="326"/>
       <c r="C88" s="322"/>
@@ -12217,7 +12218,7 @@
       <c r="W88" s="298"/>
       <c r="X88" s="297"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A89" s="11"/>
       <c r="B89" s="326"/>
       <c r="C89" s="322"/>
@@ -12250,7 +12251,7 @@
       <c r="W89" s="298"/>
       <c r="X89" s="297"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A90" s="11"/>
       <c r="B90" s="326"/>
       <c r="C90" s="322"/>
@@ -12283,7 +12284,7 @@
       <c r="W90" s="298"/>
       <c r="X90" s="297"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A91" s="11"/>
       <c r="B91" s="326"/>
       <c r="C91" s="322"/>
@@ -12316,7 +12317,7 @@
       <c r="W91" s="298"/>
       <c r="X91" s="297"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A92" s="11"/>
       <c r="B92" s="326"/>
       <c r="C92" s="325"/>
@@ -12349,7 +12350,7 @@
       <c r="W92" s="298"/>
       <c r="X92" s="297"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A93" s="11"/>
       <c r="B93" s="321"/>
       <c r="C93" s="317"/>
@@ -12382,7 +12383,7 @@
       <c r="W93" s="298"/>
       <c r="X93" s="297"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A94" s="11"/>
       <c r="B94" s="326"/>
       <c r="C94" s="317"/>
@@ -12415,12 +12416,12 @@
       <c r="W94" s="298"/>
       <c r="X94" s="297"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A95" s="136"/>
-      <c r="B95" s="333" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="334"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="140"/>
@@ -12457,7 +12458,7 @@
       <c r="W95" s="298"/>
       <c r="X95" s="297"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.75">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -12489,22 +12490,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="145"/>
-      <c r="R96" s="354" t="s">
+      <c r="R96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="355"/>
-      <c r="T96" s="355"/>
-      <c r="U96" s="355"/>
-      <c r="V96" s="355"/>
-      <c r="W96" s="355"/>
-      <c r="X96" s="356"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="340" t="s">
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="334"/>
+      <c r="W96" s="334"/>
+      <c r="X96" s="335"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="341"/>
-      <c r="C97" s="342"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="152"/>
@@ -12533,10 +12534,10 @@
       <c r="W97" s="40"/>
       <c r="X97" s="170"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="357"/>
-      <c r="B98" s="350"/>
-      <c r="C98" s="358"/>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="164"/>
@@ -12563,23 +12564,23 @@
       <c r="W98" s="40"/>
       <c r="X98" s="170"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="357" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="350"/>
-      <c r="C99" s="358"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="359" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="359"/>
-      <c r="G99" s="359"/>
-      <c r="H99" s="359"/>
-      <c r="I99" s="359"/>
-      <c r="J99" s="359"/>
-      <c r="K99" s="359"/>
-      <c r="L99" s="359"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
+      <c r="K99" s="342"/>
+      <c r="L99" s="342"/>
       <c r="M99" s="166"/>
       <c r="N99" s="235"/>
       <c r="O99" s="236"/>
@@ -12595,22 +12596,22 @@
       <c r="W99" s="40"/>
       <c r="X99" s="170"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="357"/>
-      <c r="B100" s="350"/>
-      <c r="C100" s="358"/>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A100" s="340"/>
+      <c r="B100" s="329"/>
+      <c r="C100" s="341"/>
       <c r="D100" s="4"/>
       <c r="E100" s="162"/>
-      <c r="F100" s="350" t="str">
+      <c r="F100" s="329" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="350"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
-      <c r="K100" s="350"/>
-      <c r="L100" s="350"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
+      <c r="K100" s="329"/>
+      <c r="L100" s="329"/>
       <c r="M100" s="239"/>
       <c r="N100" s="240"/>
       <c r="O100" s="241"/>
@@ -12628,23 +12629,23 @@
       <c r="W100" s="201"/>
       <c r="X100" s="202"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="351" t="s">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.75">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="352"/>
-      <c r="C101" s="353"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="352" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="352"/>
-      <c r="H101" s="352"/>
-      <c r="I101" s="352"/>
-      <c r="J101" s="352"/>
-      <c r="K101" s="352"/>
-      <c r="L101" s="352"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
+      <c r="K101" s="331"/>
+      <c r="L101" s="331"/>
       <c r="M101" s="243"/>
       <c r="N101" s="244"/>
       <c r="O101" s="245"/>
@@ -12658,7 +12659,7 @@
       <c r="W101" s="182"/>
       <c r="X101" s="183"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.75">
       <c r="R102" s="128"/>
       <c r="S102" s="128"/>
       <c r="T102" s="128"/>
@@ -12667,7 +12668,7 @@
       <c r="W102" s="248"/>
       <c r="X102" s="248"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.75">
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="201"/>
@@ -12678,23 +12679,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -12703,12 +12693,23 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pea_jk\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ค่าติดตั้ง ทดสอบ'!$A$1:$V$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ค่าอุปกรณ์ และขนส่ง'!$A$1:$V$101</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -276,10 +281,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -801,11 +806,11 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -847,10 +852,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,13 +870,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -928,13 +933,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -944,16 +949,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,16 +1013,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,19 +1036,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1072,19 +1077,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,39 +1104,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1146,7 +1151,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,8 +1168,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,19 +1178,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1197,21 +1202,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -1219,47 +1224,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1269,38 +1274,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,134 +1314,134 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1445,34 +1450,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1551,7 +1556,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,7 +1586,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,7 +1659,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,25 +1674,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1697,39 +1714,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1753,31 +1737,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2234,7 +2239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2247,36 +2252,36 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="122.7109375" style="70" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="70" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="205" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="205" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="206" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="205" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="207" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="122.6640625" style="70" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" style="70" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="205" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="205" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="205" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="206" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="205" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="207" customWidth="1"/>
     <col min="12" max="12" width="28" style="70" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="208" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="70" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="70" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="70"/>
-    <col min="18" max="18" width="9.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="70" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="70" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="208" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" style="70" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="70" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="70"/>
+    <col min="18" max="18" width="9.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.88671875" style="70" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" style="70" customWidth="1"/>
     <col min="21" max="21" width="11" style="70" customWidth="1"/>
-    <col min="22" max="22" width="44.42578125" style="70" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="70"/>
+    <col min="22" max="22" width="44.44140625" style="70" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2307,7 @@
       <c r="U1" s="152"/>
       <c r="V1" s="261"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -2328,7 +2333,7 @@
       <c r="U2" s="150"/>
       <c r="V2" s="262"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="71"/>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
@@ -2354,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -2380,7 +2385,7 @@
       <c r="U4" s="264"/>
       <c r="V4" s="265"/>
     </row>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -2438,29 +2443,29 @@
       <c r="U6" s="86"/>
       <c r="V6" s="89"/>
     </row>
-    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="357" t="s">
+      <c r="D7" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="358"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="358"/>
-      <c r="H7" s="359"/>
-      <c r="I7" s="357" t="s">
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="330" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="359"/>
-      <c r="K7" s="357" t="s">
+      <c r="J7" s="332"/>
+      <c r="K7" s="330" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="359"/>
-      <c r="M7" s="357" t="s">
+      <c r="L7" s="332"/>
+      <c r="M7" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="359"/>
+      <c r="N7" s="332"/>
       <c r="O7" s="94"/>
       <c r="P7" s="92"/>
       <c r="Q7" s="94"/>
@@ -2470,7 +2475,7 @@
       <c r="U7" s="94"/>
       <c r="V7" s="93"/>
     </row>
-    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -2526,7 +2531,7 @@
       <c r="U8" s="64"/>
       <c r="V8" s="103"/>
     </row>
-    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
@@ -2566,7 +2571,7 @@
       <c r="U9" s="64"/>
       <c r="V9" s="103"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="271"/>
       <c r="C10" s="272"/>
@@ -2598,7 +2603,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="103"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="271"/>
       <c r="C11" s="273"/>
@@ -2635,7 +2640,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="118"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="271"/>
       <c r="C12" s="273"/>
@@ -2674,7 +2679,7 @@
       </c>
       <c r="V12" s="118"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="271"/>
       <c r="C13" s="273"/>
@@ -2711,7 +2716,7 @@
       </c>
       <c r="V13" s="118"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
@@ -2748,7 +2753,7 @@
       </c>
       <c r="V14" s="103"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="274"/>
       <c r="C15" s="275"/>
@@ -2783,7 +2788,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="122"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="274"/>
       <c r="C16" s="275"/>
@@ -2816,7 +2821,7 @@
       <c r="U16" s="124"/>
       <c r="V16" s="126"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="276"/>
       <c r="C17" s="275"/>
@@ -2849,7 +2854,7 @@
       <c r="U17" s="128"/>
       <c r="V17" s="129"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="274"/>
       <c r="C18" s="277"/>
@@ -2882,7 +2887,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="118"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="276"/>
       <c r="C19" s="277"/>
@@ -2915,7 +2920,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="118"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
       <c r="B20" s="276"/>
       <c r="C20" s="278"/>
@@ -2948,7 +2953,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="118"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="274"/>
       <c r="C21" s="275"/>
@@ -2981,7 +2986,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="118"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="274"/>
       <c r="C22" s="275"/>
@@ -3014,7 +3019,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="118"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="276"/>
       <c r="C23" s="275"/>
@@ -3047,7 +3052,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="118"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="274"/>
       <c r="C24" s="277"/>
@@ -3080,7 +3085,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="118"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="274"/>
       <c r="C25" s="277"/>
@@ -3113,7 +3118,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="118"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="274"/>
       <c r="C26" s="277"/>
@@ -3146,7 +3151,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="118"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14"/>
       <c r="B27" s="276"/>
       <c r="C27" s="277"/>
@@ -3179,7 +3184,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="118"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="274"/>
       <c r="C28" s="275"/>
@@ -3212,7 +3217,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="118"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="276"/>
       <c r="C29" s="275"/>
@@ -3245,7 +3250,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="118"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="274"/>
       <c r="C30" s="275"/>
@@ -3278,7 +3283,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="118"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="276"/>
       <c r="C31" s="275"/>
@@ -3311,7 +3316,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="118"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="274"/>
       <c r="C32" s="275"/>
@@ -3344,7 +3349,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="118"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="276"/>
       <c r="C33" s="275"/>
@@ -3377,7 +3382,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="118"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5"/>
       <c r="B34" s="274"/>
       <c r="C34" s="275"/>
@@ -3410,7 +3415,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="134"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="274"/>
       <c r="C35" s="275"/>
@@ -3443,7 +3448,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="135"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="274"/>
       <c r="C36" s="275"/>
@@ -3476,7 +3481,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="103"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="274"/>
       <c r="C37" s="275"/>
@@ -3509,7 +3514,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="118"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="276"/>
       <c r="C38" s="275"/>
@@ -3542,7 +3547,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="135"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="274"/>
       <c r="C39" s="275"/>
@@ -3575,7 +3580,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="134"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="276"/>
       <c r="C40" s="275"/>
@@ -3608,7 +3613,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="134"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="14"/>
       <c r="B41" s="276"/>
       <c r="C41" s="275"/>
@@ -3641,7 +3646,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="135"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="274"/>
       <c r="C42" s="275"/>
@@ -3674,7 +3679,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="118"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="274"/>
       <c r="C43" s="275"/>
@@ -3707,7 +3712,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="118"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="274"/>
       <c r="C44" s="275"/>
@@ -3740,7 +3745,7 @@
       <c r="U44" s="124"/>
       <c r="V44" s="126"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -3778,7 +3783,7 @@
       <c r="U45" s="147"/>
       <c r="V45" s="148"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -3787,10 +3792,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="152"/>
       <c r="F46" s="153"/>
-      <c r="G46" s="339" t="s">
+      <c r="G46" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="339"/>
+      <c r="H46" s="329"/>
       <c r="I46" s="154"/>
       <c r="J46" s="155"/>
       <c r="K46" s="156"/>
@@ -3806,7 +3811,7 @@
       <c r="U46" s="160"/>
       <c r="V46" s="118"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -3830,7 +3835,7 @@
       <c r="U47" s="40"/>
       <c r="V47" s="170"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="162"/>
       <c r="C48" s="171" t="s">
         <v>74</v>
@@ -3856,7 +3861,7 @@
       <c r="U48" s="40"/>
       <c r="V48" s="170"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -3884,7 +3889,7 @@
       <c r="U49" s="40"/>
       <c r="V49" s="170"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="177" t="s">
@@ -3912,62 +3917,62 @@
       <c r="U50" s="182"/>
       <c r="V50" s="183"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A51" s="345" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="346"/>
-      <c r="C51" s="346"/>
-      <c r="D51" s="346"/>
-      <c r="E51" s="346"/>
-      <c r="F51" s="346"/>
-      <c r="G51" s="346"/>
-      <c r="H51" s="346"/>
-      <c r="I51" s="346"/>
-      <c r="J51" s="346"/>
-      <c r="K51" s="346"/>
-      <c r="L51" s="346"/>
-      <c r="M51" s="346"/>
-      <c r="N51" s="346"/>
-      <c r="O51" s="346"/>
-      <c r="P51" s="346"/>
-      <c r="Q51" s="346"/>
-      <c r="R51" s="346"/>
-      <c r="S51" s="346"/>
-      <c r="T51" s="346"/>
-      <c r="U51" s="346"/>
-      <c r="V51" s="347"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A52" s="336" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="336"/>
+      <c r="C51" s="336"/>
+      <c r="D51" s="336"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="336"/>
+      <c r="H51" s="336"/>
+      <c r="I51" s="336"/>
+      <c r="J51" s="336"/>
+      <c r="K51" s="336"/>
+      <c r="L51" s="336"/>
+      <c r="M51" s="336"/>
+      <c r="N51" s="336"/>
+      <c r="O51" s="336"/>
+      <c r="P51" s="336"/>
+      <c r="Q51" s="336"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="337"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="337"/>
-      <c r="C52" s="337"/>
-      <c r="D52" s="337"/>
-      <c r="E52" s="337"/>
-      <c r="F52" s="337"/>
-      <c r="G52" s="337"/>
-      <c r="H52" s="337"/>
-      <c r="I52" s="337"/>
-      <c r="J52" s="337"/>
-      <c r="K52" s="337"/>
-      <c r="L52" s="337"/>
-      <c r="M52" s="337"/>
-      <c r="N52" s="337"/>
-      <c r="O52" s="337"/>
-      <c r="P52" s="337"/>
-      <c r="Q52" s="337"/>
-      <c r="R52" s="337"/>
-      <c r="S52" s="337"/>
-      <c r="T52" s="337"/>
-      <c r="U52" s="337"/>
-      <c r="V52" s="338"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A53" s="350"/>
-      <c r="B53" s="351"/>
-      <c r="C53" s="351"/>
+      <c r="B52" s="341"/>
+      <c r="C52" s="341"/>
+      <c r="D52" s="341"/>
+      <c r="E52" s="341"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="341"/>
+      <c r="H52" s="341"/>
+      <c r="I52" s="341"/>
+      <c r="J52" s="341"/>
+      <c r="K52" s="341"/>
+      <c r="L52" s="341"/>
+      <c r="M52" s="341"/>
+      <c r="N52" s="341"/>
+      <c r="O52" s="341"/>
+      <c r="P52" s="341"/>
+      <c r="Q52" s="341"/>
+      <c r="R52" s="341"/>
+      <c r="S52" s="341"/>
+      <c r="T52" s="341"/>
+      <c r="U52" s="341"/>
+      <c r="V52" s="342"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
       <c r="F53" s="74"/>
@@ -3990,57 +3995,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A54" s="352"/>
-      <c r="B54" s="353"/>
-      <c r="C54" s="353"/>
-      <c r="D54" s="353"/>
-      <c r="E54" s="353"/>
-      <c r="F54" s="353"/>
-      <c r="G54" s="353"/>
-      <c r="H54" s="353"/>
-      <c r="I54" s="353"/>
-      <c r="J54" s="353"/>
-      <c r="K54" s="353"/>
-      <c r="L54" s="353"/>
-      <c r="M54" s="353"/>
-      <c r="N54" s="353"/>
-      <c r="O54" s="353"/>
-      <c r="P54" s="353"/>
-      <c r="Q54" s="353"/>
-      <c r="R54" s="353"/>
-      <c r="S54" s="353"/>
-      <c r="T54" s="353"/>
-      <c r="U54" s="353"/>
-      <c r="V54" s="354"/>
-    </row>
-    <row r="55" spans="1:22" ht="68.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="355"/>
-      <c r="B55" s="356"/>
-      <c r="C55" s="356"/>
-      <c r="D55" s="356"/>
-      <c r="E55" s="356"/>
-      <c r="F55" s="356"/>
-      <c r="G55" s="356"/>
-      <c r="H55" s="356"/>
-      <c r="I55" s="356"/>
-      <c r="J55" s="356"/>
-      <c r="K55" s="356"/>
-      <c r="L55" s="356"/>
-      <c r="M55" s="356"/>
-      <c r="N55" s="356"/>
-      <c r="O55" s="356"/>
-      <c r="P55" s="356"/>
-      <c r="Q55" s="356"/>
-      <c r="R55" s="356"/>
-      <c r="S55" s="356"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="347"/>
+    </row>
+    <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
       <c r="T55" s="72" t="s">
         <v>68</v>
       </c>
       <c r="U55" s="72"/>
       <c r="V55" s="79"/>
     </row>
-    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -4068,29 +4073,29 @@
       <c r="U56" s="184"/>
       <c r="V56" s="89"/>
     </row>
-    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="357" t="s">
+      <c r="D57" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="358"/>
-      <c r="F57" s="358"/>
-      <c r="G57" s="358"/>
-      <c r="H57" s="359"/>
-      <c r="I57" s="357" t="s">
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
+      <c r="H57" s="332"/>
+      <c r="I57" s="330" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="359"/>
-      <c r="K57" s="357" t="s">
+      <c r="J57" s="332"/>
+      <c r="K57" s="330" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="359"/>
-      <c r="M57" s="357" t="s">
+      <c r="L57" s="332"/>
+      <c r="M57" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="359"/>
+      <c r="N57" s="332"/>
       <c r="O57" s="94"/>
       <c r="P57" s="92"/>
       <c r="Q57" s="94"/>
@@ -4100,7 +4105,7 @@
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
     </row>
-    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -4156,7 +4161,7 @@
       <c r="U58" s="64"/>
       <c r="V58" s="103"/>
     </row>
-    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
@@ -4196,7 +4201,7 @@
       <c r="U59" s="64"/>
       <c r="V59" s="103"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="14"/>
       <c r="B60" s="66"/>
       <c r="C60" s="279"/>
@@ -4233,7 +4238,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="103"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="32"/>
       <c r="B61" s="34"/>
       <c r="C61" s="270"/>
@@ -4270,7 +4275,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="118"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="269"/>
       <c r="C62" s="270"/>
@@ -4309,7 +4314,7 @@
       </c>
       <c r="V62" s="118"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="32"/>
       <c r="B63" s="34"/>
       <c r="C63" s="38"/>
@@ -4338,15 +4343,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="348"/>
-      <c r="S63" s="348"/>
-      <c r="T63" s="348"/>
+      <c r="R63" s="338"/>
+      <c r="S63" s="338"/>
+      <c r="T63" s="338"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="118"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="34"/>
       <c r="C64" s="7"/>
@@ -4373,17 +4378,17 @@
       <c r="O64" s="119"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="40"/>
-      <c r="R64" s="349" t="s">
+      <c r="R64" s="339" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="349"/>
-      <c r="T64" s="349"/>
+      <c r="S64" s="339"/>
+      <c r="T64" s="339"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="103"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="32"/>
       <c r="B65" s="34"/>
       <c r="C65" s="38"/>
@@ -4418,7 +4423,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="122"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="18"/>
       <c r="B66" s="34"/>
       <c r="C66" s="7"/>
@@ -4451,7 +4456,7 @@
       <c r="U66" s="124"/>
       <c r="V66" s="126"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="32"/>
       <c r="B67" s="54"/>
       <c r="C67" s="7"/>
@@ -4486,7 +4491,7 @@
       <c r="U67" s="41"/>
       <c r="V67" s="118"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="14"/>
       <c r="B68" s="34"/>
       <c r="C68" s="7"/>
@@ -4521,7 +4526,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="118"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="18"/>
       <c r="B69" s="34"/>
       <c r="C69" s="38"/>
@@ -4558,7 +4563,7 @@
       </c>
       <c r="V69" s="118"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="6"/>
       <c r="B70" s="54"/>
       <c r="C70" s="268"/>
@@ -4595,7 +4600,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="118"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="B71" s="67"/>
       <c r="C71" s="37"/>
@@ -4632,7 +4637,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="118"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="22"/>
       <c r="B72" s="269"/>
       <c r="C72" s="280"/>
@@ -4667,7 +4672,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="118"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="22"/>
       <c r="B73" s="284"/>
       <c r="C73" s="280"/>
@@ -4702,7 +4707,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="118"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="32"/>
       <c r="B74" s="284"/>
       <c r="C74" s="280"/>
@@ -4742,7 +4747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="B75" s="67"/>
       <c r="C75" s="270"/>
@@ -4782,7 +4787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="22"/>
       <c r="B76" s="269"/>
       <c r="C76" s="281"/>
@@ -4821,7 +4826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="22"/>
       <c r="B77" s="34"/>
       <c r="C77" s="7"/>
@@ -4861,7 +4866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="22"/>
       <c r="B78" s="34"/>
       <c r="C78" s="7"/>
@@ -4901,7 +4906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="18"/>
       <c r="B79" s="34"/>
       <c r="C79" s="7"/>
@@ -4941,7 +4946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="32"/>
       <c r="B80" s="34"/>
       <c r="C80" s="23"/>
@@ -4982,7 +4987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="B81" s="34"/>
       <c r="C81" s="282"/>
@@ -5021,7 +5026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="B82" s="34"/>
       <c r="C82" s="7"/>
@@ -5060,7 +5065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="B83" s="34"/>
       <c r="C83" s="7"/>
@@ -5099,7 +5104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="34"/>
       <c r="C84" s="7"/>
@@ -5139,7 +5144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="B85" s="34"/>
       <c r="C85" s="7"/>
@@ -5175,7 +5180,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="118"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="34"/>
       <c r="C86" s="7"/>
@@ -5208,7 +5213,7 @@
       <c r="U86" s="298"/>
       <c r="V86" s="297"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="B87" s="34"/>
       <c r="C87" s="7"/>
@@ -5241,7 +5246,7 @@
       <c r="U87" s="298"/>
       <c r="V87" s="297"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="34"/>
       <c r="C88" s="21"/>
@@ -5274,7 +5279,7 @@
       <c r="U88" s="298"/>
       <c r="V88" s="297"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="269"/>
       <c r="C89" s="21"/>
@@ -5307,7 +5312,7 @@
       <c r="U89" s="298"/>
       <c r="V89" s="297"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="269"/>
       <c r="C90" s="21"/>
@@ -5340,7 +5345,7 @@
       <c r="U90" s="298"/>
       <c r="V90" s="297"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="269"/>
       <c r="C91" s="21"/>
@@ -5372,7 +5377,7 @@
       <c r="U91" s="298"/>
       <c r="V91" s="297"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="269"/>
       <c r="C92" s="21"/>
@@ -5407,7 +5412,7 @@
       <c r="U92" s="298"/>
       <c r="V92" s="297"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="B93" s="269"/>
       <c r="C93" s="21"/>
@@ -5440,7 +5445,7 @@
       <c r="U93" s="298"/>
       <c r="V93" s="297"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="12"/>
       <c r="B94" s="285"/>
       <c r="C94" s="283"/>
@@ -5473,12 +5478,12 @@
       <c r="U94" s="298"/>
       <c r="V94" s="298"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="343" t="s">
+      <c r="B95" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="344"/>
+      <c r="C95" s="334"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="141"/>
@@ -5513,7 +5518,7 @@
       <c r="U95" s="298"/>
       <c r="V95" s="297"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -5543,29 +5548,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="145"/>
-      <c r="P96" s="333" t="s">
+      <c r="P96" s="354" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="334"/>
-      <c r="R96" s="334"/>
-      <c r="S96" s="334"/>
-      <c r="T96" s="334"/>
-      <c r="U96" s="334"/>
-      <c r="V96" s="335"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A97" s="336" t="s">
+      <c r="Q96" s="355"/>
+      <c r="R96" s="355"/>
+      <c r="S96" s="355"/>
+      <c r="T96" s="355"/>
+      <c r="U96" s="355"/>
+      <c r="V96" s="356"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="340" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="337"/>
-      <c r="C97" s="338"/>
+      <c r="B97" s="341"/>
+      <c r="C97" s="342"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="153"/>
-      <c r="G97" s="339" t="s">
+      <c r="G97" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="339"/>
+      <c r="H97" s="329"/>
       <c r="I97" s="154"/>
       <c r="J97" s="155"/>
       <c r="K97" s="156"/>
@@ -5586,10 +5591,10 @@
       <c r="U97" s="40"/>
       <c r="V97" s="170"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A98" s="340"/>
-      <c r="B98" s="329"/>
-      <c r="C98" s="341"/>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="357"/>
+      <c r="B98" s="350"/>
+      <c r="C98" s="358"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="165"/>
@@ -5615,21 +5620,21 @@
       <c r="V98" s="170"/>
       <c r="W98" s="170"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A99" s="340" t="s">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="329"/>
-      <c r="C99" s="341"/>
+      <c r="B99" s="350"/>
+      <c r="C99" s="358"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="342" t="s">
+      <c r="E99" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="342"/>
-      <c r="G99" s="342"/>
-      <c r="H99" s="342"/>
-      <c r="I99" s="342"/>
-      <c r="J99" s="342"/>
+      <c r="F99" s="359"/>
+      <c r="G99" s="359"/>
+      <c r="H99" s="359"/>
+      <c r="I99" s="359"/>
+      <c r="J99" s="359"/>
       <c r="K99" s="154"/>
       <c r="L99" s="167"/>
       <c r="M99" s="196"/>
@@ -5646,7 +5651,7 @@
       <c r="V99" s="170"/>
       <c r="W99" s="170"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="161"/>
       <c r="B100" s="162"/>
       <c r="C100" s="173" t="s">
@@ -5654,13 +5659,13 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="162"/>
-      <c r="F100" s="329" t="s">
+      <c r="F100" s="350" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="329"/>
-      <c r="H100" s="329"/>
-      <c r="I100" s="329"/>
-      <c r="J100" s="329"/>
+      <c r="G100" s="350"/>
+      <c r="H100" s="350"/>
+      <c r="I100" s="350"/>
+      <c r="J100" s="350"/>
       <c r="K100" s="174"/>
       <c r="L100" s="175"/>
       <c r="M100" s="199"/>
@@ -5679,21 +5684,21 @@
       <c r="V100" s="202"/>
       <c r="W100" s="134"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.75">
-      <c r="A101" s="330" t="s">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="351" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="331"/>
-      <c r="C101" s="332"/>
+      <c r="B101" s="352"/>
+      <c r="C101" s="353"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="331" t="s">
+      <c r="F101" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="331"/>
-      <c r="H101" s="331"/>
-      <c r="I101" s="331"/>
-      <c r="J101" s="331"/>
+      <c r="G101" s="352"/>
+      <c r="H101" s="352"/>
+      <c r="I101" s="352"/>
+      <c r="J101" s="352"/>
       <c r="K101" s="178"/>
       <c r="L101" s="179"/>
       <c r="M101" s="203"/>
@@ -5709,11 +5714,15 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -5726,19 +5735,15 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -5752,36 +5757,36 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="70" customWidth="1"/>
     <col min="3" max="3" width="116" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="247" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="247" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="205" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="247" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="247" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="205" customWidth="1"/>
     <col min="7" max="7" width="7" style="205" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="205" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="205" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="205" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" style="205" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="205" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="247" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.85546875" style="70"/>
-    <col min="19" max="19" width="20.85546875" style="70" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="70" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="70" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="205" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="205" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="205" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="205" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" style="205" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" style="205" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" style="247" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.88671875" style="70"/>
+    <col min="19" max="19" width="20.88671875" style="70" customWidth="1"/>
+    <col min="20" max="20" width="18.5546875" style="70" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="70" customWidth="1"/>
     <col min="22" max="22" width="37" style="70" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="70"/>
+    <col min="23" max="16384" width="8.88671875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -5807,7 +5812,7 @@
       <c r="U1" s="152"/>
       <c r="V1" s="261"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -5833,10 +5838,10 @@
       <c r="U2" s="150"/>
       <c r="V2" s="262"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A3" s="350"/>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
       <c r="D3" s="209"/>
       <c r="E3" s="209"/>
       <c r="F3" s="74"/>
@@ -5859,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -5885,7 +5890,7 @@
       <c r="U4" s="264"/>
       <c r="V4" s="265"/>
     </row>
-    <row r="5" spans="1:22" ht="61.15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -5915,7 +5920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -5945,29 +5950,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="357" t="s">
+      <c r="D7" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="358"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="358"/>
-      <c r="H7" s="359"/>
-      <c r="I7" s="360" t="s">
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="361"/>
-      <c r="K7" s="360" t="s">
+      <c r="J7" s="365"/>
+      <c r="K7" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="361"/>
-      <c r="M7" s="357" t="s">
+      <c r="L7" s="365"/>
+      <c r="M7" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="359"/>
+      <c r="N7" s="332"/>
       <c r="O7" s="94"/>
       <c r="P7" s="92"/>
       <c r="Q7" s="94"/>
@@ -5977,7 +5982,7 @@
       <c r="U7" s="94"/>
       <c r="V7" s="93"/>
     </row>
-    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -5991,10 +5996,10 @@
       <c r="E8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="362" t="s">
+      <c r="F8" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="363"/>
+      <c r="G8" s="361"/>
       <c r="H8" s="99" t="s">
         <v>16</v>
       </c>
@@ -6031,16 +6036,16 @@
       <c r="U8" s="64"/>
       <c r="V8" s="103"/>
     </row>
-    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
       <c r="D9" s="104"/>
       <c r="E9" s="104"/>
-      <c r="F9" s="364" t="s">
+      <c r="F9" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="365"/>
+      <c r="G9" s="363"/>
       <c r="H9" s="107" t="s">
         <v>21</v>
       </c>
@@ -6069,7 +6074,7 @@
       <c r="U9" s="64"/>
       <c r="V9" s="103"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="48"/>
       <c r="B10" s="302"/>
       <c r="C10" s="291"/>
@@ -6104,7 +6109,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="103"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14"/>
       <c r="B11" s="276"/>
       <c r="C11" s="275"/>
@@ -6139,7 +6144,7 @@
       <c r="U11" s="4"/>
       <c r="V11" s="118"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="274"/>
       <c r="C12" s="275"/>
@@ -6176,7 +6181,7 @@
       </c>
       <c r="V12" s="118"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="274"/>
       <c r="C13" s="275"/>
@@ -6211,7 +6216,7 @@
       </c>
       <c r="V13" s="118"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="274"/>
       <c r="C14" s="275"/>
@@ -6246,7 +6251,7 @@
       </c>
       <c r="V14" s="103"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14"/>
       <c r="B15" s="274"/>
       <c r="C15" s="275"/>
@@ -6279,7 +6284,7 @@
       <c r="U15" s="4"/>
       <c r="V15" s="122"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14"/>
       <c r="B16" s="276"/>
       <c r="C16" s="277"/>
@@ -6310,7 +6315,7 @@
       <c r="U16" s="124"/>
       <c r="V16" s="126"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="274"/>
       <c r="C17" s="277"/>
@@ -6341,7 +6346,7 @@
       <c r="U17" s="128"/>
       <c r="V17" s="129"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14"/>
       <c r="B18" s="274"/>
       <c r="C18" s="277"/>
@@ -6372,7 +6377,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="118"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14"/>
       <c r="B19" s="274"/>
       <c r="C19" s="275"/>
@@ -6403,7 +6408,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="118"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
       <c r="B20" s="274"/>
       <c r="C20" s="275"/>
@@ -6434,7 +6439,7 @@
       <c r="U20" s="4"/>
       <c r="V20" s="118"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14"/>
       <c r="B21" s="276"/>
       <c r="C21" s="277"/>
@@ -6465,7 +6470,7 @@
       <c r="U21" s="4"/>
       <c r="V21" s="118"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14"/>
       <c r="B22" s="274"/>
       <c r="C22" s="301"/>
@@ -6496,7 +6501,7 @@
       <c r="U22" s="4"/>
       <c r="V22" s="118"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="274"/>
       <c r="C23" s="278"/>
@@ -6527,7 +6532,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="118"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14"/>
       <c r="B24" s="274"/>
       <c r="C24" s="275"/>
@@ -6558,7 +6563,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="118"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14"/>
       <c r="B25" s="274"/>
       <c r="C25" s="275"/>
@@ -6589,7 +6594,7 @@
       <c r="U25" s="4"/>
       <c r="V25" s="118"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14"/>
       <c r="B26" s="276"/>
       <c r="C26" s="277"/>
@@ -6620,7 +6625,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="118"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14"/>
       <c r="B27" s="274"/>
       <c r="C27" s="301"/>
@@ -6651,7 +6656,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="118"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="14"/>
       <c r="B28" s="274"/>
       <c r="C28" s="275"/>
@@ -6682,7 +6687,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="118"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
       <c r="B29" s="274"/>
       <c r="C29" s="278"/>
@@ -6713,7 +6718,7 @@
       <c r="U29" s="4"/>
       <c r="V29" s="118"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="14"/>
       <c r="B30" s="274"/>
       <c r="C30" s="275"/>
@@ -6744,7 +6749,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="118"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14"/>
       <c r="B31" s="276"/>
       <c r="C31" s="277"/>
@@ -6775,7 +6780,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="118"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="14"/>
       <c r="B32" s="274"/>
       <c r="C32" s="301"/>
@@ -6806,7 +6811,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="118"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14"/>
       <c r="B33" s="274"/>
       <c r="C33" s="275"/>
@@ -6837,7 +6842,7 @@
       <c r="U33" s="4"/>
       <c r="V33" s="118"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="14"/>
       <c r="B34" s="274"/>
       <c r="C34" s="275"/>
@@ -6868,7 +6873,7 @@
       <c r="U34" s="4"/>
       <c r="V34" s="134"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="52"/>
       <c r="B35" s="274"/>
       <c r="C35" s="278"/>
@@ -6899,7 +6904,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="135"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13"/>
       <c r="B36" s="276"/>
       <c r="C36" s="301"/>
@@ -6930,7 +6935,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="103"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13"/>
       <c r="B37" s="274"/>
       <c r="C37" s="275"/>
@@ -6961,7 +6966,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="103"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="14"/>
       <c r="B38" s="276"/>
       <c r="C38" s="277"/>
@@ -6992,7 +6997,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="118"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="274"/>
       <c r="C39" s="277"/>
@@ -7023,7 +7028,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="135"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="274"/>
       <c r="C40" s="277"/>
@@ -7054,7 +7059,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="134"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
       <c r="B41" s="274"/>
       <c r="C41" s="277"/>
@@ -7085,7 +7090,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="134"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="274"/>
       <c r="C42" s="277"/>
@@ -7116,7 +7121,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="135"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="274"/>
       <c r="C43" s="277"/>
@@ -7147,7 +7152,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="118"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="293"/>
       <c r="C44" s="277"/>
@@ -7178,7 +7183,7 @@
       <c r="U44" s="124"/>
       <c r="V44" s="126"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -7216,7 +7221,7 @@
       <c r="U45" s="147"/>
       <c r="V45" s="148"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -7225,10 +7230,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="152"/>
       <c r="F46" s="153"/>
-      <c r="G46" s="339" t="s">
+      <c r="G46" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="339"/>
+      <c r="H46" s="329"/>
       <c r="I46" s="154"/>
       <c r="J46" s="155"/>
       <c r="K46" s="156"/>
@@ -7244,7 +7249,7 @@
       <c r="U46" s="160"/>
       <c r="V46" s="118"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -7268,7 +7273,7 @@
       <c r="U47" s="40"/>
       <c r="V47" s="170"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="162"/>
       <c r="C48" s="171" t="s">
         <v>74</v>
@@ -7295,7 +7300,7 @@
       <c r="U48" s="40"/>
       <c r="V48" s="170"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -7323,7 +7328,7 @@
       <c r="U49" s="40"/>
       <c r="V49" s="170"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="231" t="s">
@@ -7351,62 +7356,62 @@
       <c r="U50" s="182"/>
       <c r="V50" s="183"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A51" s="345" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="346"/>
-      <c r="C51" s="346"/>
-      <c r="D51" s="346"/>
-      <c r="E51" s="346"/>
-      <c r="F51" s="346"/>
-      <c r="G51" s="346"/>
-      <c r="H51" s="346"/>
-      <c r="I51" s="346"/>
-      <c r="J51" s="346"/>
-      <c r="K51" s="346"/>
-      <c r="L51" s="346"/>
-      <c r="M51" s="346"/>
-      <c r="N51" s="346"/>
-      <c r="O51" s="346"/>
-      <c r="P51" s="346"/>
-      <c r="Q51" s="346"/>
-      <c r="R51" s="346"/>
-      <c r="S51" s="346"/>
-      <c r="T51" s="346"/>
-      <c r="U51" s="346"/>
-      <c r="V51" s="347"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A52" s="336" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="336"/>
+      <c r="C51" s="336"/>
+      <c r="D51" s="336"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="336"/>
+      <c r="H51" s="336"/>
+      <c r="I51" s="336"/>
+      <c r="J51" s="336"/>
+      <c r="K51" s="336"/>
+      <c r="L51" s="336"/>
+      <c r="M51" s="336"/>
+      <c r="N51" s="336"/>
+      <c r="O51" s="336"/>
+      <c r="P51" s="336"/>
+      <c r="Q51" s="336"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="337"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="337"/>
-      <c r="C52" s="337"/>
-      <c r="D52" s="337"/>
-      <c r="E52" s="337"/>
-      <c r="F52" s="337"/>
-      <c r="G52" s="337"/>
-      <c r="H52" s="337"/>
-      <c r="I52" s="337"/>
-      <c r="J52" s="337"/>
-      <c r="K52" s="337"/>
-      <c r="L52" s="337"/>
-      <c r="M52" s="337"/>
-      <c r="N52" s="337"/>
-      <c r="O52" s="337"/>
-      <c r="P52" s="337"/>
-      <c r="Q52" s="337"/>
-      <c r="R52" s="337"/>
-      <c r="S52" s="337"/>
-      <c r="T52" s="337"/>
-      <c r="U52" s="337"/>
-      <c r="V52" s="338"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A53" s="350"/>
-      <c r="B53" s="351"/>
-      <c r="C53" s="351"/>
+      <c r="B52" s="341"/>
+      <c r="C52" s="341"/>
+      <c r="D52" s="341"/>
+      <c r="E52" s="341"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="341"/>
+      <c r="H52" s="341"/>
+      <c r="I52" s="341"/>
+      <c r="J52" s="341"/>
+      <c r="K52" s="341"/>
+      <c r="L52" s="341"/>
+      <c r="M52" s="341"/>
+      <c r="N52" s="341"/>
+      <c r="O52" s="341"/>
+      <c r="P52" s="341"/>
+      <c r="Q52" s="341"/>
+      <c r="R52" s="341"/>
+      <c r="S52" s="341"/>
+      <c r="T52" s="341"/>
+      <c r="U52" s="341"/>
+      <c r="V52" s="342"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="209"/>
       <c r="E53" s="209"/>
       <c r="F53" s="74"/>
@@ -7429,57 +7434,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A54" s="352"/>
-      <c r="B54" s="353"/>
-      <c r="C54" s="353"/>
-      <c r="D54" s="353"/>
-      <c r="E54" s="353"/>
-      <c r="F54" s="353"/>
-      <c r="G54" s="353"/>
-      <c r="H54" s="353"/>
-      <c r="I54" s="353"/>
-      <c r="J54" s="353"/>
-      <c r="K54" s="353"/>
-      <c r="L54" s="353"/>
-      <c r="M54" s="353"/>
-      <c r="N54" s="353"/>
-      <c r="O54" s="353"/>
-      <c r="P54" s="353"/>
-      <c r="Q54" s="353"/>
-      <c r="R54" s="353"/>
-      <c r="S54" s="353"/>
-      <c r="T54" s="353"/>
-      <c r="U54" s="353"/>
-      <c r="V54" s="354"/>
-    </row>
-    <row r="55" spans="1:22" ht="56.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="355"/>
-      <c r="B55" s="356"/>
-      <c r="C55" s="356"/>
-      <c r="D55" s="356"/>
-      <c r="E55" s="356"/>
-      <c r="F55" s="356"/>
-      <c r="G55" s="356"/>
-      <c r="H55" s="356"/>
-      <c r="I55" s="356"/>
-      <c r="J55" s="356"/>
-      <c r="K55" s="356"/>
-      <c r="L55" s="356"/>
-      <c r="M55" s="356"/>
-      <c r="N55" s="356"/>
-      <c r="O55" s="356"/>
-      <c r="P55" s="356"/>
-      <c r="Q55" s="356"/>
-      <c r="R55" s="356"/>
-      <c r="S55" s="356"/>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="347"/>
+    </row>
+    <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
       <c r="T55" s="72" t="s">
         <v>3</v>
       </c>
       <c r="U55" s="72"/>
       <c r="V55" s="79"/>
     </row>
-    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -7507,29 +7512,29 @@
       <c r="U56" s="184"/>
       <c r="V56" s="89"/>
     </row>
-    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="357" t="s">
+      <c r="D57" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="358"/>
-      <c r="F57" s="358"/>
-      <c r="G57" s="358"/>
-      <c r="H57" s="359"/>
-      <c r="I57" s="360" t="s">
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
+      <c r="H57" s="332"/>
+      <c r="I57" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="361"/>
-      <c r="K57" s="360" t="s">
+      <c r="J57" s="365"/>
+      <c r="K57" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="361"/>
-      <c r="M57" s="357" t="s">
+      <c r="L57" s="365"/>
+      <c r="M57" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="359"/>
+      <c r="N57" s="332"/>
       <c r="O57" s="94"/>
       <c r="P57" s="92"/>
       <c r="Q57" s="94"/>
@@ -7539,7 +7544,7 @@
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
     </row>
-    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -7553,10 +7558,10 @@
       <c r="E58" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="362" t="s">
+      <c r="F58" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="363"/>
+      <c r="G58" s="361"/>
       <c r="H58" s="99" t="s">
         <v>16</v>
       </c>
@@ -7593,16 +7598,16 @@
       <c r="U58" s="64"/>
       <c r="V58" s="103"/>
     </row>
-    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:22" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
       <c r="D59" s="104"/>
       <c r="E59" s="104"/>
-      <c r="F59" s="364" t="s">
+      <c r="F59" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="365"/>
+      <c r="G59" s="363"/>
       <c r="H59" s="107" t="s">
         <v>21</v>
       </c>
@@ -7631,7 +7636,7 @@
       <c r="U59" s="64"/>
       <c r="V59" s="103"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="14"/>
       <c r="B60" s="276"/>
       <c r="C60" s="291"/>
@@ -7666,7 +7671,7 @@
       <c r="U60" s="10"/>
       <c r="V60" s="103"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="32"/>
       <c r="B61" s="286"/>
       <c r="C61" s="277"/>
@@ -7701,7 +7706,7 @@
       <c r="U61" s="4"/>
       <c r="V61" s="118"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="14"/>
       <c r="B62" s="274"/>
       <c r="C62" s="277"/>
@@ -7738,7 +7743,7 @@
       </c>
       <c r="V62" s="118"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="32"/>
       <c r="B63" s="286"/>
       <c r="C63" s="287"/>
@@ -7765,15 +7770,15 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="348"/>
-      <c r="S63" s="348"/>
-      <c r="T63" s="348"/>
+      <c r="R63" s="338"/>
+      <c r="S63" s="338"/>
+      <c r="T63" s="338"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V63" s="118"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="14"/>
       <c r="B64" s="286"/>
       <c r="C64" s="275"/>
@@ -7798,18 +7803,18 @@
       <c r="O64" s="227"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="40"/>
-      <c r="R64" s="349" t="str">
+      <c r="R64" s="339" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="349"/>
-      <c r="T64" s="349"/>
+      <c r="S64" s="339"/>
+      <c r="T64" s="339"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V64" s="103"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="32"/>
       <c r="B65" s="286"/>
       <c r="C65" s="287"/>
@@ -7842,7 +7847,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="122"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="55"/>
       <c r="B66" s="286"/>
       <c r="C66" s="275"/>
@@ -7873,7 +7878,7 @@
       <c r="U66" s="124"/>
       <c r="V66" s="126"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="32"/>
       <c r="B67" s="286"/>
       <c r="C67" s="275"/>
@@ -7906,7 +7911,7 @@
       <c r="U67" s="41"/>
       <c r="V67" s="118"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="14"/>
       <c r="B68" s="286"/>
       <c r="C68" s="275"/>
@@ -7939,7 +7944,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="118"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="55"/>
       <c r="B69" s="286"/>
       <c r="C69" s="287"/>
@@ -7974,7 +7979,7 @@
       </c>
       <c r="V69" s="118"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13"/>
       <c r="B70" s="286"/>
       <c r="C70" s="275"/>
@@ -8009,7 +8014,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="118"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="14"/>
       <c r="B71" s="276"/>
       <c r="C71" s="287"/>
@@ -8044,7 +8049,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="118"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="56"/>
       <c r="B72" s="274"/>
       <c r="C72" s="288"/>
@@ -8077,7 +8082,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="118"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="56"/>
       <c r="B73" s="292"/>
       <c r="C73" s="288"/>
@@ -8110,7 +8115,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="118"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="32"/>
       <c r="B74" s="292"/>
       <c r="C74" s="288"/>
@@ -8148,7 +8153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="14"/>
       <c r="B75" s="276"/>
       <c r="C75" s="277"/>
@@ -8186,7 +8191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="56"/>
       <c r="B76" s="274"/>
       <c r="C76" s="277"/>
@@ -8223,7 +8228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="56"/>
       <c r="B77" s="286"/>
       <c r="C77" s="275"/>
@@ -8261,7 +8266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="56"/>
       <c r="B78" s="286"/>
       <c r="C78" s="275"/>
@@ -8299,7 +8304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="55"/>
       <c r="B79" s="286"/>
       <c r="C79" s="275"/>
@@ -8337,7 +8342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="32"/>
       <c r="B80" s="286"/>
       <c r="C80" s="289"/>
@@ -8376,7 +8381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="14"/>
       <c r="B81" s="286"/>
       <c r="C81" s="287"/>
@@ -8413,7 +8418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
       <c r="B82" s="293"/>
       <c r="C82" s="287"/>
@@ -8450,7 +8455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
       <c r="B83" s="293"/>
       <c r="C83" s="287"/>
@@ -8487,7 +8492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="293"/>
       <c r="C84" s="287"/>
@@ -8525,7 +8530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
       <c r="B85" s="286"/>
       <c r="C85" s="287"/>
@@ -8559,7 +8564,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="118"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="293"/>
       <c r="C86" s="287"/>
@@ -8590,7 +8595,7 @@
       <c r="U86" s="298"/>
       <c r="V86" s="297"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
       <c r="B87" s="293"/>
       <c r="C87" s="287"/>
@@ -8621,7 +8626,7 @@
       <c r="U87" s="298"/>
       <c r="V87" s="297"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="293"/>
       <c r="C88" s="287"/>
@@ -8652,7 +8657,7 @@
       <c r="U88" s="298"/>
       <c r="V88" s="297"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="293"/>
       <c r="C89" s="287"/>
@@ -8683,7 +8688,7 @@
       <c r="U89" s="298"/>
       <c r="V89" s="297"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="293"/>
       <c r="C90" s="287"/>
@@ -8714,7 +8719,7 @@
       <c r="U90" s="298"/>
       <c r="V90" s="297"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="293"/>
       <c r="C91" s="287"/>
@@ -8745,7 +8750,7 @@
       <c r="U91" s="298"/>
       <c r="V91" s="297"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="293"/>
       <c r="C92" s="290"/>
@@ -8778,7 +8783,7 @@
       <c r="U92" s="298"/>
       <c r="V92" s="297"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
       <c r="B93" s="286"/>
       <c r="C93" s="277"/>
@@ -8809,7 +8814,7 @@
       <c r="U93" s="298"/>
       <c r="V93" s="297"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="12"/>
       <c r="B94" s="293"/>
       <c r="C94" s="277"/>
@@ -8840,12 +8845,12 @@
       <c r="U94" s="298"/>
       <c r="V94" s="297"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="343" t="s">
+      <c r="B95" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="344"/>
+      <c r="C95" s="334"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="141"/>
@@ -8880,7 +8885,7 @@
       <c r="U95" s="298"/>
       <c r="V95" s="297"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -8910,29 +8915,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="145"/>
-      <c r="P96" s="333" t="s">
+      <c r="P96" s="354" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="334"/>
-      <c r="R96" s="334"/>
-      <c r="S96" s="334"/>
-      <c r="T96" s="334"/>
-      <c r="U96" s="334"/>
-      <c r="V96" s="335"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A97" s="336" t="s">
+      <c r="Q96" s="355"/>
+      <c r="R96" s="355"/>
+      <c r="S96" s="355"/>
+      <c r="T96" s="355"/>
+      <c r="U96" s="355"/>
+      <c r="V96" s="356"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="340" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="337"/>
-      <c r="C97" s="338"/>
+      <c r="B97" s="341"/>
+      <c r="C97" s="342"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="153"/>
-      <c r="G97" s="339" t="s">
+      <c r="G97" s="329" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="339"/>
+      <c r="H97" s="329"/>
       <c r="I97" s="165"/>
       <c r="J97" s="155"/>
       <c r="K97" s="155"/>
@@ -8953,10 +8958,10 @@
       <c r="U97" s="40"/>
       <c r="V97" s="170"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A98" s="340"/>
-      <c r="B98" s="329"/>
-      <c r="C98" s="341"/>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="357"/>
+      <c r="B98" s="350"/>
+      <c r="C98" s="358"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="165"/>
@@ -8981,21 +8986,21 @@
       <c r="U98" s="40"/>
       <c r="V98" s="170"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="161"/>
       <c r="B99" s="162"/>
       <c r="C99" s="173" t="s">
         <v>80</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="342" t="s">
+      <c r="E99" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="342"/>
-      <c r="G99" s="342"/>
-      <c r="H99" s="342"/>
-      <c r="I99" s="342"/>
-      <c r="J99" s="342"/>
+      <c r="F99" s="359"/>
+      <c r="G99" s="359"/>
+      <c r="H99" s="359"/>
+      <c r="I99" s="359"/>
+      <c r="J99" s="359"/>
       <c r="K99" s="166"/>
       <c r="L99" s="235"/>
       <c r="M99" s="236"/>
@@ -9011,20 +9016,20 @@
       <c r="U99" s="40"/>
       <c r="V99" s="170"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="161"/>
       <c r="B100" s="162"/>
       <c r="C100" s="173"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="329" t="str">
+      <c r="E100" s="350" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="F100" s="329"/>
-      <c r="G100" s="329"/>
-      <c r="H100" s="329"/>
-      <c r="I100" s="329"/>
-      <c r="J100" s="329"/>
+      <c r="F100" s="350"/>
+      <c r="G100" s="350"/>
+      <c r="H100" s="350"/>
+      <c r="I100" s="350"/>
+      <c r="J100" s="350"/>
       <c r="K100" s="239"/>
       <c r="L100" s="240"/>
       <c r="M100" s="241"/>
@@ -9042,21 +9047,21 @@
       <c r="U100" s="201"/>
       <c r="V100" s="202"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.75">
-      <c r="A101" s="330" t="s">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="351" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="331"/>
-      <c r="C101" s="332"/>
+      <c r="B101" s="352"/>
+      <c r="C101" s="353"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="331" t="s">
+      <c r="F101" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="331"/>
-      <c r="H101" s="331"/>
-      <c r="I101" s="331"/>
-      <c r="J101" s="331"/>
+      <c r="G101" s="352"/>
+      <c r="H101" s="352"/>
+      <c r="I101" s="352"/>
+      <c r="J101" s="352"/>
       <c r="K101" s="243"/>
       <c r="L101" s="244"/>
       <c r="M101" s="245"/>
@@ -9070,7 +9075,7 @@
       <c r="U101" s="182"/>
       <c r="V101" s="183"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P102" s="128"/>
       <c r="Q102" s="128"/>
       <c r="R102" s="128"/>
@@ -9079,7 +9084,7 @@
       <c r="U102" s="248"/>
       <c r="V102" s="248"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="201"/>
@@ -9090,21 +9095,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="E99:J99"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="F101:J101"/>
@@ -9120,9 +9110,24 @@
     <mergeCell ref="P96:V96"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="A54:V54"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -9137,34 +9142,34 @@
       <selection activeCell="O60" sqref="O60:O94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="33" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="106.85546875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="247" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="247" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" style="247" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="205" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="106.88671875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="247" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="247" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" style="247" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="205" customWidth="1"/>
     <col min="9" max="9" width="7" style="205" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="205" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="205" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" style="205" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="205" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="205" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="205" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="247" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.85546875" style="70"/>
-    <col min="20" max="20" width="18.28515625" style="70" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" style="70" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="70" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="70" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="205" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="205" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="205" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="205" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" style="205" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" style="205" customWidth="1"/>
+    <col min="16" max="16" width="19.88671875" style="247" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" style="70"/>
+    <col min="20" max="20" width="18.33203125" style="70" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" style="70" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" style="70" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="70" customWidth="1"/>
     <col min="24" max="24" width="37" style="70" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="70"/>
+    <col min="25" max="16384" width="8.88671875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="260" t="s">
         <v>0</v>
       </c>
@@ -9192,7 +9197,7 @@
       <c r="W1" s="152"/>
       <c r="X1" s="261"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
@@ -9220,10 +9225,10 @@
       <c r="W2" s="150"/>
       <c r="X2" s="262"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A3" s="350"/>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="343"/>
+      <c r="B3" s="344"/>
+      <c r="C3" s="344"/>
       <c r="D3" s="209"/>
       <c r="E3" s="209"/>
       <c r="F3" s="209"/>
@@ -9248,7 +9253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="263" t="s">
         <v>65</v>
       </c>
@@ -9276,7 +9281,7 @@
       <c r="W4" s="264"/>
       <c r="X4" s="265"/>
     </row>
-    <row r="5" spans="1:24" ht="58.15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:24" ht="58.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="266" t="s">
         <v>71</v>
       </c>
@@ -9308,7 +9313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="80" t="s">
         <v>4</v>
       </c>
@@ -9340,31 +9345,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="357" t="s">
+      <c r="D7" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="358"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="358"/>
-      <c r="H7" s="358"/>
-      <c r="I7" s="358"/>
-      <c r="J7" s="359"/>
-      <c r="K7" s="360" t="s">
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="331"/>
+      <c r="I7" s="331"/>
+      <c r="J7" s="332"/>
+      <c r="K7" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="361"/>
-      <c r="M7" s="360" t="s">
+      <c r="L7" s="365"/>
+      <c r="M7" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="361"/>
-      <c r="O7" s="357" t="s">
+      <c r="N7" s="365"/>
+      <c r="O7" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="359"/>
+      <c r="P7" s="332"/>
       <c r="Q7" s="94"/>
       <c r="R7" s="92"/>
       <c r="S7" s="94"/>
@@ -9374,7 +9379,7 @@
       <c r="W7" s="94"/>
       <c r="X7" s="93"/>
     </row>
-    <row r="8" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="95" t="s">
         <v>11</v>
       </c>
@@ -9394,10 +9399,10 @@
       <c r="G8" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="362" t="s">
+      <c r="H8" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="363"/>
+      <c r="I8" s="361"/>
       <c r="J8" s="99" t="s">
         <v>16</v>
       </c>
@@ -9434,7 +9439,7 @@
       <c r="W8" s="64"/>
       <c r="X8" s="103"/>
     </row>
-    <row r="9" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
       <c r="C9" s="106"/>
@@ -9446,10 +9451,10 @@
       <c r="G9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="364" t="s">
+      <c r="H9" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="365"/>
+      <c r="I9" s="363"/>
       <c r="J9" s="107" t="s">
         <v>21</v>
       </c>
@@ -9476,7 +9481,7 @@
       <c r="W9" s="64"/>
       <c r="X9" s="103"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="48"/>
       <c r="B10" s="313"/>
       <c r="C10" s="314"/>
@@ -9511,7 +9516,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="103"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14"/>
       <c r="B11" s="315"/>
       <c r="C11" s="316"/>
@@ -9546,7 +9551,7 @@
       <c r="W11" s="4"/>
       <c r="X11" s="118"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="320"/>
       <c r="C12" s="316"/>
@@ -9583,7 +9588,7 @@
       </c>
       <c r="X12" s="118"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="320"/>
       <c r="C13" s="316"/>
@@ -9620,7 +9625,7 @@
       </c>
       <c r="X13" s="118"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="320"/>
       <c r="C14" s="316"/>
@@ -9657,7 +9662,7 @@
       </c>
       <c r="X14" s="103"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14"/>
       <c r="B15" s="320"/>
       <c r="C15" s="316"/>
@@ -9692,7 +9697,7 @@
       <c r="W15" s="4"/>
       <c r="X15" s="122"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14"/>
       <c r="B16" s="315"/>
       <c r="C16" s="317"/>
@@ -9725,7 +9730,7 @@
       <c r="W16" s="124"/>
       <c r="X16" s="126"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="320"/>
       <c r="C17" s="317"/>
@@ -9758,7 +9763,7 @@
       <c r="W17" s="128"/>
       <c r="X17" s="129"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14"/>
       <c r="B18" s="320"/>
       <c r="C18" s="317"/>
@@ -9791,7 +9796,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="118"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14"/>
       <c r="B19" s="320"/>
       <c r="C19" s="316"/>
@@ -9824,7 +9829,7 @@
       <c r="W19" s="43"/>
       <c r="X19" s="118"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
       <c r="B20" s="320"/>
       <c r="C20" s="316"/>
@@ -9857,7 +9862,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="118"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14"/>
       <c r="B21" s="315"/>
       <c r="C21" s="317"/>
@@ -9890,7 +9895,7 @@
       <c r="W21" s="4"/>
       <c r="X21" s="118"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14"/>
       <c r="B22" s="320"/>
       <c r="C22" s="318"/>
@@ -9923,7 +9928,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="118"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="320"/>
       <c r="C23" s="319"/>
@@ -9956,7 +9961,7 @@
       <c r="W23" s="4"/>
       <c r="X23" s="118"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14"/>
       <c r="B24" s="320"/>
       <c r="C24" s="316"/>
@@ -9989,7 +9994,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="118"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14"/>
       <c r="B25" s="320"/>
       <c r="C25" s="316"/>
@@ -10022,7 +10027,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="118"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14"/>
       <c r="B26" s="315"/>
       <c r="C26" s="317"/>
@@ -10055,7 +10060,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="118"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14"/>
       <c r="B27" s="320"/>
       <c r="C27" s="318"/>
@@ -10088,7 +10093,7 @@
       <c r="W27" s="4"/>
       <c r="X27" s="118"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="14"/>
       <c r="B28" s="320"/>
       <c r="C28" s="316"/>
@@ -10121,7 +10126,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="118"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
       <c r="B29" s="320"/>
       <c r="C29" s="319"/>
@@ -10154,7 +10159,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="118"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="14"/>
       <c r="B30" s="320"/>
       <c r="C30" s="316"/>
@@ -10187,7 +10192,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="118"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14"/>
       <c r="B31" s="315"/>
       <c r="C31" s="317"/>
@@ -10220,7 +10225,7 @@
       <c r="W31" s="4"/>
       <c r="X31" s="118"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="14"/>
       <c r="B32" s="320"/>
       <c r="C32" s="318"/>
@@ -10253,7 +10258,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="118"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14"/>
       <c r="B33" s="320"/>
       <c r="C33" s="316"/>
@@ -10286,7 +10291,7 @@
       <c r="W33" s="4"/>
       <c r="X33" s="118"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="14"/>
       <c r="B34" s="320"/>
       <c r="C34" s="316"/>
@@ -10319,7 +10324,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="134"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="52"/>
       <c r="B35" s="320"/>
       <c r="C35" s="319"/>
@@ -10352,7 +10357,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="135"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="52"/>
       <c r="B36" s="315"/>
       <c r="C36" s="318"/>
@@ -10385,7 +10390,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="103"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="52"/>
       <c r="B37" s="320"/>
       <c r="C37" s="316"/>
@@ -10418,7 +10423,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="103"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="14"/>
       <c r="B38" s="315"/>
       <c r="C38" s="317"/>
@@ -10451,7 +10456,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="118"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="320"/>
       <c r="C39" s="317"/>
@@ -10484,7 +10489,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="135"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="320"/>
       <c r="C40" s="317"/>
@@ -10517,7 +10522,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="134"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
       <c r="B41" s="320"/>
       <c r="C41" s="317"/>
@@ -10550,7 +10555,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="134"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="320"/>
       <c r="C42" s="317"/>
@@ -10583,7 +10588,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="135"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="320"/>
       <c r="C43" s="317"/>
@@ -10616,7 +10621,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="118"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11"/>
       <c r="B44" s="326"/>
       <c r="C44" s="317"/>
@@ -10649,7 +10654,7 @@
       <c r="W44" s="124"/>
       <c r="X44" s="126"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138" t="s">
@@ -10689,7 +10694,7 @@
       <c r="W45" s="147"/>
       <c r="X45" s="148"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="149"/>
       <c r="B46" s="150"/>
       <c r="C46" s="151" t="s">
@@ -10718,7 +10723,7 @@
       <c r="W46" s="160"/>
       <c r="X46" s="118"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="161"/>
       <c r="B47" s="162"/>
       <c r="C47" s="163"/>
@@ -10744,22 +10749,22 @@
       <c r="W47" s="40"/>
       <c r="X47" s="170"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="162"/>
       <c r="C48" s="173" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="342" t="s">
+      <c r="E48" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="342"/>
-      <c r="G48" s="342"/>
-      <c r="H48" s="342"/>
-      <c r="I48" s="342"/>
-      <c r="J48" s="342"/>
-      <c r="K48" s="342"/>
-      <c r="L48" s="342"/>
+      <c r="F48" s="359"/>
+      <c r="G48" s="359"/>
+      <c r="H48" s="359"/>
+      <c r="I48" s="359"/>
+      <c r="J48" s="359"/>
+      <c r="K48" s="359"/>
+      <c r="L48" s="359"/>
       <c r="M48" s="166"/>
       <c r="N48" s="252"/>
       <c r="O48" s="165"/>
@@ -10773,7 +10778,7 @@
       <c r="W48" s="40"/>
       <c r="X48" s="170"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="161"/>
       <c r="B49" s="162"/>
       <c r="C49" s="173" t="s">
@@ -10803,7 +10808,7 @@
       <c r="W49" s="40"/>
       <c r="X49" s="170"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="71"/>
       <c r="B50" s="72"/>
       <c r="C50" s="231" t="s">
@@ -10833,66 +10838,66 @@
       <c r="W50" s="259"/>
       <c r="X50" s="183"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A51" s="345" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="346"/>
-      <c r="C51" s="346"/>
-      <c r="D51" s="346"/>
-      <c r="E51" s="346"/>
-      <c r="F51" s="346"/>
-      <c r="G51" s="346"/>
-      <c r="H51" s="346"/>
-      <c r="I51" s="346"/>
-      <c r="J51" s="346"/>
-      <c r="K51" s="346"/>
-      <c r="L51" s="346"/>
-      <c r="M51" s="346"/>
-      <c r="N51" s="346"/>
-      <c r="O51" s="346"/>
-      <c r="P51" s="346"/>
-      <c r="Q51" s="346"/>
-      <c r="R51" s="346"/>
-      <c r="S51" s="346"/>
-      <c r="T51" s="346"/>
-      <c r="U51" s="346"/>
-      <c r="V51" s="346"/>
-      <c r="W51" s="346"/>
-      <c r="X51" s="347"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A52" s="336" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="336"/>
+      <c r="C51" s="336"/>
+      <c r="D51" s="336"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="336"/>
+      <c r="G51" s="336"/>
+      <c r="H51" s="336"/>
+      <c r="I51" s="336"/>
+      <c r="J51" s="336"/>
+      <c r="K51" s="336"/>
+      <c r="L51" s="336"/>
+      <c r="M51" s="336"/>
+      <c r="N51" s="336"/>
+      <c r="O51" s="336"/>
+      <c r="P51" s="336"/>
+      <c r="Q51" s="336"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="336"/>
+      <c r="W51" s="336"/>
+      <c r="X51" s="337"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="337"/>
-      <c r="C52" s="337"/>
-      <c r="D52" s="337"/>
-      <c r="E52" s="337"/>
-      <c r="F52" s="337"/>
-      <c r="G52" s="337"/>
-      <c r="H52" s="337"/>
-      <c r="I52" s="337"/>
-      <c r="J52" s="337"/>
-      <c r="K52" s="337"/>
-      <c r="L52" s="337"/>
-      <c r="M52" s="337"/>
-      <c r="N52" s="337"/>
-      <c r="O52" s="337"/>
-      <c r="P52" s="337"/>
-      <c r="Q52" s="337"/>
-      <c r="R52" s="337"/>
-      <c r="S52" s="337"/>
-      <c r="T52" s="337"/>
-      <c r="U52" s="337"/>
-      <c r="V52" s="337"/>
-      <c r="W52" s="337"/>
-      <c r="X52" s="338"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A53" s="350"/>
-      <c r="B53" s="351"/>
-      <c r="C53" s="351"/>
+      <c r="B52" s="341"/>
+      <c r="C52" s="341"/>
+      <c r="D52" s="341"/>
+      <c r="E52" s="341"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="341"/>
+      <c r="H52" s="341"/>
+      <c r="I52" s="341"/>
+      <c r="J52" s="341"/>
+      <c r="K52" s="341"/>
+      <c r="L52" s="341"/>
+      <c r="M52" s="341"/>
+      <c r="N52" s="341"/>
+      <c r="O52" s="341"/>
+      <c r="P52" s="341"/>
+      <c r="Q52" s="341"/>
+      <c r="R52" s="341"/>
+      <c r="S52" s="341"/>
+      <c r="T52" s="341"/>
+      <c r="U52" s="341"/>
+      <c r="V52" s="341"/>
+      <c r="W52" s="341"/>
+      <c r="X52" s="342"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="343"/>
+      <c r="B53" s="344"/>
+      <c r="C53" s="344"/>
       <c r="D53" s="209"/>
       <c r="E53" s="209"/>
       <c r="F53" s="209"/>
@@ -10917,53 +10922,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A54" s="352"/>
-      <c r="B54" s="353"/>
-      <c r="C54" s="353"/>
-      <c r="D54" s="353"/>
-      <c r="E54" s="353"/>
-      <c r="F54" s="353"/>
-      <c r="G54" s="353"/>
-      <c r="H54" s="353"/>
-      <c r="I54" s="353"/>
-      <c r="J54" s="353"/>
-      <c r="K54" s="353"/>
-      <c r="L54" s="353"/>
-      <c r="M54" s="353"/>
-      <c r="N54" s="353"/>
-      <c r="O54" s="353"/>
-      <c r="P54" s="353"/>
-      <c r="Q54" s="353"/>
-      <c r="R54" s="353"/>
-      <c r="S54" s="353"/>
-      <c r="T54" s="353"/>
-      <c r="U54" s="353"/>
-      <c r="V54" s="353"/>
-      <c r="W54" s="353"/>
-      <c r="X54" s="354"/>
-    </row>
-    <row r="55" spans="1:24" ht="59.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A55" s="355"/>
-      <c r="B55" s="356"/>
-      <c r="C55" s="356"/>
-      <c r="D55" s="356"/>
-      <c r="E55" s="356"/>
-      <c r="F55" s="356"/>
-      <c r="G55" s="356"/>
-      <c r="H55" s="356"/>
-      <c r="I55" s="356"/>
-      <c r="J55" s="356"/>
-      <c r="K55" s="356"/>
-      <c r="L55" s="356"/>
-      <c r="M55" s="356"/>
-      <c r="N55" s="356"/>
-      <c r="O55" s="356"/>
-      <c r="P55" s="356"/>
-      <c r="Q55" s="356"/>
-      <c r="R55" s="356"/>
-      <c r="S55" s="356"/>
-      <c r="T55" s="356"/>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="345"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="346"/>
+      <c r="M54" s="346"/>
+      <c r="N54" s="346"/>
+      <c r="O54" s="346"/>
+      <c r="P54" s="346"/>
+      <c r="Q54" s="346"/>
+      <c r="R54" s="346"/>
+      <c r="S54" s="346"/>
+      <c r="T54" s="346"/>
+      <c r="U54" s="346"/>
+      <c r="V54" s="346"/>
+      <c r="W54" s="346"/>
+      <c r="X54" s="347"/>
+    </row>
+    <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="348"/>
+      <c r="B55" s="349"/>
+      <c r="C55" s="349"/>
+      <c r="D55" s="349"/>
+      <c r="E55" s="349"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="349"/>
+      <c r="M55" s="349"/>
+      <c r="N55" s="349"/>
+      <c r="O55" s="349"/>
+      <c r="P55" s="349"/>
+      <c r="Q55" s="349"/>
+      <c r="R55" s="349"/>
+      <c r="S55" s="349"/>
+      <c r="T55" s="349"/>
       <c r="U55" s="295" t="s">
         <v>78</v>
       </c>
@@ -10971,7 +10976,7 @@
       <c r="W55" s="72"/>
       <c r="X55" s="79"/>
     </row>
-    <row r="56" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="80" t="s">
         <v>4</v>
       </c>
@@ -11001,31 +11006,31 @@
       <c r="W56" s="184"/>
       <c r="X56" s="89"/>
     </row>
-    <row r="57" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="357" t="s">
+      <c r="D57" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="358"/>
-      <c r="F57" s="358"/>
-      <c r="G57" s="358"/>
-      <c r="H57" s="358"/>
-      <c r="I57" s="358"/>
-      <c r="J57" s="359"/>
-      <c r="K57" s="360" t="s">
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
+      <c r="H57" s="331"/>
+      <c r="I57" s="331"/>
+      <c r="J57" s="332"/>
+      <c r="K57" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="361"/>
-      <c r="M57" s="360" t="s">
+      <c r="L57" s="365"/>
+      <c r="M57" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="361"/>
-      <c r="O57" s="357" t="s">
+      <c r="N57" s="365"/>
+      <c r="O57" s="330" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="359"/>
+      <c r="P57" s="332"/>
       <c r="Q57" s="94"/>
       <c r="R57" s="92"/>
       <c r="S57" s="94"/>
@@ -11035,7 +11040,7 @@
       <c r="W57" s="94"/>
       <c r="X57" s="93"/>
     </row>
-    <row r="58" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="95" t="s">
         <v>11</v>
       </c>
@@ -11055,10 +11060,10 @@
       <c r="G58" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="362" t="s">
+      <c r="H58" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="363"/>
+      <c r="I58" s="361"/>
       <c r="J58" s="99" t="s">
         <v>16</v>
       </c>
@@ -11095,7 +11100,7 @@
       <c r="W58" s="64"/>
       <c r="X58" s="103"/>
     </row>
-    <row r="59" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:24" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="104"/>
       <c r="B59" s="105"/>
       <c r="C59" s="106"/>
@@ -11107,10 +11112,10 @@
       <c r="G59" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="364" t="s">
+      <c r="H59" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="365"/>
+      <c r="I59" s="363"/>
       <c r="J59" s="107" t="s">
         <v>21</v>
       </c>
@@ -11139,7 +11144,7 @@
       <c r="W59" s="64"/>
       <c r="X59" s="103"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="14"/>
       <c r="B60" s="315"/>
       <c r="C60" s="314"/>
@@ -11176,7 +11181,7 @@
       <c r="W60" s="10"/>
       <c r="X60" s="103"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="32"/>
       <c r="B61" s="321"/>
       <c r="C61" s="317"/>
@@ -11213,7 +11218,7 @@
       <c r="W61" s="4"/>
       <c r="X61" s="118"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="14"/>
       <c r="B62" s="320"/>
       <c r="C62" s="317"/>
@@ -11252,7 +11257,7 @@
       </c>
       <c r="X62" s="118"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="32"/>
       <c r="B63" s="321"/>
       <c r="C63" s="322"/>
@@ -11281,15 +11286,15 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="348"/>
-      <c r="U63" s="348"/>
-      <c r="V63" s="348"/>
+      <c r="T63" s="338"/>
+      <c r="U63" s="338"/>
+      <c r="V63" s="338"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="X63" s="118"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="14"/>
       <c r="B64" s="321"/>
       <c r="C64" s="316"/>
@@ -11316,18 +11321,18 @@
       <c r="Q64" s="227"/>
       <c r="R64" s="68"/>
       <c r="S64" s="40"/>
-      <c r="T64" s="349" t="str">
+      <c r="T64" s="339" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="349"/>
-      <c r="V64" s="349"/>
+      <c r="U64" s="339"/>
+      <c r="V64" s="339"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
       <c r="X64" s="103"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="32"/>
       <c r="B65" s="321"/>
       <c r="C65" s="322"/>
@@ -11362,7 +11367,7 @@
       <c r="W65" s="4"/>
       <c r="X65" s="122"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="327"/>
       <c r="B66" s="321"/>
       <c r="C66" s="316"/>
@@ -11395,7 +11400,7 @@
       <c r="W66" s="124"/>
       <c r="X66" s="126"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="32"/>
       <c r="B67" s="321"/>
       <c r="C67" s="316"/>
@@ -11430,7 +11435,7 @@
       <c r="W67" s="41"/>
       <c r="X67" s="118"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="14"/>
       <c r="B68" s="321"/>
       <c r="C68" s="316"/>
@@ -11465,7 +11470,7 @@
       <c r="W68" s="4"/>
       <c r="X68" s="118"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="327"/>
       <c r="B69" s="321"/>
       <c r="C69" s="322"/>
@@ -11502,7 +11507,7 @@
       </c>
       <c r="X69" s="118"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="52"/>
       <c r="B70" s="321"/>
       <c r="C70" s="316"/>
@@ -11539,7 +11544,7 @@
       <c r="W70" s="4"/>
       <c r="X70" s="118"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="14"/>
       <c r="B71" s="315"/>
       <c r="C71" s="322"/>
@@ -11576,7 +11581,7 @@
       <c r="W71" s="4"/>
       <c r="X71" s="118"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="56"/>
       <c r="B72" s="320"/>
       <c r="C72" s="323"/>
@@ -11611,7 +11616,7 @@
       <c r="W72" s="4"/>
       <c r="X72" s="118"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="56"/>
       <c r="B73" s="328"/>
       <c r="C73" s="323"/>
@@ -11646,7 +11651,7 @@
       <c r="W73" s="4"/>
       <c r="X73" s="118"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="32"/>
       <c r="B74" s="328"/>
       <c r="C74" s="323"/>
@@ -11686,7 +11691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="14"/>
       <c r="B75" s="315"/>
       <c r="C75" s="317"/>
@@ -11726,7 +11731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="56"/>
       <c r="B76" s="320"/>
       <c r="C76" s="317"/>
@@ -11765,7 +11770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="56"/>
       <c r="B77" s="321"/>
       <c r="C77" s="316"/>
@@ -11805,7 +11810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="56"/>
       <c r="B78" s="321"/>
       <c r="C78" s="316"/>
@@ -11845,7 +11850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="327"/>
       <c r="B79" s="321"/>
       <c r="C79" s="316"/>
@@ -11885,7 +11890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="32"/>
       <c r="B80" s="321"/>
       <c r="C80" s="324"/>
@@ -11926,7 +11931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="14"/>
       <c r="B81" s="321"/>
       <c r="C81" s="322"/>
@@ -11965,7 +11970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
       <c r="B82" s="326"/>
       <c r="C82" s="322"/>
@@ -12004,7 +12009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
       <c r="B83" s="326"/>
       <c r="C83" s="322"/>
@@ -12043,7 +12048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="326"/>
       <c r="C84" s="322"/>
@@ -12083,7 +12088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
       <c r="B85" s="321"/>
       <c r="C85" s="322"/>
@@ -12119,7 +12124,7 @@
       <c r="W85" s="4"/>
       <c r="X85" s="118"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="326"/>
       <c r="C86" s="322"/>
@@ -12152,7 +12157,7 @@
       <c r="W86" s="298"/>
       <c r="X86" s="297"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
       <c r="B87" s="326"/>
       <c r="C87" s="322"/>
@@ -12185,7 +12190,7 @@
       <c r="W87" s="298"/>
       <c r="X87" s="297"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="326"/>
       <c r="C88" s="322"/>
@@ -12218,7 +12223,7 @@
       <c r="W88" s="298"/>
       <c r="X88" s="297"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="326"/>
       <c r="C89" s="322"/>
@@ -12251,7 +12256,7 @@
       <c r="W89" s="298"/>
       <c r="X89" s="297"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="326"/>
       <c r="C90" s="322"/>
@@ -12284,7 +12289,7 @@
       <c r="W90" s="298"/>
       <c r="X90" s="297"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="326"/>
       <c r="C91" s="322"/>
@@ -12317,7 +12322,7 @@
       <c r="W91" s="298"/>
       <c r="X91" s="297"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="326"/>
       <c r="C92" s="325"/>
@@ -12350,7 +12355,7 @@
       <c r="W92" s="298"/>
       <c r="X92" s="297"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
       <c r="B93" s="321"/>
       <c r="C93" s="317"/>
@@ -12383,7 +12388,7 @@
       <c r="W93" s="298"/>
       <c r="X93" s="297"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11"/>
       <c r="B94" s="326"/>
       <c r="C94" s="317"/>
@@ -12416,12 +12421,12 @@
       <c r="W94" s="298"/>
       <c r="X94" s="297"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="343" t="s">
+      <c r="B95" s="333" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="344"/>
+      <c r="C95" s="334"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="140"/>
@@ -12458,7 +12463,7 @@
       <c r="W95" s="298"/>
       <c r="X95" s="297"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="136"/>
       <c r="B96" s="190"/>
       <c r="C96" s="191" t="s">
@@ -12490,22 +12495,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="145"/>
-      <c r="R96" s="333" t="s">
+      <c r="R96" s="354" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="334"/>
-      <c r="T96" s="334"/>
-      <c r="U96" s="334"/>
-      <c r="V96" s="334"/>
-      <c r="W96" s="334"/>
-      <c r="X96" s="335"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A97" s="336" t="s">
+      <c r="S96" s="355"/>
+      <c r="T96" s="355"/>
+      <c r="U96" s="355"/>
+      <c r="V96" s="355"/>
+      <c r="W96" s="355"/>
+      <c r="X96" s="356"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="340" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="337"/>
-      <c r="C97" s="338"/>
+      <c r="B97" s="341"/>
+      <c r="C97" s="342"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="152"/>
@@ -12534,10 +12539,10 @@
       <c r="W97" s="40"/>
       <c r="X97" s="170"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A98" s="340"/>
-      <c r="B98" s="329"/>
-      <c r="C98" s="341"/>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="357"/>
+      <c r="B98" s="350"/>
+      <c r="C98" s="358"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="164"/>
@@ -12564,23 +12569,23 @@
       <c r="W98" s="40"/>
       <c r="X98" s="170"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A99" s="340" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="329"/>
-      <c r="C99" s="341"/>
+      <c r="B99" s="350"/>
+      <c r="C99" s="358"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="342" t="s">
+      <c r="E99" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="342"/>
-      <c r="G99" s="342"/>
-      <c r="H99" s="342"/>
-      <c r="I99" s="342"/>
-      <c r="J99" s="342"/>
-      <c r="K99" s="342"/>
-      <c r="L99" s="342"/>
+      <c r="F99" s="359"/>
+      <c r="G99" s="359"/>
+      <c r="H99" s="359"/>
+      <c r="I99" s="359"/>
+      <c r="J99" s="359"/>
+      <c r="K99" s="359"/>
+      <c r="L99" s="359"/>
       <c r="M99" s="166"/>
       <c r="N99" s="235"/>
       <c r="O99" s="236"/>
@@ -12596,22 +12601,22 @@
       <c r="W99" s="40"/>
       <c r="X99" s="170"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A100" s="340"/>
-      <c r="B100" s="329"/>
-      <c r="C100" s="341"/>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="357"/>
+      <c r="B100" s="350"/>
+      <c r="C100" s="358"/>
       <c r="D100" s="4"/>
       <c r="E100" s="162"/>
-      <c r="F100" s="329" t="str">
+      <c r="F100" s="350" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="329"/>
-      <c r="H100" s="329"/>
-      <c r="I100" s="329"/>
-      <c r="J100" s="329"/>
-      <c r="K100" s="329"/>
-      <c r="L100" s="329"/>
+      <c r="G100" s="350"/>
+      <c r="H100" s="350"/>
+      <c r="I100" s="350"/>
+      <c r="J100" s="350"/>
+      <c r="K100" s="350"/>
+      <c r="L100" s="350"/>
       <c r="M100" s="239"/>
       <c r="N100" s="240"/>
       <c r="O100" s="241"/>
@@ -12629,23 +12634,23 @@
       <c r="W100" s="201"/>
       <c r="X100" s="202"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.75">
-      <c r="A101" s="330" t="s">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="351" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="331"/>
-      <c r="C101" s="332"/>
+      <c r="B101" s="352"/>
+      <c r="C101" s="353"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="331" t="s">
+      <c r="F101" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="331"/>
-      <c r="H101" s="331"/>
-      <c r="I101" s="331"/>
-      <c r="J101" s="331"/>
-      <c r="K101" s="331"/>
-      <c r="L101" s="331"/>
+      <c r="G101" s="352"/>
+      <c r="H101" s="352"/>
+      <c r="I101" s="352"/>
+      <c r="J101" s="352"/>
+      <c r="K101" s="352"/>
+      <c r="L101" s="352"/>
       <c r="M101" s="243"/>
       <c r="N101" s="244"/>
       <c r="O101" s="245"/>
@@ -12659,7 +12664,7 @@
       <c r="W101" s="182"/>
       <c r="X101" s="183"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R102" s="128"/>
       <c r="S102" s="128"/>
       <c r="T102" s="128"/>
@@ -12668,7 +12673,7 @@
       <c r="W102" s="248"/>
       <c r="X102" s="248"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
       <c r="T103" s="201"/>
@@ -12679,12 +12684,23 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -12693,23 +12709,12 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/templates/template_form.xlsx
+++ b/templates/template_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ค่าอุปกรณ์ และขนส่ง" sheetId="2" r:id="rId1"/>
@@ -1674,16 +1674,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,15 +1735,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1737,34 +1758,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1777,12 +1783,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2027,7 +2027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2062,7 +2062,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2252,8 +2252,8 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A41" zoomScale="50" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -2447,25 +2447,25 @@
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="330" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="332"/>
-      <c r="I7" s="330" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="359"/>
+      <c r="I7" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="332"/>
-      <c r="K7" s="330" t="s">
+      <c r="J7" s="359"/>
+      <c r="K7" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="332"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="359"/>
+      <c r="M7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="332"/>
+      <c r="N7" s="359"/>
       <c r="O7" s="94"/>
       <c r="P7" s="92"/>
       <c r="Q7" s="94"/>
@@ -3792,10 +3792,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="152"/>
       <c r="F46" s="153"/>
-      <c r="G46" s="329" t="s">
+      <c r="G46" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="329"/>
+      <c r="H46" s="339"/>
       <c r="I46" s="154"/>
       <c r="J46" s="155"/>
       <c r="K46" s="156"/>
@@ -3836,6 +3836,7 @@
       <c r="V47" s="170"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3"/>
       <c r="B48" s="162"/>
       <c r="C48" s="171" t="s">
         <v>74</v>
@@ -3918,61 +3919,61 @@
       <c r="V50" s="183"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="335" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="336"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="336"/>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-      <c r="J51" s="336"/>
-      <c r="K51" s="336"/>
-      <c r="L51" s="336"/>
-      <c r="M51" s="336"/>
-      <c r="N51" s="336"/>
-      <c r="O51" s="336"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="336"/>
-      <c r="T51" s="336"/>
-      <c r="U51" s="336"/>
-      <c r="V51" s="337"/>
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="347"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="340" t="s">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="341"/>
-      <c r="C52" s="341"/>
-      <c r="D52" s="341"/>
-      <c r="E52" s="341"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="341"/>
-      <c r="H52" s="341"/>
-      <c r="I52" s="341"/>
-      <c r="J52" s="341"/>
-      <c r="K52" s="341"/>
-      <c r="L52" s="341"/>
-      <c r="M52" s="341"/>
-      <c r="N52" s="341"/>
-      <c r="O52" s="341"/>
-      <c r="P52" s="341"/>
-      <c r="Q52" s="341"/>
-      <c r="R52" s="341"/>
-      <c r="S52" s="341"/>
-      <c r="T52" s="341"/>
-      <c r="U52" s="341"/>
-      <c r="V52" s="342"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="338"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="73"/>
       <c r="E53" s="73"/>
       <c r="F53" s="74"/>
@@ -3996,49 +3997,49 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="347"/>
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="354"/>
     </row>
     <row r="55" spans="1:22" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="72" t="s">
         <v>68</v>
       </c>
@@ -4077,25 +4078,25 @@
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="330" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="331"/>
-      <c r="F57" s="331"/>
-      <c r="G57" s="331"/>
-      <c r="H57" s="332"/>
-      <c r="I57" s="330" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="357" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="332"/>
-      <c r="K57" s="330" t="s">
+      <c r="J57" s="359"/>
+      <c r="K57" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="332"/>
-      <c r="M57" s="330" t="s">
+      <c r="L57" s="359"/>
+      <c r="M57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="332"/>
+      <c r="N57" s="359"/>
       <c r="O57" s="94"/>
       <c r="P57" s="92"/>
       <c r="Q57" s="94"/>
@@ -4343,9 +4344,9 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="338"/>
-      <c r="S63" s="338"/>
-      <c r="T63" s="338"/>
+      <c r="R63" s="348"/>
+      <c r="S63" s="348"/>
+      <c r="T63" s="348"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
@@ -4378,11 +4379,11 @@
       <c r="O64" s="119"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="40"/>
-      <c r="R64" s="339" t="s">
+      <c r="R64" s="349" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="339"/>
-      <c r="T64" s="339"/>
+      <c r="S64" s="349"/>
+      <c r="T64" s="349"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
@@ -5480,10 +5481,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="333" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="334"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="141"/>
@@ -5548,29 +5549,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="145"/>
-      <c r="P96" s="354" t="s">
+      <c r="P96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="355"/>
-      <c r="R96" s="355"/>
-      <c r="S96" s="355"/>
-      <c r="T96" s="355"/>
-      <c r="U96" s="355"/>
-      <c r="V96" s="356"/>
+      <c r="Q96" s="334"/>
+      <c r="R96" s="334"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="335"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="340" t="s">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="341"/>
-      <c r="C97" s="342"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="153"/>
-      <c r="G97" s="329" t="s">
+      <c r="G97" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="329"/>
+      <c r="H97" s="339"/>
       <c r="I97" s="154"/>
       <c r="J97" s="155"/>
       <c r="K97" s="156"/>
@@ -5592,9 +5593,9 @@
       <c r="V97" s="170"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="357"/>
-      <c r="B98" s="350"/>
-      <c r="C98" s="358"/>
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="165"/>
@@ -5621,20 +5622,20 @@
       <c r="W98" s="170"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="357" t="s">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="350"/>
-      <c r="C99" s="358"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="359" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="359"/>
-      <c r="G99" s="359"/>
-      <c r="H99" s="359"/>
-      <c r="I99" s="359"/>
-      <c r="J99" s="359"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
       <c r="K99" s="154"/>
       <c r="L99" s="167"/>
       <c r="M99" s="196"/>
@@ -5659,13 +5660,13 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="162"/>
-      <c r="F100" s="350" t="s">
+      <c r="F100" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="350"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
       <c r="K100" s="174"/>
       <c r="L100" s="175"/>
       <c r="M100" s="199"/>
@@ -5685,20 +5686,20 @@
       <c r="W100" s="134"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="351" t="s">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="352"/>
-      <c r="C101" s="353"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="352" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="352"/>
-      <c r="H101" s="352"/>
-      <c r="I101" s="352"/>
-      <c r="J101" s="352"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
       <c r="K101" s="178"/>
       <c r="L101" s="179"/>
       <c r="M101" s="203"/>
@@ -5714,15 +5715,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="P96:V96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:J99"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="R63:T63"/>
@@ -5735,15 +5732,19 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="P96:V96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:J99"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="8" scale="27" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -5757,8 +5758,8 @@
   </sheetPr>
   <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -5839,9 +5840,9 @@
       <c r="V2" s="262"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
+      <c r="A3" s="350"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="209"/>
       <c r="E3" s="209"/>
       <c r="F3" s="74"/>
@@ -5954,25 +5955,25 @@
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="330" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="332"/>
-      <c r="I7" s="364" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="359"/>
+      <c r="I7" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="365"/>
-      <c r="K7" s="364" t="s">
+      <c r="J7" s="361"/>
+      <c r="K7" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="365"/>
-      <c r="M7" s="330" t="s">
+      <c r="L7" s="361"/>
+      <c r="M7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="332"/>
+      <c r="N7" s="359"/>
       <c r="O7" s="94"/>
       <c r="P7" s="92"/>
       <c r="Q7" s="94"/>
@@ -5996,10 +5997,10 @@
       <c r="E8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="360" t="s">
+      <c r="F8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="361"/>
+      <c r="G8" s="363"/>
       <c r="H8" s="99" t="s">
         <v>16</v>
       </c>
@@ -6042,10 +6043,10 @@
       <c r="C9" s="106"/>
       <c r="D9" s="104"/>
       <c r="E9" s="104"/>
-      <c r="F9" s="362" t="s">
+      <c r="F9" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="363"/>
+      <c r="G9" s="365"/>
       <c r="H9" s="107" t="s">
         <v>21</v>
       </c>
@@ -7230,10 +7231,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="152"/>
       <c r="F46" s="153"/>
-      <c r="G46" s="329" t="s">
+      <c r="G46" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="329"/>
+      <c r="H46" s="339"/>
       <c r="I46" s="154"/>
       <c r="J46" s="155"/>
       <c r="K46" s="156"/>
@@ -7274,6 +7275,7 @@
       <c r="V47" s="170"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3"/>
       <c r="B48" s="162"/>
       <c r="C48" s="171" t="s">
         <v>74</v>
@@ -7357,61 +7359,61 @@
       <c r="V50" s="183"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="335" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="336"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="336"/>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-      <c r="J51" s="336"/>
-      <c r="K51" s="336"/>
-      <c r="L51" s="336"/>
-      <c r="M51" s="336"/>
-      <c r="N51" s="336"/>
-      <c r="O51" s="336"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="336"/>
-      <c r="T51" s="336"/>
-      <c r="U51" s="336"/>
-      <c r="V51" s="337"/>
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="347"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="340" t="s">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="341"/>
-      <c r="C52" s="341"/>
-      <c r="D52" s="341"/>
-      <c r="E52" s="341"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="341"/>
-      <c r="H52" s="341"/>
-      <c r="I52" s="341"/>
-      <c r="J52" s="341"/>
-      <c r="K52" s="341"/>
-      <c r="L52" s="341"/>
-      <c r="M52" s="341"/>
-      <c r="N52" s="341"/>
-      <c r="O52" s="341"/>
-      <c r="P52" s="341"/>
-      <c r="Q52" s="341"/>
-      <c r="R52" s="341"/>
-      <c r="S52" s="341"/>
-      <c r="T52" s="341"/>
-      <c r="U52" s="341"/>
-      <c r="V52" s="342"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="338"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="209"/>
       <c r="E53" s="209"/>
       <c r="F53" s="74"/>
@@ -7435,49 +7437,49 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="347"/>
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="354"/>
     </row>
     <row r="55" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
       <c r="T55" s="72" t="s">
         <v>3</v>
       </c>
@@ -7516,25 +7518,25 @@
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="330" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="331"/>
-      <c r="F57" s="331"/>
-      <c r="G57" s="331"/>
-      <c r="H57" s="332"/>
-      <c r="I57" s="364" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="365"/>
-      <c r="K57" s="364" t="s">
+      <c r="J57" s="361"/>
+      <c r="K57" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="365"/>
-      <c r="M57" s="330" t="s">
+      <c r="L57" s="361"/>
+      <c r="M57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="332"/>
+      <c r="N57" s="359"/>
       <c r="O57" s="94"/>
       <c r="P57" s="92"/>
       <c r="Q57" s="94"/>
@@ -7558,10 +7560,10 @@
       <c r="E58" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="360" t="s">
+      <c r="F58" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="361"/>
+      <c r="G58" s="363"/>
       <c r="H58" s="99" t="s">
         <v>16</v>
       </c>
@@ -7604,10 +7606,10 @@
       <c r="C59" s="106"/>
       <c r="D59" s="104"/>
       <c r="E59" s="104"/>
-      <c r="F59" s="362" t="s">
+      <c r="F59" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="363"/>
+      <c r="G59" s="365"/>
       <c r="H59" s="107" t="s">
         <v>21</v>
       </c>
@@ -7770,9 +7772,9 @@
       <c r="Q63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="338"/>
-      <c r="S63" s="338"/>
-      <c r="T63" s="338"/>
+      <c r="R63" s="348"/>
+      <c r="S63" s="348"/>
+      <c r="T63" s="348"/>
       <c r="U63" s="4" t="s">
         <v>28</v>
       </c>
@@ -7803,12 +7805,12 @@
       <c r="O64" s="227"/>
       <c r="P64" s="68"/>
       <c r="Q64" s="40"/>
-      <c r="R64" s="339" t="str">
+      <c r="R64" s="349" t="str">
         <f>+R14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="S64" s="339"/>
-      <c r="T64" s="339"/>
+      <c r="S64" s="349"/>
+      <c r="T64" s="349"/>
       <c r="U64" s="4" t="s">
         <v>29</v>
       </c>
@@ -8847,10 +8849,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="333" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="334"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="141"/>
@@ -8915,29 +8917,29 @@
         <v>0</v>
       </c>
       <c r="O96" s="145"/>
-      <c r="P96" s="354" t="s">
+      <c r="P96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="Q96" s="355"/>
-      <c r="R96" s="355"/>
-      <c r="S96" s="355"/>
-      <c r="T96" s="355"/>
-      <c r="U96" s="355"/>
-      <c r="V96" s="356"/>
+      <c r="Q96" s="334"/>
+      <c r="R96" s="334"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="335"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="340" t="s">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="341"/>
-      <c r="C97" s="342"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="153"/>
-      <c r="G97" s="329" t="s">
+      <c r="G97" s="339" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="329"/>
+      <c r="H97" s="339"/>
       <c r="I97" s="165"/>
       <c r="J97" s="155"/>
       <c r="K97" s="155"/>
@@ -8959,9 +8961,9 @@
       <c r="V97" s="170"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="357"/>
-      <c r="B98" s="350"/>
-      <c r="C98" s="358"/>
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="165"/>
@@ -8993,14 +8995,14 @@
         <v>80</v>
       </c>
       <c r="D99" s="4"/>
-      <c r="E99" s="359" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="359"/>
-      <c r="G99" s="359"/>
-      <c r="H99" s="359"/>
-      <c r="I99" s="359"/>
-      <c r="J99" s="359"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
       <c r="K99" s="166"/>
       <c r="L99" s="235"/>
       <c r="M99" s="236"/>
@@ -9021,15 +9023,15 @@
       <c r="B100" s="162"/>
       <c r="C100" s="173"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="350" t="str">
+      <c r="E100" s="329" t="str">
         <f>+F49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="F100" s="350"/>
-      <c r="G100" s="350"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
+      <c r="F100" s="329"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
       <c r="K100" s="239"/>
       <c r="L100" s="240"/>
       <c r="M100" s="241"/>
@@ -9048,20 +9050,20 @@
       <c r="V100" s="202"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="351" t="s">
+      <c r="A101" s="330" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="352"/>
-      <c r="C101" s="353"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="352" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="352"/>
-      <c r="H101" s="352"/>
-      <c r="I101" s="352"/>
-      <c r="J101" s="352"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
       <c r="K101" s="243"/>
       <c r="L101" s="244"/>
       <c r="M101" s="245"/>
@@ -9095,6 +9097,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="E99:J99"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="F101:J101"/>
@@ -9110,24 +9127,9 @@
     <mergeCell ref="P96:V96"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="G97:H97"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="A54:V54"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="16383" man="1"/>
   </rowBreaks>
@@ -9138,8 +9140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A74" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60:O94"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="53" zoomScaleNormal="100" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
@@ -9226,9 +9228,9 @@
       <c r="X2" s="262"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
+      <c r="A3" s="350"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
       <c r="D3" s="209"/>
       <c r="E3" s="209"/>
       <c r="F3" s="209"/>
@@ -9349,27 +9351,27 @@
       <c r="A7" s="91"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="330" t="s">
+      <c r="D7" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="331"/>
-      <c r="I7" s="331"/>
-      <c r="J7" s="332"/>
-      <c r="K7" s="364" t="s">
+      <c r="E7" s="358"/>
+      <c r="F7" s="358"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="358"/>
+      <c r="I7" s="358"/>
+      <c r="J7" s="359"/>
+      <c r="K7" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="365"/>
-      <c r="M7" s="364" t="s">
+      <c r="L7" s="361"/>
+      <c r="M7" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="365"/>
-      <c r="O7" s="330" t="s">
+      <c r="N7" s="361"/>
+      <c r="O7" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="332"/>
+      <c r="P7" s="359"/>
       <c r="Q7" s="94"/>
       <c r="R7" s="92"/>
       <c r="S7" s="94"/>
@@ -9399,10 +9401,10 @@
       <c r="G8" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="360" t="s">
+      <c r="H8" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="361"/>
+      <c r="I8" s="363"/>
       <c r="J8" s="99" t="s">
         <v>16</v>
       </c>
@@ -9451,10 +9453,10 @@
       <c r="G9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="362" t="s">
+      <c r="H9" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="363"/>
+      <c r="I9" s="365"/>
       <c r="J9" s="107" t="s">
         <v>21</v>
       </c>
@@ -10750,21 +10752,22 @@
       <c r="X47" s="170"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3"/>
       <c r="B48" s="162"/>
       <c r="C48" s="173" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="359" t="s">
+      <c r="E48" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="359"/>
-      <c r="G48" s="359"/>
-      <c r="H48" s="359"/>
-      <c r="I48" s="359"/>
-      <c r="J48" s="359"/>
-      <c r="K48" s="359"/>
-      <c r="L48" s="359"/>
+      <c r="F48" s="342"/>
+      <c r="G48" s="342"/>
+      <c r="H48" s="342"/>
+      <c r="I48" s="342"/>
+      <c r="J48" s="342"/>
+      <c r="K48" s="342"/>
+      <c r="L48" s="342"/>
       <c r="M48" s="166"/>
       <c r="N48" s="252"/>
       <c r="O48" s="165"/>
@@ -10839,65 +10842,65 @@
       <c r="X50" s="183"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="335" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="336"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
-      <c r="G51" s="336"/>
-      <c r="H51" s="336"/>
-      <c r="I51" s="336"/>
-      <c r="J51" s="336"/>
-      <c r="K51" s="336"/>
-      <c r="L51" s="336"/>
-      <c r="M51" s="336"/>
-      <c r="N51" s="336"/>
-      <c r="O51" s="336"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="336"/>
-      <c r="T51" s="336"/>
-      <c r="U51" s="336"/>
-      <c r="V51" s="336"/>
-      <c r="W51" s="336"/>
-      <c r="X51" s="337"/>
+      <c r="A51" s="345" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
+      <c r="F51" s="346"/>
+      <c r="G51" s="346"/>
+      <c r="H51" s="346"/>
+      <c r="I51" s="346"/>
+      <c r="J51" s="346"/>
+      <c r="K51" s="346"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="346"/>
+      <c r="N51" s="346"/>
+      <c r="O51" s="346"/>
+      <c r="P51" s="346"/>
+      <c r="Q51" s="346"/>
+      <c r="R51" s="346"/>
+      <c r="S51" s="346"/>
+      <c r="T51" s="346"/>
+      <c r="U51" s="346"/>
+      <c r="V51" s="346"/>
+      <c r="W51" s="346"/>
+      <c r="X51" s="347"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="340" t="s">
+      <c r="A52" s="336" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="341"/>
-      <c r="C52" s="341"/>
-      <c r="D52" s="341"/>
-      <c r="E52" s="341"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="341"/>
-      <c r="H52" s="341"/>
-      <c r="I52" s="341"/>
-      <c r="J52" s="341"/>
-      <c r="K52" s="341"/>
-      <c r="L52" s="341"/>
-      <c r="M52" s="341"/>
-      <c r="N52" s="341"/>
-      <c r="O52" s="341"/>
-      <c r="P52" s="341"/>
-      <c r="Q52" s="341"/>
-      <c r="R52" s="341"/>
-      <c r="S52" s="341"/>
-      <c r="T52" s="341"/>
-      <c r="U52" s="341"/>
-      <c r="V52" s="341"/>
-      <c r="W52" s="341"/>
-      <c r="X52" s="342"/>
+      <c r="B52" s="337"/>
+      <c r="C52" s="337"/>
+      <c r="D52" s="337"/>
+      <c r="E52" s="337"/>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="337"/>
+      <c r="U52" s="337"/>
+      <c r="V52" s="337"/>
+      <c r="W52" s="337"/>
+      <c r="X52" s="338"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="343"/>
-      <c r="B53" s="344"/>
-      <c r="C53" s="344"/>
+      <c r="A53" s="350"/>
+      <c r="B53" s="351"/>
+      <c r="C53" s="351"/>
       <c r="D53" s="209"/>
       <c r="E53" s="209"/>
       <c r="F53" s="209"/>
@@ -10923,52 +10926,52 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="345"/>
-      <c r="B54" s="346"/>
-      <c r="C54" s="346"/>
-      <c r="D54" s="346"/>
-      <c r="E54" s="346"/>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="346"/>
-      <c r="M54" s="346"/>
-      <c r="N54" s="346"/>
-      <c r="O54" s="346"/>
-      <c r="P54" s="346"/>
-      <c r="Q54" s="346"/>
-      <c r="R54" s="346"/>
-      <c r="S54" s="346"/>
-      <c r="T54" s="346"/>
-      <c r="U54" s="346"/>
-      <c r="V54" s="346"/>
-      <c r="W54" s="346"/>
-      <c r="X54" s="347"/>
+      <c r="A54" s="352"/>
+      <c r="B54" s="353"/>
+      <c r="C54" s="353"/>
+      <c r="D54" s="353"/>
+      <c r="E54" s="353"/>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="353"/>
+      <c r="M54" s="353"/>
+      <c r="N54" s="353"/>
+      <c r="O54" s="353"/>
+      <c r="P54" s="353"/>
+      <c r="Q54" s="353"/>
+      <c r="R54" s="353"/>
+      <c r="S54" s="353"/>
+      <c r="T54" s="353"/>
+      <c r="U54" s="353"/>
+      <c r="V54" s="353"/>
+      <c r="W54" s="353"/>
+      <c r="X54" s="354"/>
     </row>
     <row r="55" spans="1:24" ht="59.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="348"/>
-      <c r="B55" s="349"/>
-      <c r="C55" s="349"/>
-      <c r="D55" s="349"/>
-      <c r="E55" s="349"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="349"/>
-      <c r="M55" s="349"/>
-      <c r="N55" s="349"/>
-      <c r="O55" s="349"/>
-      <c r="P55" s="349"/>
-      <c r="Q55" s="349"/>
-      <c r="R55" s="349"/>
-      <c r="S55" s="349"/>
-      <c r="T55" s="349"/>
+      <c r="A55" s="355"/>
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="356"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="356"/>
+      <c r="M55" s="356"/>
+      <c r="N55" s="356"/>
+      <c r="O55" s="356"/>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
+      <c r="T55" s="356"/>
       <c r="U55" s="295" t="s">
         <v>78</v>
       </c>
@@ -11010,27 +11013,27 @@
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="330" t="s">
+      <c r="D57" s="357" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="331"/>
-      <c r="F57" s="331"/>
-      <c r="G57" s="331"/>
-      <c r="H57" s="331"/>
-      <c r="I57" s="331"/>
-      <c r="J57" s="332"/>
-      <c r="K57" s="364" t="s">
+      <c r="E57" s="358"/>
+      <c r="F57" s="358"/>
+      <c r="G57" s="358"/>
+      <c r="H57" s="358"/>
+      <c r="I57" s="358"/>
+      <c r="J57" s="359"/>
+      <c r="K57" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="365"/>
-      <c r="M57" s="364" t="s">
+      <c r="L57" s="361"/>
+      <c r="M57" s="360" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="365"/>
-      <c r="O57" s="330" t="s">
+      <c r="N57" s="361"/>
+      <c r="O57" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="332"/>
+      <c r="P57" s="359"/>
       <c r="Q57" s="94"/>
       <c r="R57" s="92"/>
       <c r="S57" s="94"/>
@@ -11060,10 +11063,10 @@
       <c r="G58" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="360" t="s">
+      <c r="H58" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="361"/>
+      <c r="I58" s="363"/>
       <c r="J58" s="99" t="s">
         <v>16</v>
       </c>
@@ -11112,10 +11115,10 @@
       <c r="G59" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="362" t="s">
+      <c r="H59" s="364" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="363"/>
+      <c r="I59" s="365"/>
       <c r="J59" s="107" t="s">
         <v>21</v>
       </c>
@@ -11286,9 +11289,9 @@
       <c r="S63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T63" s="338"/>
-      <c r="U63" s="338"/>
-      <c r="V63" s="338"/>
+      <c r="T63" s="348"/>
+      <c r="U63" s="348"/>
+      <c r="V63" s="348"/>
       <c r="W63" s="4" t="s">
         <v>28</v>
       </c>
@@ -11321,12 +11324,12 @@
       <c r="Q64" s="227"/>
       <c r="R64" s="68"/>
       <c r="S64" s="40"/>
-      <c r="T64" s="339" t="str">
+      <c r="T64" s="349" t="str">
         <f>+T14</f>
         <v>( นาย... )</v>
       </c>
-      <c r="U64" s="339"/>
-      <c r="V64" s="339"/>
+      <c r="U64" s="349"/>
+      <c r="V64" s="349"/>
       <c r="W64" s="4" t="s">
         <v>29</v>
       </c>
@@ -12423,10 +12426,10 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="136"/>
-      <c r="B95" s="333" t="s">
+      <c r="B95" s="343" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="334"/>
+      <c r="C95" s="344"/>
       <c r="D95" s="139"/>
       <c r="E95" s="140"/>
       <c r="F95" s="140"/>
@@ -12495,22 +12498,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="145"/>
-      <c r="R96" s="354" t="s">
+      <c r="R96" s="333" t="s">
         <v>59</v>
       </c>
-      <c r="S96" s="355"/>
-      <c r="T96" s="355"/>
-      <c r="U96" s="355"/>
-      <c r="V96" s="355"/>
-      <c r="W96" s="355"/>
-      <c r="X96" s="356"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="334"/>
+      <c r="V96" s="334"/>
+      <c r="W96" s="334"/>
+      <c r="X96" s="335"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="340" t="s">
+      <c r="A97" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="341"/>
-      <c r="C97" s="342"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="338"/>
       <c r="D97" s="4"/>
       <c r="E97" s="152"/>
       <c r="F97" s="152"/>
@@ -12540,9 +12543,9 @@
       <c r="X97" s="170"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="357"/>
-      <c r="B98" s="350"/>
-      <c r="C98" s="358"/>
+      <c r="A98" s="340"/>
+      <c r="B98" s="329"/>
+      <c r="C98" s="341"/>
       <c r="D98" s="164"/>
       <c r="E98" s="164"/>
       <c r="F98" s="164"/>
@@ -12570,22 +12573,22 @@
       <c r="X98" s="170"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="357" t="s">
+      <c r="A99" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="350"/>
-      <c r="C99" s="358"/>
+      <c r="B99" s="329"/>
+      <c r="C99" s="341"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="359" t="s">
+      <c r="E99" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="F99" s="359"/>
-      <c r="G99" s="359"/>
-      <c r="H99" s="359"/>
-      <c r="I99" s="359"/>
-      <c r="J99" s="359"/>
-      <c r="K99" s="359"/>
-      <c r="L99" s="359"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="342"/>
+      <c r="J99" s="342"/>
+      <c r="K99" s="342"/>
+      <c r="L99" s="342"/>
       <c r="M99" s="166"/>
       <c r="N99" s="235"/>
       <c r="O99" s="236"/>
@@ -12602,21 +12605,21 @@
       <c r="X99" s="170"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="357"/>
-      <c r="B100" s="350"/>
-      <c r="C100" s="358"/>
+      <c r="A100" s="340"/>
+      <c r="B100" s="329"/>
+      <c r="C100" s="341"/>
       <c r="D100" s="4"/>
       <c r="E100" s="162"/>
-      <c r="F100" s="350" t="str">
+      <c r="F100" s="329" t="str">
         <f>+H49</f>
         <v>( นาย... ) ตำแหน่ง กบศ.</v>
       </c>
-      <c r="G100" s="350"/>
-      <c r="H100" s="350"/>
-      <c r="I100" s="350"/>
-      <c r="J100" s="350"/>
-      <c r="K100" s="350"/>
-      <c r="L100" s="350"/>
+      <c r="G100" s="329"/>
+      <c r="H100" s="329"/>
+      <c r="I100" s="329"/>
+      <c r="J100" s="329"/>
+      <c r="K100" s="329"/>
+      <c r="L100" s="329"/>
       <c r="M100" s="239"/>
       <c r="N100" s="240"/>
       <c r="O100" s="241"/>
@@ -12635,22 +12638,22 @@
       <c r="X100" s="202"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="351" t="s">
+      <c r="A101" s="330" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="352"/>
-      <c r="C101" s="353"/>
+      <c r="B101" s="331"/>
+      <c r="C101" s="332"/>
       <c r="D101" s="124"/>
       <c r="E101" s="72"/>
-      <c r="F101" s="352" t="s">
+      <c r="F101" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="G101" s="352"/>
-      <c r="H101" s="352"/>
-      <c r="I101" s="352"/>
-      <c r="J101" s="352"/>
-      <c r="K101" s="352"/>
-      <c r="L101" s="352"/>
+      <c r="G101" s="331"/>
+      <c r="H101" s="331"/>
+      <c r="I101" s="331"/>
+      <c r="J101" s="331"/>
+      <c r="K101" s="331"/>
+      <c r="L101" s="331"/>
       <c r="M101" s="243"/>
       <c r="N101" s="244"/>
       <c r="O101" s="245"/>
@@ -12684,23 +12687,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:X51"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="A54:X54"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="E99:L99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="F100:L100"/>
+    <mergeCell ref="F101:L101"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H59:I59"/>
@@ -12709,12 +12701,23 @@
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="R96:X96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="E99:L99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="F100:L100"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="A54:X54"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="A55:T55"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:X51"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="28" fitToHeight="2" orientation="landscape" r:id="rId1"/>
